--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673" firstSheet="2" activeTab="6"/>
+    <workbookView windowWidth="27945" windowHeight="12255" tabRatio="673" firstSheet="2" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="11" state="hidden" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="645" uniqueCount="438">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="663" uniqueCount="450">
   <si>
     <t>ID</t>
   </si>
@@ -828,9 +828,6 @@
     <t>enemy_5</t>
   </si>
   <si>
-    <t>enemy_6</t>
-  </si>
-  <si>
     <t>is_auto</t>
   </si>
   <si>
@@ -858,9 +855,6 @@
     <t>敌人5</t>
   </si>
   <si>
-    <t>敌人6</t>
-  </si>
-  <si>
     <t>是否自动</t>
   </si>
   <si>
@@ -894,6 +888,12 @@
     <t>ability_resources</t>
   </si>
   <si>
+    <t>sprite_position</t>
+  </si>
+  <si>
+    <t>animation_library</t>
+  </si>
+  <si>
     <t>角色名</t>
   </si>
   <si>
@@ -909,12 +909,18 @@
     <t>技能资源组</t>
   </si>
   <si>
-    <t>texture</t>
+    <t>动画库</t>
+  </si>
+  <si>
+    <t>resource</t>
   </si>
   <si>
     <t>string[]</t>
   </si>
   <si>
+    <t>vector2</t>
+  </si>
+  <si>
     <t>crystal_mauler</t>
   </si>
   <si>
@@ -924,12 +930,18 @@
     <t>res://assets/texture/icon/character_profile_picture/crystal_mauler.png</t>
   </si>
   <si>
-    <t>attack*battle_cry*herioc_strike*resolute*retaliate</t>
+    <t>attack*battle_cry*heroic_strike*resolute*retaliate</t>
   </si>
   <si>
     <t>health*rage</t>
   </si>
   <si>
+    <t>0,-64</t>
+  </si>
+  <si>
+    <t>res://scenes/character/resources/animation/hero/animation_library_crystal_mauler.res</t>
+  </si>
+  <si>
     <t>leaf_ranger</t>
   </si>
   <si>
@@ -945,6 +957,9 @@
     <t>health*enery</t>
   </si>
   <si>
+    <t>res://scenes/character/resources/animation/hero/animation_library_leaf_ranger.res</t>
+  </si>
+  <si>
     <t>water_priestess</t>
   </si>
   <si>
@@ -960,6 +975,9 @@
     <t>health*mana</t>
   </si>
   <si>
+    <t>res://scenes/character/resources/animation/hero/animation_library_water_priestess.res</t>
+  </si>
+  <si>
     <t>wizard</t>
   </si>
   <si>
@@ -972,6 +990,9 @@
     <t>attack*arcane_missiles*fireball*magic_shield*mana_surge</t>
   </si>
   <si>
+    <t>res://scenes/character/resources/animation/hero/animation_library_wizard.res</t>
+  </si>
+  <si>
     <t>flying_eye</t>
   </si>
   <si>
@@ -987,12 +1008,21 @@
     <t>health</t>
   </si>
   <si>
+    <t>0,-27</t>
+  </si>
+  <si>
+    <t>res://scenes/character/resources/animation/enemy/animation_library_flying_eye.res</t>
+  </si>
+  <si>
     <t>哥布林</t>
   </si>
   <si>
     <t>res://assets/texture/icon/character_profile_picture/goblin.tres</t>
   </si>
   <si>
+    <t>res://scenes/character/resources/animation/enemy/animation_library_goblin.res</t>
+  </si>
+  <si>
     <t>mushroom</t>
   </si>
   <si>
@@ -1002,6 +1032,9 @@
     <t>res://assets/texture/icon/character_profile_picture/mushroom.tres</t>
   </si>
   <si>
+    <t>res://scenes/character/resources/animation/enemy/animation_library_mushroom.res</t>
+  </si>
+  <si>
     <t>skeleton</t>
   </si>
   <si>
@@ -1009,6 +1042,9 @@
   </si>
   <si>
     <t>res://assets/texture/icon/character_profile_picture/skeleton.tres</t>
+  </si>
+  <si>
+    <t>res://scenes/character/resources/animation/enemy/animation_library_skeleton.res</t>
   </si>
   <si>
     <t>defense</t>
@@ -2430,7 +2466,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="42">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -2462,9 +2498,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1">
@@ -2482,9 +2515,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2558,6 +2588,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyBorder="1" quotePrefix="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2968,7 +3001,7 @@
       <c r="Q1" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="20" t="s">
+      <c r="R1" s="18" t="s">
         <v>17</v>
       </c>
       <c r="S1" s="9" t="s">
@@ -2983,2951 +3016,2951 @@
       <c r="V1" s="9" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="21" t="s">
+      <c r="W1" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="22"/>
-      <c r="Y1" s="22"/>
-      <c r="Z1" s="22"/>
-      <c r="AA1" s="38"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="36"/>
     </row>
     <row r="2" ht="14.25" spans="1:27">
       <c r="A2" s="10" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="5" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="5" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="5" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="5" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="5" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="11" t="s">
+      <c r="J2" s="5" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="11" t="s">
+      <c r="K2" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="11" t="s">
+      <c r="L2" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="11" t="s">
+      <c r="M2" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="N2" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="5" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="5" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="5" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="R2" s="21" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="5" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="5" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="11" t="s">
+      <c r="V2" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="24" t="s">
+      <c r="W2" s="22" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="25" t="s">
+      <c r="X2" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="39" t="s">
+      <c r="Y2" s="37" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="39" t="s">
+      <c r="Z2" s="37" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="40" t="s">
+      <c r="AA2" s="38" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="14.25" spans="1:27">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="13" t="s">
+      <c r="H3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="K3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="13" t="s">
+      <c r="L3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="13" t="s">
+      <c r="M3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="13" t="s">
+      <c r="N3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="13" t="s">
+      <c r="O3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="13" t="s">
+      <c r="P3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="13" t="s">
+      <c r="Q3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="26" t="s">
+      <c r="R3" s="24" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="13" t="s">
+      <c r="S3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="13" t="s">
+      <c r="T3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="13" t="s">
+      <c r="U3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="13" t="s">
+      <c r="V3" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="27" t="s">
+      <c r="W3" s="25" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="28" t="s">
+      <c r="X3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" s="28" t="s">
+      <c r="Y3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="28" t="s">
+      <c r="Z3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="41" t="s">
+      <c r="AA3" s="39" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="14">
-        <v>1</v>
-      </c>
-      <c r="B4" s="15" t="s">
+      <c r="A4" s="13">
+        <v>1</v>
+      </c>
+      <c r="B4" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="15">
-        <v>10</v>
-      </c>
-      <c r="D4" s="15">
-        <v>0</v>
-      </c>
-      <c r="E4" s="15">
-        <v>0</v>
-      </c>
-      <c r="F4" s="15">
-        <v>10</v>
-      </c>
-      <c r="G4" s="15">
-        <v>0</v>
-      </c>
-      <c r="H4" s="15">
-        <v>0</v>
-      </c>
-      <c r="I4" s="15">
-        <v>0</v>
-      </c>
-      <c r="J4" s="15">
+      <c r="C4" s="14">
+        <v>10</v>
+      </c>
+      <c r="D4" s="14">
+        <v>0</v>
+      </c>
+      <c r="E4" s="14">
+        <v>0</v>
+      </c>
+      <c r="F4" s="14">
+        <v>10</v>
+      </c>
+      <c r="G4" s="14">
+        <v>0</v>
+      </c>
+      <c r="H4" s="14">
+        <v>0</v>
+      </c>
+      <c r="I4" s="14">
+        <v>0</v>
+      </c>
+      <c r="J4" s="14">
         <v>2</v>
       </c>
-      <c r="K4" s="15">
-        <v>1</v>
-      </c>
-      <c r="L4" s="15">
-        <v>0</v>
-      </c>
-      <c r="M4" s="15">
-        <v>0</v>
-      </c>
-      <c r="N4" s="15">
-        <v>0</v>
-      </c>
-      <c r="O4" s="15">
-        <v>0</v>
-      </c>
-      <c r="P4" s="15">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="15">
-        <v>0</v>
-      </c>
-      <c r="R4" s="29">
-        <v>0</v>
-      </c>
-      <c r="S4" s="15"/>
-      <c r="T4" s="15"/>
-      <c r="U4" s="15"/>
-      <c r="V4" s="15"/>
-      <c r="W4" s="30"/>
-      <c r="X4" s="42" t="s">
+      <c r="K4" s="14">
+        <v>1</v>
+      </c>
+      <c r="L4" s="14">
+        <v>0</v>
+      </c>
+      <c r="M4" s="14">
+        <v>0</v>
+      </c>
+      <c r="N4" s="14">
+        <v>0</v>
+      </c>
+      <c r="O4" s="14">
+        <v>0</v>
+      </c>
+      <c r="P4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
+      <c r="R4" s="27">
+        <v>0</v>
+      </c>
+      <c r="S4" s="14"/>
+      <c r="T4" s="14"/>
+      <c r="U4" s="14"/>
+      <c r="V4" s="14"/>
+      <c r="W4" s="28"/>
+      <c r="X4" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="15" t="s">
+      <c r="Y4" s="14" t="s">
         <v>53</v>
       </c>
-      <c r="Z4" s="15" t="s">
+      <c r="Z4" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="AA4" s="30" t="s">
+      <c r="AA4" s="28" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="16">
+      <c r="A5" s="15">
         <v>2</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="17">
-        <v>10</v>
-      </c>
-      <c r="D5" s="17">
-        <v>0</v>
-      </c>
-      <c r="E5" s="17">
-        <v>0</v>
-      </c>
-      <c r="F5" s="17">
-        <v>10</v>
-      </c>
-      <c r="G5" s="17">
-        <v>0</v>
-      </c>
-      <c r="H5" s="17">
-        <v>0</v>
-      </c>
-      <c r="I5" s="17">
-        <v>0</v>
-      </c>
-      <c r="J5" s="17">
+      <c r="C5" s="2">
+        <v>10</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0</v>
+      </c>
+      <c r="F5" s="2">
+        <v>10</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0</v>
+      </c>
+      <c r="I5" s="2">
+        <v>0</v>
+      </c>
+      <c r="J5" s="2">
         <v>2</v>
       </c>
-      <c r="K5" s="17">
-        <v>1</v>
-      </c>
-      <c r="L5" s="17">
-        <v>0</v>
-      </c>
-      <c r="M5" s="17">
-        <v>0</v>
-      </c>
-      <c r="N5" s="17">
-        <v>0</v>
-      </c>
-      <c r="O5" s="17">
-        <v>0</v>
-      </c>
-      <c r="P5" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="17">
-        <v>0</v>
-      </c>
-      <c r="R5" s="32">
-        <v>0</v>
-      </c>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
-      <c r="V5" s="17"/>
-      <c r="W5" s="33"/>
-      <c r="X5" s="34" t="s">
+      <c r="K5" s="2">
+        <v>1</v>
+      </c>
+      <c r="L5" s="2">
+        <v>0</v>
+      </c>
+      <c r="M5" s="2">
+        <v>0</v>
+      </c>
+      <c r="N5" s="2">
+        <v>0</v>
+      </c>
+      <c r="O5" s="2">
+        <v>0</v>
+      </c>
+      <c r="P5" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="2">
+        <v>0</v>
+      </c>
+      <c r="R5" s="30">
+        <v>0</v>
+      </c>
+      <c r="S5" s="2"/>
+      <c r="T5" s="2"/>
+      <c r="U5" s="2"/>
+      <c r="V5" s="2"/>
+      <c r="W5" s="31"/>
+      <c r="X5" s="32" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="17" t="s">
+      <c r="Y5" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Z5" s="17" t="s">
+      <c r="Z5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="AA5" s="33" t="s">
+      <c r="AA5" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="16">
+      <c r="A6" s="15">
         <v>3</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="17">
-        <v>10</v>
-      </c>
-      <c r="D6" s="17">
-        <v>0</v>
-      </c>
-      <c r="E6" s="17">
-        <v>0</v>
-      </c>
-      <c r="F6" s="17">
-        <v>10</v>
-      </c>
-      <c r="G6" s="17">
-        <v>0</v>
-      </c>
-      <c r="H6" s="17">
-        <v>0</v>
-      </c>
-      <c r="I6" s="17">
-        <v>0</v>
-      </c>
-      <c r="J6" s="17">
+      <c r="C6" s="2">
+        <v>10</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0</v>
+      </c>
+      <c r="F6" s="2">
+        <v>10</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0</v>
+      </c>
+      <c r="I6" s="2">
+        <v>0</v>
+      </c>
+      <c r="J6" s="2">
         <v>2</v>
       </c>
-      <c r="K6" s="17">
-        <v>1</v>
-      </c>
-      <c r="L6" s="17">
-        <v>0</v>
-      </c>
-      <c r="M6" s="17">
-        <v>0</v>
-      </c>
-      <c r="N6" s="17">
-        <v>0</v>
-      </c>
-      <c r="O6" s="17">
-        <v>0</v>
-      </c>
-      <c r="P6" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="17">
-        <v>0</v>
-      </c>
-      <c r="R6" s="32">
-        <v>0</v>
-      </c>
-      <c r="S6" s="17"/>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="17"/>
-      <c r="W6" s="33"/>
-      <c r="X6" s="34" t="s">
+      <c r="K6" s="2">
+        <v>1</v>
+      </c>
+      <c r="L6" s="2">
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
+        <v>0</v>
+      </c>
+      <c r="N6" s="2">
+        <v>0</v>
+      </c>
+      <c r="O6" s="2">
+        <v>0</v>
+      </c>
+      <c r="P6" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="2">
+        <v>0</v>
+      </c>
+      <c r="R6" s="30">
+        <v>0</v>
+      </c>
+      <c r="S6" s="2"/>
+      <c r="T6" s="2"/>
+      <c r="U6" s="2"/>
+      <c r="V6" s="2"/>
+      <c r="W6" s="31"/>
+      <c r="X6" s="32" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="17" t="s">
+      <c r="Y6" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Z6" s="17" t="s">
+      <c r="Z6" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="AA6" s="33" t="s">
+      <c r="AA6" s="31" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="16">
+      <c r="A7" s="15">
         <v>4</v>
       </c>
-      <c r="B7" s="17" t="s">
+      <c r="B7" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="17">
-        <v>10</v>
-      </c>
-      <c r="D7" s="17">
-        <v>0</v>
-      </c>
-      <c r="E7" s="17">
-        <v>0</v>
-      </c>
-      <c r="F7" s="17">
-        <v>10</v>
-      </c>
-      <c r="G7" s="17">
-        <v>0</v>
-      </c>
-      <c r="H7" s="17">
-        <v>0</v>
-      </c>
-      <c r="I7" s="17">
-        <v>0</v>
-      </c>
-      <c r="J7" s="17">
+      <c r="C7" s="2">
+        <v>10</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0</v>
+      </c>
+      <c r="F7" s="2">
+        <v>10</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0</v>
+      </c>
+      <c r="I7" s="2">
+        <v>0</v>
+      </c>
+      <c r="J7" s="2">
         <v>2</v>
       </c>
-      <c r="K7" s="17">
-        <v>1</v>
-      </c>
-      <c r="L7" s="17">
-        <v>0</v>
-      </c>
-      <c r="M7" s="17">
-        <v>0</v>
-      </c>
-      <c r="N7" s="17">
-        <v>0</v>
-      </c>
-      <c r="O7" s="17">
-        <v>0</v>
-      </c>
-      <c r="P7" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="17">
-        <v>0</v>
-      </c>
-      <c r="R7" s="32">
-        <v>0</v>
-      </c>
-      <c r="S7" s="17"/>
-      <c r="T7" s="17"/>
-      <c r="U7" s="17"/>
-      <c r="V7" s="17"/>
-      <c r="W7" s="33"/>
-      <c r="X7" s="34" t="s">
+      <c r="K7" s="2">
+        <v>1</v>
+      </c>
+      <c r="L7" s="2">
+        <v>0</v>
+      </c>
+      <c r="M7" s="2">
+        <v>0</v>
+      </c>
+      <c r="N7" s="2">
+        <v>0</v>
+      </c>
+      <c r="O7" s="2">
+        <v>0</v>
+      </c>
+      <c r="P7" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="2">
+        <v>0</v>
+      </c>
+      <c r="R7" s="30">
+        <v>0</v>
+      </c>
+      <c r="S7" s="2"/>
+      <c r="T7" s="2"/>
+      <c r="U7" s="2"/>
+      <c r="V7" s="2"/>
+      <c r="W7" s="31"/>
+      <c r="X7" s="32" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="17" t="s">
+      <c r="Y7" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Z7" s="17" t="s">
+      <c r="Z7" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="33" t="s">
+      <c r="AA7" s="31" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="16">
+      <c r="A8" s="15">
         <v>5</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="17">
-        <v>10</v>
-      </c>
-      <c r="D8" s="17">
-        <v>0</v>
-      </c>
-      <c r="E8" s="17">
-        <v>0</v>
-      </c>
-      <c r="F8" s="17">
-        <v>10</v>
-      </c>
-      <c r="G8" s="17">
-        <v>0</v>
-      </c>
-      <c r="H8" s="17">
-        <v>0</v>
-      </c>
-      <c r="I8" s="17">
-        <v>0</v>
-      </c>
-      <c r="J8" s="17">
+      <c r="C8" s="2">
+        <v>10</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0</v>
+      </c>
+      <c r="F8" s="2">
+        <v>10</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0</v>
+      </c>
+      <c r="I8" s="2">
+        <v>0</v>
+      </c>
+      <c r="J8" s="2">
         <v>2</v>
       </c>
-      <c r="K8" s="17">
-        <v>1</v>
-      </c>
-      <c r="L8" s="17">
-        <v>0</v>
-      </c>
-      <c r="M8" s="17">
-        <v>0</v>
-      </c>
-      <c r="N8" s="17">
-        <v>0</v>
-      </c>
-      <c r="O8" s="17">
-        <v>0</v>
-      </c>
-      <c r="P8" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="17">
-        <v>0</v>
-      </c>
-      <c r="R8" s="32">
-        <v>0</v>
-      </c>
-      <c r="S8" s="17"/>
-      <c r="T8" s="17"/>
-      <c r="U8" s="17"/>
-      <c r="V8" s="17"/>
-      <c r="W8" s="33"/>
-      <c r="X8" s="34" t="s">
+      <c r="K8" s="2">
+        <v>1</v>
+      </c>
+      <c r="L8" s="2">
+        <v>0</v>
+      </c>
+      <c r="M8" s="2">
+        <v>0</v>
+      </c>
+      <c r="N8" s="2">
+        <v>0</v>
+      </c>
+      <c r="O8" s="2">
+        <v>0</v>
+      </c>
+      <c r="P8" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="2">
+        <v>0</v>
+      </c>
+      <c r="R8" s="30">
+        <v>0</v>
+      </c>
+      <c r="S8" s="2"/>
+      <c r="T8" s="2"/>
+      <c r="U8" s="2"/>
+      <c r="V8" s="2"/>
+      <c r="W8" s="31"/>
+      <c r="X8" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="Y8" s="17" t="s">
+      <c r="Y8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="Z8" s="17" t="s">
+      <c r="Z8" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="AA8" s="33" t="s">
+      <c r="AA8" s="31" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="16">
+      <c r="A9" s="15">
         <v>6</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="17">
-        <v>10</v>
-      </c>
-      <c r="D9" s="17">
-        <v>0</v>
-      </c>
-      <c r="E9" s="17">
-        <v>0</v>
-      </c>
-      <c r="F9" s="17">
-        <v>10</v>
-      </c>
-      <c r="G9" s="17">
-        <v>0</v>
-      </c>
-      <c r="H9" s="17">
-        <v>0</v>
-      </c>
-      <c r="I9" s="17">
-        <v>0</v>
-      </c>
-      <c r="J9" s="17">
+      <c r="C9" s="2">
+        <v>10</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2">
+        <v>0</v>
+      </c>
+      <c r="F9" s="2">
+        <v>10</v>
+      </c>
+      <c r="G9" s="2">
+        <v>0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>0</v>
+      </c>
+      <c r="I9" s="2">
+        <v>0</v>
+      </c>
+      <c r="J9" s="2">
         <v>2</v>
       </c>
-      <c r="K9" s="17">
-        <v>1</v>
-      </c>
-      <c r="L9" s="17">
-        <v>0</v>
-      </c>
-      <c r="M9" s="17">
-        <v>0</v>
-      </c>
-      <c r="N9" s="17">
-        <v>0</v>
-      </c>
-      <c r="O9" s="17">
-        <v>0</v>
-      </c>
-      <c r="P9" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="17">
-        <v>0</v>
-      </c>
-      <c r="R9" s="32">
-        <v>0</v>
-      </c>
-      <c r="S9" s="17"/>
-      <c r="T9" s="17"/>
-      <c r="U9" s="17"/>
-      <c r="V9" s="17"/>
-      <c r="W9" s="33"/>
-      <c r="X9" s="34" t="s">
+      <c r="K9" s="2">
+        <v>1</v>
+      </c>
+      <c r="L9" s="2">
+        <v>0</v>
+      </c>
+      <c r="M9" s="2">
+        <v>0</v>
+      </c>
+      <c r="N9" s="2">
+        <v>0</v>
+      </c>
+      <c r="O9" s="2">
+        <v>0</v>
+      </c>
+      <c r="P9" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="2">
+        <v>0</v>
+      </c>
+      <c r="R9" s="30">
+        <v>0</v>
+      </c>
+      <c r="S9" s="2"/>
+      <c r="T9" s="2"/>
+      <c r="U9" s="2"/>
+      <c r="V9" s="2"/>
+      <c r="W9" s="31"/>
+      <c r="X9" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="Y9" s="17" t="s">
+      <c r="Y9" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="Z9" s="17" t="s">
+      <c r="Z9" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="AA9" s="33" t="s">
+      <c r="AA9" s="31" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="16">
+      <c r="A10" s="15">
         <v>7</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="17">
-        <v>10</v>
-      </c>
-      <c r="D10" s="17">
-        <v>0</v>
-      </c>
-      <c r="E10" s="17">
-        <v>0</v>
-      </c>
-      <c r="F10" s="17">
-        <v>10</v>
-      </c>
-      <c r="G10" s="17">
-        <v>0</v>
-      </c>
-      <c r="H10" s="17">
-        <v>0</v>
-      </c>
-      <c r="I10" s="17">
-        <v>0</v>
-      </c>
-      <c r="J10" s="17">
+      <c r="C10" s="2">
+        <v>10</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0</v>
+      </c>
+      <c r="E10" s="2">
+        <v>0</v>
+      </c>
+      <c r="F10" s="2">
+        <v>10</v>
+      </c>
+      <c r="G10" s="2">
+        <v>0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>0</v>
+      </c>
+      <c r="I10" s="2">
+        <v>0</v>
+      </c>
+      <c r="J10" s="2">
         <v>2</v>
       </c>
-      <c r="K10" s="17">
-        <v>1</v>
-      </c>
-      <c r="L10" s="17">
-        <v>0</v>
-      </c>
-      <c r="M10" s="17">
-        <v>0</v>
-      </c>
-      <c r="N10" s="17">
-        <v>0</v>
-      </c>
-      <c r="O10" s="17">
-        <v>0</v>
-      </c>
-      <c r="P10" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="17">
-        <v>0</v>
-      </c>
-      <c r="R10" s="32">
-        <v>0</v>
-      </c>
-      <c r="S10" s="17"/>
-      <c r="T10" s="17"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="17"/>
-      <c r="W10" s="33"/>
-      <c r="X10" s="34" t="s">
+      <c r="K10" s="2">
+        <v>1</v>
+      </c>
+      <c r="L10" s="2">
+        <v>0</v>
+      </c>
+      <c r="M10" s="2">
+        <v>0</v>
+      </c>
+      <c r="N10" s="2">
+        <v>0</v>
+      </c>
+      <c r="O10" s="2">
+        <v>0</v>
+      </c>
+      <c r="P10" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="2">
+        <v>0</v>
+      </c>
+      <c r="R10" s="30">
+        <v>0</v>
+      </c>
+      <c r="S10" s="2"/>
+      <c r="T10" s="2"/>
+      <c r="U10" s="2"/>
+      <c r="V10" s="2"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="32" t="s">
         <v>77</v>
       </c>
-      <c r="Y10" s="17" t="s">
+      <c r="Y10" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="17" t="s">
+      <c r="Z10" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="AA10" s="33" t="s">
+      <c r="AA10" s="31" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="16">
+      <c r="A11" s="15">
         <v>8</v>
       </c>
-      <c r="B11" s="17" t="s">
+      <c r="B11" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="17">
-        <v>10</v>
-      </c>
-      <c r="D11" s="17">
-        <v>0</v>
-      </c>
-      <c r="E11" s="17">
-        <v>0</v>
-      </c>
-      <c r="F11" s="17">
-        <v>10</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="17">
-        <v>0</v>
-      </c>
-      <c r="I11" s="17">
-        <v>0</v>
-      </c>
-      <c r="J11" s="17">
+      <c r="C11" s="2">
+        <v>10</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2">
+        <v>0</v>
+      </c>
+      <c r="F11" s="2">
+        <v>10</v>
+      </c>
+      <c r="G11" s="2">
+        <v>0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>0</v>
+      </c>
+      <c r="I11" s="2">
+        <v>0</v>
+      </c>
+      <c r="J11" s="2">
         <v>2</v>
       </c>
-      <c r="K11" s="17">
-        <v>1</v>
-      </c>
-      <c r="L11" s="17">
-        <v>0</v>
-      </c>
-      <c r="M11" s="17">
-        <v>0</v>
-      </c>
-      <c r="N11" s="17">
-        <v>0</v>
-      </c>
-      <c r="O11" s="17">
-        <v>0</v>
-      </c>
-      <c r="P11" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="17">
-        <v>0</v>
-      </c>
-      <c r="R11" s="32">
-        <v>0</v>
-      </c>
-      <c r="S11" s="17"/>
-      <c r="T11" s="17"/>
-      <c r="U11" s="17"/>
-      <c r="V11" s="17"/>
-      <c r="W11" s="33"/>
-      <c r="X11" s="34" t="s">
+      <c r="K11" s="2">
+        <v>1</v>
+      </c>
+      <c r="L11" s="2">
+        <v>0</v>
+      </c>
+      <c r="M11" s="2">
+        <v>0</v>
+      </c>
+      <c r="N11" s="2">
+        <v>0</v>
+      </c>
+      <c r="O11" s="2">
+        <v>0</v>
+      </c>
+      <c r="P11" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>0</v>
+      </c>
+      <c r="R11" s="30">
+        <v>0</v>
+      </c>
+      <c r="S11" s="2"/>
+      <c r="T11" s="2"/>
+      <c r="U11" s="2"/>
+      <c r="V11" s="2"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="32" t="s">
         <v>81</v>
       </c>
-      <c r="Y11" s="17" t="s">
+      <c r="Y11" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Z11" s="17" t="s">
+      <c r="Z11" s="2" t="s">
         <v>83</v>
       </c>
-      <c r="AA11" s="33" t="s">
+      <c r="AA11" s="31" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="16">
+      <c r="A12" s="15">
         <v>9</v>
       </c>
-      <c r="B12" s="17" t="s">
+      <c r="B12" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="17">
-        <v>10</v>
-      </c>
-      <c r="D12" s="17">
-        <v>0</v>
-      </c>
-      <c r="E12" s="17">
-        <v>0</v>
-      </c>
-      <c r="F12" s="17">
-        <v>10</v>
-      </c>
-      <c r="G12" s="17">
-        <v>0</v>
-      </c>
-      <c r="H12" s="17">
-        <v>0</v>
-      </c>
-      <c r="I12" s="17">
-        <v>0</v>
-      </c>
-      <c r="J12" s="17">
+      <c r="C12" s="2">
+        <v>10</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+      <c r="E12" s="2">
+        <v>0</v>
+      </c>
+      <c r="F12" s="2">
+        <v>10</v>
+      </c>
+      <c r="G12" s="2">
+        <v>0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>0</v>
+      </c>
+      <c r="I12" s="2">
+        <v>0</v>
+      </c>
+      <c r="J12" s="2">
         <v>2</v>
       </c>
-      <c r="K12" s="17">
-        <v>1</v>
-      </c>
-      <c r="L12" s="17">
-        <v>0</v>
-      </c>
-      <c r="M12" s="17">
-        <v>0</v>
-      </c>
-      <c r="N12" s="17">
-        <v>0</v>
-      </c>
-      <c r="O12" s="17">
-        <v>0</v>
-      </c>
-      <c r="P12" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="17">
-        <v>0</v>
-      </c>
-      <c r="R12" s="32">
-        <v>0</v>
-      </c>
-      <c r="S12" s="17"/>
-      <c r="T12" s="17"/>
-      <c r="U12" s="17"/>
-      <c r="V12" s="17"/>
-      <c r="W12" s="33"/>
-      <c r="X12" s="34" t="s">
+      <c r="K12" s="2">
+        <v>1</v>
+      </c>
+      <c r="L12" s="2">
+        <v>0</v>
+      </c>
+      <c r="M12" s="2">
+        <v>0</v>
+      </c>
+      <c r="N12" s="2">
+        <v>0</v>
+      </c>
+      <c r="O12" s="2">
+        <v>0</v>
+      </c>
+      <c r="P12" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="2">
+        <v>0</v>
+      </c>
+      <c r="R12" s="30">
+        <v>0</v>
+      </c>
+      <c r="S12" s="2"/>
+      <c r="T12" s="2"/>
+      <c r="U12" s="2"/>
+      <c r="V12" s="2"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="32" t="s">
         <v>86</v>
       </c>
-      <c r="Y12" s="17" t="s">
+      <c r="Y12" s="2" t="s">
         <v>87</v>
       </c>
-      <c r="Z12" s="17" t="s">
+      <c r="Z12" s="2" t="s">
         <v>88</v>
       </c>
-      <c r="AA12" s="33" t="s">
+      <c r="AA12" s="31" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="16">
-        <v>10</v>
-      </c>
-      <c r="B13" s="17" t="s">
+      <c r="A13" s="15">
+        <v>10</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="17">
-        <v>10</v>
-      </c>
-      <c r="D13" s="17">
-        <v>0</v>
-      </c>
-      <c r="E13" s="17">
-        <v>0</v>
-      </c>
-      <c r="F13" s="17">
-        <v>10</v>
-      </c>
-      <c r="G13" s="17">
-        <v>0</v>
-      </c>
-      <c r="H13" s="17">
-        <v>0</v>
-      </c>
-      <c r="I13" s="17">
-        <v>0</v>
-      </c>
-      <c r="J13" s="17">
+      <c r="C13" s="2">
+        <v>10</v>
+      </c>
+      <c r="D13" s="2">
+        <v>0</v>
+      </c>
+      <c r="E13" s="2">
+        <v>0</v>
+      </c>
+      <c r="F13" s="2">
+        <v>10</v>
+      </c>
+      <c r="G13" s="2">
+        <v>0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>0</v>
+      </c>
+      <c r="I13" s="2">
+        <v>0</v>
+      </c>
+      <c r="J13" s="2">
         <v>2</v>
       </c>
-      <c r="K13" s="17">
-        <v>1</v>
-      </c>
-      <c r="L13" s="17">
-        <v>0</v>
-      </c>
-      <c r="M13" s="17">
-        <v>0</v>
-      </c>
-      <c r="N13" s="17">
-        <v>0</v>
-      </c>
-      <c r="O13" s="17">
-        <v>0</v>
-      </c>
-      <c r="P13" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="17">
-        <v>0</v>
-      </c>
-      <c r="R13" s="32">
-        <v>0</v>
-      </c>
-      <c r="S13" s="17"/>
-      <c r="T13" s="17"/>
-      <c r="U13" s="17"/>
-      <c r="V13" s="17"/>
-      <c r="W13" s="33"/>
-      <c r="X13" s="34" t="s">
+      <c r="K13" s="2">
+        <v>1</v>
+      </c>
+      <c r="L13" s="2">
+        <v>0</v>
+      </c>
+      <c r="M13" s="2">
+        <v>0</v>
+      </c>
+      <c r="N13" s="2">
+        <v>0</v>
+      </c>
+      <c r="O13" s="2">
+        <v>0</v>
+      </c>
+      <c r="P13" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="2">
+        <v>0</v>
+      </c>
+      <c r="R13" s="30">
+        <v>0</v>
+      </c>
+      <c r="S13" s="2"/>
+      <c r="T13" s="2"/>
+      <c r="U13" s="2"/>
+      <c r="V13" s="2"/>
+      <c r="W13" s="31"/>
+      <c r="X13" s="32" t="s">
         <v>91</v>
       </c>
-      <c r="Y13" s="17" t="s">
+      <c r="Y13" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="Z13" s="17" t="s">
+      <c r="Z13" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="AA13" s="33" t="s">
+      <c r="AA13" s="31" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="16">
+      <c r="A14" s="15">
         <v>11</v>
       </c>
-      <c r="B14" s="17" t="s">
+      <c r="B14" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="17">
-        <v>10</v>
-      </c>
-      <c r="D14" s="17">
-        <v>0</v>
-      </c>
-      <c r="E14" s="17">
-        <v>0</v>
-      </c>
-      <c r="F14" s="17">
-        <v>10</v>
-      </c>
-      <c r="G14" s="17">
-        <v>0</v>
-      </c>
-      <c r="H14" s="17">
-        <v>0</v>
-      </c>
-      <c r="I14" s="17">
-        <v>0</v>
-      </c>
-      <c r="J14" s="17">
+      <c r="C14" s="2">
+        <v>10</v>
+      </c>
+      <c r="D14" s="2">
+        <v>0</v>
+      </c>
+      <c r="E14" s="2">
+        <v>0</v>
+      </c>
+      <c r="F14" s="2">
+        <v>10</v>
+      </c>
+      <c r="G14" s="2">
+        <v>0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>0</v>
+      </c>
+      <c r="I14" s="2">
+        <v>0</v>
+      </c>
+      <c r="J14" s="2">
         <v>2</v>
       </c>
-      <c r="K14" s="17">
-        <v>1</v>
-      </c>
-      <c r="L14" s="17">
-        <v>0</v>
-      </c>
-      <c r="M14" s="17">
-        <v>0</v>
-      </c>
-      <c r="N14" s="17">
-        <v>0</v>
-      </c>
-      <c r="O14" s="17">
-        <v>0</v>
-      </c>
-      <c r="P14" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="17">
-        <v>0</v>
-      </c>
-      <c r="R14" s="32">
-        <v>0</v>
-      </c>
-      <c r="S14" s="17"/>
-      <c r="T14" s="17"/>
-      <c r="U14" s="17"/>
-      <c r="V14" s="17"/>
-      <c r="W14" s="33"/>
-      <c r="X14" s="34" t="s">
+      <c r="K14" s="2">
+        <v>1</v>
+      </c>
+      <c r="L14" s="2">
+        <v>0</v>
+      </c>
+      <c r="M14" s="2">
+        <v>0</v>
+      </c>
+      <c r="N14" s="2">
+        <v>0</v>
+      </c>
+      <c r="O14" s="2">
+        <v>0</v>
+      </c>
+      <c r="P14" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="2">
+        <v>0</v>
+      </c>
+      <c r="R14" s="30">
+        <v>0</v>
+      </c>
+      <c r="S14" s="2"/>
+      <c r="T14" s="2"/>
+      <c r="U14" s="2"/>
+      <c r="V14" s="2"/>
+      <c r="W14" s="31"/>
+      <c r="X14" s="32" t="s">
         <v>95</v>
       </c>
-      <c r="Y14" s="17" t="s">
+      <c r="Y14" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="Z14" s="17" t="s">
+      <c r="Z14" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="AA14" s="33" t="s">
+      <c r="AA14" s="31" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="16">
+      <c r="A15" s="15">
         <v>12</v>
       </c>
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="17">
-        <v>10</v>
-      </c>
-      <c r="D15" s="17">
-        <v>0</v>
-      </c>
-      <c r="E15" s="17">
-        <v>0</v>
-      </c>
-      <c r="F15" s="17">
-        <v>10</v>
-      </c>
-      <c r="G15" s="17">
-        <v>0</v>
-      </c>
-      <c r="H15" s="17">
-        <v>0</v>
-      </c>
-      <c r="I15" s="17">
-        <v>0</v>
-      </c>
-      <c r="J15" s="17">
+      <c r="C15" s="2">
+        <v>10</v>
+      </c>
+      <c r="D15" s="2">
+        <v>0</v>
+      </c>
+      <c r="E15" s="2">
+        <v>0</v>
+      </c>
+      <c r="F15" s="2">
+        <v>10</v>
+      </c>
+      <c r="G15" s="2">
+        <v>0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>0</v>
+      </c>
+      <c r="I15" s="2">
+        <v>0</v>
+      </c>
+      <c r="J15" s="2">
         <v>2</v>
       </c>
-      <c r="K15" s="17">
-        <v>1</v>
-      </c>
-      <c r="L15" s="17">
-        <v>0</v>
-      </c>
-      <c r="M15" s="17">
-        <v>0</v>
-      </c>
-      <c r="N15" s="17">
-        <v>0</v>
-      </c>
-      <c r="O15" s="17">
-        <v>0</v>
-      </c>
-      <c r="P15" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="17">
-        <v>0</v>
-      </c>
-      <c r="R15" s="32">
-        <v>0</v>
-      </c>
-      <c r="S15" s="17"/>
-      <c r="T15" s="17"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="17"/>
-      <c r="W15" s="33"/>
-      <c r="X15" s="34" t="s">
+      <c r="K15" s="2">
+        <v>1</v>
+      </c>
+      <c r="L15" s="2">
+        <v>0</v>
+      </c>
+      <c r="M15" s="2">
+        <v>0</v>
+      </c>
+      <c r="N15" s="2">
+        <v>0</v>
+      </c>
+      <c r="O15" s="2">
+        <v>0</v>
+      </c>
+      <c r="P15" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="2">
+        <v>0</v>
+      </c>
+      <c r="R15" s="30">
+        <v>0</v>
+      </c>
+      <c r="S15" s="2"/>
+      <c r="T15" s="2"/>
+      <c r="U15" s="2"/>
+      <c r="V15" s="2"/>
+      <c r="W15" s="31"/>
+      <c r="X15" s="32" t="s">
         <v>100</v>
       </c>
-      <c r="Y15" s="17" t="s">
+      <c r="Y15" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="Z15" s="17" t="s">
+      <c r="Z15" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="AA15" s="33" t="s">
+      <c r="AA15" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="16">
+      <c r="A16" s="15">
         <v>13</v>
       </c>
-      <c r="B16" s="17" t="s">
+      <c r="B16" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="17">
-        <v>10</v>
-      </c>
-      <c r="D16" s="17">
-        <v>0</v>
-      </c>
-      <c r="E16" s="17">
-        <v>0</v>
-      </c>
-      <c r="F16" s="17">
-        <v>10</v>
-      </c>
-      <c r="G16" s="17">
-        <v>0</v>
-      </c>
-      <c r="H16" s="17">
-        <v>0</v>
-      </c>
-      <c r="I16" s="17">
-        <v>0</v>
-      </c>
-      <c r="J16" s="17">
+      <c r="C16" s="2">
+        <v>10</v>
+      </c>
+      <c r="D16" s="2">
+        <v>0</v>
+      </c>
+      <c r="E16" s="2">
+        <v>0</v>
+      </c>
+      <c r="F16" s="2">
+        <v>10</v>
+      </c>
+      <c r="G16" s="2">
+        <v>0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>0</v>
+      </c>
+      <c r="I16" s="2">
+        <v>0</v>
+      </c>
+      <c r="J16" s="2">
         <v>2</v>
       </c>
-      <c r="K16" s="17">
-        <v>1</v>
-      </c>
-      <c r="L16" s="17">
-        <v>0</v>
-      </c>
-      <c r="M16" s="17">
-        <v>0</v>
-      </c>
-      <c r="N16" s="17">
-        <v>0</v>
-      </c>
-      <c r="O16" s="17">
-        <v>0</v>
-      </c>
-      <c r="P16" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="17">
-        <v>0</v>
-      </c>
-      <c r="R16" s="32">
-        <v>0</v>
-      </c>
-      <c r="S16" s="17"/>
-      <c r="T16" s="17"/>
-      <c r="U16" s="17"/>
-      <c r="V16" s="17"/>
-      <c r="W16" s="33"/>
-      <c r="X16" s="34" t="s">
+      <c r="K16" s="2">
+        <v>1</v>
+      </c>
+      <c r="L16" s="2">
+        <v>0</v>
+      </c>
+      <c r="M16" s="2">
+        <v>0</v>
+      </c>
+      <c r="N16" s="2">
+        <v>0</v>
+      </c>
+      <c r="O16" s="2">
+        <v>0</v>
+      </c>
+      <c r="P16" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="2">
+        <v>0</v>
+      </c>
+      <c r="R16" s="30">
+        <v>0</v>
+      </c>
+      <c r="S16" s="2"/>
+      <c r="T16" s="2"/>
+      <c r="U16" s="2"/>
+      <c r="V16" s="2"/>
+      <c r="W16" s="31"/>
+      <c r="X16" s="32" t="s">
         <v>104</v>
       </c>
-      <c r="Y16" s="17" t="s">
+      <c r="Y16" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="Z16" s="17" t="s">
+      <c r="Z16" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="AA16" s="33" t="s">
+      <c r="AA16" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:27">
-      <c r="A17" s="16">
+      <c r="A17" s="15">
         <v>14</v>
       </c>
-      <c r="B17" s="17" t="s">
+      <c r="B17" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="17">
-        <v>10</v>
-      </c>
-      <c r="D17" s="17">
-        <v>0</v>
-      </c>
-      <c r="E17" s="17">
-        <v>0</v>
-      </c>
-      <c r="F17" s="17">
-        <v>10</v>
-      </c>
-      <c r="G17" s="17">
-        <v>0</v>
-      </c>
-      <c r="H17" s="17">
-        <v>0</v>
-      </c>
-      <c r="I17" s="17">
-        <v>0</v>
-      </c>
-      <c r="J17" s="17">
+      <c r="C17" s="2">
+        <v>10</v>
+      </c>
+      <c r="D17" s="2">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2">
+        <v>0</v>
+      </c>
+      <c r="F17" s="2">
+        <v>10</v>
+      </c>
+      <c r="G17" s="2">
+        <v>0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>0</v>
+      </c>
+      <c r="I17" s="2">
+        <v>0</v>
+      </c>
+      <c r="J17" s="2">
         <v>2</v>
       </c>
-      <c r="K17" s="17">
-        <v>1</v>
-      </c>
-      <c r="L17" s="17">
-        <v>0</v>
-      </c>
-      <c r="M17" s="17">
-        <v>0</v>
-      </c>
-      <c r="N17" s="17">
-        <v>0</v>
-      </c>
-      <c r="O17" s="17">
-        <v>0</v>
-      </c>
-      <c r="P17" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="17">
-        <v>0</v>
-      </c>
-      <c r="R17" s="32">
-        <v>0</v>
-      </c>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
-      <c r="V17" s="17"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="34" t="s">
+      <c r="K17" s="2">
+        <v>1</v>
+      </c>
+      <c r="L17" s="2">
+        <v>0</v>
+      </c>
+      <c r="M17" s="2">
+        <v>0</v>
+      </c>
+      <c r="N17" s="2">
+        <v>0</v>
+      </c>
+      <c r="O17" s="2">
+        <v>0</v>
+      </c>
+      <c r="P17" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="2">
+        <v>0</v>
+      </c>
+      <c r="R17" s="30">
+        <v>0</v>
+      </c>
+      <c r="S17" s="2"/>
+      <c r="T17" s="2"/>
+      <c r="U17" s="2"/>
+      <c r="V17" s="2"/>
+      <c r="W17" s="31"/>
+      <c r="X17" s="32" t="s">
         <v>108</v>
       </c>
-      <c r="Y17" s="17" t="s">
+      <c r="Y17" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="Z17" s="17" t="s">
+      <c r="Z17" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="AA17" s="33" t="s">
+      <c r="AA17" s="31" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" spans="1:27">
-      <c r="A18" s="16">
+      <c r="A18" s="15">
         <v>15</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="17">
-        <v>10</v>
-      </c>
-      <c r="D18" s="17">
-        <v>0</v>
-      </c>
-      <c r="E18" s="17">
-        <v>0</v>
-      </c>
-      <c r="F18" s="17">
-        <v>10</v>
-      </c>
-      <c r="G18" s="17">
-        <v>0</v>
-      </c>
-      <c r="H18" s="17">
-        <v>0</v>
-      </c>
-      <c r="I18" s="17">
-        <v>0</v>
-      </c>
-      <c r="J18" s="17">
+      <c r="C18" s="2">
+        <v>10</v>
+      </c>
+      <c r="D18" s="2">
+        <v>0</v>
+      </c>
+      <c r="E18" s="2">
+        <v>0</v>
+      </c>
+      <c r="F18" s="2">
+        <v>10</v>
+      </c>
+      <c r="G18" s="2">
+        <v>0</v>
+      </c>
+      <c r="H18" s="2">
+        <v>0</v>
+      </c>
+      <c r="I18" s="2">
+        <v>0</v>
+      </c>
+      <c r="J18" s="2">
         <v>2</v>
       </c>
-      <c r="K18" s="17">
-        <v>1</v>
-      </c>
-      <c r="L18" s="17">
-        <v>0</v>
-      </c>
-      <c r="M18" s="17">
-        <v>0</v>
-      </c>
-      <c r="N18" s="17">
-        <v>0</v>
-      </c>
-      <c r="O18" s="17">
-        <v>0</v>
-      </c>
-      <c r="P18" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="17">
-        <v>0</v>
-      </c>
-      <c r="R18" s="32">
-        <v>0</v>
-      </c>
-      <c r="S18" s="17"/>
-      <c r="T18" s="17"/>
-      <c r="U18" s="17"/>
-      <c r="V18" s="17"/>
-      <c r="W18" s="33"/>
-      <c r="X18" s="34" t="s">
+      <c r="K18" s="2">
+        <v>1</v>
+      </c>
+      <c r="L18" s="2">
+        <v>0</v>
+      </c>
+      <c r="M18" s="2">
+        <v>0</v>
+      </c>
+      <c r="N18" s="2">
+        <v>0</v>
+      </c>
+      <c r="O18" s="2">
+        <v>0</v>
+      </c>
+      <c r="P18" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="2">
+        <v>0</v>
+      </c>
+      <c r="R18" s="30">
+        <v>0</v>
+      </c>
+      <c r="S18" s="2"/>
+      <c r="T18" s="2"/>
+      <c r="U18" s="2"/>
+      <c r="V18" s="2"/>
+      <c r="W18" s="31"/>
+      <c r="X18" s="32" t="s">
         <v>113</v>
       </c>
-      <c r="Y18" s="17" t="s">
+      <c r="Y18" s="2" t="s">
         <v>114</v>
       </c>
-      <c r="Z18" s="17" t="s">
+      <c r="Z18" s="2" t="s">
         <v>115</v>
       </c>
-      <c r="AA18" s="33" t="s">
+      <c r="AA18" s="31" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:27">
-      <c r="A19" s="16">
+      <c r="A19" s="15">
         <v>16</v>
       </c>
-      <c r="B19" s="17" t="s">
+      <c r="B19" s="2" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="17">
-        <v>10</v>
-      </c>
-      <c r="D19" s="17">
-        <v>0</v>
-      </c>
-      <c r="E19" s="17">
-        <v>0</v>
-      </c>
-      <c r="F19" s="17">
-        <v>10</v>
-      </c>
-      <c r="G19" s="17">
-        <v>0</v>
-      </c>
-      <c r="H19" s="17">
-        <v>0</v>
-      </c>
-      <c r="I19" s="17">
-        <v>0</v>
-      </c>
-      <c r="J19" s="17">
+      <c r="C19" s="2">
+        <v>10</v>
+      </c>
+      <c r="D19" s="2">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2">
+        <v>0</v>
+      </c>
+      <c r="F19" s="2">
+        <v>10</v>
+      </c>
+      <c r="G19" s="2">
+        <v>0</v>
+      </c>
+      <c r="H19" s="2">
+        <v>0</v>
+      </c>
+      <c r="I19" s="2">
+        <v>0</v>
+      </c>
+      <c r="J19" s="2">
         <v>2</v>
       </c>
-      <c r="K19" s="17">
-        <v>1</v>
-      </c>
-      <c r="L19" s="17">
-        <v>0</v>
-      </c>
-      <c r="M19" s="17">
-        <v>0</v>
-      </c>
-      <c r="N19" s="17">
-        <v>0</v>
-      </c>
-      <c r="O19" s="17">
-        <v>0</v>
-      </c>
-      <c r="P19" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="17">
-        <v>0</v>
-      </c>
-      <c r="R19" s="32">
-        <v>0</v>
-      </c>
-      <c r="S19" s="17"/>
-      <c r="T19" s="17"/>
-      <c r="U19" s="17"/>
-      <c r="V19" s="17"/>
-      <c r="W19" s="33"/>
-      <c r="X19" s="34" t="s">
+      <c r="K19" s="2">
+        <v>1</v>
+      </c>
+      <c r="L19" s="2">
+        <v>0</v>
+      </c>
+      <c r="M19" s="2">
+        <v>0</v>
+      </c>
+      <c r="N19" s="2">
+        <v>0</v>
+      </c>
+      <c r="O19" s="2">
+        <v>0</v>
+      </c>
+      <c r="P19" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="2">
+        <v>0</v>
+      </c>
+      <c r="R19" s="30">
+        <v>0</v>
+      </c>
+      <c r="S19" s="2"/>
+      <c r="T19" s="2"/>
+      <c r="U19" s="2"/>
+      <c r="V19" s="2"/>
+      <c r="W19" s="31"/>
+      <c r="X19" s="32" t="s">
         <v>117</v>
       </c>
-      <c r="Y19" s="17" t="s">
+      <c r="Y19" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="Z19" s="17" t="s">
+      <c r="Z19" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="AA19" s="33" t="s">
+      <c r="AA19" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" spans="1:27">
-      <c r="A20" s="16">
+      <c r="A20" s="15">
         <v>17</v>
       </c>
-      <c r="B20" s="17" t="s">
+      <c r="B20" s="2" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="17">
-        <v>10</v>
-      </c>
-      <c r="D20" s="17">
-        <v>0</v>
-      </c>
-      <c r="E20" s="17">
-        <v>0</v>
-      </c>
-      <c r="F20" s="17">
-        <v>10</v>
-      </c>
-      <c r="G20" s="17">
-        <v>0</v>
-      </c>
-      <c r="H20" s="17">
-        <v>0</v>
-      </c>
-      <c r="I20" s="17">
-        <v>0</v>
-      </c>
-      <c r="J20" s="17">
+      <c r="C20" s="2">
+        <v>10</v>
+      </c>
+      <c r="D20" s="2">
+        <v>0</v>
+      </c>
+      <c r="E20" s="2">
+        <v>0</v>
+      </c>
+      <c r="F20" s="2">
+        <v>10</v>
+      </c>
+      <c r="G20" s="2">
+        <v>0</v>
+      </c>
+      <c r="H20" s="2">
+        <v>0</v>
+      </c>
+      <c r="I20" s="2">
+        <v>0</v>
+      </c>
+      <c r="J20" s="2">
         <v>2</v>
       </c>
-      <c r="K20" s="17">
-        <v>1</v>
-      </c>
-      <c r="L20" s="17">
-        <v>0</v>
-      </c>
-      <c r="M20" s="17">
-        <v>0</v>
-      </c>
-      <c r="N20" s="17">
-        <v>0</v>
-      </c>
-      <c r="O20" s="17">
-        <v>0</v>
-      </c>
-      <c r="P20" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="17">
-        <v>0</v>
-      </c>
-      <c r="R20" s="32">
-        <v>0</v>
-      </c>
-      <c r="S20" s="17"/>
-      <c r="T20" s="17"/>
-      <c r="U20" s="17"/>
-      <c r="V20" s="17"/>
-      <c r="W20" s="33"/>
-      <c r="X20" s="34" t="s">
+      <c r="K20" s="2">
+        <v>1</v>
+      </c>
+      <c r="L20" s="2">
+        <v>0</v>
+      </c>
+      <c r="M20" s="2">
+        <v>0</v>
+      </c>
+      <c r="N20" s="2">
+        <v>0</v>
+      </c>
+      <c r="O20" s="2">
+        <v>0</v>
+      </c>
+      <c r="P20" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="2">
+        <v>0</v>
+      </c>
+      <c r="R20" s="30">
+        <v>0</v>
+      </c>
+      <c r="S20" s="2"/>
+      <c r="T20" s="2"/>
+      <c r="U20" s="2"/>
+      <c r="V20" s="2"/>
+      <c r="W20" s="31"/>
+      <c r="X20" s="32" t="s">
         <v>121</v>
       </c>
-      <c r="Y20" s="17" t="s">
+      <c r="Y20" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="Z20" s="17" t="s">
+      <c r="Z20" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="AA20" s="33" t="s">
+      <c r="AA20" s="31" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" spans="1:27">
-      <c r="A21" s="16">
+      <c r="A21" s="15">
         <v>18</v>
       </c>
-      <c r="B21" s="17" t="s">
+      <c r="B21" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="17">
-        <v>10</v>
-      </c>
-      <c r="D21" s="17">
-        <v>0</v>
-      </c>
-      <c r="E21" s="17">
-        <v>0</v>
-      </c>
-      <c r="F21" s="17">
-        <v>10</v>
-      </c>
-      <c r="G21" s="17">
-        <v>0</v>
-      </c>
-      <c r="H21" s="17">
-        <v>0</v>
-      </c>
-      <c r="I21" s="17">
-        <v>0</v>
-      </c>
-      <c r="J21" s="17">
+      <c r="C21" s="2">
+        <v>10</v>
+      </c>
+      <c r="D21" s="2">
+        <v>0</v>
+      </c>
+      <c r="E21" s="2">
+        <v>0</v>
+      </c>
+      <c r="F21" s="2">
+        <v>10</v>
+      </c>
+      <c r="G21" s="2">
+        <v>0</v>
+      </c>
+      <c r="H21" s="2">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0</v>
+      </c>
+      <c r="J21" s="2">
         <v>2</v>
       </c>
-      <c r="K21" s="17">
-        <v>1</v>
-      </c>
-      <c r="L21" s="17">
-        <v>0</v>
-      </c>
-      <c r="M21" s="17">
-        <v>0</v>
-      </c>
-      <c r="N21" s="17">
-        <v>0</v>
-      </c>
-      <c r="O21" s="17">
-        <v>0</v>
-      </c>
-      <c r="P21" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="17">
-        <v>0</v>
-      </c>
-      <c r="R21" s="32">
-        <v>0</v>
-      </c>
-      <c r="S21" s="17"/>
-      <c r="T21" s="17"/>
-      <c r="U21" s="17"/>
-      <c r="V21" s="17"/>
-      <c r="W21" s="33"/>
-      <c r="X21" s="34" t="s">
+      <c r="K21" s="2">
+        <v>1</v>
+      </c>
+      <c r="L21" s="2">
+        <v>0</v>
+      </c>
+      <c r="M21" s="2">
+        <v>0</v>
+      </c>
+      <c r="N21" s="2">
+        <v>0</v>
+      </c>
+      <c r="O21" s="2">
+        <v>0</v>
+      </c>
+      <c r="P21" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="2">
+        <v>0</v>
+      </c>
+      <c r="R21" s="30">
+        <v>0</v>
+      </c>
+      <c r="S21" s="2"/>
+      <c r="T21" s="2"/>
+      <c r="U21" s="2"/>
+      <c r="V21" s="2"/>
+      <c r="W21" s="31"/>
+      <c r="X21" s="32" t="s">
         <v>125</v>
       </c>
-      <c r="Y21" s="17" t="s">
+      <c r="Y21" s="2" t="s">
         <v>126</v>
       </c>
-      <c r="Z21" s="17" t="s">
+      <c r="Z21" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="AA21" s="33" t="s">
+      <c r="AA21" s="31" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" spans="1:27">
-      <c r="A22" s="16">
+      <c r="A22" s="15">
         <v>19</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="17">
-        <v>10</v>
-      </c>
-      <c r="D22" s="17">
-        <v>0</v>
-      </c>
-      <c r="E22" s="17">
-        <v>0</v>
-      </c>
-      <c r="F22" s="17">
-        <v>10</v>
-      </c>
-      <c r="G22" s="17">
-        <v>0</v>
-      </c>
-      <c r="H22" s="17">
-        <v>0</v>
-      </c>
-      <c r="I22" s="17">
-        <v>0</v>
-      </c>
-      <c r="J22" s="17">
+      <c r="C22" s="2">
+        <v>10</v>
+      </c>
+      <c r="D22" s="2">
+        <v>0</v>
+      </c>
+      <c r="E22" s="2">
+        <v>0</v>
+      </c>
+      <c r="F22" s="2">
+        <v>10</v>
+      </c>
+      <c r="G22" s="2">
+        <v>0</v>
+      </c>
+      <c r="H22" s="2">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0</v>
+      </c>
+      <c r="J22" s="2">
         <v>2</v>
       </c>
-      <c r="K22" s="17">
-        <v>1</v>
-      </c>
-      <c r="L22" s="17">
-        <v>0</v>
-      </c>
-      <c r="M22" s="17">
-        <v>0</v>
-      </c>
-      <c r="N22" s="17">
-        <v>0</v>
-      </c>
-      <c r="O22" s="17">
-        <v>0</v>
-      </c>
-      <c r="P22" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="17">
-        <v>0</v>
-      </c>
-      <c r="R22" s="32">
-        <v>0</v>
-      </c>
-      <c r="S22" s="17"/>
-      <c r="T22" s="17"/>
-      <c r="U22" s="17"/>
-      <c r="V22" s="17"/>
-      <c r="W22" s="33"/>
-      <c r="X22" s="34" t="s">
+      <c r="K22" s="2">
+        <v>1</v>
+      </c>
+      <c r="L22" s="2">
+        <v>0</v>
+      </c>
+      <c r="M22" s="2">
+        <v>0</v>
+      </c>
+      <c r="N22" s="2">
+        <v>0</v>
+      </c>
+      <c r="O22" s="2">
+        <v>0</v>
+      </c>
+      <c r="P22" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="2">
+        <v>0</v>
+      </c>
+      <c r="R22" s="30">
+        <v>0</v>
+      </c>
+      <c r="S22" s="2"/>
+      <c r="T22" s="2"/>
+      <c r="U22" s="2"/>
+      <c r="V22" s="2"/>
+      <c r="W22" s="31"/>
+      <c r="X22" s="32" t="s">
         <v>129</v>
       </c>
-      <c r="Y22" s="17" t="s">
+      <c r="Y22" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="Z22" s="17" t="s">
+      <c r="Z22" s="2" t="s">
         <v>131</v>
       </c>
-      <c r="AA22" s="33" t="s">
+      <c r="AA22" s="31" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" spans="1:27">
-      <c r="A23" s="16">
+      <c r="A23" s="15">
         <v>20</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="17">
-        <v>10</v>
-      </c>
-      <c r="D23" s="17">
-        <v>0</v>
-      </c>
-      <c r="E23" s="17">
-        <v>0</v>
-      </c>
-      <c r="F23" s="17">
-        <v>10</v>
-      </c>
-      <c r="G23" s="17">
-        <v>0</v>
-      </c>
-      <c r="H23" s="17">
-        <v>0</v>
-      </c>
-      <c r="I23" s="17">
-        <v>0</v>
-      </c>
-      <c r="J23" s="17">
+      <c r="C23" s="2">
+        <v>10</v>
+      </c>
+      <c r="D23" s="2">
+        <v>0</v>
+      </c>
+      <c r="E23" s="2">
+        <v>0</v>
+      </c>
+      <c r="F23" s="2">
+        <v>10</v>
+      </c>
+      <c r="G23" s="2">
+        <v>0</v>
+      </c>
+      <c r="H23" s="2">
+        <v>0</v>
+      </c>
+      <c r="I23" s="2">
+        <v>0</v>
+      </c>
+      <c r="J23" s="2">
         <v>2</v>
       </c>
-      <c r="K23" s="17">
-        <v>1</v>
-      </c>
-      <c r="L23" s="17">
-        <v>0</v>
-      </c>
-      <c r="M23" s="17">
-        <v>0</v>
-      </c>
-      <c r="N23" s="17">
-        <v>0</v>
-      </c>
-      <c r="O23" s="17">
-        <v>0</v>
-      </c>
-      <c r="P23" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="17">
-        <v>0</v>
-      </c>
-      <c r="R23" s="32">
-        <v>0</v>
-      </c>
-      <c r="S23" s="17"/>
-      <c r="T23" s="17"/>
-      <c r="U23" s="17"/>
-      <c r="V23" s="17"/>
-      <c r="W23" s="33"/>
-      <c r="X23" s="34" t="s">
+      <c r="K23" s="2">
+        <v>1</v>
+      </c>
+      <c r="L23" s="2">
+        <v>0</v>
+      </c>
+      <c r="M23" s="2">
+        <v>0</v>
+      </c>
+      <c r="N23" s="2">
+        <v>0</v>
+      </c>
+      <c r="O23" s="2">
+        <v>0</v>
+      </c>
+      <c r="P23" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="2">
+        <v>0</v>
+      </c>
+      <c r="R23" s="30">
+        <v>0</v>
+      </c>
+      <c r="S23" s="2"/>
+      <c r="T23" s="2"/>
+      <c r="U23" s="2"/>
+      <c r="V23" s="2"/>
+      <c r="W23" s="31"/>
+      <c r="X23" s="32" t="s">
         <v>134</v>
       </c>
-      <c r="Y23" s="17" t="s">
+      <c r="Y23" s="2" t="s">
         <v>135</v>
       </c>
-      <c r="Z23" s="17" t="s">
+      <c r="Z23" s="2" t="s">
         <v>136</v>
       </c>
-      <c r="AA23" s="33" t="s">
+      <c r="AA23" s="31" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" spans="1:27">
-      <c r="A24" s="16">
+      <c r="A24" s="15">
         <v>21</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="17">
-        <v>10</v>
-      </c>
-      <c r="D24" s="17">
-        <v>0</v>
-      </c>
-      <c r="E24" s="17">
-        <v>0</v>
-      </c>
-      <c r="F24" s="17">
-        <v>10</v>
-      </c>
-      <c r="G24" s="17">
-        <v>0</v>
-      </c>
-      <c r="H24" s="17">
-        <v>0</v>
-      </c>
-      <c r="I24" s="17">
-        <v>0</v>
-      </c>
-      <c r="J24" s="17">
+      <c r="C24" s="2">
+        <v>10</v>
+      </c>
+      <c r="D24" s="2">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2">
+        <v>0</v>
+      </c>
+      <c r="F24" s="2">
+        <v>10</v>
+      </c>
+      <c r="G24" s="2">
+        <v>0</v>
+      </c>
+      <c r="H24" s="2">
+        <v>0</v>
+      </c>
+      <c r="I24" s="2">
+        <v>0</v>
+      </c>
+      <c r="J24" s="2">
         <v>2</v>
       </c>
-      <c r="K24" s="17">
-        <v>1</v>
-      </c>
-      <c r="L24" s="17">
-        <v>0</v>
-      </c>
-      <c r="M24" s="17">
-        <v>0</v>
-      </c>
-      <c r="N24" s="17">
-        <v>0</v>
-      </c>
-      <c r="O24" s="17">
-        <v>0</v>
-      </c>
-      <c r="P24" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="17">
-        <v>0</v>
-      </c>
-      <c r="R24" s="32">
-        <v>0</v>
-      </c>
-      <c r="S24" s="17"/>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
-      <c r="V24" s="17"/>
-      <c r="W24" s="33"/>
-      <c r="X24" s="34" t="s">
+      <c r="K24" s="2">
+        <v>1</v>
+      </c>
+      <c r="L24" s="2">
+        <v>0</v>
+      </c>
+      <c r="M24" s="2">
+        <v>0</v>
+      </c>
+      <c r="N24" s="2">
+        <v>0</v>
+      </c>
+      <c r="O24" s="2">
+        <v>0</v>
+      </c>
+      <c r="P24" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="2">
+        <v>0</v>
+      </c>
+      <c r="R24" s="30">
+        <v>0</v>
+      </c>
+      <c r="S24" s="2"/>
+      <c r="T24" s="2"/>
+      <c r="U24" s="2"/>
+      <c r="V24" s="2"/>
+      <c r="W24" s="31"/>
+      <c r="X24" s="32" t="s">
         <v>139</v>
       </c>
-      <c r="Y24" s="17" t="s">
+      <c r="Y24" s="2" t="s">
         <v>140</v>
       </c>
-      <c r="Z24" s="17" t="s">
+      <c r="Z24" s="2" t="s">
         <v>141</v>
       </c>
-      <c r="AA24" s="33" t="s">
+      <c r="AA24" s="31" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" spans="1:27">
-      <c r="A25" s="16">
+      <c r="A25" s="15">
         <v>22</v>
       </c>
-      <c r="B25" s="17" t="s">
+      <c r="B25" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="17">
-        <v>10</v>
-      </c>
-      <c r="D25" s="17">
-        <v>0</v>
-      </c>
-      <c r="E25" s="17">
-        <v>0</v>
-      </c>
-      <c r="F25" s="17">
-        <v>10</v>
-      </c>
-      <c r="G25" s="17">
-        <v>0</v>
-      </c>
-      <c r="H25" s="17">
-        <v>0</v>
-      </c>
-      <c r="I25" s="17">
-        <v>0</v>
-      </c>
-      <c r="J25" s="17">
+      <c r="C25" s="2">
+        <v>10</v>
+      </c>
+      <c r="D25" s="2">
+        <v>0</v>
+      </c>
+      <c r="E25" s="2">
+        <v>0</v>
+      </c>
+      <c r="F25" s="2">
+        <v>10</v>
+      </c>
+      <c r="G25" s="2">
+        <v>0</v>
+      </c>
+      <c r="H25" s="2">
+        <v>0</v>
+      </c>
+      <c r="I25" s="2">
+        <v>0</v>
+      </c>
+      <c r="J25" s="2">
         <v>2</v>
       </c>
-      <c r="K25" s="17">
-        <v>1</v>
-      </c>
-      <c r="L25" s="17">
-        <v>0</v>
-      </c>
-      <c r="M25" s="17">
-        <v>0</v>
-      </c>
-      <c r="N25" s="17">
-        <v>0</v>
-      </c>
-      <c r="O25" s="17">
-        <v>0</v>
-      </c>
-      <c r="P25" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="17">
-        <v>0</v>
-      </c>
-      <c r="R25" s="32">
-        <v>0</v>
-      </c>
-      <c r="S25" s="17"/>
-      <c r="T25" s="17"/>
-      <c r="U25" s="17"/>
-      <c r="V25" s="17"/>
-      <c r="W25" s="33"/>
-      <c r="X25" s="34" t="s">
+      <c r="K25" s="2">
+        <v>1</v>
+      </c>
+      <c r="L25" s="2">
+        <v>0</v>
+      </c>
+      <c r="M25" s="2">
+        <v>0</v>
+      </c>
+      <c r="N25" s="2">
+        <v>0</v>
+      </c>
+      <c r="O25" s="2">
+        <v>0</v>
+      </c>
+      <c r="P25" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="2">
+        <v>0</v>
+      </c>
+      <c r="R25" s="30">
+        <v>0</v>
+      </c>
+      <c r="S25" s="2"/>
+      <c r="T25" s="2"/>
+      <c r="U25" s="2"/>
+      <c r="V25" s="2"/>
+      <c r="W25" s="31"/>
+      <c r="X25" s="32" t="s">
         <v>144</v>
       </c>
-      <c r="Y25" s="17" t="s">
+      <c r="Y25" s="2" t="s">
         <v>145</v>
       </c>
-      <c r="Z25" s="17" t="s">
+      <c r="Z25" s="2" t="s">
         <v>146</v>
       </c>
-      <c r="AA25" s="33" t="s">
+      <c r="AA25" s="31" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" spans="1:27">
-      <c r="A26" s="16">
+      <c r="A26" s="15">
         <v>23</v>
       </c>
-      <c r="B26" s="17" t="s">
+      <c r="B26" s="2" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="17">
-        <v>10</v>
-      </c>
-      <c r="D26" s="17">
-        <v>0</v>
-      </c>
-      <c r="E26" s="17">
-        <v>0</v>
-      </c>
-      <c r="F26" s="17">
-        <v>10</v>
-      </c>
-      <c r="G26" s="17">
-        <v>0</v>
-      </c>
-      <c r="H26" s="17">
-        <v>0</v>
-      </c>
-      <c r="I26" s="17">
-        <v>0</v>
-      </c>
-      <c r="J26" s="17">
+      <c r="C26" s="2">
+        <v>10</v>
+      </c>
+      <c r="D26" s="2">
+        <v>0</v>
+      </c>
+      <c r="E26" s="2">
+        <v>0</v>
+      </c>
+      <c r="F26" s="2">
+        <v>10</v>
+      </c>
+      <c r="G26" s="2">
+        <v>0</v>
+      </c>
+      <c r="H26" s="2">
+        <v>0</v>
+      </c>
+      <c r="I26" s="2">
+        <v>0</v>
+      </c>
+      <c r="J26" s="2">
         <v>2</v>
       </c>
-      <c r="K26" s="17">
-        <v>1</v>
-      </c>
-      <c r="L26" s="17">
-        <v>0</v>
-      </c>
-      <c r="M26" s="17">
-        <v>0</v>
-      </c>
-      <c r="N26" s="17">
-        <v>0</v>
-      </c>
-      <c r="O26" s="17">
-        <v>0</v>
-      </c>
-      <c r="P26" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="17">
-        <v>0</v>
-      </c>
-      <c r="R26" s="32">
-        <v>0</v>
-      </c>
-      <c r="S26" s="17"/>
-      <c r="T26" s="17"/>
-      <c r="U26" s="17"/>
-      <c r="V26" s="17"/>
-      <c r="W26" s="33"/>
-      <c r="X26" s="34" t="s">
+      <c r="K26" s="2">
+        <v>1</v>
+      </c>
+      <c r="L26" s="2">
+        <v>0</v>
+      </c>
+      <c r="M26" s="2">
+        <v>0</v>
+      </c>
+      <c r="N26" s="2">
+        <v>0</v>
+      </c>
+      <c r="O26" s="2">
+        <v>0</v>
+      </c>
+      <c r="P26" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>0</v>
+      </c>
+      <c r="R26" s="30">
+        <v>0</v>
+      </c>
+      <c r="S26" s="2"/>
+      <c r="T26" s="2"/>
+      <c r="U26" s="2"/>
+      <c r="V26" s="2"/>
+      <c r="W26" s="31"/>
+      <c r="X26" s="32" t="s">
         <v>148</v>
       </c>
-      <c r="Y26" s="17" t="s">
+      <c r="Y26" s="2" t="s">
         <v>149</v>
       </c>
-      <c r="Z26" s="17" t="s">
+      <c r="Z26" s="2" t="s">
         <v>150</v>
       </c>
-      <c r="AA26" s="33" t="s">
+      <c r="AA26" s="31" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="27" spans="1:27">
-      <c r="A27" s="16">
+      <c r="A27" s="15">
         <v>24</v>
       </c>
-      <c r="B27" s="17" t="s">
+      <c r="B27" s="2" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="17">
-        <v>10</v>
-      </c>
-      <c r="D27" s="17">
-        <v>0</v>
-      </c>
-      <c r="E27" s="17">
-        <v>0</v>
-      </c>
-      <c r="F27" s="17">
-        <v>10</v>
-      </c>
-      <c r="G27" s="17">
-        <v>0</v>
-      </c>
-      <c r="H27" s="17">
-        <v>0</v>
-      </c>
-      <c r="I27" s="17">
-        <v>0</v>
-      </c>
-      <c r="J27" s="17">
+      <c r="C27" s="2">
+        <v>10</v>
+      </c>
+      <c r="D27" s="2">
+        <v>0</v>
+      </c>
+      <c r="E27" s="2">
+        <v>0</v>
+      </c>
+      <c r="F27" s="2">
+        <v>10</v>
+      </c>
+      <c r="G27" s="2">
+        <v>0</v>
+      </c>
+      <c r="H27" s="2">
+        <v>0</v>
+      </c>
+      <c r="I27" s="2">
+        <v>0</v>
+      </c>
+      <c r="J27" s="2">
         <v>2</v>
       </c>
-      <c r="K27" s="17">
-        <v>1</v>
-      </c>
-      <c r="L27" s="17">
-        <v>0</v>
-      </c>
-      <c r="M27" s="17">
-        <v>0</v>
-      </c>
-      <c r="N27" s="17">
-        <v>0</v>
-      </c>
-      <c r="O27" s="17">
-        <v>0</v>
-      </c>
-      <c r="P27" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="17">
-        <v>0</v>
-      </c>
-      <c r="R27" s="32">
-        <v>0</v>
-      </c>
-      <c r="S27" s="17"/>
-      <c r="T27" s="17"/>
-      <c r="U27" s="17"/>
-      <c r="V27" s="17"/>
-      <c r="W27" s="33"/>
-      <c r="X27" s="34" t="s">
+      <c r="K27" s="2">
+        <v>1</v>
+      </c>
+      <c r="L27" s="2">
+        <v>0</v>
+      </c>
+      <c r="M27" s="2">
+        <v>0</v>
+      </c>
+      <c r="N27" s="2">
+        <v>0</v>
+      </c>
+      <c r="O27" s="2">
+        <v>0</v>
+      </c>
+      <c r="P27" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="2">
+        <v>0</v>
+      </c>
+      <c r="R27" s="30">
+        <v>0</v>
+      </c>
+      <c r="S27" s="2"/>
+      <c r="T27" s="2"/>
+      <c r="U27" s="2"/>
+      <c r="V27" s="2"/>
+      <c r="W27" s="31"/>
+      <c r="X27" s="32" t="s">
         <v>153</v>
       </c>
-      <c r="Y27" s="17" t="s">
+      <c r="Y27" s="2" t="s">
         <v>154</v>
       </c>
-      <c r="Z27" s="17" t="s">
+      <c r="Z27" s="2" t="s">
         <v>155</v>
       </c>
-      <c r="AA27" s="33" t="s">
+      <c r="AA27" s="31" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="28" spans="1:27">
-      <c r="A28" s="16">
+      <c r="A28" s="15">
         <v>25</v>
       </c>
-      <c r="B28" s="17" t="s">
+      <c r="B28" s="2" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="17">
-        <v>10</v>
-      </c>
-      <c r="D28" s="17">
-        <v>0</v>
-      </c>
-      <c r="E28" s="17">
-        <v>0</v>
-      </c>
-      <c r="F28" s="17">
-        <v>10</v>
-      </c>
-      <c r="G28" s="17">
-        <v>0</v>
-      </c>
-      <c r="H28" s="17">
-        <v>0</v>
-      </c>
-      <c r="I28" s="17">
-        <v>0</v>
-      </c>
-      <c r="J28" s="17">
+      <c r="C28" s="2">
+        <v>10</v>
+      </c>
+      <c r="D28" s="2">
+        <v>0</v>
+      </c>
+      <c r="E28" s="2">
+        <v>0</v>
+      </c>
+      <c r="F28" s="2">
+        <v>10</v>
+      </c>
+      <c r="G28" s="2">
+        <v>0</v>
+      </c>
+      <c r="H28" s="2">
+        <v>0</v>
+      </c>
+      <c r="I28" s="2">
+        <v>0</v>
+      </c>
+      <c r="J28" s="2">
         <v>2</v>
       </c>
-      <c r="K28" s="17">
-        <v>1</v>
-      </c>
-      <c r="L28" s="17">
-        <v>0</v>
-      </c>
-      <c r="M28" s="17">
-        <v>0</v>
-      </c>
-      <c r="N28" s="17">
-        <v>0</v>
-      </c>
-      <c r="O28" s="17">
-        <v>0</v>
-      </c>
-      <c r="P28" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="17">
-        <v>0</v>
-      </c>
-      <c r="R28" s="32">
-        <v>0</v>
-      </c>
-      <c r="S28" s="17"/>
-      <c r="T28" s="17"/>
-      <c r="U28" s="17"/>
-      <c r="V28" s="17"/>
-      <c r="W28" s="33"/>
-      <c r="X28" s="34" t="s">
+      <c r="K28" s="2">
+        <v>1</v>
+      </c>
+      <c r="L28" s="2">
+        <v>0</v>
+      </c>
+      <c r="M28" s="2">
+        <v>0</v>
+      </c>
+      <c r="N28" s="2">
+        <v>0</v>
+      </c>
+      <c r="O28" s="2">
+        <v>0</v>
+      </c>
+      <c r="P28" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="2">
+        <v>0</v>
+      </c>
+      <c r="R28" s="30">
+        <v>0</v>
+      </c>
+      <c r="S28" s="2"/>
+      <c r="T28" s="2"/>
+      <c r="U28" s="2"/>
+      <c r="V28" s="2"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="32" t="s">
         <v>158</v>
       </c>
-      <c r="Y28" s="17" t="s">
+      <c r="Y28" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="Z28" s="17" t="s">
+      <c r="Z28" s="2" t="s">
         <v>160</v>
       </c>
-      <c r="AA28" s="33" t="s">
+      <c r="AA28" s="31" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="29" spans="1:27">
-      <c r="A29" s="16">
+      <c r="A29" s="15">
         <v>26</v>
       </c>
-      <c r="B29" s="17" t="s">
+      <c r="B29" s="2" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="17">
-        <v>10</v>
-      </c>
-      <c r="D29" s="17">
-        <v>0</v>
-      </c>
-      <c r="E29" s="17">
-        <v>0</v>
-      </c>
-      <c r="F29" s="17">
-        <v>10</v>
-      </c>
-      <c r="G29" s="17">
-        <v>0</v>
-      </c>
-      <c r="H29" s="17">
-        <v>0</v>
-      </c>
-      <c r="I29" s="17">
-        <v>0</v>
-      </c>
-      <c r="J29" s="17">
+      <c r="C29" s="2">
+        <v>10</v>
+      </c>
+      <c r="D29" s="2">
+        <v>0</v>
+      </c>
+      <c r="E29" s="2">
+        <v>0</v>
+      </c>
+      <c r="F29" s="2">
+        <v>10</v>
+      </c>
+      <c r="G29" s="2">
+        <v>0</v>
+      </c>
+      <c r="H29" s="2">
+        <v>0</v>
+      </c>
+      <c r="I29" s="2">
+        <v>0</v>
+      </c>
+      <c r="J29" s="2">
         <v>2</v>
       </c>
-      <c r="K29" s="17">
-        <v>1</v>
-      </c>
-      <c r="L29" s="17">
-        <v>0</v>
-      </c>
-      <c r="M29" s="17">
-        <v>0</v>
-      </c>
-      <c r="N29" s="17">
-        <v>0</v>
-      </c>
-      <c r="O29" s="17">
-        <v>0</v>
-      </c>
-      <c r="P29" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="17">
-        <v>0</v>
-      </c>
-      <c r="R29" s="32">
-        <v>0</v>
-      </c>
-      <c r="S29" s="17"/>
-      <c r="T29" s="17"/>
-      <c r="U29" s="17"/>
-      <c r="V29" s="17"/>
-      <c r="W29" s="33"/>
-      <c r="X29" s="34" t="s">
+      <c r="K29" s="2">
+        <v>1</v>
+      </c>
+      <c r="L29" s="2">
+        <v>0</v>
+      </c>
+      <c r="M29" s="2">
+        <v>0</v>
+      </c>
+      <c r="N29" s="2">
+        <v>0</v>
+      </c>
+      <c r="O29" s="2">
+        <v>0</v>
+      </c>
+      <c r="P29" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="2">
+        <v>0</v>
+      </c>
+      <c r="R29" s="30">
+        <v>0</v>
+      </c>
+      <c r="S29" s="2"/>
+      <c r="T29" s="2"/>
+      <c r="U29" s="2"/>
+      <c r="V29" s="2"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="32" t="s">
         <v>163</v>
       </c>
-      <c r="Y29" s="17" t="s">
+      <c r="Y29" s="2" t="s">
         <v>164</v>
       </c>
-      <c r="Z29" s="17" t="s">
+      <c r="Z29" s="2" t="s">
         <v>165</v>
       </c>
-      <c r="AA29" s="33" t="s">
+      <c r="AA29" s="31" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:27">
-      <c r="A30" s="16">
+      <c r="A30" s="15">
         <v>27</v>
       </c>
-      <c r="B30" s="17" t="s">
+      <c r="B30" s="2" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="17">
-        <v>10</v>
-      </c>
-      <c r="D30" s="17">
-        <v>0</v>
-      </c>
-      <c r="E30" s="17">
-        <v>0</v>
-      </c>
-      <c r="F30" s="17">
-        <v>10</v>
-      </c>
-      <c r="G30" s="17">
-        <v>0</v>
-      </c>
-      <c r="H30" s="17">
-        <v>0</v>
-      </c>
-      <c r="I30" s="17">
-        <v>0</v>
-      </c>
-      <c r="J30" s="17">
+      <c r="C30" s="2">
+        <v>10</v>
+      </c>
+      <c r="D30" s="2">
+        <v>0</v>
+      </c>
+      <c r="E30" s="2">
+        <v>0</v>
+      </c>
+      <c r="F30" s="2">
+        <v>10</v>
+      </c>
+      <c r="G30" s="2">
+        <v>0</v>
+      </c>
+      <c r="H30" s="2">
+        <v>0</v>
+      </c>
+      <c r="I30" s="2">
+        <v>0</v>
+      </c>
+      <c r="J30" s="2">
         <v>2</v>
       </c>
-      <c r="K30" s="17">
-        <v>1</v>
-      </c>
-      <c r="L30" s="17">
-        <v>0</v>
-      </c>
-      <c r="M30" s="17">
-        <v>0</v>
-      </c>
-      <c r="N30" s="17">
-        <v>0</v>
-      </c>
-      <c r="O30" s="17">
-        <v>0</v>
-      </c>
-      <c r="P30" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="17">
-        <v>0</v>
-      </c>
-      <c r="R30" s="32">
-        <v>0</v>
-      </c>
-      <c r="S30" s="17"/>
-      <c r="T30" s="17"/>
-      <c r="U30" s="17"/>
-      <c r="V30" s="17"/>
-      <c r="W30" s="33"/>
-      <c r="X30" s="34" t="s">
+      <c r="K30" s="2">
+        <v>1</v>
+      </c>
+      <c r="L30" s="2">
+        <v>0</v>
+      </c>
+      <c r="M30" s="2">
+        <v>0</v>
+      </c>
+      <c r="N30" s="2">
+        <v>0</v>
+      </c>
+      <c r="O30" s="2">
+        <v>0</v>
+      </c>
+      <c r="P30" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="2">
+        <v>0</v>
+      </c>
+      <c r="R30" s="30">
+        <v>0</v>
+      </c>
+      <c r="S30" s="2"/>
+      <c r="T30" s="2"/>
+      <c r="U30" s="2"/>
+      <c r="V30" s="2"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="32" t="s">
         <v>168</v>
       </c>
-      <c r="Y30" s="17" t="s">
+      <c r="Y30" s="2" t="s">
         <v>169</v>
       </c>
-      <c r="Z30" s="17" t="s">
+      <c r="Z30" s="2" t="s">
         <v>170</v>
       </c>
-      <c r="AA30" s="33" t="s">
+      <c r="AA30" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" spans="1:27">
-      <c r="A31" s="16">
+      <c r="A31" s="15">
         <v>28</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="2" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="17">
-        <v>10</v>
-      </c>
-      <c r="D31" s="17">
-        <v>0</v>
-      </c>
-      <c r="E31" s="17">
-        <v>0</v>
-      </c>
-      <c r="F31" s="17">
-        <v>10</v>
-      </c>
-      <c r="G31" s="17">
-        <v>0</v>
-      </c>
-      <c r="H31" s="17">
-        <v>0</v>
-      </c>
-      <c r="I31" s="17">
-        <v>0</v>
-      </c>
-      <c r="J31" s="17">
+      <c r="C31" s="2">
+        <v>10</v>
+      </c>
+      <c r="D31" s="2">
+        <v>0</v>
+      </c>
+      <c r="E31" s="2">
+        <v>0</v>
+      </c>
+      <c r="F31" s="2">
+        <v>10</v>
+      </c>
+      <c r="G31" s="2">
+        <v>0</v>
+      </c>
+      <c r="H31" s="2">
+        <v>0</v>
+      </c>
+      <c r="I31" s="2">
+        <v>0</v>
+      </c>
+      <c r="J31" s="2">
         <v>2</v>
       </c>
-      <c r="K31" s="17">
-        <v>1</v>
-      </c>
-      <c r="L31" s="17">
-        <v>0</v>
-      </c>
-      <c r="M31" s="17">
-        <v>0</v>
-      </c>
-      <c r="N31" s="17">
-        <v>0</v>
-      </c>
-      <c r="O31" s="17">
-        <v>0</v>
-      </c>
-      <c r="P31" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="17">
-        <v>0</v>
-      </c>
-      <c r="R31" s="32">
-        <v>0</v>
-      </c>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
-      <c r="V31" s="17"/>
-      <c r="W31" s="33"/>
-      <c r="X31" s="34" t="s">
+      <c r="K31" s="2">
+        <v>1</v>
+      </c>
+      <c r="L31" s="2">
+        <v>0</v>
+      </c>
+      <c r="M31" s="2">
+        <v>0</v>
+      </c>
+      <c r="N31" s="2">
+        <v>0</v>
+      </c>
+      <c r="O31" s="2">
+        <v>0</v>
+      </c>
+      <c r="P31" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="2">
+        <v>0</v>
+      </c>
+      <c r="R31" s="30">
+        <v>0</v>
+      </c>
+      <c r="S31" s="2"/>
+      <c r="T31" s="2"/>
+      <c r="U31" s="2"/>
+      <c r="V31" s="2"/>
+      <c r="W31" s="31"/>
+      <c r="X31" s="32" t="s">
         <v>172</v>
       </c>
-      <c r="Y31" s="17" t="s">
+      <c r="Y31" s="2" t="s">
         <v>173</v>
       </c>
-      <c r="Z31" s="17" t="s">
+      <c r="Z31" s="2" t="s">
         <v>174</v>
       </c>
-      <c r="AA31" s="33" t="s">
+      <c r="AA31" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" spans="1:27">
-      <c r="A32" s="16">
+      <c r="A32" s="15">
         <v>29</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="17">
-        <v>10</v>
-      </c>
-      <c r="D32" s="17">
-        <v>0</v>
-      </c>
-      <c r="E32" s="17">
-        <v>0</v>
-      </c>
-      <c r="F32" s="17">
-        <v>10</v>
-      </c>
-      <c r="G32" s="17">
-        <v>0</v>
-      </c>
-      <c r="H32" s="17">
-        <v>0</v>
-      </c>
-      <c r="I32" s="17">
-        <v>0</v>
-      </c>
-      <c r="J32" s="17">
+      <c r="C32" s="2">
+        <v>10</v>
+      </c>
+      <c r="D32" s="2">
+        <v>0</v>
+      </c>
+      <c r="E32" s="2">
+        <v>0</v>
+      </c>
+      <c r="F32" s="2">
+        <v>10</v>
+      </c>
+      <c r="G32" s="2">
+        <v>0</v>
+      </c>
+      <c r="H32" s="2">
+        <v>0</v>
+      </c>
+      <c r="I32" s="2">
+        <v>0</v>
+      </c>
+      <c r="J32" s="2">
         <v>2</v>
       </c>
-      <c r="K32" s="17">
-        <v>1</v>
-      </c>
-      <c r="L32" s="17">
-        <v>0</v>
-      </c>
-      <c r="M32" s="17">
-        <v>0</v>
-      </c>
-      <c r="N32" s="17">
-        <v>0</v>
-      </c>
-      <c r="O32" s="17">
-        <v>0</v>
-      </c>
-      <c r="P32" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="17">
-        <v>0</v>
-      </c>
-      <c r="R32" s="32">
-        <v>0</v>
-      </c>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-      <c r="V32" s="17"/>
-      <c r="W32" s="33"/>
-      <c r="X32" s="34" t="s">
+      <c r="K32" s="2">
+        <v>1</v>
+      </c>
+      <c r="L32" s="2">
+        <v>0</v>
+      </c>
+      <c r="M32" s="2">
+        <v>0</v>
+      </c>
+      <c r="N32" s="2">
+        <v>0</v>
+      </c>
+      <c r="O32" s="2">
+        <v>0</v>
+      </c>
+      <c r="P32" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="2">
+        <v>0</v>
+      </c>
+      <c r="R32" s="30">
+        <v>0</v>
+      </c>
+      <c r="S32" s="2"/>
+      <c r="T32" s="2"/>
+      <c r="U32" s="2"/>
+      <c r="V32" s="2"/>
+      <c r="W32" s="31"/>
+      <c r="X32" s="32" t="s">
         <v>176</v>
       </c>
-      <c r="Y32" s="17" t="s">
+      <c r="Y32" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="Z32" s="17" t="s">
+      <c r="Z32" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="AA32" s="33" t="s">
+      <c r="AA32" s="31" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="33" spans="1:27">
-      <c r="A33" s="16">
+      <c r="A33" s="15">
         <v>30</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="2" t="s">
         <v>180</v>
       </c>
-      <c r="C33" s="17">
-        <v>10</v>
-      </c>
-      <c r="D33" s="17">
-        <v>0</v>
-      </c>
-      <c r="E33" s="17">
-        <v>0</v>
-      </c>
-      <c r="F33" s="17">
-        <v>10</v>
-      </c>
-      <c r="G33" s="17">
-        <v>0</v>
-      </c>
-      <c r="H33" s="17">
-        <v>0</v>
-      </c>
-      <c r="I33" s="17">
-        <v>0</v>
-      </c>
-      <c r="J33" s="17">
+      <c r="C33" s="2">
+        <v>10</v>
+      </c>
+      <c r="D33" s="2">
+        <v>0</v>
+      </c>
+      <c r="E33" s="2">
+        <v>0</v>
+      </c>
+      <c r="F33" s="2">
+        <v>10</v>
+      </c>
+      <c r="G33" s="2">
+        <v>0</v>
+      </c>
+      <c r="H33" s="2">
+        <v>0</v>
+      </c>
+      <c r="I33" s="2">
+        <v>0</v>
+      </c>
+      <c r="J33" s="2">
         <v>2</v>
       </c>
-      <c r="K33" s="17">
-        <v>1</v>
-      </c>
-      <c r="L33" s="17">
-        <v>0</v>
-      </c>
-      <c r="M33" s="17">
-        <v>0</v>
-      </c>
-      <c r="N33" s="17">
-        <v>0</v>
-      </c>
-      <c r="O33" s="17">
-        <v>0</v>
-      </c>
-      <c r="P33" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="17">
-        <v>0</v>
-      </c>
-      <c r="R33" s="32">
-        <v>0</v>
-      </c>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-      <c r="V33" s="17"/>
-      <c r="W33" s="33"/>
-      <c r="X33" s="34" t="s">
+      <c r="K33" s="2">
+        <v>1</v>
+      </c>
+      <c r="L33" s="2">
+        <v>0</v>
+      </c>
+      <c r="M33" s="2">
+        <v>0</v>
+      </c>
+      <c r="N33" s="2">
+        <v>0</v>
+      </c>
+      <c r="O33" s="2">
+        <v>0</v>
+      </c>
+      <c r="P33" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="2">
+        <v>0</v>
+      </c>
+      <c r="R33" s="30">
+        <v>0</v>
+      </c>
+      <c r="S33" s="2"/>
+      <c r="T33" s="2"/>
+      <c r="U33" s="2"/>
+      <c r="V33" s="2"/>
+      <c r="W33" s="31"/>
+      <c r="X33" s="32" t="s">
         <v>181</v>
       </c>
-      <c r="Y33" s="17" t="s">
+      <c r="Y33" s="2" t="s">
         <v>182</v>
       </c>
-      <c r="Z33" s="17" t="s">
+      <c r="Z33" s="2" t="s">
         <v>183</v>
       </c>
-      <c r="AA33" s="33" t="s">
+      <c r="AA33" s="31" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="34" spans="1:27">
-      <c r="A34" s="16">
+      <c r="A34" s="15">
         <v>31</v>
       </c>
-      <c r="B34" s="17" t="s">
+      <c r="B34" s="2" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="17">
-        <v>10</v>
-      </c>
-      <c r="D34" s="17">
-        <v>0</v>
-      </c>
-      <c r="E34" s="17">
-        <v>0</v>
-      </c>
-      <c r="F34" s="17">
-        <v>10</v>
-      </c>
-      <c r="G34" s="17">
-        <v>0</v>
-      </c>
-      <c r="H34" s="17">
-        <v>0</v>
-      </c>
-      <c r="I34" s="17">
-        <v>0</v>
-      </c>
-      <c r="J34" s="17">
+      <c r="C34" s="2">
+        <v>10</v>
+      </c>
+      <c r="D34" s="2">
+        <v>0</v>
+      </c>
+      <c r="E34" s="2">
+        <v>0</v>
+      </c>
+      <c r="F34" s="2">
+        <v>10</v>
+      </c>
+      <c r="G34" s="2">
+        <v>0</v>
+      </c>
+      <c r="H34" s="2">
+        <v>0</v>
+      </c>
+      <c r="I34" s="2">
+        <v>0</v>
+      </c>
+      <c r="J34" s="2">
         <v>2</v>
       </c>
-      <c r="K34" s="17">
-        <v>1</v>
-      </c>
-      <c r="L34" s="17">
-        <v>0</v>
-      </c>
-      <c r="M34" s="17">
-        <v>0</v>
-      </c>
-      <c r="N34" s="17">
-        <v>0</v>
-      </c>
-      <c r="O34" s="17">
-        <v>0</v>
-      </c>
-      <c r="P34" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="17">
-        <v>0</v>
-      </c>
-      <c r="R34" s="32">
-        <v>0</v>
-      </c>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-      <c r="V34" s="17"/>
-      <c r="W34" s="33"/>
-      <c r="X34" s="34" t="s">
+      <c r="K34" s="2">
+        <v>1</v>
+      </c>
+      <c r="L34" s="2">
+        <v>0</v>
+      </c>
+      <c r="M34" s="2">
+        <v>0</v>
+      </c>
+      <c r="N34" s="2">
+        <v>0</v>
+      </c>
+      <c r="O34" s="2">
+        <v>0</v>
+      </c>
+      <c r="P34" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="2">
+        <v>0</v>
+      </c>
+      <c r="R34" s="30">
+        <v>0</v>
+      </c>
+      <c r="S34" s="2"/>
+      <c r="T34" s="2"/>
+      <c r="U34" s="2"/>
+      <c r="V34" s="2"/>
+      <c r="W34" s="31"/>
+      <c r="X34" s="32" t="s">
         <v>186</v>
       </c>
-      <c r="Y34" s="17" t="s">
+      <c r="Y34" s="2" t="s">
         <v>187</v>
       </c>
-      <c r="Z34" s="17" t="s">
+      <c r="Z34" s="2" t="s">
         <v>188</v>
       </c>
-      <c r="AA34" s="33" t="s">
+      <c r="AA34" s="31" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:27">
-      <c r="A35" s="16">
+      <c r="A35" s="15">
         <v>32</v>
       </c>
-      <c r="B35" s="17" t="s">
+      <c r="B35" s="2" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="17">
-        <v>10</v>
-      </c>
-      <c r="D35" s="17">
-        <v>0</v>
-      </c>
-      <c r="E35" s="17">
-        <v>0</v>
-      </c>
-      <c r="F35" s="17">
-        <v>10</v>
-      </c>
-      <c r="G35" s="17">
-        <v>0</v>
-      </c>
-      <c r="H35" s="17">
-        <v>0</v>
-      </c>
-      <c r="I35" s="17">
-        <v>0</v>
-      </c>
-      <c r="J35" s="17">
+      <c r="C35" s="2">
+        <v>10</v>
+      </c>
+      <c r="D35" s="2">
+        <v>0</v>
+      </c>
+      <c r="E35" s="2">
+        <v>0</v>
+      </c>
+      <c r="F35" s="2">
+        <v>10</v>
+      </c>
+      <c r="G35" s="2">
+        <v>0</v>
+      </c>
+      <c r="H35" s="2">
+        <v>0</v>
+      </c>
+      <c r="I35" s="2">
+        <v>0</v>
+      </c>
+      <c r="J35" s="2">
         <v>2</v>
       </c>
-      <c r="K35" s="17">
-        <v>1</v>
-      </c>
-      <c r="L35" s="17">
-        <v>0</v>
-      </c>
-      <c r="M35" s="17">
-        <v>0</v>
-      </c>
-      <c r="N35" s="17">
-        <v>0</v>
-      </c>
-      <c r="O35" s="17">
-        <v>0</v>
-      </c>
-      <c r="P35" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="17">
-        <v>0</v>
-      </c>
-      <c r="R35" s="32">
-        <v>0</v>
-      </c>
-      <c r="S35" s="17"/>
-      <c r="T35" s="17"/>
-      <c r="U35" s="17"/>
-      <c r="V35" s="17"/>
-      <c r="W35" s="33"/>
-      <c r="X35" s="34" t="s">
+      <c r="K35" s="2">
+        <v>1</v>
+      </c>
+      <c r="L35" s="2">
+        <v>0</v>
+      </c>
+      <c r="M35" s="2">
+        <v>0</v>
+      </c>
+      <c r="N35" s="2">
+        <v>0</v>
+      </c>
+      <c r="O35" s="2">
+        <v>0</v>
+      </c>
+      <c r="P35" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="2">
+        <v>0</v>
+      </c>
+      <c r="R35" s="30">
+        <v>0</v>
+      </c>
+      <c r="S35" s="2"/>
+      <c r="T35" s="2"/>
+      <c r="U35" s="2"/>
+      <c r="V35" s="2"/>
+      <c r="W35" s="31"/>
+      <c r="X35" s="32" t="s">
         <v>190</v>
       </c>
-      <c r="Y35" s="17" t="s">
+      <c r="Y35" s="2" t="s">
         <v>191</v>
       </c>
-      <c r="Z35" s="17" t="s">
+      <c r="Z35" s="2" t="s">
         <v>192</v>
       </c>
-      <c r="AA35" s="33" t="s">
+      <c r="AA35" s="31" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="36" spans="1:27">
-      <c r="A36" s="16">
+      <c r="A36" s="15">
         <v>33</v>
       </c>
-      <c r="B36" s="17" t="s">
+      <c r="B36" s="2" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="17">
-        <v>10</v>
-      </c>
-      <c r="D36" s="17">
-        <v>0</v>
-      </c>
-      <c r="E36" s="17">
-        <v>0</v>
-      </c>
-      <c r="F36" s="17">
-        <v>10</v>
-      </c>
-      <c r="G36" s="17">
-        <v>0</v>
-      </c>
-      <c r="H36" s="17">
-        <v>0</v>
-      </c>
-      <c r="I36" s="17">
-        <v>0</v>
-      </c>
-      <c r="J36" s="17">
+      <c r="C36" s="2">
+        <v>10</v>
+      </c>
+      <c r="D36" s="2">
+        <v>0</v>
+      </c>
+      <c r="E36" s="2">
+        <v>0</v>
+      </c>
+      <c r="F36" s="2">
+        <v>10</v>
+      </c>
+      <c r="G36" s="2">
+        <v>0</v>
+      </c>
+      <c r="H36" s="2">
+        <v>0</v>
+      </c>
+      <c r="I36" s="2">
+        <v>0</v>
+      </c>
+      <c r="J36" s="2">
         <v>2</v>
       </c>
-      <c r="K36" s="17">
-        <v>1</v>
-      </c>
-      <c r="L36" s="17">
-        <v>0</v>
-      </c>
-      <c r="M36" s="17">
-        <v>0</v>
-      </c>
-      <c r="N36" s="17">
-        <v>0</v>
-      </c>
-      <c r="O36" s="17">
-        <v>0</v>
-      </c>
-      <c r="P36" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="17">
-        <v>0</v>
-      </c>
-      <c r="R36" s="32">
-        <v>0</v>
-      </c>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-      <c r="V36" s="17"/>
-      <c r="W36" s="33"/>
-      <c r="X36" s="34" t="s">
+      <c r="K36" s="2">
+        <v>1</v>
+      </c>
+      <c r="L36" s="2">
+        <v>0</v>
+      </c>
+      <c r="M36" s="2">
+        <v>0</v>
+      </c>
+      <c r="N36" s="2">
+        <v>0</v>
+      </c>
+      <c r="O36" s="2">
+        <v>0</v>
+      </c>
+      <c r="P36" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="2">
+        <v>0</v>
+      </c>
+      <c r="R36" s="30">
+        <v>0</v>
+      </c>
+      <c r="S36" s="2"/>
+      <c r="T36" s="2"/>
+      <c r="U36" s="2"/>
+      <c r="V36" s="2"/>
+      <c r="W36" s="31"/>
+      <c r="X36" s="32" t="s">
         <v>195</v>
       </c>
-      <c r="Y36" s="17" t="s">
+      <c r="Y36" s="2" t="s">
         <v>196</v>
       </c>
-      <c r="Z36" s="17" t="s">
+      <c r="Z36" s="2" t="s">
         <v>197</v>
       </c>
-      <c r="AA36" s="33" t="s">
+      <c r="AA36" s="31" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="37" spans="1:27">
-      <c r="A37" s="16">
+      <c r="A37" s="15">
         <v>34</v>
       </c>
-      <c r="B37" s="17" t="s">
+      <c r="B37" s="2" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="17">
-        <v>10</v>
-      </c>
-      <c r="D37" s="17">
-        <v>0</v>
-      </c>
-      <c r="E37" s="17">
-        <v>0</v>
-      </c>
-      <c r="F37" s="17">
-        <v>10</v>
-      </c>
-      <c r="G37" s="17">
-        <v>0</v>
-      </c>
-      <c r="H37" s="17">
-        <v>0</v>
-      </c>
-      <c r="I37" s="17">
-        <v>0</v>
-      </c>
-      <c r="J37" s="17">
+      <c r="C37" s="2">
+        <v>10</v>
+      </c>
+      <c r="D37" s="2">
+        <v>0</v>
+      </c>
+      <c r="E37" s="2">
+        <v>0</v>
+      </c>
+      <c r="F37" s="2">
+        <v>10</v>
+      </c>
+      <c r="G37" s="2">
+        <v>0</v>
+      </c>
+      <c r="H37" s="2">
+        <v>0</v>
+      </c>
+      <c r="I37" s="2">
+        <v>0</v>
+      </c>
+      <c r="J37" s="2">
         <v>2</v>
       </c>
-      <c r="K37" s="17">
-        <v>1</v>
-      </c>
-      <c r="L37" s="17">
-        <v>0</v>
-      </c>
-      <c r="M37" s="17">
-        <v>0</v>
-      </c>
-      <c r="N37" s="17">
-        <v>0</v>
-      </c>
-      <c r="O37" s="17">
-        <v>0</v>
-      </c>
-      <c r="P37" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="17">
-        <v>0</v>
-      </c>
-      <c r="R37" s="32">
-        <v>0</v>
-      </c>
-      <c r="S37" s="17"/>
-      <c r="T37" s="17"/>
-      <c r="U37" s="17"/>
-      <c r="V37" s="17"/>
-      <c r="W37" s="33"/>
-      <c r="X37" s="34" t="s">
+      <c r="K37" s="2">
+        <v>1</v>
+      </c>
+      <c r="L37" s="2">
+        <v>0</v>
+      </c>
+      <c r="M37" s="2">
+        <v>0</v>
+      </c>
+      <c r="N37" s="2">
+        <v>0</v>
+      </c>
+      <c r="O37" s="2">
+        <v>0</v>
+      </c>
+      <c r="P37" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="2">
+        <v>0</v>
+      </c>
+      <c r="R37" s="30">
+        <v>0</v>
+      </c>
+      <c r="S37" s="2"/>
+      <c r="T37" s="2"/>
+      <c r="U37" s="2"/>
+      <c r="V37" s="2"/>
+      <c r="W37" s="31"/>
+      <c r="X37" s="32" t="s">
         <v>200</v>
       </c>
-      <c r="Y37" s="17" t="s">
+      <c r="Y37" s="2" t="s">
         <v>201</v>
       </c>
-      <c r="Z37" s="17" t="s">
+      <c r="Z37" s="2" t="s">
         <v>202</v>
       </c>
-      <c r="AA37" s="33" t="s">
+      <c r="AA37" s="31" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="38" spans="1:27">
-      <c r="A38" s="16">
+      <c r="A38" s="15">
         <v>35</v>
       </c>
-      <c r="B38" s="17" t="s">
+      <c r="B38" s="2" t="s">
         <v>204</v>
       </c>
-      <c r="C38" s="17">
-        <v>10</v>
-      </c>
-      <c r="D38" s="17">
-        <v>0</v>
-      </c>
-      <c r="E38" s="17">
-        <v>0</v>
-      </c>
-      <c r="F38" s="17">
-        <v>10</v>
-      </c>
-      <c r="G38" s="17">
-        <v>0</v>
-      </c>
-      <c r="H38" s="17">
-        <v>0</v>
-      </c>
-      <c r="I38" s="17">
-        <v>0</v>
-      </c>
-      <c r="J38" s="17">
+      <c r="C38" s="2">
+        <v>10</v>
+      </c>
+      <c r="D38" s="2">
+        <v>0</v>
+      </c>
+      <c r="E38" s="2">
+        <v>0</v>
+      </c>
+      <c r="F38" s="2">
+        <v>10</v>
+      </c>
+      <c r="G38" s="2">
+        <v>0</v>
+      </c>
+      <c r="H38" s="2">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0</v>
+      </c>
+      <c r="J38" s="2">
         <v>2</v>
       </c>
-      <c r="K38" s="17">
-        <v>1</v>
-      </c>
-      <c r="L38" s="17">
-        <v>0</v>
-      </c>
-      <c r="M38" s="17">
-        <v>0</v>
-      </c>
-      <c r="N38" s="17">
-        <v>0</v>
-      </c>
-      <c r="O38" s="17">
-        <v>0</v>
-      </c>
-      <c r="P38" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="17">
-        <v>0</v>
-      </c>
-      <c r="R38" s="32">
-        <v>0</v>
-      </c>
-      <c r="S38" s="17"/>
-      <c r="T38" s="17"/>
-      <c r="U38" s="17"/>
-      <c r="V38" s="17"/>
-      <c r="W38" s="33"/>
-      <c r="X38" s="34" t="s">
+      <c r="K38" s="2">
+        <v>1</v>
+      </c>
+      <c r="L38" s="2">
+        <v>0</v>
+      </c>
+      <c r="M38" s="2">
+        <v>0</v>
+      </c>
+      <c r="N38" s="2">
+        <v>0</v>
+      </c>
+      <c r="O38" s="2">
+        <v>0</v>
+      </c>
+      <c r="P38" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="2">
+        <v>0</v>
+      </c>
+      <c r="R38" s="30">
+        <v>0</v>
+      </c>
+      <c r="S38" s="2"/>
+      <c r="T38" s="2"/>
+      <c r="U38" s="2"/>
+      <c r="V38" s="2"/>
+      <c r="W38" s="31"/>
+      <c r="X38" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="Y38" s="17" t="s">
+      <c r="Y38" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="Z38" s="17" t="s">
+      <c r="Z38" s="2" t="s">
         <v>207</v>
       </c>
-      <c r="AA38" s="33" t="s">
+      <c r="AA38" s="31" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="39" spans="1:27">
-      <c r="A39" s="16">
+      <c r="A39" s="15">
         <v>36</v>
       </c>
-      <c r="B39" s="17" t="s">
+      <c r="B39" s="2" t="s">
         <v>209</v>
       </c>
-      <c r="C39" s="17">
-        <v>10</v>
-      </c>
-      <c r="D39" s="17">
-        <v>0</v>
-      </c>
-      <c r="E39" s="17">
-        <v>0</v>
-      </c>
-      <c r="F39" s="17">
-        <v>10</v>
-      </c>
-      <c r="G39" s="17">
-        <v>0</v>
-      </c>
-      <c r="H39" s="17">
-        <v>0</v>
-      </c>
-      <c r="I39" s="17">
-        <v>0</v>
-      </c>
-      <c r="J39" s="17">
+      <c r="C39" s="2">
+        <v>10</v>
+      </c>
+      <c r="D39" s="2">
+        <v>0</v>
+      </c>
+      <c r="E39" s="2">
+        <v>0</v>
+      </c>
+      <c r="F39" s="2">
+        <v>10</v>
+      </c>
+      <c r="G39" s="2">
+        <v>0</v>
+      </c>
+      <c r="H39" s="2">
+        <v>0</v>
+      </c>
+      <c r="I39" s="2">
+        <v>0</v>
+      </c>
+      <c r="J39" s="2">
         <v>2</v>
       </c>
-      <c r="K39" s="17">
-        <v>1</v>
-      </c>
-      <c r="L39" s="17">
-        <v>0</v>
-      </c>
-      <c r="M39" s="17">
-        <v>0</v>
-      </c>
-      <c r="N39" s="17">
-        <v>0</v>
-      </c>
-      <c r="O39" s="17">
-        <v>0</v>
-      </c>
-      <c r="P39" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="17">
-        <v>0</v>
-      </c>
-      <c r="R39" s="32">
-        <v>0</v>
-      </c>
-      <c r="S39" s="17"/>
-      <c r="T39" s="17"/>
-      <c r="U39" s="17"/>
-      <c r="V39" s="17"/>
-      <c r="W39" s="33"/>
-      <c r="X39" s="34" t="s">
+      <c r="K39" s="2">
+        <v>1</v>
+      </c>
+      <c r="L39" s="2">
+        <v>0</v>
+      </c>
+      <c r="M39" s="2">
+        <v>0</v>
+      </c>
+      <c r="N39" s="2">
+        <v>0</v>
+      </c>
+      <c r="O39" s="2">
+        <v>0</v>
+      </c>
+      <c r="P39" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="2">
+        <v>0</v>
+      </c>
+      <c r="R39" s="30">
+        <v>0</v>
+      </c>
+      <c r="S39" s="2"/>
+      <c r="T39" s="2"/>
+      <c r="U39" s="2"/>
+      <c r="V39" s="2"/>
+      <c r="W39" s="31"/>
+      <c r="X39" s="32" t="s">
         <v>210</v>
       </c>
-      <c r="Y39" s="17" t="s">
+      <c r="Y39" s="2" t="s">
         <v>211</v>
       </c>
-      <c r="Z39" s="17" t="s">
+      <c r="Z39" s="2" t="s">
         <v>212</v>
       </c>
-      <c r="AA39" s="33" t="s">
+      <c r="AA39" s="31" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="40" spans="1:27">
-      <c r="A40" s="16">
+      <c r="A40" s="15">
         <v>37</v>
       </c>
-      <c r="B40" s="17" t="s">
+      <c r="B40" s="2" t="s">
         <v>214</v>
       </c>
-      <c r="C40" s="17">
-        <v>10</v>
-      </c>
-      <c r="D40" s="17">
-        <v>0</v>
-      </c>
-      <c r="E40" s="17">
-        <v>0</v>
-      </c>
-      <c r="F40" s="17">
-        <v>10</v>
-      </c>
-      <c r="G40" s="17">
-        <v>0</v>
-      </c>
-      <c r="H40" s="17">
-        <v>0</v>
-      </c>
-      <c r="I40" s="17">
-        <v>0</v>
-      </c>
-      <c r="J40" s="17">
+      <c r="C40" s="2">
+        <v>10</v>
+      </c>
+      <c r="D40" s="2">
+        <v>0</v>
+      </c>
+      <c r="E40" s="2">
+        <v>0</v>
+      </c>
+      <c r="F40" s="2">
+        <v>10</v>
+      </c>
+      <c r="G40" s="2">
+        <v>0</v>
+      </c>
+      <c r="H40" s="2">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0</v>
+      </c>
+      <c r="J40" s="2">
         <v>2</v>
       </c>
-      <c r="K40" s="17">
-        <v>1</v>
-      </c>
-      <c r="L40" s="17">
-        <v>0</v>
-      </c>
-      <c r="M40" s="17">
-        <v>0</v>
-      </c>
-      <c r="N40" s="17">
-        <v>0</v>
-      </c>
-      <c r="O40" s="17">
-        <v>0</v>
-      </c>
-      <c r="P40" s="17">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="17">
-        <v>0</v>
-      </c>
-      <c r="R40" s="32">
-        <v>0</v>
-      </c>
-      <c r="S40" s="17"/>
-      <c r="T40" s="17"/>
-      <c r="U40" s="17"/>
-      <c r="V40" s="17"/>
-      <c r="W40" s="33"/>
-      <c r="X40" s="34" t="s">
+      <c r="K40" s="2">
+        <v>1</v>
+      </c>
+      <c r="L40" s="2">
+        <v>0</v>
+      </c>
+      <c r="M40" s="2">
+        <v>0</v>
+      </c>
+      <c r="N40" s="2">
+        <v>0</v>
+      </c>
+      <c r="O40" s="2">
+        <v>0</v>
+      </c>
+      <c r="P40" s="2">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="2">
+        <v>0</v>
+      </c>
+      <c r="R40" s="30">
+        <v>0</v>
+      </c>
+      <c r="S40" s="2"/>
+      <c r="T40" s="2"/>
+      <c r="U40" s="2"/>
+      <c r="V40" s="2"/>
+      <c r="W40" s="31"/>
+      <c r="X40" s="32" t="s">
         <v>215</v>
       </c>
-      <c r="Y40" s="17" t="s">
+      <c r="Y40" s="2" t="s">
         <v>216</v>
       </c>
-      <c r="Z40" s="17" t="s">
+      <c r="Z40" s="2" t="s">
         <v>217</v>
       </c>
-      <c r="AA40" s="33" t="s">
+      <c r="AA40" s="31" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" ht="14.25" spans="1:27">
-      <c r="A41" s="18">
+      <c r="A41" s="16">
         <v>38</v>
       </c>
-      <c r="B41" s="19" t="s">
+      <c r="B41" s="17" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="19">
-        <v>10</v>
-      </c>
-      <c r="D41" s="19">
-        <v>0</v>
-      </c>
-      <c r="E41" s="19">
-        <v>0</v>
-      </c>
-      <c r="F41" s="19">
-        <v>10</v>
-      </c>
-      <c r="G41" s="19">
-        <v>0</v>
-      </c>
-      <c r="H41" s="19">
-        <v>0</v>
-      </c>
-      <c r="I41" s="19">
-        <v>0</v>
-      </c>
-      <c r="J41" s="19">
+      <c r="C41" s="17">
+        <v>10</v>
+      </c>
+      <c r="D41" s="17">
+        <v>0</v>
+      </c>
+      <c r="E41" s="17">
+        <v>0</v>
+      </c>
+      <c r="F41" s="17">
+        <v>10</v>
+      </c>
+      <c r="G41" s="17">
+        <v>0</v>
+      </c>
+      <c r="H41" s="17">
+        <v>0</v>
+      </c>
+      <c r="I41" s="17">
+        <v>0</v>
+      </c>
+      <c r="J41" s="17">
         <v>2</v>
       </c>
-      <c r="K41" s="19">
-        <v>1</v>
-      </c>
-      <c r="L41" s="19">
-        <v>0</v>
-      </c>
-      <c r="M41" s="19">
-        <v>0</v>
-      </c>
-      <c r="N41" s="19">
-        <v>0</v>
-      </c>
-      <c r="O41" s="19">
-        <v>0</v>
-      </c>
-      <c r="P41" s="19">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="19">
-        <v>0</v>
-      </c>
-      <c r="R41" s="35">
-        <v>0</v>
-      </c>
-      <c r="S41" s="19"/>
-      <c r="T41" s="19"/>
-      <c r="U41" s="19"/>
-      <c r="V41" s="19"/>
-      <c r="W41" s="36"/>
-      <c r="X41" s="37" t="s">
+      <c r="K41" s="17">
+        <v>1</v>
+      </c>
+      <c r="L41" s="17">
+        <v>0</v>
+      </c>
+      <c r="M41" s="17">
+        <v>0</v>
+      </c>
+      <c r="N41" s="17">
+        <v>0</v>
+      </c>
+      <c r="O41" s="17">
+        <v>0</v>
+      </c>
+      <c r="P41" s="17">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="17">
+        <v>0</v>
+      </c>
+      <c r="R41" s="33">
+        <v>0</v>
+      </c>
+      <c r="S41" s="17"/>
+      <c r="T41" s="17"/>
+      <c r="U41" s="17"/>
+      <c r="V41" s="17"/>
+      <c r="W41" s="34"/>
+      <c r="X41" s="35" t="s">
         <v>219</v>
       </c>
-      <c r="Y41" s="19" t="s">
+      <c r="Y41" s="17" t="s">
         <v>220</v>
       </c>
-      <c r="Z41" s="19" t="s">
+      <c r="Z41" s="17" t="s">
         <v>221</v>
       </c>
-      <c r="AA41" s="36" t="s">
+      <c r="AA41" s="34" t="s">
         <v>55</v>
       </c>
     </row>
@@ -5940,15 +5973,15 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="3"/>
   <sheetData>
-    <row r="1" spans="1:11">
+    <row r="1" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5979,46 +6012,40 @@
       <c r="J1" s="2" t="s">
         <v>230</v>
       </c>
-      <c r="K1" s="2" t="s">
+    </row>
+    <row r="2" spans="1:10">
+      <c r="A2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="2" t="s">
         <v>231</v>
       </c>
-    </row>
-    <row r="2" spans="1:11">
-      <c r="A2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="2" t="s">
+      <c r="C2" s="2" t="s">
         <v>232</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="D2" s="2" t="s">
         <v>233</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="E2" s="2" t="s">
         <v>234</v>
       </c>
-      <c r="E2" s="2" t="s">
+      <c r="F2" s="2" t="s">
         <v>235</v>
       </c>
-      <c r="F2" s="2" t="s">
+      <c r="G2" s="2" t="s">
         <v>236</v>
       </c>
-      <c r="G2" s="2" t="s">
+      <c r="H2" s="2" t="s">
         <v>237</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="I2" s="2" t="s">
         <v>238</v>
       </c>
-      <c r="I2" s="2" t="s">
+      <c r="J2" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="J2" s="2" t="s">
-        <v>240</v>
-      </c>
-      <c r="K2" s="2" t="s">
-        <v>241</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11">
+    </row>
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>49</v>
       </c>
@@ -6044,37 +6071,33 @@
         <v>49</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>49</v>
+        <v>240</v>
       </c>
       <c r="J3" s="2" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>242</v>
-      </c>
-      <c r="K3" s="2" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11">
-      <c r="A4" s="2" t="s">
-        <v>243</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>244</v>
       </c>
       <c r="C4" s="2">
         <v>99</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2"/>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
+      <c r="I4" s="2">
+        <v>1</v>
+      </c>
       <c r="J4" s="2">
-        <v>1</v>
-      </c>
-      <c r="K4" s="2">
         <v>1</v>
       </c>
     </row>
@@ -6087,13 +6110,13 @@
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:F11"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="A1:H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
   <cols>
     <col min="1" max="1" width="17.125" customWidth="1"/>
     <col min="2" max="2" width="16" customWidth="1"/>
@@ -6103,27 +6126,33 @@
     <col min="6" max="6" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:8">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="6" t="s">
+        <v>244</v>
+      </c>
+      <c r="C1" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="D1" s="6" t="s">
         <v>246</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="E1" s="6" t="s">
         <v>247</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="F1" s="6" t="s">
         <v>248</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="G1" t="s">
         <v>249</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="H1" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="2" spans="1:6">
+    <row r="2" spans="1:8">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -6142,8 +6171,11 @@
       <c r="F2" s="6" t="s">
         <v>255</v>
       </c>
-    </row>
-    <row r="3" spans="1:6">
+      <c r="H2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
       <c r="A3" s="6" t="s">
         <v>49</v>
       </c>
@@ -6151,176 +6183,230 @@
         <v>49</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="F3" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="G3" t="s">
+        <v>259</v>
+      </c>
+      <c r="H3" t="s">
         <v>257</v>
       </c>
-      <c r="F3" s="6" t="s">
-        <v>257</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+    </row>
+    <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B4" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C4" t="s">
+        <v>262</v>
+      </c>
+      <c r="D4" t="s">
         <v>260</v>
       </c>
-      <c r="D4" t="s">
-        <v>258</v>
-      </c>
       <c r="E4" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="F4" t="s">
-        <v>262</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>264</v>
+      </c>
+      <c r="G4" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="H4" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C5" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="D5" t="s">
+        <v>267</v>
+      </c>
+      <c r="E5" t="s">
+        <v>270</v>
+      </c>
+      <c r="F5" t="s">
+        <v>271</v>
+      </c>
+      <c r="G5" s="41" t="s">
         <v>265</v>
       </c>
-      <c r="D5" t="s">
-        <v>263</v>
-      </c>
-      <c r="E5" t="s">
-        <v>266</v>
-      </c>
-      <c r="F5" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="H5" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>270</v>
+        <v>275</v>
       </c>
       <c r="D6" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="E6" t="s">
-        <v>271</v>
+        <v>276</v>
       </c>
       <c r="F6" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>277</v>
+      </c>
+      <c r="G6" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="H6" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B7" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="E7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="F7" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>277</v>
+      </c>
+      <c r="G7" s="41" t="s">
+        <v>265</v>
+      </c>
+      <c r="H7" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>279</v>
+        <v>286</v>
       </c>
       <c r="D8" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="E8" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>288</v>
+      </c>
+      <c r="G8" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="H8" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B9" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>283</v>
+        <v>292</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="E9" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F9" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>288</v>
+      </c>
+      <c r="G9" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="H9" s="7" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B10" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>286</v>
+        <v>296</v>
       </c>
       <c r="D10" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="E10" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>288</v>
+      </c>
+      <c r="G10" s="41" t="s">
+        <v>289</v>
+      </c>
+      <c r="H10" s="7" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
       <c r="A11" t="s">
+        <v>298</v>
+      </c>
+      <c r="B11" t="s">
+        <v>299</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>300</v>
+      </c>
+      <c r="D11" t="s">
+        <v>298</v>
+      </c>
+      <c r="E11" t="s">
         <v>287</v>
       </c>
-      <c r="B11" t="s">
+      <c r="F11" t="s">
         <v>288</v>
       </c>
-      <c r="C11" s="7" t="s">
+      <c r="G11" s="41" t="s">
         <v>289</v>
       </c>
-      <c r="D11" t="s">
-        <v>287</v>
-      </c>
-      <c r="E11" t="s">
-        <v>280</v>
-      </c>
-      <c r="F11" t="s">
-        <v>281</v>
+      <c r="H11" s="7" t="s">
+        <v>301</v>
       </c>
     </row>
   </sheetData>
@@ -6335,7 +6421,7 @@
   <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="B43" sqref="B43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -6349,25 +6435,25 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="F1" s="5" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="G1" s="5" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -6378,22 +6464,22 @@
         <v>251</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="F2" s="5" t="s">
         <v>137</v>
       </c>
       <c r="G2" s="5" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="H2" s="5" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -6404,30 +6490,30 @@
         <v>49</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="G3" s="5" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C4" s="2">
         <v>100</v>
@@ -6450,10 +6536,10 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" s="2" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="C5" s="2">
         <v>100</v>
@@ -6476,10 +6562,10 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" s="2" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="C6" s="2">
         <v>100</v>
@@ -6502,10 +6588,10 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" s="2" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="C7" s="2">
         <v>100</v>
@@ -6528,10 +6614,10 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" s="2" t="s">
-        <v>277</v>
+        <v>284</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>278</v>
+        <v>285</v>
       </c>
       <c r="C8" s="2">
         <v>100</v>
@@ -6554,10 +6640,10 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" s="2" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>282</v>
+        <v>291</v>
       </c>
       <c r="C9" s="2">
         <v>100</v>
@@ -6580,10 +6666,10 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" s="2" t="s">
-        <v>284</v>
+        <v>294</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>285</v>
+        <v>295</v>
       </c>
       <c r="C10" s="2">
         <v>100</v>
@@ -6606,10 +6692,10 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" s="2" t="s">
-        <v>287</v>
+        <v>298</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>288</v>
+        <v>299</v>
       </c>
       <c r="C11" s="2">
         <v>100</v>
@@ -6642,7 +6728,7 @@
   <dimension ref="A1:K22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A19" sqref="A19:K22"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6664,34 +6750,34 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>307</v>
+        <v>319</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>308</v>
+        <v>320</v>
       </c>
       <c r="K1" s="3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
     </row>
     <row r="2" spans="1:11">
@@ -6699,34 +6785,34 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>314</v>
+        <v>326</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>316</v>
+        <v>328</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>317</v>
+        <v>329</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -6737,16 +6823,16 @@
         <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G3" s="3" t="s">
         <v>49</v>
@@ -6755,24 +6841,24 @@
         <v>49</v>
       </c>
       <c r="I3" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:11">
       <c r="A4" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
@@ -6780,10 +6866,10 @@
         <v>0</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>322</v>
+        <v>334</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="I4" s="2"/>
       <c r="J4" s="2">
@@ -6795,27 +6881,27 @@
     </row>
     <row r="5" spans="1:11">
       <c r="A5" s="2" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>326</v>
+        <v>338</v>
       </c>
       <c r="F5" s="2">
         <v>0</v>
       </c>
       <c r="G5" s="4" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2" t="s">
-        <v>328</v>
+        <v>340</v>
       </c>
       <c r="J5" s="2">
         <v>3</v>
@@ -6826,29 +6912,29 @@
     </row>
     <row r="6" spans="1:11">
       <c r="A6" s="2" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>330</v>
+        <v>342</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>331</v>
+        <v>343</v>
       </c>
       <c r="F6" s="2">
         <v>0</v>
       </c>
       <c r="G6" s="4" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="H6" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>333</v>
+        <v>345</v>
       </c>
       <c r="J6" s="2">
         <v>2</v>
@@ -6859,23 +6945,23 @@
     </row>
     <row r="7" spans="1:11">
       <c r="A7" s="2" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>335</v>
+        <v>347</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="F7" s="2">
         <v>1</v>
       </c>
       <c r="G7" s="4" t="s">
-        <v>337</v>
+        <v>349</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -6888,23 +6974,23 @@
     </row>
     <row r="8" spans="1:11">
       <c r="A8" s="2" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>339</v>
+        <v>351</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="F8" s="2">
         <v>1</v>
       </c>
       <c r="G8" s="4" t="s">
-        <v>341</v>
+        <v>353</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -6917,13 +7003,13 @@
     </row>
     <row r="9" spans="1:11">
       <c r="A9" s="2" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>343</v>
+        <v>355</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
@@ -6931,10 +7017,10 @@
         <v>0</v>
       </c>
       <c r="G9" s="4" t="s">
-        <v>344</v>
+        <v>356</v>
       </c>
       <c r="H9" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="I9" s="2"/>
       <c r="J9" s="2">
@@ -6946,27 +7032,27 @@
     </row>
     <row r="10" spans="1:11">
       <c r="A10" s="2" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="F10" s="2">
         <v>0</v>
       </c>
       <c r="G10" s="4" t="s">
-        <v>348</v>
+        <v>360</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="J10" s="2">
         <v>4</v>
@@ -6977,29 +7063,29 @@
     </row>
     <row r="11" spans="1:11">
       <c r="A11" s="2" t="s">
-        <v>350</v>
+        <v>362</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>352</v>
+        <v>364</v>
       </c>
       <c r="F11" s="2">
         <v>0</v>
       </c>
       <c r="G11" s="4" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="H11" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="I11" s="2" t="s">
-        <v>354</v>
+        <v>366</v>
       </c>
       <c r="J11" s="2">
         <v>3</v>
@@ -7010,29 +7096,29 @@
     </row>
     <row r="12" spans="1:11">
       <c r="A12" s="2" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>356</v>
+        <v>368</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="F12" s="2">
         <v>0</v>
       </c>
       <c r="G12" s="4" t="s">
-        <v>358</v>
+        <v>370</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="I12" s="2" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="J12" s="2">
         <v>2</v>
@@ -7043,27 +7129,27 @@
     </row>
     <row r="13" spans="1:11">
       <c r="A13" s="2" t="s">
-        <v>360</v>
+        <v>372</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>362</v>
+        <v>374</v>
       </c>
       <c r="F13" s="2">
         <v>0</v>
       </c>
       <c r="G13" s="4" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2" t="s">
-        <v>364</v>
+        <v>376</v>
       </c>
       <c r="J13" s="2">
         <v>2</v>
@@ -7074,13 +7160,13 @@
     </row>
     <row r="14" spans="1:11">
       <c r="A14" s="2" t="s">
-        <v>365</v>
+        <v>377</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2"/>
@@ -7088,10 +7174,10 @@
         <v>0</v>
       </c>
       <c r="G14" s="4" t="s">
-        <v>367</v>
+        <v>379</v>
       </c>
       <c r="H14" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="I14" s="2"/>
       <c r="J14" s="2">
@@ -7103,27 +7189,27 @@
     </row>
     <row r="15" spans="1:11">
       <c r="A15" s="2" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>369</v>
+        <v>381</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="F15" s="2">
         <v>0</v>
       </c>
       <c r="G15" s="4" t="s">
-        <v>371</v>
+        <v>383</v>
       </c>
       <c r="H15" s="2"/>
       <c r="I15" s="2" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="J15" s="2">
         <v>3</v>
@@ -7134,27 +7220,27 @@
     </row>
     <row r="16" spans="1:11">
       <c r="A16" s="2" t="s">
-        <v>373</v>
+        <v>385</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>374</v>
+        <v>386</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="F16" s="2">
         <v>0</v>
       </c>
       <c r="G16" s="4" t="s">
-        <v>376</v>
+        <v>388</v>
       </c>
       <c r="H16" s="2"/>
       <c r="I16" s="2" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="J16" s="2">
         <v>3</v>
@@ -7165,27 +7251,27 @@
     </row>
     <row r="17" spans="1:11">
       <c r="A17" s="2" t="s">
-        <v>378</v>
+        <v>390</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D17" s="2"/>
       <c r="E17" s="2" t="s">
-        <v>380</v>
+        <v>392</v>
       </c>
       <c r="F17" s="2">
         <v>0</v>
       </c>
       <c r="G17" s="4" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="H17" s="2"/>
       <c r="I17" s="2" t="s">
-        <v>382</v>
+        <v>394</v>
       </c>
       <c r="J17" s="2">
         <v>2</v>
@@ -7196,23 +7282,23 @@
     </row>
     <row r="18" spans="1:11">
       <c r="A18" s="2" t="s">
-        <v>383</v>
+        <v>395</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>385</v>
+        <v>397</v>
       </c>
       <c r="F18" s="2">
         <v>1</v>
       </c>
       <c r="G18" s="4" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
@@ -7225,27 +7311,27 @@
     </row>
     <row r="19" spans="1:11">
       <c r="A19" s="2" t="s">
-        <v>387</v>
+        <v>399</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>388</v>
+        <v>400</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D19" s="2"/>
       <c r="E19" s="2" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="F19" s="2">
         <v>0</v>
       </c>
       <c r="G19" s="4" t="s">
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="H19" s="2"/>
       <c r="I19" s="2" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="J19" s="2">
         <v>3</v>
@@ -7256,29 +7342,29 @@
     </row>
     <row r="20" spans="1:11">
       <c r="A20" s="2" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>392</v>
+        <v>404</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>393</v>
+        <v>405</v>
       </c>
       <c r="F20" s="2">
         <v>0</v>
       </c>
       <c r="G20" s="4" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="H20" s="2" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="I20" s="2" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="J20" s="2">
         <v>3</v>
@@ -7289,27 +7375,27 @@
     </row>
     <row r="21" spans="1:11">
       <c r="A21" s="2" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="F21" s="2">
         <v>0</v>
       </c>
       <c r="G21" s="4" t="s">
-        <v>398</v>
+        <v>410</v>
       </c>
       <c r="H21" s="2"/>
       <c r="I21" s="2" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="J21" s="2">
         <v>2</v>
@@ -7320,23 +7406,23 @@
     </row>
     <row r="22" spans="1:11">
       <c r="A22" s="2" t="s">
-        <v>400</v>
+        <v>412</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>321</v>
+        <v>333</v>
       </c>
       <c r="D22" s="2"/>
       <c r="E22" s="2" t="s">
-        <v>402</v>
+        <v>414</v>
       </c>
       <c r="F22" s="2">
         <v>1</v>
       </c>
       <c r="G22" s="4" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
@@ -7359,7 +7445,7 @@
   <dimension ref="A1:J8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7"/>
@@ -7376,31 +7462,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>303</v>
+        <v>315</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>305</v>
+        <v>317</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>404</v>
+        <v>416</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="I1" s="3" t="s">
-        <v>406</v>
+        <v>418</v>
       </c>
       <c r="J1" s="3" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
     </row>
     <row r="2" spans="1:10">
@@ -7408,29 +7494,29 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>310</v>
+        <v>322</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>312</v>
+        <v>324</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>313</v>
+        <v>325</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>408</v>
+        <v>420</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="I2" s="3"/>
       <c r="J2" s="3" t="s">
-        <v>410</v>
+        <v>422</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -7441,13 +7527,13 @@
         <v>49</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>49</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>49</v>
@@ -7456,34 +7542,34 @@
         <v>49</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="I3" s="3" t="s">
         <v>50</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:10">
       <c r="A4" s="2" t="s">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>325</v>
+        <v>337</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="2" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>413</v>
+        <v>425</v>
       </c>
       <c r="G4" s="2" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="H4" s="2">
         <v>0</v>
@@ -7497,23 +7583,23 @@
     </row>
     <row r="5" spans="1:10">
       <c r="A5" s="2" t="s">
-        <v>415</v>
+        <v>427</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>416</v>
+        <v>428</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D5" s="2"/>
       <c r="E5" s="2" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="G5" s="2" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="H5" s="2">
         <v>0</v>
@@ -7527,23 +7613,23 @@
     </row>
     <row r="6" spans="1:10">
       <c r="A6" s="2" t="s">
-        <v>395</v>
+        <v>407</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="G6" s="2" t="s">
         <v>418</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>419</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>406</v>
       </c>
       <c r="H6" s="2">
         <v>1</v>
@@ -7557,23 +7643,23 @@
     </row>
     <row r="7" spans="1:10">
       <c r="A7" s="2" t="s">
-        <v>420</v>
+        <v>432</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>422</v>
+        <v>434</v>
       </c>
       <c r="F7" s="4" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="G7" s="2" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="H7" s="2">
         <v>0</v>
@@ -7587,23 +7673,23 @@
     </row>
     <row r="8" spans="1:10">
       <c r="A8" s="2" t="s">
-        <v>424</v>
+        <v>436</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>425</v>
+        <v>437</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>411</v>
+        <v>423</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="F8" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="G8" s="2" t="s">
         <v>426</v>
-      </c>
-      <c r="F8" s="4" t="s">
-        <v>427</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>414</v>
       </c>
       <c r="H8" s="2">
         <v>0</v>
@@ -7626,8 +7712,8 @@
   <sheetPr/>
   <dimension ref="A1:G9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -7640,22 +7726,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>429</v>
+        <v>441</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>430</v>
+        <v>442</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>432</v>
+        <v>444</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -7663,22 +7749,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>434</v>
+        <v>446</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>435</v>
+        <v>447</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>319</v>
+        <v>331</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>437</v>
+        <v>449</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -7689,27 +7775,27 @@
         <v>49</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>299</v>
+        <v>311</v>
       </c>
       <c r="E3" s="1" t="s">
         <v>50</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
     </row>
     <row r="4" spans="1:7">
       <c r="A4" s="2" t="s">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>294</v>
+        <v>306</v>
       </c>
       <c r="C4" s="2">
         <v>100</v>
@@ -7729,10 +7815,10 @@
     </row>
     <row r="5" spans="1:7">
       <c r="A5" s="2" t="s">
-        <v>280</v>
+        <v>287</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>295</v>
+        <v>307</v>
       </c>
       <c r="C5" s="2">
         <v>10</v>
@@ -7752,10 +7838,10 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="s">
-        <v>290</v>
+        <v>302</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C6" s="2">
         <v>5</v>
@@ -7775,7 +7861,7 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="s">
-        <v>291</v>
+        <v>303</v>
       </c>
       <c r="B7" s="2" t="s">
         <v>137</v>
@@ -7798,10 +7884,10 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>297</v>
+        <v>309</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -7821,10 +7907,10 @@
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="s">
-        <v>293</v>
+        <v>305</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>298</v>
+        <v>310</v>
       </c>
       <c r="C9" s="2">
         <v>0</v>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="6"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="668" uniqueCount="452">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="454">
   <si>
     <t>ID</t>
   </si>
@@ -553,6 +553,9 @@
     <t>骷髅士兵</t>
   </si>
   <si>
+    <t>camp</t>
+  </si>
+  <si>
     <t>character_icon</t>
   </si>
   <si>
@@ -571,6 +574,9 @@
     <t>animation_library</t>
   </si>
   <si>
+    <t>角色阵营0玩家1敌人</t>
+  </si>
+  <si>
     <t>角色头像</t>
   </si>
   <si>
@@ -598,7 +604,7 @@
     <t>health*rage</t>
   </si>
   <si>
-    <t>0,-64</t>
+    <t>0,-96</t>
   </si>
   <si>
     <t>res://scenes/character/resources/animation/hero/animation_library_crystal_mauler.res</t>
@@ -1383,7 +1389,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1395,6 +1401,12 @@
       <sz val="11"/>
       <color rgb="FFffffff"/>
       <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1455,6 +1467,13 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFc6c6c6"/>
       </left>
@@ -1470,13 +1489,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color rgb="FF000000"/>
       </left>
@@ -1798,7 +1810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="57">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1812,52 +1824,61 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+      <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="general"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -1866,46 +1887,46 @@
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -2267,7 +2288,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="53" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="56" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -2297,325 +2318,325 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
-        <v>234</v>
-      </c>
-      <c r="C1" s="18" t="s">
-        <v>235</v>
-      </c>
-      <c r="D1" s="18" t="s">
+      <c r="A1" s="19" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="20" t="s">
         <v>236</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="C1" s="21" t="s">
         <v>237</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="D1" s="21" t="s">
         <v>238</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="E1" s="21" t="s">
         <v>239</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="F1" s="21" t="s">
         <v>240</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="G1" s="21" t="s">
         <v>241</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="H1" s="21" t="s">
         <v>242</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="I1" s="21" t="s">
         <v>243</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="J1" s="21" t="s">
         <v>244</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="K1" s="21" t="s">
         <v>245</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="L1" s="21" t="s">
         <v>246</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="M1" s="21" t="s">
         <v>247</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="N1" s="21" t="s">
         <v>248</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="O1" s="21" t="s">
         <v>249</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="P1" s="21" t="s">
         <v>250</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="Q1" s="21" t="s">
         <v>251</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="R1" s="22" t="s">
         <v>252</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="S1" s="20" t="s">
         <v>253</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="T1" s="20" t="s">
         <v>254</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="U1" s="20" t="s">
         <v>255</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="22"/>
+      <c r="V1" s="20" t="s">
+        <v>256</v>
+      </c>
+      <c r="W1" s="23" t="s">
+        <v>257</v>
+      </c>
+      <c r="X1" s="24"/>
+      <c r="Y1" s="24"/>
+      <c r="Z1" s="24"/>
+      <c r="AA1" s="25"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="23" t="s">
-        <v>256</v>
-      </c>
-      <c r="B2" s="24" t="s">
-        <v>257</v>
+      <c r="A2" s="26" t="s">
+        <v>258</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>259</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="D2" s="11" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="F2" s="11" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="G2" s="11" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="H2" s="11" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="I2" s="11" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="J2" s="11" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="K2" s="11" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="L2" s="11" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="M2" s="11" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="N2" s="11" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="O2" s="11" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="P2" s="11" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="Q2" s="11" t="s">
-        <v>272</v>
-      </c>
-      <c r="R2" s="25" t="s">
-        <v>273</v>
-      </c>
-      <c r="S2" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="R2" s="28" t="s">
         <v>275</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="S2" s="27" t="s">
         <v>276</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="T2" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="W2" s="26" t="s">
-        <v>272</v>
-      </c>
-      <c r="X2" s="27" t="s">
+      <c r="U2" s="27" t="s">
         <v>278</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="V2" s="27" t="s">
         <v>279</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="W2" s="29" t="s">
+        <v>274</v>
+      </c>
+      <c r="X2" s="30" t="s">
         <v>280</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="Y2" s="31" t="s">
         <v>281</v>
       </c>
+      <c r="Z2" s="31" t="s">
+        <v>282</v>
+      </c>
+      <c r="AA2" s="32" t="s">
+        <v>283</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="36" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="T3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="V3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="W3" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="35" t="s">
+      <c r="X3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="35" t="s">
+      <c r="Y3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="35" t="s">
+      <c r="Z3" s="38" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="36" t="s">
+      <c r="AA3" s="39" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="37">
-        <v>1</v>
-      </c>
-      <c r="B4" s="38" t="s">
-        <v>282</v>
-      </c>
-      <c r="C4" s="39">
-        <v>10</v>
-      </c>
-      <c r="D4" s="39">
-        <v>0</v>
-      </c>
-      <c r="E4" s="39">
-        <v>0</v>
-      </c>
-      <c r="F4" s="39">
-        <v>10</v>
-      </c>
-      <c r="G4" s="39">
-        <v>0</v>
-      </c>
-      <c r="H4" s="39">
-        <v>0</v>
-      </c>
-      <c r="I4" s="39">
-        <v>0</v>
-      </c>
-      <c r="J4" s="39">
+      <c r="A4" s="40">
+        <v>1</v>
+      </c>
+      <c r="B4" s="41" t="s">
+        <v>284</v>
+      </c>
+      <c r="C4" s="42">
+        <v>10</v>
+      </c>
+      <c r="D4" s="42">
+        <v>0</v>
+      </c>
+      <c r="E4" s="42">
+        <v>0</v>
+      </c>
+      <c r="F4" s="42">
+        <v>10</v>
+      </c>
+      <c r="G4" s="42">
+        <v>0</v>
+      </c>
+      <c r="H4" s="42">
+        <v>0</v>
+      </c>
+      <c r="I4" s="42">
+        <v>0</v>
+      </c>
+      <c r="J4" s="42">
         <v>2</v>
       </c>
-      <c r="K4" s="39">
-        <v>1</v>
-      </c>
-      <c r="L4" s="39">
-        <v>0</v>
-      </c>
-      <c r="M4" s="39">
-        <v>0</v>
-      </c>
-      <c r="N4" s="39">
-        <v>0</v>
-      </c>
-      <c r="O4" s="39">
-        <v>0</v>
-      </c>
-      <c r="P4" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="39">
-        <v>0</v>
-      </c>
-      <c r="R4" s="40">
-        <v>0</v>
-      </c>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="42" t="s">
-        <v>283</v>
-      </c>
-      <c r="Y4" s="38" t="s">
-        <v>284</v>
-      </c>
-      <c r="Z4" s="38" t="s">
+      <c r="K4" s="42">
+        <v>1</v>
+      </c>
+      <c r="L4" s="42">
+        <v>0</v>
+      </c>
+      <c r="M4" s="42">
+        <v>0</v>
+      </c>
+      <c r="N4" s="42">
+        <v>0</v>
+      </c>
+      <c r="O4" s="42">
+        <v>0</v>
+      </c>
+      <c r="P4" s="42">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="42">
+        <v>0</v>
+      </c>
+      <c r="R4" s="43">
+        <v>0</v>
+      </c>
+      <c r="S4" s="41"/>
+      <c r="T4" s="41"/>
+      <c r="U4" s="41"/>
+      <c r="V4" s="41"/>
+      <c r="W4" s="44"/>
+      <c r="X4" s="45" t="s">
         <v>285</v>
       </c>
-      <c r="AA4" s="41" t="s">
+      <c r="Y4" s="41" t="s">
         <v>286</v>
       </c>
+      <c r="Z4" s="41" t="s">
+        <v>287</v>
+      </c>
+      <c r="AA4" s="44" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="43">
+      <c r="A5" s="46">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
@@ -2662,33 +2683,33 @@
       <c r="Q5" s="4">
         <v>0</v>
       </c>
-      <c r="R5" s="44">
+      <c r="R5" s="47">
         <v>0</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="46" t="s">
-        <v>288</v>
+      <c r="W5" s="48"/>
+      <c r="X5" s="49" t="s">
+        <v>290</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>289</v>
-      </c>
-      <c r="AA5" s="45" t="s">
-        <v>262</v>
+        <v>291</v>
+      </c>
+      <c r="AA5" s="48" t="s">
+        <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="43">
+      <c r="A6" s="46">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
@@ -2735,33 +2756,33 @@
       <c r="Q6" s="4">
         <v>0</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="47">
         <v>0</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46" t="s">
-        <v>291</v>
+      <c r="W6" s="48"/>
+      <c r="X6" s="49" t="s">
+        <v>293</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>292</v>
-      </c>
-      <c r="AA6" s="45" t="s">
-        <v>293</v>
+        <v>294</v>
+      </c>
+      <c r="AA6" s="48" t="s">
+        <v>295</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="43">
+      <c r="A7" s="46">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="C7" s="4">
         <v>10</v>
@@ -2808,33 +2829,33 @@
       <c r="Q7" s="4">
         <v>0</v>
       </c>
-      <c r="R7" s="44">
+      <c r="R7" s="47">
         <v>0</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="46" t="s">
-        <v>295</v>
+      <c r="W7" s="48"/>
+      <c r="X7" s="49" t="s">
+        <v>297</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>296</v>
-      </c>
-      <c r="AA7" s="45" t="s">
-        <v>297</v>
+        <v>298</v>
+      </c>
+      <c r="AA7" s="48" t="s">
+        <v>299</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="43">
+      <c r="A8" s="46">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
@@ -2881,33 +2902,33 @@
       <c r="Q8" s="4">
         <v>0</v>
       </c>
-      <c r="R8" s="44">
+      <c r="R8" s="47">
         <v>0</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="46" t="s">
-        <v>299</v>
+      <c r="W8" s="48"/>
+      <c r="X8" s="49" t="s">
+        <v>301</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>300</v>
-      </c>
-      <c r="AA8" s="45" t="s">
-        <v>301</v>
+        <v>302</v>
+      </c>
+      <c r="AA8" s="48" t="s">
+        <v>303</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="43">
+      <c r="A9" s="46">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C9" s="4">
         <v>10</v>
@@ -2954,33 +2975,33 @@
       <c r="Q9" s="4">
         <v>0</v>
       </c>
-      <c r="R9" s="44">
+      <c r="R9" s="47">
         <v>0</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="46" t="s">
-        <v>303</v>
+      <c r="W9" s="48"/>
+      <c r="X9" s="49" t="s">
+        <v>305</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>304</v>
+        <v>306</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>305</v>
-      </c>
-      <c r="AA9" s="45" t="s">
-        <v>306</v>
+        <v>307</v>
+      </c>
+      <c r="AA9" s="48" t="s">
+        <v>308</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="43">
+      <c r="A10" s="46">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>307</v>
+        <v>309</v>
       </c>
       <c r="C10" s="4">
         <v>10</v>
@@ -3027,33 +3048,33 @@
       <c r="Q10" s="4">
         <v>0</v>
       </c>
-      <c r="R10" s="44">
+      <c r="R10" s="47">
         <v>0</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="46" t="s">
-        <v>308</v>
+      <c r="W10" s="48"/>
+      <c r="X10" s="49" t="s">
+        <v>310</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>309</v>
+        <v>311</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="AA10" s="45" t="s">
-        <v>311</v>
+        <v>312</v>
+      </c>
+      <c r="AA10" s="48" t="s">
+        <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="43">
+      <c r="A11" s="46">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
@@ -3100,33 +3121,33 @@
       <c r="Q11" s="4">
         <v>0</v>
       </c>
-      <c r="R11" s="44">
+      <c r="R11" s="47">
         <v>0</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="46" t="s">
-        <v>312</v>
+      <c r="W11" s="48"/>
+      <c r="X11" s="49" t="s">
+        <v>314</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>314</v>
-      </c>
-      <c r="AA11" s="45" t="s">
-        <v>315</v>
+        <v>316</v>
+      </c>
+      <c r="AA11" s="48" t="s">
+        <v>317</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="43">
+      <c r="A12" s="46">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>316</v>
+        <v>318</v>
       </c>
       <c r="C12" s="4">
         <v>10</v>
@@ -3173,33 +3194,33 @@
       <c r="Q12" s="4">
         <v>0</v>
       </c>
-      <c r="R12" s="44">
+      <c r="R12" s="47">
         <v>0</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="46" t="s">
-        <v>317</v>
+      <c r="W12" s="48"/>
+      <c r="X12" s="49" t="s">
+        <v>319</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>318</v>
+        <v>320</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA12" s="45" t="s">
-        <v>320</v>
+        <v>321</v>
+      </c>
+      <c r="AA12" s="48" t="s">
+        <v>322</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="43">
+      <c r="A13" s="46">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>321</v>
+        <v>323</v>
       </c>
       <c r="C13" s="4">
         <v>10</v>
@@ -3246,33 +3267,33 @@
       <c r="Q13" s="4">
         <v>0</v>
       </c>
-      <c r="R13" s="44">
+      <c r="R13" s="47">
         <v>0</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="46" t="s">
-        <v>322</v>
+      <c r="W13" s="48"/>
+      <c r="X13" s="49" t="s">
+        <v>324</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>313</v>
+        <v>315</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>323</v>
-      </c>
-      <c r="AA13" s="45" t="s">
-        <v>324</v>
+        <v>325</v>
+      </c>
+      <c r="AA13" s="48" t="s">
+        <v>326</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="43">
+      <c r="A14" s="46">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>325</v>
+        <v>327</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
@@ -3319,33 +3340,33 @@
       <c r="Q14" s="4">
         <v>0</v>
       </c>
-      <c r="R14" s="44">
+      <c r="R14" s="47">
         <v>0</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="46" t="s">
-        <v>326</v>
+      <c r="W14" s="48"/>
+      <c r="X14" s="49" t="s">
+        <v>328</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>327</v>
+        <v>329</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>328</v>
-      </c>
-      <c r="AA14" s="45" t="s">
-        <v>329</v>
+        <v>330</v>
+      </c>
+      <c r="AA14" s="48" t="s">
+        <v>331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="43">
+      <c r="A15" s="46">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>330</v>
+        <v>332</v>
       </c>
       <c r="C15" s="4">
         <v>10</v>
@@ -3392,33 +3413,33 @@
       <c r="Q15" s="4">
         <v>0</v>
       </c>
-      <c r="R15" s="44">
+      <c r="R15" s="47">
         <v>0</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="46" t="s">
-        <v>331</v>
+      <c r="W15" s="48"/>
+      <c r="X15" s="49" t="s">
+        <v>333</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="AA15" s="45" t="s">
-        <v>286</v>
+        <v>335</v>
+      </c>
+      <c r="AA15" s="48" t="s">
+        <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="43">
+      <c r="A16" s="46">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="C16" s="4">
         <v>10</v>
@@ -3465,33 +3486,33 @@
       <c r="Q16" s="4">
         <v>0</v>
       </c>
-      <c r="R16" s="44">
+      <c r="R16" s="47">
         <v>0</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="46" t="s">
-        <v>335</v>
+      <c r="W16" s="48"/>
+      <c r="X16" s="49" t="s">
+        <v>337</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>337</v>
-      </c>
-      <c r="AA16" s="45" t="s">
-        <v>286</v>
+        <v>339</v>
+      </c>
+      <c r="AA16" s="48" t="s">
+        <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="43">
+      <c r="A17" s="46">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="C17" s="4">
         <v>10</v>
@@ -3538,33 +3559,33 @@
       <c r="Q17" s="4">
         <v>0</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="47">
         <v>0</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="46" t="s">
-        <v>339</v>
+      <c r="W17" s="48"/>
+      <c r="X17" s="49" t="s">
+        <v>341</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>341</v>
-      </c>
-      <c r="AA17" s="45" t="s">
-        <v>342</v>
+        <v>343</v>
+      </c>
+      <c r="AA17" s="48" t="s">
+        <v>344</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="43">
+      <c r="A18" s="46">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>343</v>
+        <v>345</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
@@ -3611,33 +3632,33 @@
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="47">
         <v>0</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="46" t="s">
-        <v>344</v>
+      <c r="W18" s="48"/>
+      <c r="X18" s="49" t="s">
+        <v>346</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>346</v>
-      </c>
-      <c r="AA18" s="45" t="s">
-        <v>262</v>
+        <v>348</v>
+      </c>
+      <c r="AA18" s="48" t="s">
+        <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="43">
+      <c r="A19" s="46">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>347</v>
+        <v>349</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
@@ -3684,33 +3705,33 @@
       <c r="Q19" s="4">
         <v>0</v>
       </c>
-      <c r="R19" s="44">
+      <c r="R19" s="47">
         <v>0</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="46" t="s">
-        <v>348</v>
+      <c r="W19" s="48"/>
+      <c r="X19" s="49" t="s">
+        <v>350</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>349</v>
+        <v>351</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>350</v>
-      </c>
-      <c r="AA19" s="45" t="s">
-        <v>286</v>
+        <v>352</v>
+      </c>
+      <c r="AA19" s="48" t="s">
+        <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="43">
+      <c r="A20" s="46">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>351</v>
+        <v>353</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
@@ -3757,33 +3778,33 @@
       <c r="Q20" s="4">
         <v>0</v>
       </c>
-      <c r="R20" s="44">
+      <c r="R20" s="47">
         <v>0</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="46" t="s">
-        <v>352</v>
+      <c r="W20" s="48"/>
+      <c r="X20" s="49" t="s">
+        <v>354</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>354</v>
-      </c>
-      <c r="AA20" s="45" t="s">
-        <v>260</v>
+        <v>356</v>
+      </c>
+      <c r="AA20" s="48" t="s">
+        <v>262</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="43">
+      <c r="A21" s="46">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
@@ -3830,33 +3851,33 @@
       <c r="Q21" s="4">
         <v>0</v>
       </c>
-      <c r="R21" s="44">
+      <c r="R21" s="47">
         <v>0</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="46" t="s">
-        <v>356</v>
+      <c r="W21" s="48"/>
+      <c r="X21" s="49" t="s">
+        <v>358</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>357</v>
+        <v>359</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>358</v>
-      </c>
-      <c r="AA21" s="45" t="s">
-        <v>273</v>
+        <v>360</v>
+      </c>
+      <c r="AA21" s="48" t="s">
+        <v>275</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="43">
+      <c r="A22" s="46">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>359</v>
+        <v>361</v>
       </c>
       <c r="C22" s="4">
         <v>10</v>
@@ -3903,33 +3924,33 @@
       <c r="Q22" s="4">
         <v>0</v>
       </c>
-      <c r="R22" s="44">
+      <c r="R22" s="47">
         <v>0</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="46" t="s">
-        <v>360</v>
+      <c r="W22" s="48"/>
+      <c r="X22" s="49" t="s">
+        <v>362</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>361</v>
+        <v>363</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>362</v>
-      </c>
-      <c r="AA22" s="45" t="s">
-        <v>363</v>
+        <v>364</v>
+      </c>
+      <c r="AA22" s="48" t="s">
+        <v>365</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="43">
+      <c r="A23" s="46">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>364</v>
+        <v>366</v>
       </c>
       <c r="C23" s="4">
         <v>10</v>
@@ -3976,33 +3997,33 @@
       <c r="Q23" s="4">
         <v>0</v>
       </c>
-      <c r="R23" s="44">
+      <c r="R23" s="47">
         <v>0</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="46" t="s">
-        <v>365</v>
+      <c r="W23" s="48"/>
+      <c r="X23" s="49" t="s">
+        <v>367</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>366</v>
+        <v>368</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>367</v>
-      </c>
-      <c r="AA23" s="45" t="s">
+        <v>369</v>
+      </c>
+      <c r="AA23" s="48" t="s">
         <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="43">
+      <c r="A24" s="46">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>368</v>
+        <v>370</v>
       </c>
       <c r="C24" s="4">
         <v>10</v>
@@ -4049,33 +4070,33 @@
       <c r="Q24" s="4">
         <v>0</v>
       </c>
-      <c r="R24" s="44">
+      <c r="R24" s="47">
         <v>0</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="46" t="s">
-        <v>369</v>
+      <c r="W24" s="48"/>
+      <c r="X24" s="49" t="s">
+        <v>371</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>370</v>
+        <v>372</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>371</v>
-      </c>
-      <c r="AA24" s="45" t="s">
-        <v>372</v>
+        <v>373</v>
+      </c>
+      <c r="AA24" s="48" t="s">
+        <v>374</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="43">
+      <c r="A25" s="46">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>373</v>
+        <v>375</v>
       </c>
       <c r="C25" s="4">
         <v>10</v>
@@ -4122,33 +4143,33 @@
       <c r="Q25" s="4">
         <v>0</v>
       </c>
-      <c r="R25" s="44">
+      <c r="R25" s="47">
         <v>0</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="46" t="s">
-        <v>374</v>
+      <c r="W25" s="48"/>
+      <c r="X25" s="49" t="s">
+        <v>376</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>375</v>
+        <v>377</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>376</v>
-      </c>
-      <c r="AA25" s="45" t="s">
-        <v>267</v>
+        <v>378</v>
+      </c>
+      <c r="AA25" s="48" t="s">
+        <v>269</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="43">
+      <c r="A26" s="46">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>377</v>
+        <v>379</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
@@ -4195,33 +4216,33 @@
       <c r="Q26" s="4">
         <v>0</v>
       </c>
-      <c r="R26" s="44">
+      <c r="R26" s="47">
         <v>0</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="46" t="s">
-        <v>378</v>
+      <c r="W26" s="48"/>
+      <c r="X26" s="49" t="s">
+        <v>380</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>380</v>
-      </c>
-      <c r="AA26" s="45" t="s">
-        <v>381</v>
+        <v>382</v>
+      </c>
+      <c r="AA26" s="48" t="s">
+        <v>383</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="43">
+      <c r="A27" s="46">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
@@ -4268,33 +4289,33 @@
       <c r="Q27" s="4">
         <v>0</v>
       </c>
-      <c r="R27" s="44">
+      <c r="R27" s="47">
         <v>0</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="46" t="s">
-        <v>383</v>
+      <c r="W27" s="48"/>
+      <c r="X27" s="49" t="s">
+        <v>385</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>385</v>
-      </c>
-      <c r="AA27" s="45" t="s">
-        <v>386</v>
+        <v>387</v>
+      </c>
+      <c r="AA27" s="48" t="s">
+        <v>388</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="43">
+      <c r="A28" s="46">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>387</v>
+        <v>389</v>
       </c>
       <c r="C28" s="4">
         <v>10</v>
@@ -4341,33 +4362,33 @@
       <c r="Q28" s="4">
         <v>0</v>
       </c>
-      <c r="R28" s="44">
+      <c r="R28" s="47">
         <v>0</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="46" t="s">
-        <v>388</v>
+      <c r="W28" s="48"/>
+      <c r="X28" s="49" t="s">
+        <v>390</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>389</v>
+        <v>391</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA28" s="45" t="s">
-        <v>391</v>
+        <v>392</v>
+      </c>
+      <c r="AA28" s="48" t="s">
+        <v>393</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="43">
+      <c r="A29" s="46">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>392</v>
+        <v>394</v>
       </c>
       <c r="C29" s="4">
         <v>10</v>
@@ -4414,33 +4435,33 @@
       <c r="Q29" s="4">
         <v>0</v>
       </c>
-      <c r="R29" s="44">
+      <c r="R29" s="47">
         <v>0</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="46" t="s">
-        <v>393</v>
+      <c r="W29" s="48"/>
+      <c r="X29" s="49" t="s">
+        <v>395</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>394</v>
+        <v>396</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA29" s="45" t="s">
-        <v>396</v>
+        <v>397</v>
+      </c>
+      <c r="AA29" s="48" t="s">
+        <v>398</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="43">
+      <c r="A30" s="46">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>397</v>
+        <v>399</v>
       </c>
       <c r="C30" s="4">
         <v>10</v>
@@ -4487,33 +4508,33 @@
       <c r="Q30" s="4">
         <v>0</v>
       </c>
-      <c r="R30" s="44">
+      <c r="R30" s="47">
         <v>0</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="46" t="s">
-        <v>398</v>
+      <c r="W30" s="48"/>
+      <c r="X30" s="49" t="s">
+        <v>400</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>400</v>
-      </c>
-      <c r="AA30" s="45" t="s">
-        <v>286</v>
+        <v>402</v>
+      </c>
+      <c r="AA30" s="48" t="s">
+        <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="43">
+      <c r="A31" s="46">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>401</v>
+        <v>403</v>
       </c>
       <c r="C31" s="4">
         <v>10</v>
@@ -4560,33 +4581,33 @@
       <c r="Q31" s="4">
         <v>0</v>
       </c>
-      <c r="R31" s="44">
+      <c r="R31" s="47">
         <v>0</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="46" t="s">
-        <v>402</v>
+      <c r="W31" s="48"/>
+      <c r="X31" s="49" t="s">
+        <v>404</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>403</v>
+        <v>405</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="AA31" s="45" t="s">
-        <v>286</v>
+        <v>406</v>
+      </c>
+      <c r="AA31" s="48" t="s">
+        <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="43">
+      <c r="A32" s="46">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>405</v>
+        <v>407</v>
       </c>
       <c r="C32" s="4">
         <v>10</v>
@@ -4633,33 +4654,33 @@
       <c r="Q32" s="4">
         <v>0</v>
       </c>
-      <c r="R32" s="44">
+      <c r="R32" s="47">
         <v>0</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="46" t="s">
-        <v>406</v>
+      <c r="W32" s="48"/>
+      <c r="X32" s="49" t="s">
+        <v>408</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>407</v>
+        <v>409</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>408</v>
-      </c>
-      <c r="AA32" s="45" t="s">
-        <v>409</v>
+        <v>410</v>
+      </c>
+      <c r="AA32" s="48" t="s">
+        <v>411</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="43">
+      <c r="A33" s="46">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="C33" s="4">
         <v>10</v>
@@ -4706,33 +4727,33 @@
       <c r="Q33" s="4">
         <v>0</v>
       </c>
-      <c r="R33" s="44">
+      <c r="R33" s="47">
         <v>0</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="46" t="s">
-        <v>411</v>
+      <c r="W33" s="48"/>
+      <c r="X33" s="49" t="s">
+        <v>413</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>412</v>
+        <v>414</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>413</v>
-      </c>
-      <c r="AA33" s="45" t="s">
-        <v>414</v>
+        <v>415</v>
+      </c>
+      <c r="AA33" s="48" t="s">
+        <v>416</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="43">
+      <c r="A34" s="46">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>415</v>
+        <v>417</v>
       </c>
       <c r="C34" s="4">
         <v>10</v>
@@ -4779,33 +4800,33 @@
       <c r="Q34" s="4">
         <v>0</v>
       </c>
-      <c r="R34" s="44">
+      <c r="R34" s="47">
         <v>0</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="46" t="s">
-        <v>416</v>
+      <c r="W34" s="48"/>
+      <c r="X34" s="49" t="s">
+        <v>418</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>418</v>
-      </c>
-      <c r="AA34" s="45" t="s">
-        <v>286</v>
+        <v>420</v>
+      </c>
+      <c r="AA34" s="48" t="s">
+        <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="43">
+      <c r="A35" s="46">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>419</v>
+        <v>421</v>
       </c>
       <c r="C35" s="4">
         <v>10</v>
@@ -4852,33 +4873,33 @@
       <c r="Q35" s="4">
         <v>0</v>
       </c>
-      <c r="R35" s="44">
+      <c r="R35" s="47">
         <v>0</v>
       </c>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="46" t="s">
-        <v>420</v>
+      <c r="W35" s="48"/>
+      <c r="X35" s="49" t="s">
+        <v>422</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>421</v>
+        <v>423</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>422</v>
-      </c>
-      <c r="AA35" s="45" t="s">
-        <v>423</v>
+        <v>424</v>
+      </c>
+      <c r="AA35" s="48" t="s">
+        <v>425</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="43">
+      <c r="A36" s="46">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>424</v>
+        <v>426</v>
       </c>
       <c r="C36" s="4">
         <v>10</v>
@@ -4925,33 +4946,33 @@
       <c r="Q36" s="4">
         <v>0</v>
       </c>
-      <c r="R36" s="44">
+      <c r="R36" s="47">
         <v>0</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="46" t="s">
-        <v>425</v>
+      <c r="W36" s="48"/>
+      <c r="X36" s="49" t="s">
+        <v>427</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="Z36" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA36" s="45" t="s">
-        <v>428</v>
+        <v>429</v>
+      </c>
+      <c r="AA36" s="48" t="s">
+        <v>430</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="43">
+      <c r="A37" s="46">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>429</v>
+        <v>431</v>
       </c>
       <c r="C37" s="4">
         <v>10</v>
@@ -4998,33 +5019,33 @@
       <c r="Q37" s="4">
         <v>0</v>
       </c>
-      <c r="R37" s="44">
+      <c r="R37" s="47">
         <v>0</v>
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="46" t="s">
-        <v>430</v>
+      <c r="W37" s="48"/>
+      <c r="X37" s="49" t="s">
+        <v>432</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>431</v>
+        <v>433</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="AA37" s="45" t="s">
-        <v>433</v>
+        <v>434</v>
+      </c>
+      <c r="AA37" s="48" t="s">
+        <v>435</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="43">
+      <c r="A38" s="46">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="C38" s="4">
         <v>10</v>
@@ -5071,33 +5092,33 @@
       <c r="Q38" s="4">
         <v>0</v>
       </c>
-      <c r="R38" s="44">
+      <c r="R38" s="47">
         <v>0</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="46" t="s">
-        <v>435</v>
+      <c r="W38" s="48"/>
+      <c r="X38" s="49" t="s">
+        <v>437</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>436</v>
+        <v>438</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="AA38" s="45" t="s">
-        <v>438</v>
+        <v>439</v>
+      </c>
+      <c r="AA38" s="48" t="s">
+        <v>440</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="43">
+      <c r="A39" s="46">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>439</v>
+        <v>441</v>
       </c>
       <c r="C39" s="4">
         <v>10</v>
@@ -5144,33 +5165,33 @@
       <c r="Q39" s="4">
         <v>0</v>
       </c>
-      <c r="R39" s="44">
+      <c r="R39" s="47">
         <v>0</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="46" t="s">
-        <v>440</v>
+      <c r="W39" s="48"/>
+      <c r="X39" s="49" t="s">
+        <v>442</v>
       </c>
       <c r="Y39" s="3" t="s">
-        <v>441</v>
+        <v>443</v>
       </c>
       <c r="Z39" s="3" t="s">
-        <v>442</v>
-      </c>
-      <c r="AA39" s="45" t="s">
-        <v>443</v>
+        <v>444</v>
+      </c>
+      <c r="AA39" s="48" t="s">
+        <v>445</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="43">
+      <c r="A40" s="46">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>444</v>
+        <v>446</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
@@ -5217,98 +5238,98 @@
       <c r="Q40" s="4">
         <v>0</v>
       </c>
-      <c r="R40" s="44">
+      <c r="R40" s="47">
         <v>0</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="46" t="s">
-        <v>445</v>
+      <c r="W40" s="48"/>
+      <c r="X40" s="49" t="s">
+        <v>447</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>446</v>
+        <v>448</v>
       </c>
       <c r="Z40" s="3" t="s">
-        <v>447</v>
-      </c>
-      <c r="AA40" s="45" t="s">
-        <v>269</v>
+        <v>449</v>
+      </c>
+      <c r="AA40" s="48" t="s">
+        <v>271</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="47">
+      <c r="A41" s="50">
         <v>38</v>
       </c>
-      <c r="B41" s="48" t="s">
-        <v>448</v>
-      </c>
-      <c r="C41" s="49">
-        <v>10</v>
-      </c>
-      <c r="D41" s="49">
-        <v>0</v>
-      </c>
-      <c r="E41" s="49">
-        <v>0</v>
-      </c>
-      <c r="F41" s="49">
-        <v>10</v>
-      </c>
-      <c r="G41" s="49">
-        <v>0</v>
-      </c>
-      <c r="H41" s="49">
-        <v>0</v>
-      </c>
-      <c r="I41" s="49">
-        <v>0</v>
-      </c>
-      <c r="J41" s="49">
+      <c r="B41" s="51" t="s">
+        <v>450</v>
+      </c>
+      <c r="C41" s="52">
+        <v>10</v>
+      </c>
+      <c r="D41" s="52">
+        <v>0</v>
+      </c>
+      <c r="E41" s="52">
+        <v>0</v>
+      </c>
+      <c r="F41" s="52">
+        <v>10</v>
+      </c>
+      <c r="G41" s="52">
+        <v>0</v>
+      </c>
+      <c r="H41" s="52">
+        <v>0</v>
+      </c>
+      <c r="I41" s="52">
+        <v>0</v>
+      </c>
+      <c r="J41" s="52">
         <v>2</v>
       </c>
-      <c r="K41" s="49">
-        <v>1</v>
-      </c>
-      <c r="L41" s="49">
-        <v>0</v>
-      </c>
-      <c r="M41" s="49">
-        <v>0</v>
-      </c>
-      <c r="N41" s="49">
-        <v>0</v>
-      </c>
-      <c r="O41" s="49">
-        <v>0</v>
-      </c>
-      <c r="P41" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="49">
-        <v>0</v>
-      </c>
-      <c r="R41" s="50">
-        <v>0</v>
-      </c>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="52" t="s">
-        <v>449</v>
-      </c>
-      <c r="Y41" s="48" t="s">
-        <v>450</v>
-      </c>
-      <c r="Z41" s="48" t="s">
+      <c r="K41" s="52">
+        <v>1</v>
+      </c>
+      <c r="L41" s="52">
+        <v>0</v>
+      </c>
+      <c r="M41" s="52">
+        <v>0</v>
+      </c>
+      <c r="N41" s="52">
+        <v>0</v>
+      </c>
+      <c r="O41" s="52">
+        <v>0</v>
+      </c>
+      <c r="P41" s="52">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="52">
+        <v>0</v>
+      </c>
+      <c r="R41" s="53">
+        <v>0</v>
+      </c>
+      <c r="S41" s="51"/>
+      <c r="T41" s="51"/>
+      <c r="U41" s="51"/>
+      <c r="V41" s="51"/>
+      <c r="W41" s="54"/>
+      <c r="X41" s="55" t="s">
         <v>451</v>
       </c>
-      <c r="AA41" s="51" t="s">
-        <v>286</v>
+      <c r="Y41" s="51" t="s">
+        <v>452</v>
+      </c>
+      <c r="Z41" s="51" t="s">
+        <v>453</v>
+      </c>
+      <c r="AA41" s="54" t="s">
+        <v>288</v>
       </c>
     </row>
   </sheetData>
@@ -5344,31 +5365,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C1" s="15" t="s">
-        <v>215</v>
+        <v>216</v>
+      </c>
+      <c r="C1" s="18" t="s">
+        <v>217</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>220</v>
-      </c>
-      <c r="I1" s="15" t="s">
-        <v>221</v>
-      </c>
-      <c r="J1" s="15" t="s">
         <v>222</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>223</v>
+      </c>
+      <c r="J1" s="18" t="s">
+        <v>224</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -5376,31 +5397,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>223</v>
-      </c>
-      <c r="C2" s="15" t="s">
-        <v>224</v>
+        <v>225</v>
+      </c>
+      <c r="C2" s="18" t="s">
+        <v>226</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>229</v>
-      </c>
-      <c r="I2" s="15" t="s">
-        <v>230</v>
-      </c>
-      <c r="J2" s="15" t="s">
         <v>231</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>232</v>
+      </c>
+      <c r="J2" s="18" t="s">
+        <v>233</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -5410,7 +5431,7 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="18" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -5428,19 +5449,19 @@
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="18" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C4" s="4">
         <v>99</v>
@@ -5469,30 +5490,31 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="7" width="43.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="20.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="74.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="7" width="19.433571428571426" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="7" width="43.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="7" width="20.433571428571426" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="74.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="7" width="19.433571428571426" customWidth="1" bestFit="1"/>
     <col min="8" max="8" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="13" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="14" t="s">
         <v>177</v>
       </c>
       <c r="D1" s="13" t="s">
@@ -5504,269 +5526,302 @@
       <c r="F1" s="13" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="13" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="15" t="s">
         <v>182</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="I1" s="15" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="13" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="13" t="s">
-        <v>183</v>
+      <c r="C2" s="14" t="s">
+        <v>184</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="E2" s="13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="F2" s="13" t="s">
-        <v>186</v>
-      </c>
-      <c r="G2" s="5"/>
-      <c r="H2" s="14" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+      <c r="G2" s="13" t="s">
+        <v>188</v>
+      </c>
+      <c r="H2" s="5"/>
+      <c r="I2" s="15" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="13" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="E3" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="E3" s="13" t="s">
-        <v>48</v>
       </c>
       <c r="F3" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="14" t="s">
-        <v>188</v>
-      </c>
-      <c r="H3" s="14" t="s">
+      <c r="G3" s="13" t="s">
+        <v>48</v>
+      </c>
+      <c r="H3" s="15" t="s">
+        <v>190</v>
+      </c>
+      <c r="I3" s="15" t="s">
         <v>49</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="14" t="s">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
+      <c r="A4" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="15" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="14" t="s">
-        <v>189</v>
-      </c>
-      <c r="D4" s="14" t="s">
+      <c r="C4" s="16">
+        <v>0</v>
+      </c>
+      <c r="D4" s="15" t="s">
+        <v>191</v>
+      </c>
+      <c r="E4" s="15" t="s">
         <v>161</v>
       </c>
-      <c r="E4" s="14" t="s">
-        <v>190</v>
-      </c>
-      <c r="F4" s="14" t="s">
-        <v>191</v>
-      </c>
-      <c r="G4" s="14" t="s">
+      <c r="F4" s="15" t="s">
         <v>192</v>
       </c>
-      <c r="H4" s="14" t="s">
+      <c r="G4" s="15" t="s">
         <v>193</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="14" t="s">
+      <c r="H4" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="I4" s="15" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
+      <c r="A5" s="15" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="15" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="14" t="s">
+      <c r="C5" s="16">
+        <v>0</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>196</v>
+      </c>
+      <c r="E5" s="15" t="s">
+        <v>163</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>197</v>
+      </c>
+      <c r="G5" s="15" t="s">
+        <v>198</v>
+      </c>
+      <c r="H5" s="15" t="s">
         <v>194</v>
       </c>
-      <c r="D5" s="14" t="s">
-        <v>163</v>
-      </c>
-      <c r="E5" s="14" t="s">
-        <v>195</v>
-      </c>
-      <c r="F5" s="14" t="s">
-        <v>196</v>
-      </c>
-      <c r="G5" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="H5" s="14" t="s">
-        <v>197</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="14" t="s">
+      <c r="I5" s="15" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+      <c r="A6" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="14" t="s">
+      <c r="B6" s="15" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="14" t="s">
-        <v>198</v>
-      </c>
-      <c r="D6" s="14" t="s">
+      <c r="C6" s="16">
+        <v>0</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>200</v>
+      </c>
+      <c r="E6" s="15" t="s">
         <v>165</v>
       </c>
-      <c r="E6" s="14" t="s">
-        <v>199</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G6" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="H6" s="14" t="s">
+      <c r="F6" s="15" t="s">
         <v>201</v>
       </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="14" t="s">
+      <c r="G6" s="15" t="s">
+        <v>202</v>
+      </c>
+      <c r="H6" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="I6" s="15" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+      <c r="A7" s="15" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="14" t="s">
+      <c r="C7" s="16">
+        <v>0</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>204</v>
+      </c>
+      <c r="E7" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>205</v>
+      </c>
+      <c r="G7" s="15" t="s">
         <v>202</v>
       </c>
-      <c r="D7" s="14" t="s">
-        <v>167</v>
-      </c>
-      <c r="E7" s="14" t="s">
-        <v>203</v>
-      </c>
-      <c r="F7" s="14" t="s">
-        <v>200</v>
-      </c>
-      <c r="G7" s="14" t="s">
-        <v>192</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="14" t="s">
+      <c r="H7" s="15" t="s">
+        <v>194</v>
+      </c>
+      <c r="I7" s="15" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+      <c r="A8" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="15" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="14" t="s">
-        <v>205</v>
-      </c>
-      <c r="D8" s="14" t="s">
+      <c r="C8" s="16">
+        <v>1</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>207</v>
+      </c>
+      <c r="E8" s="15" t="s">
         <v>169</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="F8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F8" s="14" t="s">
+      <c r="G8" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G8" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>207</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="14" t="s">
+      <c r="H8" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I8" s="15" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
+      <c r="A9" s="15" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="15" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="14" t="s">
+      <c r="C9" s="16">
+        <v>1</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>210</v>
+      </c>
+      <c r="E9" s="15" t="s">
+        <v>171</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="15" t="s">
         <v>208</v>
       </c>
-      <c r="D9" s="14" t="s">
-        <v>171</v>
-      </c>
-      <c r="E9" s="14" t="s">
+      <c r="I9" s="15" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
+      <c r="A10" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>174</v>
+      </c>
+      <c r="C10" s="16">
+        <v>1</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>212</v>
+      </c>
+      <c r="E10" s="15" t="s">
+        <v>173</v>
+      </c>
+      <c r="F10" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="G10" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G9" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H9" s="14" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>174</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>210</v>
-      </c>
-      <c r="D10" s="14" t="s">
-        <v>173</v>
-      </c>
-      <c r="E10" s="14" t="s">
+      <c r="H10" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I10" s="15" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
+      <c r="A11" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>176</v>
+      </c>
+      <c r="C11" s="16">
+        <v>1</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>214</v>
+      </c>
+      <c r="E11" s="15" t="s">
+        <v>175</v>
+      </c>
+      <c r="F11" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="G11" s="15" t="s">
         <v>17</v>
       </c>
-      <c r="G10" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H10" s="14" t="s">
-        <v>211</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>176</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>212</v>
-      </c>
-      <c r="D11" s="14" t="s">
-        <v>175</v>
-      </c>
-      <c r="E11" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>17</v>
-      </c>
-      <c r="G11" s="14" t="s">
-        <v>206</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>213</v>
+      <c r="H11" s="15" t="s">
+        <v>208</v>
+      </c>
+      <c r="I11" s="15" t="s">
+        <v>215</v>
       </c>
     </row>
   </sheetData>
@@ -5788,7 +5843,7 @@
     <col min="1" max="1" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="16.005" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="7" max="7" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -5806,7 +5861,7 @@
       <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="11" t="s">
@@ -5835,7 +5890,7 @@
       <c r="C2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="12" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -5864,7 +5919,7 @@
       <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="11" t="s">
@@ -5893,7 +5948,7 @@
       <c r="C4" s="4">
         <v>100</v>
       </c>
-      <c r="D4" s="12">
+      <c r="D4" s="6">
         <v>0</v>
       </c>
       <c r="E4" s="4">
@@ -5922,7 +5977,7 @@
       <c r="C5" s="4">
         <v>100</v>
       </c>
-      <c r="D5" s="12">
+      <c r="D5" s="6">
         <v>0</v>
       </c>
       <c r="E5" s="4">
@@ -5951,7 +6006,7 @@
       <c r="C6" s="4">
         <v>100</v>
       </c>
-      <c r="D6" s="12">
+      <c r="D6" s="6">
         <v>50</v>
       </c>
       <c r="E6" s="4">
@@ -5980,7 +6035,7 @@
       <c r="C7" s="4">
         <v>100</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="6">
         <v>50</v>
       </c>
       <c r="E7" s="4">
@@ -6009,7 +6064,7 @@
       <c r="C8" s="4">
         <v>100</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="6">
         <v>0</v>
       </c>
       <c r="E8" s="4">
@@ -6038,7 +6093,7 @@
       <c r="C9" s="4">
         <v>100</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="6">
         <v>0</v>
       </c>
       <c r="E9" s="4">
@@ -6067,7 +6122,7 @@
       <c r="C10" s="4">
         <v>100</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="6">
         <v>0</v>
       </c>
       <c r="E10" s="4">
@@ -6096,7 +6151,7 @@
       <c r="C11" s="4">
         <v>100</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="6">
         <v>0</v>
       </c>
       <c r="E11" s="4">
@@ -7116,7 +7171,7 @@
   </sheetPr>
   <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -7198,7 +7253,7 @@
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="3" t="s">
         <v>17</v>
       </c>
@@ -7244,7 +7299,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="3" t="s">
         <v>21</v>
       </c>
@@ -7267,7 +7322,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="3" t="s">
         <v>23</v>
       </c>
@@ -7290,7 +7345,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -7313,7 +7368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="3" t="s">
         <v>27</v>
       </c>
@@ -7336,7 +7391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21.75">
       <c r="A10" s="3" t="s">
         <v>29</v>
       </c>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -574,7 +574,7 @@
     <t>animation_library</t>
   </si>
   <si>
-    <t>角色阵营0玩家1敌人</t>
+    <t>角色阵营1玩家2敌人</t>
   </si>
   <si>
     <t>角色头像</t>
@@ -1410,12 +1410,6 @@
       <family val="2"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FFffffff"/>
@@ -1427,6 +1421,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="宋体"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -1810,7 +1810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="54">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1824,7 +1824,7 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -1836,49 +1836,40 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="3" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -1887,46 +1878,46 @@
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="2" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -2288,7 +2279,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="56" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="53" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -2318,85 +2309,85 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="19" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="20" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="18" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="21" t="s">
+      <c r="D1" s="18" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="21" t="s">
+      <c r="E1" s="18" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="21" t="s">
+      <c r="F1" s="18" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="21" t="s">
+      <c r="G1" s="18" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="21" t="s">
+      <c r="H1" s="18" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="21" t="s">
+      <c r="I1" s="18" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="21" t="s">
+      <c r="J1" s="18" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="21" t="s">
+      <c r="K1" s="18" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="21" t="s">
+      <c r="L1" s="18" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="18" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="21" t="s">
+      <c r="N1" s="18" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="21" t="s">
+      <c r="P1" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="19" t="s">
         <v>252</v>
       </c>
-      <c r="S1" s="20" t="s">
+      <c r="S1" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="T1" s="20" t="s">
+      <c r="T1" s="17" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="20" t="s">
+      <c r="U1" s="17" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="20" t="s">
+      <c r="V1" s="17" t="s">
         <v>256</v>
       </c>
-      <c r="W1" s="23" t="s">
+      <c r="W1" s="20" t="s">
         <v>257</v>
       </c>
-      <c r="X1" s="24"/>
-      <c r="Y1" s="24"/>
-      <c r="Z1" s="24"/>
-      <c r="AA1" s="25"/>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="26" t="s">
+      <c r="A2" s="23" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="27" t="s">
+      <c r="B2" s="24" t="s">
         <v>259</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2444,195 +2435,195 @@
       <c r="Q2" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="R2" s="28" t="s">
+      <c r="R2" s="25" t="s">
         <v>275</v>
       </c>
-      <c r="S2" s="27" t="s">
+      <c r="S2" s="24" t="s">
         <v>276</v>
       </c>
-      <c r="T2" s="27" t="s">
+      <c r="T2" s="24" t="s">
         <v>277</v>
       </c>
-      <c r="U2" s="27" t="s">
+      <c r="U2" s="24" t="s">
         <v>278</v>
       </c>
-      <c r="V2" s="27" t="s">
+      <c r="V2" s="24" t="s">
         <v>279</v>
       </c>
-      <c r="W2" s="29" t="s">
+      <c r="W2" s="26" t="s">
         <v>274</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="X2" s="27" t="s">
         <v>280</v>
       </c>
-      <c r="Y2" s="31" t="s">
+      <c r="Y2" s="28" t="s">
         <v>281</v>
       </c>
-      <c r="Z2" s="31" t="s">
+      <c r="Z2" s="28" t="s">
         <v>282</v>
       </c>
-      <c r="AA2" s="32" t="s">
+      <c r="AA2" s="29" t="s">
         <v>283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="34" t="s">
+      <c r="B3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="35" t="s">
+      <c r="C3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="35" t="s">
+      <c r="D3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="35" t="s">
+      <c r="E3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="35" t="s">
+      <c r="F3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="35" t="s">
+      <c r="G3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="35" t="s">
+      <c r="H3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="35" t="s">
+      <c r="I3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="35" t="s">
+      <c r="J3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="35" t="s">
+      <c r="K3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="35" t="s">
+      <c r="L3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="35" t="s">
+      <c r="M3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="35" t="s">
+      <c r="N3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="35" t="s">
+      <c r="O3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="35" t="s">
+      <c r="P3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="35" t="s">
+      <c r="Q3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="36" t="s">
+      <c r="R3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="34" t="s">
+      <c r="S3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="34" t="s">
+      <c r="T3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="34" t="s">
+      <c r="U3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="34" t="s">
+      <c r="V3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="37" t="s">
+      <c r="W3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="38" t="s">
+      <c r="X3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="38" t="s">
+      <c r="Y3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="38" t="s">
+      <c r="Z3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="39" t="s">
+      <c r="AA3" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="40">
-        <v>1</v>
-      </c>
-      <c r="B4" s="41" t="s">
+      <c r="A4" s="37">
+        <v>1</v>
+      </c>
+      <c r="B4" s="38" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="42">
-        <v>10</v>
-      </c>
-      <c r="D4" s="42">
-        <v>0</v>
-      </c>
-      <c r="E4" s="42">
-        <v>0</v>
-      </c>
-      <c r="F4" s="42">
-        <v>10</v>
-      </c>
-      <c r="G4" s="42">
-        <v>0</v>
-      </c>
-      <c r="H4" s="42">
-        <v>0</v>
-      </c>
-      <c r="I4" s="42">
-        <v>0</v>
-      </c>
-      <c r="J4" s="42">
+      <c r="C4" s="39">
+        <v>10</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <v>10</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0</v>
+      </c>
+      <c r="H4" s="39">
+        <v>0</v>
+      </c>
+      <c r="I4" s="39">
+        <v>0</v>
+      </c>
+      <c r="J4" s="39">
         <v>2</v>
       </c>
-      <c r="K4" s="42">
-        <v>1</v>
-      </c>
-      <c r="L4" s="42">
-        <v>0</v>
-      </c>
-      <c r="M4" s="42">
-        <v>0</v>
-      </c>
-      <c r="N4" s="42">
-        <v>0</v>
-      </c>
-      <c r="O4" s="42">
-        <v>0</v>
-      </c>
-      <c r="P4" s="42">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="42">
-        <v>0</v>
-      </c>
-      <c r="R4" s="43">
-        <v>0</v>
-      </c>
-      <c r="S4" s="41"/>
-      <c r="T4" s="41"/>
-      <c r="U4" s="41"/>
-      <c r="V4" s="41"/>
-      <c r="W4" s="44"/>
-      <c r="X4" s="45" t="s">
+      <c r="K4" s="39">
+        <v>1</v>
+      </c>
+      <c r="L4" s="39">
+        <v>0</v>
+      </c>
+      <c r="M4" s="39">
+        <v>0</v>
+      </c>
+      <c r="N4" s="39">
+        <v>0</v>
+      </c>
+      <c r="O4" s="39">
+        <v>0</v>
+      </c>
+      <c r="P4" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="39">
+        <v>0</v>
+      </c>
+      <c r="R4" s="40">
+        <v>0</v>
+      </c>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="Y4" s="41" t="s">
+      <c r="Y4" s="38" t="s">
         <v>286</v>
       </c>
-      <c r="Z4" s="41" t="s">
+      <c r="Z4" s="38" t="s">
         <v>287</v>
       </c>
-      <c r="AA4" s="44" t="s">
+      <c r="AA4" s="41" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="46">
+      <c r="A5" s="43">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2683,15 +2674,15 @@
       <c r="Q5" s="4">
         <v>0</v>
       </c>
-      <c r="R5" s="47">
+      <c r="R5" s="44">
         <v>0</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="48"/>
-      <c r="X5" s="49" t="s">
+      <c r="W5" s="45"/>
+      <c r="X5" s="46" t="s">
         <v>290</v>
       </c>
       <c r="Y5" s="3" t="s">
@@ -2700,12 +2691,12 @@
       <c r="Z5" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="AA5" s="48" t="s">
+      <c r="AA5" s="45" t="s">
         <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="46">
+      <c r="A6" s="43">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2756,15 +2747,15 @@
       <c r="Q6" s="4">
         <v>0</v>
       </c>
-      <c r="R6" s="47">
+      <c r="R6" s="44">
         <v>0</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="48"/>
-      <c r="X6" s="49" t="s">
+      <c r="W6" s="45"/>
+      <c r="X6" s="46" t="s">
         <v>293</v>
       </c>
       <c r="Y6" s="3" t="s">
@@ -2773,12 +2764,12 @@
       <c r="Z6" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AA6" s="48" t="s">
+      <c r="AA6" s="45" t="s">
         <v>295</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="46">
+      <c r="A7" s="43">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2829,15 +2820,15 @@
       <c r="Q7" s="4">
         <v>0</v>
       </c>
-      <c r="R7" s="47">
+      <c r="R7" s="44">
         <v>0</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="48"/>
-      <c r="X7" s="49" t="s">
+      <c r="W7" s="45"/>
+      <c r="X7" s="46" t="s">
         <v>297</v>
       </c>
       <c r="Y7" s="3" t="s">
@@ -2846,12 +2837,12 @@
       <c r="Z7" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="AA7" s="48" t="s">
+      <c r="AA7" s="45" t="s">
         <v>299</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="46">
+      <c r="A8" s="43">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2902,15 +2893,15 @@
       <c r="Q8" s="4">
         <v>0</v>
       </c>
-      <c r="R8" s="47">
+      <c r="R8" s="44">
         <v>0</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="48"/>
-      <c r="X8" s="49" t="s">
+      <c r="W8" s="45"/>
+      <c r="X8" s="46" t="s">
         <v>301</v>
       </c>
       <c r="Y8" s="3" t="s">
@@ -2919,12 +2910,12 @@
       <c r="Z8" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="AA8" s="48" t="s">
+      <c r="AA8" s="45" t="s">
         <v>303</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="46">
+      <c r="A9" s="43">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2975,15 +2966,15 @@
       <c r="Q9" s="4">
         <v>0</v>
       </c>
-      <c r="R9" s="47">
+      <c r="R9" s="44">
         <v>0</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="48"/>
-      <c r="X9" s="49" t="s">
+      <c r="W9" s="45"/>
+      <c r="X9" s="46" t="s">
         <v>305</v>
       </c>
       <c r="Y9" s="3" t="s">
@@ -2992,12 +2983,12 @@
       <c r="Z9" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="AA9" s="48" t="s">
+      <c r="AA9" s="45" t="s">
         <v>308</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="46">
+      <c r="A10" s="43">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3048,15 +3039,15 @@
       <c r="Q10" s="4">
         <v>0</v>
       </c>
-      <c r="R10" s="47">
+      <c r="R10" s="44">
         <v>0</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="48"/>
-      <c r="X10" s="49" t="s">
+      <c r="W10" s="45"/>
+      <c r="X10" s="46" t="s">
         <v>310</v>
       </c>
       <c r="Y10" s="3" t="s">
@@ -3065,12 +3056,12 @@
       <c r="Z10" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="AA10" s="48" t="s">
+      <c r="AA10" s="45" t="s">
         <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="46">
+      <c r="A11" s="43">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3121,15 +3112,15 @@
       <c r="Q11" s="4">
         <v>0</v>
       </c>
-      <c r="R11" s="47">
+      <c r="R11" s="44">
         <v>0</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="48"/>
-      <c r="X11" s="49" t="s">
+      <c r="W11" s="45"/>
+      <c r="X11" s="46" t="s">
         <v>314</v>
       </c>
       <c r="Y11" s="3" t="s">
@@ -3138,12 +3129,12 @@
       <c r="Z11" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="AA11" s="48" t="s">
+      <c r="AA11" s="45" t="s">
         <v>317</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="46">
+      <c r="A12" s="43">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3194,15 +3185,15 @@
       <c r="Q12" s="4">
         <v>0</v>
       </c>
-      <c r="R12" s="47">
+      <c r="R12" s="44">
         <v>0</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="48"/>
-      <c r="X12" s="49" t="s">
+      <c r="W12" s="45"/>
+      <c r="X12" s="46" t="s">
         <v>319</v>
       </c>
       <c r="Y12" s="3" t="s">
@@ -3211,12 +3202,12 @@
       <c r="Z12" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="AA12" s="48" t="s">
+      <c r="AA12" s="45" t="s">
         <v>322</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="46">
+      <c r="A13" s="43">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3267,15 +3258,15 @@
       <c r="Q13" s="4">
         <v>0</v>
       </c>
-      <c r="R13" s="47">
+      <c r="R13" s="44">
         <v>0</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="48"/>
-      <c r="X13" s="49" t="s">
+      <c r="W13" s="45"/>
+      <c r="X13" s="46" t="s">
         <v>324</v>
       </c>
       <c r="Y13" s="3" t="s">
@@ -3284,12 +3275,12 @@
       <c r="Z13" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="AA13" s="48" t="s">
+      <c r="AA13" s="45" t="s">
         <v>326</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="46">
+      <c r="A14" s="43">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3340,15 +3331,15 @@
       <c r="Q14" s="4">
         <v>0</v>
       </c>
-      <c r="R14" s="47">
+      <c r="R14" s="44">
         <v>0</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="48"/>
-      <c r="X14" s="49" t="s">
+      <c r="W14" s="45"/>
+      <c r="X14" s="46" t="s">
         <v>328</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -3357,12 +3348,12 @@
       <c r="Z14" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="AA14" s="48" t="s">
+      <c r="AA14" s="45" t="s">
         <v>331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="46">
+      <c r="A15" s="43">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3413,15 +3404,15 @@
       <c r="Q15" s="4">
         <v>0</v>
       </c>
-      <c r="R15" s="47">
+      <c r="R15" s="44">
         <v>0</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="48"/>
-      <c r="X15" s="49" t="s">
+      <c r="W15" s="45"/>
+      <c r="X15" s="46" t="s">
         <v>333</v>
       </c>
       <c r="Y15" s="3" t="s">
@@ -3430,12 +3421,12 @@
       <c r="Z15" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="AA15" s="48" t="s">
+      <c r="AA15" s="45" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="46">
+      <c r="A16" s="43">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3486,15 +3477,15 @@
       <c r="Q16" s="4">
         <v>0</v>
       </c>
-      <c r="R16" s="47">
+      <c r="R16" s="44">
         <v>0</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="48"/>
-      <c r="X16" s="49" t="s">
+      <c r="W16" s="45"/>
+      <c r="X16" s="46" t="s">
         <v>337</v>
       </c>
       <c r="Y16" s="3" t="s">
@@ -3503,12 +3494,12 @@
       <c r="Z16" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="AA16" s="48" t="s">
+      <c r="AA16" s="45" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="46">
+      <c r="A17" s="43">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3559,15 +3550,15 @@
       <c r="Q17" s="4">
         <v>0</v>
       </c>
-      <c r="R17" s="47">
+      <c r="R17" s="44">
         <v>0</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="48"/>
-      <c r="X17" s="49" t="s">
+      <c r="W17" s="45"/>
+      <c r="X17" s="46" t="s">
         <v>341</v>
       </c>
       <c r="Y17" s="3" t="s">
@@ -3576,12 +3567,12 @@
       <c r="Z17" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="AA17" s="48" t="s">
+      <c r="AA17" s="45" t="s">
         <v>344</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="46">
+      <c r="A18" s="43">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3632,15 +3623,15 @@
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="47">
+      <c r="R18" s="44">
         <v>0</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="48"/>
-      <c r="X18" s="49" t="s">
+      <c r="W18" s="45"/>
+      <c r="X18" s="46" t="s">
         <v>346</v>
       </c>
       <c r="Y18" s="3" t="s">
@@ -3649,12 +3640,12 @@
       <c r="Z18" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="AA18" s="48" t="s">
+      <c r="AA18" s="45" t="s">
         <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="46">
+      <c r="A19" s="43">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3705,15 +3696,15 @@
       <c r="Q19" s="4">
         <v>0</v>
       </c>
-      <c r="R19" s="47">
+      <c r="R19" s="44">
         <v>0</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="48"/>
-      <c r="X19" s="49" t="s">
+      <c r="W19" s="45"/>
+      <c r="X19" s="46" t="s">
         <v>350</v>
       </c>
       <c r="Y19" s="3" t="s">
@@ -3722,12 +3713,12 @@
       <c r="Z19" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="AA19" s="48" t="s">
+      <c r="AA19" s="45" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="46">
+      <c r="A20" s="43">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3778,15 +3769,15 @@
       <c r="Q20" s="4">
         <v>0</v>
       </c>
-      <c r="R20" s="47">
+      <c r="R20" s="44">
         <v>0</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="48"/>
-      <c r="X20" s="49" t="s">
+      <c r="W20" s="45"/>
+      <c r="X20" s="46" t="s">
         <v>354</v>
       </c>
       <c r="Y20" s="3" t="s">
@@ -3795,12 +3786,12 @@
       <c r="Z20" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="AA20" s="48" t="s">
+      <c r="AA20" s="45" t="s">
         <v>262</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="46">
+      <c r="A21" s="43">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3851,15 +3842,15 @@
       <c r="Q21" s="4">
         <v>0</v>
       </c>
-      <c r="R21" s="47">
+      <c r="R21" s="44">
         <v>0</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="W21" s="48"/>
-      <c r="X21" s="49" t="s">
+      <c r="W21" s="45"/>
+      <c r="X21" s="46" t="s">
         <v>358</v>
       </c>
       <c r="Y21" s="3" t="s">
@@ -3868,12 +3859,12 @@
       <c r="Z21" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="AA21" s="48" t="s">
+      <c r="AA21" s="45" t="s">
         <v>275</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="46">
+      <c r="A22" s="43">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3924,15 +3915,15 @@
       <c r="Q22" s="4">
         <v>0</v>
       </c>
-      <c r="R22" s="47">
+      <c r="R22" s="44">
         <v>0</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="48"/>
-      <c r="X22" s="49" t="s">
+      <c r="W22" s="45"/>
+      <c r="X22" s="46" t="s">
         <v>362</v>
       </c>
       <c r="Y22" s="3" t="s">
@@ -3941,12 +3932,12 @@
       <c r="Z22" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="AA22" s="48" t="s">
+      <c r="AA22" s="45" t="s">
         <v>365</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="46">
+      <c r="A23" s="43">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3997,15 +3988,15 @@
       <c r="Q23" s="4">
         <v>0</v>
       </c>
-      <c r="R23" s="47">
+      <c r="R23" s="44">
         <v>0</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="48"/>
-      <c r="X23" s="49" t="s">
+      <c r="W23" s="45"/>
+      <c r="X23" s="46" t="s">
         <v>367</v>
       </c>
       <c r="Y23" s="3" t="s">
@@ -4014,12 +4005,12 @@
       <c r="Z23" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="AA23" s="48" t="s">
+      <c r="AA23" s="45" t="s">
         <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="46">
+      <c r="A24" s="43">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4070,15 +4061,15 @@
       <c r="Q24" s="4">
         <v>0</v>
       </c>
-      <c r="R24" s="47">
+      <c r="R24" s="44">
         <v>0</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="48"/>
-      <c r="X24" s="49" t="s">
+      <c r="W24" s="45"/>
+      <c r="X24" s="46" t="s">
         <v>371</v>
       </c>
       <c r="Y24" s="3" t="s">
@@ -4087,12 +4078,12 @@
       <c r="Z24" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="AA24" s="48" t="s">
+      <c r="AA24" s="45" t="s">
         <v>374</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="46">
+      <c r="A25" s="43">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4143,15 +4134,15 @@
       <c r="Q25" s="4">
         <v>0</v>
       </c>
-      <c r="R25" s="47">
+      <c r="R25" s="44">
         <v>0</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="48"/>
-      <c r="X25" s="49" t="s">
+      <c r="W25" s="45"/>
+      <c r="X25" s="46" t="s">
         <v>376</v>
       </c>
       <c r="Y25" s="3" t="s">
@@ -4160,12 +4151,12 @@
       <c r="Z25" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="AA25" s="48" t="s">
+      <c r="AA25" s="45" t="s">
         <v>269</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="46">
+      <c r="A26" s="43">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -4216,15 +4207,15 @@
       <c r="Q26" s="4">
         <v>0</v>
       </c>
-      <c r="R26" s="47">
+      <c r="R26" s="44">
         <v>0</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="48"/>
-      <c r="X26" s="49" t="s">
+      <c r="W26" s="45"/>
+      <c r="X26" s="46" t="s">
         <v>380</v>
       </c>
       <c r="Y26" s="3" t="s">
@@ -4233,12 +4224,12 @@
       <c r="Z26" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="AA26" s="48" t="s">
+      <c r="AA26" s="45" t="s">
         <v>383</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="46">
+      <c r="A27" s="43">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4289,15 +4280,15 @@
       <c r="Q27" s="4">
         <v>0</v>
       </c>
-      <c r="R27" s="47">
+      <c r="R27" s="44">
         <v>0</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="48"/>
-      <c r="X27" s="49" t="s">
+      <c r="W27" s="45"/>
+      <c r="X27" s="46" t="s">
         <v>385</v>
       </c>
       <c r="Y27" s="3" t="s">
@@ -4306,12 +4297,12 @@
       <c r="Z27" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="AA27" s="48" t="s">
+      <c r="AA27" s="45" t="s">
         <v>388</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="46">
+      <c r="A28" s="43">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -4362,15 +4353,15 @@
       <c r="Q28" s="4">
         <v>0</v>
       </c>
-      <c r="R28" s="47">
+      <c r="R28" s="44">
         <v>0</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="48"/>
-      <c r="X28" s="49" t="s">
+      <c r="W28" s="45"/>
+      <c r="X28" s="46" t="s">
         <v>390</v>
       </c>
       <c r="Y28" s="3" t="s">
@@ -4379,12 +4370,12 @@
       <c r="Z28" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="AA28" s="48" t="s">
+      <c r="AA28" s="45" t="s">
         <v>393</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="46">
+      <c r="A29" s="43">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4435,15 +4426,15 @@
       <c r="Q29" s="4">
         <v>0</v>
       </c>
-      <c r="R29" s="47">
+      <c r="R29" s="44">
         <v>0</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="48"/>
-      <c r="X29" s="49" t="s">
+      <c r="W29" s="45"/>
+      <c r="X29" s="46" t="s">
         <v>395</v>
       </c>
       <c r="Y29" s="3" t="s">
@@ -4452,12 +4443,12 @@
       <c r="Z29" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="AA29" s="48" t="s">
+      <c r="AA29" s="45" t="s">
         <v>398</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="46">
+      <c r="A30" s="43">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -4508,15 +4499,15 @@
       <c r="Q30" s="4">
         <v>0</v>
       </c>
-      <c r="R30" s="47">
+      <c r="R30" s="44">
         <v>0</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="48"/>
-      <c r="X30" s="49" t="s">
+      <c r="W30" s="45"/>
+      <c r="X30" s="46" t="s">
         <v>400</v>
       </c>
       <c r="Y30" s="3" t="s">
@@ -4525,12 +4516,12 @@
       <c r="Z30" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="AA30" s="48" t="s">
+      <c r="AA30" s="45" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="46">
+      <c r="A31" s="43">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4581,15 +4572,15 @@
       <c r="Q31" s="4">
         <v>0</v>
       </c>
-      <c r="R31" s="47">
+      <c r="R31" s="44">
         <v>0</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="48"/>
-      <c r="X31" s="49" t="s">
+      <c r="W31" s="45"/>
+      <c r="X31" s="46" t="s">
         <v>404</v>
       </c>
       <c r="Y31" s="3" t="s">
@@ -4598,12 +4589,12 @@
       <c r="Z31" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="AA31" s="48" t="s">
+      <c r="AA31" s="45" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="46">
+      <c r="A32" s="43">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4654,15 +4645,15 @@
       <c r="Q32" s="4">
         <v>0</v>
       </c>
-      <c r="R32" s="47">
+      <c r="R32" s="44">
         <v>0</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="48"/>
-      <c r="X32" s="49" t="s">
+      <c r="W32" s="45"/>
+      <c r="X32" s="46" t="s">
         <v>408</v>
       </c>
       <c r="Y32" s="3" t="s">
@@ -4671,12 +4662,12 @@
       <c r="Z32" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="AA32" s="48" t="s">
+      <c r="AA32" s="45" t="s">
         <v>411</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="46">
+      <c r="A33" s="43">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -4727,15 +4718,15 @@
       <c r="Q33" s="4">
         <v>0</v>
       </c>
-      <c r="R33" s="47">
+      <c r="R33" s="44">
         <v>0</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="48"/>
-      <c r="X33" s="49" t="s">
+      <c r="W33" s="45"/>
+      <c r="X33" s="46" t="s">
         <v>413</v>
       </c>
       <c r="Y33" s="3" t="s">
@@ -4744,12 +4735,12 @@
       <c r="Z33" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="AA33" s="48" t="s">
+      <c r="AA33" s="45" t="s">
         <v>416</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="46">
+      <c r="A34" s="43">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -4800,15 +4791,15 @@
       <c r="Q34" s="4">
         <v>0</v>
       </c>
-      <c r="R34" s="47">
+      <c r="R34" s="44">
         <v>0</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="48"/>
-      <c r="X34" s="49" t="s">
+      <c r="W34" s="45"/>
+      <c r="X34" s="46" t="s">
         <v>418</v>
       </c>
       <c r="Y34" s="3" t="s">
@@ -4817,12 +4808,12 @@
       <c r="Z34" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="AA34" s="48" t="s">
+      <c r="AA34" s="45" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="46">
+      <c r="A35" s="43">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -4873,15 +4864,15 @@
       <c r="Q35" s="4">
         <v>0</v>
       </c>
-      <c r="R35" s="47">
+      <c r="R35" s="44">
         <v>0</v>
       </c>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="48"/>
-      <c r="X35" s="49" t="s">
+      <c r="W35" s="45"/>
+      <c r="X35" s="46" t="s">
         <v>422</v>
       </c>
       <c r="Y35" s="3" t="s">
@@ -4890,12 +4881,12 @@
       <c r="Z35" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="AA35" s="48" t="s">
+      <c r="AA35" s="45" t="s">
         <v>425</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="46">
+      <c r="A36" s="43">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4946,15 +4937,15 @@
       <c r="Q36" s="4">
         <v>0</v>
       </c>
-      <c r="R36" s="47">
+      <c r="R36" s="44">
         <v>0</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="48"/>
-      <c r="X36" s="49" t="s">
+      <c r="W36" s="45"/>
+      <c r="X36" s="46" t="s">
         <v>427</v>
       </c>
       <c r="Y36" s="3" t="s">
@@ -4963,12 +4954,12 @@
       <c r="Z36" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="AA36" s="48" t="s">
+      <c r="AA36" s="45" t="s">
         <v>430</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="46">
+      <c r="A37" s="43">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -5019,15 +5010,15 @@
       <c r="Q37" s="4">
         <v>0</v>
       </c>
-      <c r="R37" s="47">
+      <c r="R37" s="44">
         <v>0</v>
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="48"/>
-      <c r="X37" s="49" t="s">
+      <c r="W37" s="45"/>
+      <c r="X37" s="46" t="s">
         <v>432</v>
       </c>
       <c r="Y37" s="3" t="s">
@@ -5036,12 +5027,12 @@
       <c r="Z37" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="AA37" s="48" t="s">
+      <c r="AA37" s="45" t="s">
         <v>435</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="46">
+      <c r="A38" s="43">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -5092,15 +5083,15 @@
       <c r="Q38" s="4">
         <v>0</v>
       </c>
-      <c r="R38" s="47">
+      <c r="R38" s="44">
         <v>0</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="48"/>
-      <c r="X38" s="49" t="s">
+      <c r="W38" s="45"/>
+      <c r="X38" s="46" t="s">
         <v>437</v>
       </c>
       <c r="Y38" s="3" t="s">
@@ -5109,12 +5100,12 @@
       <c r="Z38" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="AA38" s="48" t="s">
+      <c r="AA38" s="45" t="s">
         <v>440</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="46">
+      <c r="A39" s="43">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -5165,15 +5156,15 @@
       <c r="Q39" s="4">
         <v>0</v>
       </c>
-      <c r="R39" s="47">
+      <c r="R39" s="44">
         <v>0</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="48"/>
-      <c r="X39" s="49" t="s">
+      <c r="W39" s="45"/>
+      <c r="X39" s="46" t="s">
         <v>442</v>
       </c>
       <c r="Y39" s="3" t="s">
@@ -5182,12 +5173,12 @@
       <c r="Z39" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="AA39" s="48" t="s">
+      <c r="AA39" s="45" t="s">
         <v>445</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="46">
+      <c r="A40" s="43">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -5238,15 +5229,15 @@
       <c r="Q40" s="4">
         <v>0</v>
       </c>
-      <c r="R40" s="47">
+      <c r="R40" s="44">
         <v>0</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-      <c r="W40" s="48"/>
-      <c r="X40" s="49" t="s">
+      <c r="W40" s="45"/>
+      <c r="X40" s="46" t="s">
         <v>447</v>
       </c>
       <c r="Y40" s="3" t="s">
@@ -5255,80 +5246,80 @@
       <c r="Z40" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="AA40" s="48" t="s">
+      <c r="AA40" s="45" t="s">
         <v>271</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="50">
+      <c r="A41" s="47">
         <v>38</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="48" t="s">
         <v>450</v>
       </c>
-      <c r="C41" s="52">
-        <v>10</v>
-      </c>
-      <c r="D41" s="52">
-        <v>0</v>
-      </c>
-      <c r="E41" s="52">
-        <v>0</v>
-      </c>
-      <c r="F41" s="52">
-        <v>10</v>
-      </c>
-      <c r="G41" s="52">
-        <v>0</v>
-      </c>
-      <c r="H41" s="52">
-        <v>0</v>
-      </c>
-      <c r="I41" s="52">
-        <v>0</v>
-      </c>
-      <c r="J41" s="52">
+      <c r="C41" s="49">
+        <v>10</v>
+      </c>
+      <c r="D41" s="49">
+        <v>0</v>
+      </c>
+      <c r="E41" s="49">
+        <v>0</v>
+      </c>
+      <c r="F41" s="49">
+        <v>10</v>
+      </c>
+      <c r="G41" s="49">
+        <v>0</v>
+      </c>
+      <c r="H41" s="49">
+        <v>0</v>
+      </c>
+      <c r="I41" s="49">
+        <v>0</v>
+      </c>
+      <c r="J41" s="49">
         <v>2</v>
       </c>
-      <c r="K41" s="52">
-        <v>1</v>
-      </c>
-      <c r="L41" s="52">
-        <v>0</v>
-      </c>
-      <c r="M41" s="52">
-        <v>0</v>
-      </c>
-      <c r="N41" s="52">
-        <v>0</v>
-      </c>
-      <c r="O41" s="52">
-        <v>0</v>
-      </c>
-      <c r="P41" s="52">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="52">
-        <v>0</v>
-      </c>
-      <c r="R41" s="53">
-        <v>0</v>
-      </c>
-      <c r="S41" s="51"/>
-      <c r="T41" s="51"/>
-      <c r="U41" s="51"/>
-      <c r="V41" s="51"/>
-      <c r="W41" s="54"/>
-      <c r="X41" s="55" t="s">
+      <c r="K41" s="49">
+        <v>1</v>
+      </c>
+      <c r="L41" s="49">
+        <v>0</v>
+      </c>
+      <c r="M41" s="49">
+        <v>0</v>
+      </c>
+      <c r="N41" s="49">
+        <v>0</v>
+      </c>
+      <c r="O41" s="49">
+        <v>0</v>
+      </c>
+      <c r="P41" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="49">
+        <v>0</v>
+      </c>
+      <c r="R41" s="50">
+        <v>0</v>
+      </c>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="52" t="s">
         <v>451</v>
       </c>
-      <c r="Y41" s="51" t="s">
+      <c r="Y41" s="48" t="s">
         <v>452</v>
       </c>
-      <c r="Z41" s="51" t="s">
+      <c r="Z41" s="48" t="s">
         <v>453</v>
       </c>
-      <c r="AA41" s="54" t="s">
+      <c r="AA41" s="51" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5367,7 +5358,7 @@
       <c r="B1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="15" t="s">
         <v>217</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -5385,10 +5376,10 @@
       <c r="H1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="15" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="15" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5399,7 +5390,7 @@
       <c r="B2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="15" t="s">
         <v>226</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -5417,10 +5408,10 @@
       <c r="H2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="15" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="15" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5431,7 +5422,7 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="15" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -5449,10 +5440,10 @@
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="15" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5498,7 +5489,7 @@
   <cols>
     <col min="1" max="1" style="7" width="17.14785714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="43.86214285714286" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="7" width="20.433571428571426" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="7" width="74.86214285714286" customWidth="1" bestFit="1"/>
@@ -5508,319 +5499,319 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>177</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="E1" s="13" t="s">
+      <c r="E1" s="12" t="s">
         <v>179</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="G1" s="13" t="s">
+      <c r="G1" s="12" t="s">
         <v>181</v>
       </c>
-      <c r="H1" s="15" t="s">
+      <c r="H1" s="5" t="s">
         <v>182</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="5" t="s">
         <v>183</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="13" t="s">
+      <c r="A2" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>184</v>
       </c>
-      <c r="D2" s="13" t="s">
+      <c r="D2" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="E2" s="13" t="s">
+      <c r="E2" s="12" t="s">
         <v>186</v>
       </c>
-      <c r="F2" s="13" t="s">
+      <c r="F2" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="G2" s="13" t="s">
+      <c r="G2" s="12" t="s">
         <v>188</v>
       </c>
       <c r="H2" s="5"/>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="5" t="s">
         <v>189</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="13" t="s">
+      <c r="A3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="13" t="s">
+      <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="13" t="s">
+      <c r="D3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="13" t="s">
+      <c r="E3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="13" t="s">
+      <c r="F3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="13" t="s">
+      <c r="G3" s="12" t="s">
         <v>48</v>
       </c>
-      <c r="H3" s="15" t="s">
+      <c r="H3" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="5" t="s">
         <v>49</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="B4" s="15" t="s">
+      <c r="B4" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="16">
-        <v>0</v>
-      </c>
-      <c r="D4" s="15" t="s">
+      <c r="C4" s="14">
+        <v>1</v>
+      </c>
+      <c r="D4" s="5" t="s">
         <v>191</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="5" t="s">
         <v>161</v>
       </c>
-      <c r="F4" s="15" t="s">
+      <c r="F4" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="G4" s="5" t="s">
         <v>193</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="5" t="s">
         <v>195</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
-      <c r="A5" s="15" t="s">
+      <c r="A5" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="16">
-        <v>0</v>
-      </c>
-      <c r="D5" s="15" t="s">
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="F5" s="15" t="s">
+      <c r="F5" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="G5" s="15" t="s">
+      <c r="G5" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="H5" s="15" t="s">
+      <c r="H5" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="5" t="s">
         <v>199</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
-      <c r="A6" s="15" t="s">
+      <c r="A6" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B6" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="16">
-        <v>0</v>
-      </c>
-      <c r="D6" s="15" t="s">
+      <c r="C6" s="14">
+        <v>1</v>
+      </c>
+      <c r="D6" s="5" t="s">
         <v>200</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="F6" s="15" t="s">
+      <c r="F6" s="5" t="s">
         <v>201</v>
       </c>
-      <c r="G6" s="15" t="s">
+      <c r="G6" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H6" s="15" t="s">
+      <c r="H6" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="I6" s="15" t="s">
+      <c r="I6" s="5" t="s">
         <v>203</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
-      <c r="A7" s="15" t="s">
+      <c r="A7" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B7" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="16">
-        <v>0</v>
-      </c>
-      <c r="D7" s="15" t="s">
+      <c r="C7" s="14">
+        <v>1</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>204</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="5" t="s">
         <v>167</v>
       </c>
-      <c r="F7" s="15" t="s">
+      <c r="F7" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G7" s="15" t="s">
+      <c r="G7" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="H7" s="15" t="s">
+      <c r="H7" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="I7" s="15" t="s">
+      <c r="I7" s="5" t="s">
         <v>206</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="16">
-        <v>1</v>
-      </c>
-      <c r="D8" s="15" t="s">
+      <c r="C8" s="14">
+        <v>2</v>
+      </c>
+      <c r="D8" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="5" t="s">
         <v>169</v>
       </c>
-      <c r="F8" s="15" t="s">
+      <c r="F8" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="15" t="s">
+      <c r="G8" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="15" t="s">
+      <c r="H8" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="I8" s="15" t="s">
+      <c r="I8" s="5" t="s">
         <v>209</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
-      <c r="A9" s="15" t="s">
+      <c r="A9" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B9" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="16">
-        <v>1</v>
-      </c>
-      <c r="D9" s="15" t="s">
+      <c r="C9" s="14">
+        <v>2</v>
+      </c>
+      <c r="D9" s="5" t="s">
         <v>210</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="5" t="s">
         <v>171</v>
       </c>
-      <c r="F9" s="15" t="s">
+      <c r="F9" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="G9" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H9" s="15" t="s">
+      <c r="H9" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="I9" s="15" t="s">
+      <c r="I9" s="5" t="s">
         <v>211</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
-      <c r="A10" s="15" t="s">
+      <c r="A10" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B10" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="16">
-        <v>1</v>
-      </c>
-      <c r="D10" s="15" t="s">
+      <c r="C10" s="14">
+        <v>2</v>
+      </c>
+      <c r="D10" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="5" t="s">
         <v>173</v>
       </c>
-      <c r="F10" s="15" t="s">
+      <c r="F10" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G10" s="15" t="s">
+      <c r="G10" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H10" s="15" t="s">
+      <c r="H10" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="I10" s="15" t="s">
+      <c r="I10" s="5" t="s">
         <v>213</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
-      <c r="A11" s="15" t="s">
+      <c r="A11" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B11" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="16">
-        <v>1</v>
-      </c>
-      <c r="D11" s="15" t="s">
+      <c r="C11" s="14">
+        <v>2</v>
+      </c>
+      <c r="D11" s="5" t="s">
         <v>214</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="5" t="s">
         <v>175</v>
       </c>
-      <c r="F11" s="15" t="s">
+      <c r="F11" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="G11" s="15" t="s">
+      <c r="G11" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="15" t="s">
+      <c r="H11" s="5" t="s">
         <v>208</v>
       </c>
-      <c r="I11" s="15" t="s">
+      <c r="I11" s="5" t="s">
         <v>215</v>
       </c>
     </row>
@@ -5861,7 +5852,7 @@
       <c r="C1" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
       <c r="E1" s="11" t="s">
@@ -5890,7 +5881,7 @@
       <c r="C2" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
       <c r="E2" s="11" t="s">
@@ -5919,7 +5910,7 @@
       <c r="C3" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
       <c r="E3" s="11" t="s">

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -604,7 +604,7 @@
     <t>health*rage</t>
   </si>
   <si>
-    <t>0,-96</t>
+    <t>0,-128</t>
   </si>
   <si>
     <t>res://scenes/character/resources/animation/hero/animation_library_crystal_mauler.res</t>
@@ -646,7 +646,7 @@
     <t>res://assets/texture/icon/character_profile_picture/flying_eye.tres</t>
   </si>
   <si>
-    <t>0,-27</t>
+    <t>0,-59</t>
   </si>
   <si>
     <t>res://scenes/character/resources/animation/enemy/animation_library_flying_eye.res</t>
@@ -1810,7 +1810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="53">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1847,9 +1847,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="right"/>
@@ -2279,7 +2276,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="53" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="52" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -2309,85 +2306,85 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="16" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="15" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="16" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="17" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="D1" s="17" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="E1" s="17" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="F1" s="17" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="G1" s="17" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="18" t="s">
+      <c r="H1" s="17" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="17" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="17" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="18" t="s">
+      <c r="K1" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="18" t="s">
+      <c r="L1" s="17" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="18" t="s">
+      <c r="M1" s="17" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="18" t="s">
+      <c r="N1" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="18" t="s">
+      <c r="O1" s="17" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="18" t="s">
+      <c r="P1" s="17" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="18" t="s">
+      <c r="Q1" s="17" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="19" t="s">
+      <c r="R1" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="S1" s="17" t="s">
+      <c r="S1" s="16" t="s">
         <v>253</v>
       </c>
-      <c r="T1" s="17" t="s">
+      <c r="T1" s="16" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="17" t="s">
+      <c r="U1" s="16" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="17" t="s">
+      <c r="V1" s="16" t="s">
         <v>256</v>
       </c>
-      <c r="W1" s="20" t="s">
+      <c r="W1" s="19" t="s">
         <v>257</v>
       </c>
-      <c r="X1" s="21"/>
-      <c r="Y1" s="21"/>
-      <c r="Z1" s="21"/>
-      <c r="AA1" s="22"/>
+      <c r="X1" s="20"/>
+      <c r="Y1" s="20"/>
+      <c r="Z1" s="20"/>
+      <c r="AA1" s="21"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="22" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="23" t="s">
         <v>259</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2435,195 +2432,195 @@
       <c r="Q2" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="R2" s="25" t="s">
+      <c r="R2" s="24" t="s">
         <v>275</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="23" t="s">
         <v>276</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="23" t="s">
         <v>277</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="23" t="s">
         <v>278</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="23" t="s">
         <v>279</v>
       </c>
-      <c r="W2" s="26" t="s">
+      <c r="W2" s="25" t="s">
         <v>274</v>
       </c>
-      <c r="X2" s="27" t="s">
+      <c r="X2" s="26" t="s">
         <v>280</v>
       </c>
-      <c r="Y2" s="28" t="s">
+      <c r="Y2" s="27" t="s">
         <v>281</v>
       </c>
-      <c r="Z2" s="28" t="s">
+      <c r="Z2" s="27" t="s">
         <v>282</v>
       </c>
-      <c r="AA2" s="29" t="s">
+      <c r="AA2" s="28" t="s">
         <v>283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="32" t="s">
+      <c r="F3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="32" t="s">
+      <c r="H3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="32" t="s">
+      <c r="I3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="32" t="s">
+      <c r="J3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="32" t="s">
+      <c r="K3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="32" t="s">
+      <c r="L3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="32" t="s">
+      <c r="M3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="32" t="s">
+      <c r="N3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="32" t="s">
+      <c r="O3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="32" t="s">
+      <c r="P3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="32" t="s">
+      <c r="Q3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="33" t="s">
+      <c r="R3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="31" t="s">
+      <c r="S3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="31" t="s">
+      <c r="T3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="31" t="s">
+      <c r="U3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="31" t="s">
+      <c r="V3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="34" t="s">
+      <c r="W3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="35" t="s">
+      <c r="X3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="35" t="s">
+      <c r="Y3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="35" t="s">
+      <c r="Z3" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="36" t="s">
+      <c r="AA3" s="35" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="37">
-        <v>1</v>
-      </c>
-      <c r="B4" s="38" t="s">
+      <c r="A4" s="36">
+        <v>1</v>
+      </c>
+      <c r="B4" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="39">
-        <v>10</v>
-      </c>
-      <c r="D4" s="39">
-        <v>0</v>
-      </c>
-      <c r="E4" s="39">
-        <v>0</v>
-      </c>
-      <c r="F4" s="39">
-        <v>10</v>
-      </c>
-      <c r="G4" s="39">
-        <v>0</v>
-      </c>
-      <c r="H4" s="39">
-        <v>0</v>
-      </c>
-      <c r="I4" s="39">
-        <v>0</v>
-      </c>
-      <c r="J4" s="39">
+      <c r="C4" s="38">
+        <v>10</v>
+      </c>
+      <c r="D4" s="38">
+        <v>0</v>
+      </c>
+      <c r="E4" s="38">
+        <v>0</v>
+      </c>
+      <c r="F4" s="38">
+        <v>10</v>
+      </c>
+      <c r="G4" s="38">
+        <v>0</v>
+      </c>
+      <c r="H4" s="38">
+        <v>0</v>
+      </c>
+      <c r="I4" s="38">
+        <v>0</v>
+      </c>
+      <c r="J4" s="38">
         <v>2</v>
       </c>
-      <c r="K4" s="39">
-        <v>1</v>
-      </c>
-      <c r="L4" s="39">
-        <v>0</v>
-      </c>
-      <c r="M4" s="39">
-        <v>0</v>
-      </c>
-      <c r="N4" s="39">
-        <v>0</v>
-      </c>
-      <c r="O4" s="39">
-        <v>0</v>
-      </c>
-      <c r="P4" s="39">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="39">
-        <v>0</v>
-      </c>
-      <c r="R4" s="40">
-        <v>0</v>
-      </c>
-      <c r="S4" s="38"/>
-      <c r="T4" s="38"/>
-      <c r="U4" s="38"/>
-      <c r="V4" s="38"/>
-      <c r="W4" s="41"/>
-      <c r="X4" s="42" t="s">
+      <c r="K4" s="38">
+        <v>1</v>
+      </c>
+      <c r="L4" s="38">
+        <v>0</v>
+      </c>
+      <c r="M4" s="38">
+        <v>0</v>
+      </c>
+      <c r="N4" s="38">
+        <v>0</v>
+      </c>
+      <c r="O4" s="38">
+        <v>0</v>
+      </c>
+      <c r="P4" s="38">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="38">
+        <v>0</v>
+      </c>
+      <c r="R4" s="39">
+        <v>0</v>
+      </c>
+      <c r="S4" s="37"/>
+      <c r="T4" s="37"/>
+      <c r="U4" s="37"/>
+      <c r="V4" s="37"/>
+      <c r="W4" s="40"/>
+      <c r="X4" s="41" t="s">
         <v>285</v>
       </c>
-      <c r="Y4" s="38" t="s">
+      <c r="Y4" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="Z4" s="38" t="s">
+      <c r="Z4" s="37" t="s">
         <v>287</v>
       </c>
-      <c r="AA4" s="41" t="s">
+      <c r="AA4" s="40" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="43">
+      <c r="A5" s="42">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2674,15 +2671,15 @@
       <c r="Q5" s="4">
         <v>0</v>
       </c>
-      <c r="R5" s="44">
+      <c r="R5" s="43">
         <v>0</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="45"/>
-      <c r="X5" s="46" t="s">
+      <c r="W5" s="44"/>
+      <c r="X5" s="45" t="s">
         <v>290</v>
       </c>
       <c r="Y5" s="3" t="s">
@@ -2691,12 +2688,12 @@
       <c r="Z5" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="AA5" s="45" t="s">
+      <c r="AA5" s="44" t="s">
         <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="43">
+      <c r="A6" s="42">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2747,15 +2744,15 @@
       <c r="Q6" s="4">
         <v>0</v>
       </c>
-      <c r="R6" s="44">
+      <c r="R6" s="43">
         <v>0</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="45"/>
-      <c r="X6" s="46" t="s">
+      <c r="W6" s="44"/>
+      <c r="X6" s="45" t="s">
         <v>293</v>
       </c>
       <c r="Y6" s="3" t="s">
@@ -2764,12 +2761,12 @@
       <c r="Z6" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AA6" s="45" t="s">
+      <c r="AA6" s="44" t="s">
         <v>295</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="43">
+      <c r="A7" s="42">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2820,15 +2817,15 @@
       <c r="Q7" s="4">
         <v>0</v>
       </c>
-      <c r="R7" s="44">
+      <c r="R7" s="43">
         <v>0</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="45"/>
-      <c r="X7" s="46" t="s">
+      <c r="W7" s="44"/>
+      <c r="X7" s="45" t="s">
         <v>297</v>
       </c>
       <c r="Y7" s="3" t="s">
@@ -2837,12 +2834,12 @@
       <c r="Z7" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="AA7" s="45" t="s">
+      <c r="AA7" s="44" t="s">
         <v>299</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="43">
+      <c r="A8" s="42">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2893,15 +2890,15 @@
       <c r="Q8" s="4">
         <v>0</v>
       </c>
-      <c r="R8" s="44">
+      <c r="R8" s="43">
         <v>0</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="45"/>
-      <c r="X8" s="46" t="s">
+      <c r="W8" s="44"/>
+      <c r="X8" s="45" t="s">
         <v>301</v>
       </c>
       <c r="Y8" s="3" t="s">
@@ -2910,12 +2907,12 @@
       <c r="Z8" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="AA8" s="45" t="s">
+      <c r="AA8" s="44" t="s">
         <v>303</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="43">
+      <c r="A9" s="42">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2966,15 +2963,15 @@
       <c r="Q9" s="4">
         <v>0</v>
       </c>
-      <c r="R9" s="44">
+      <c r="R9" s="43">
         <v>0</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="45"/>
-      <c r="X9" s="46" t="s">
+      <c r="W9" s="44"/>
+      <c r="X9" s="45" t="s">
         <v>305</v>
       </c>
       <c r="Y9" s="3" t="s">
@@ -2983,12 +2980,12 @@
       <c r="Z9" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="AA9" s="45" t="s">
+      <c r="AA9" s="44" t="s">
         <v>308</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="43">
+      <c r="A10" s="42">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3039,15 +3036,15 @@
       <c r="Q10" s="4">
         <v>0</v>
       </c>
-      <c r="R10" s="44">
+      <c r="R10" s="43">
         <v>0</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="45"/>
-      <c r="X10" s="46" t="s">
+      <c r="W10" s="44"/>
+      <c r="X10" s="45" t="s">
         <v>310</v>
       </c>
       <c r="Y10" s="3" t="s">
@@ -3056,12 +3053,12 @@
       <c r="Z10" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="AA10" s="45" t="s">
+      <c r="AA10" s="44" t="s">
         <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="43">
+      <c r="A11" s="42">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3112,15 +3109,15 @@
       <c r="Q11" s="4">
         <v>0</v>
       </c>
-      <c r="R11" s="44">
+      <c r="R11" s="43">
         <v>0</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="45"/>
-      <c r="X11" s="46" t="s">
+      <c r="W11" s="44"/>
+      <c r="X11" s="45" t="s">
         <v>314</v>
       </c>
       <c r="Y11" s="3" t="s">
@@ -3129,12 +3126,12 @@
       <c r="Z11" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="AA11" s="45" t="s">
+      <c r="AA11" s="44" t="s">
         <v>317</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="43">
+      <c r="A12" s="42">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3185,15 +3182,15 @@
       <c r="Q12" s="4">
         <v>0</v>
       </c>
-      <c r="R12" s="44">
+      <c r="R12" s="43">
         <v>0</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="45"/>
-      <c r="X12" s="46" t="s">
+      <c r="W12" s="44"/>
+      <c r="X12" s="45" t="s">
         <v>319</v>
       </c>
       <c r="Y12" s="3" t="s">
@@ -3202,12 +3199,12 @@
       <c r="Z12" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="AA12" s="45" t="s">
+      <c r="AA12" s="44" t="s">
         <v>322</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="43">
+      <c r="A13" s="42">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3258,15 +3255,15 @@
       <c r="Q13" s="4">
         <v>0</v>
       </c>
-      <c r="R13" s="44">
+      <c r="R13" s="43">
         <v>0</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="45"/>
-      <c r="X13" s="46" t="s">
+      <c r="W13" s="44"/>
+      <c r="X13" s="45" t="s">
         <v>324</v>
       </c>
       <c r="Y13" s="3" t="s">
@@ -3275,12 +3272,12 @@
       <c r="Z13" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="AA13" s="45" t="s">
+      <c r="AA13" s="44" t="s">
         <v>326</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="43">
+      <c r="A14" s="42">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3331,15 +3328,15 @@
       <c r="Q14" s="4">
         <v>0</v>
       </c>
-      <c r="R14" s="44">
+      <c r="R14" s="43">
         <v>0</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="45"/>
-      <c r="X14" s="46" t="s">
+      <c r="W14" s="44"/>
+      <c r="X14" s="45" t="s">
         <v>328</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -3348,12 +3345,12 @@
       <c r="Z14" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="AA14" s="45" t="s">
+      <c r="AA14" s="44" t="s">
         <v>331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="43">
+      <c r="A15" s="42">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3404,15 +3401,15 @@
       <c r="Q15" s="4">
         <v>0</v>
       </c>
-      <c r="R15" s="44">
+      <c r="R15" s="43">
         <v>0</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="45"/>
-      <c r="X15" s="46" t="s">
+      <c r="W15" s="44"/>
+      <c r="X15" s="45" t="s">
         <v>333</v>
       </c>
       <c r="Y15" s="3" t="s">
@@ -3421,12 +3418,12 @@
       <c r="Z15" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="AA15" s="45" t="s">
+      <c r="AA15" s="44" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="43">
+      <c r="A16" s="42">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3477,15 +3474,15 @@
       <c r="Q16" s="4">
         <v>0</v>
       </c>
-      <c r="R16" s="44">
+      <c r="R16" s="43">
         <v>0</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="45"/>
-      <c r="X16" s="46" t="s">
+      <c r="W16" s="44"/>
+      <c r="X16" s="45" t="s">
         <v>337</v>
       </c>
       <c r="Y16" s="3" t="s">
@@ -3494,12 +3491,12 @@
       <c r="Z16" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="AA16" s="45" t="s">
+      <c r="AA16" s="44" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="43">
+      <c r="A17" s="42">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3550,15 +3547,15 @@
       <c r="Q17" s="4">
         <v>0</v>
       </c>
-      <c r="R17" s="44">
+      <c r="R17" s="43">
         <v>0</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="45"/>
-      <c r="X17" s="46" t="s">
+      <c r="W17" s="44"/>
+      <c r="X17" s="45" t="s">
         <v>341</v>
       </c>
       <c r="Y17" s="3" t="s">
@@ -3567,12 +3564,12 @@
       <c r="Z17" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="AA17" s="45" t="s">
+      <c r="AA17" s="44" t="s">
         <v>344</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="43">
+      <c r="A18" s="42">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3623,15 +3620,15 @@
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="44">
+      <c r="R18" s="43">
         <v>0</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="45"/>
-      <c r="X18" s="46" t="s">
+      <c r="W18" s="44"/>
+      <c r="X18" s="45" t="s">
         <v>346</v>
       </c>
       <c r="Y18" s="3" t="s">
@@ -3640,12 +3637,12 @@
       <c r="Z18" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="AA18" s="45" t="s">
+      <c r="AA18" s="44" t="s">
         <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="43">
+      <c r="A19" s="42">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3696,15 +3693,15 @@
       <c r="Q19" s="4">
         <v>0</v>
       </c>
-      <c r="R19" s="44">
+      <c r="R19" s="43">
         <v>0</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="45"/>
-      <c r="X19" s="46" t="s">
+      <c r="W19" s="44"/>
+      <c r="X19" s="45" t="s">
         <v>350</v>
       </c>
       <c r="Y19" s="3" t="s">
@@ -3713,12 +3710,12 @@
       <c r="Z19" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="AA19" s="45" t="s">
+      <c r="AA19" s="44" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="43">
+      <c r="A20" s="42">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3769,15 +3766,15 @@
       <c r="Q20" s="4">
         <v>0</v>
       </c>
-      <c r="R20" s="44">
+      <c r="R20" s="43">
         <v>0</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="45"/>
-      <c r="X20" s="46" t="s">
+      <c r="W20" s="44"/>
+      <c r="X20" s="45" t="s">
         <v>354</v>
       </c>
       <c r="Y20" s="3" t="s">
@@ -3786,12 +3783,12 @@
       <c r="Z20" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="AA20" s="45" t="s">
+      <c r="AA20" s="44" t="s">
         <v>262</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="43">
+      <c r="A21" s="42">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3842,15 +3839,15 @@
       <c r="Q21" s="4">
         <v>0</v>
       </c>
-      <c r="R21" s="44">
+      <c r="R21" s="43">
         <v>0</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="W21" s="45"/>
-      <c r="X21" s="46" t="s">
+      <c r="W21" s="44"/>
+      <c r="X21" s="45" t="s">
         <v>358</v>
       </c>
       <c r="Y21" s="3" t="s">
@@ -3859,12 +3856,12 @@
       <c r="Z21" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="AA21" s="45" t="s">
+      <c r="AA21" s="44" t="s">
         <v>275</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="43">
+      <c r="A22" s="42">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3915,15 +3912,15 @@
       <c r="Q22" s="4">
         <v>0</v>
       </c>
-      <c r="R22" s="44">
+      <c r="R22" s="43">
         <v>0</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="45"/>
-      <c r="X22" s="46" t="s">
+      <c r="W22" s="44"/>
+      <c r="X22" s="45" t="s">
         <v>362</v>
       </c>
       <c r="Y22" s="3" t="s">
@@ -3932,12 +3929,12 @@
       <c r="Z22" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="AA22" s="45" t="s">
+      <c r="AA22" s="44" t="s">
         <v>365</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="43">
+      <c r="A23" s="42">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3988,15 +3985,15 @@
       <c r="Q23" s="4">
         <v>0</v>
       </c>
-      <c r="R23" s="44">
+      <c r="R23" s="43">
         <v>0</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="45"/>
-      <c r="X23" s="46" t="s">
+      <c r="W23" s="44"/>
+      <c r="X23" s="45" t="s">
         <v>367</v>
       </c>
       <c r="Y23" s="3" t="s">
@@ -4005,12 +4002,12 @@
       <c r="Z23" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="AA23" s="45" t="s">
+      <c r="AA23" s="44" t="s">
         <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="43">
+      <c r="A24" s="42">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4061,15 +4058,15 @@
       <c r="Q24" s="4">
         <v>0</v>
       </c>
-      <c r="R24" s="44">
+      <c r="R24" s="43">
         <v>0</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="45"/>
-      <c r="X24" s="46" t="s">
+      <c r="W24" s="44"/>
+      <c r="X24" s="45" t="s">
         <v>371</v>
       </c>
       <c r="Y24" s="3" t="s">
@@ -4078,12 +4075,12 @@
       <c r="Z24" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="AA24" s="45" t="s">
+      <c r="AA24" s="44" t="s">
         <v>374</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="43">
+      <c r="A25" s="42">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4134,15 +4131,15 @@
       <c r="Q25" s="4">
         <v>0</v>
       </c>
-      <c r="R25" s="44">
+      <c r="R25" s="43">
         <v>0</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="45"/>
-      <c r="X25" s="46" t="s">
+      <c r="W25" s="44"/>
+      <c r="X25" s="45" t="s">
         <v>376</v>
       </c>
       <c r="Y25" s="3" t="s">
@@ -4151,12 +4148,12 @@
       <c r="Z25" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="AA25" s="45" t="s">
+      <c r="AA25" s="44" t="s">
         <v>269</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="43">
+      <c r="A26" s="42">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -4207,15 +4204,15 @@
       <c r="Q26" s="4">
         <v>0</v>
       </c>
-      <c r="R26" s="44">
+      <c r="R26" s="43">
         <v>0</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="45"/>
-      <c r="X26" s="46" t="s">
+      <c r="W26" s="44"/>
+      <c r="X26" s="45" t="s">
         <v>380</v>
       </c>
       <c r="Y26" s="3" t="s">
@@ -4224,12 +4221,12 @@
       <c r="Z26" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="AA26" s="45" t="s">
+      <c r="AA26" s="44" t="s">
         <v>383</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="43">
+      <c r="A27" s="42">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4280,15 +4277,15 @@
       <c r="Q27" s="4">
         <v>0</v>
       </c>
-      <c r="R27" s="44">
+      <c r="R27" s="43">
         <v>0</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="45"/>
-      <c r="X27" s="46" t="s">
+      <c r="W27" s="44"/>
+      <c r="X27" s="45" t="s">
         <v>385</v>
       </c>
       <c r="Y27" s="3" t="s">
@@ -4297,12 +4294,12 @@
       <c r="Z27" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="AA27" s="45" t="s">
+      <c r="AA27" s="44" t="s">
         <v>388</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="43">
+      <c r="A28" s="42">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -4353,15 +4350,15 @@
       <c r="Q28" s="4">
         <v>0</v>
       </c>
-      <c r="R28" s="44">
+      <c r="R28" s="43">
         <v>0</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="45"/>
-      <c r="X28" s="46" t="s">
+      <c r="W28" s="44"/>
+      <c r="X28" s="45" t="s">
         <v>390</v>
       </c>
       <c r="Y28" s="3" t="s">
@@ -4370,12 +4367,12 @@
       <c r="Z28" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="AA28" s="45" t="s">
+      <c r="AA28" s="44" t="s">
         <v>393</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="43">
+      <c r="A29" s="42">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4426,15 +4423,15 @@
       <c r="Q29" s="4">
         <v>0</v>
       </c>
-      <c r="R29" s="44">
+      <c r="R29" s="43">
         <v>0</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="45"/>
-      <c r="X29" s="46" t="s">
+      <c r="W29" s="44"/>
+      <c r="X29" s="45" t="s">
         <v>395</v>
       </c>
       <c r="Y29" s="3" t="s">
@@ -4443,12 +4440,12 @@
       <c r="Z29" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="AA29" s="45" t="s">
+      <c r="AA29" s="44" t="s">
         <v>398</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="43">
+      <c r="A30" s="42">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -4499,15 +4496,15 @@
       <c r="Q30" s="4">
         <v>0</v>
       </c>
-      <c r="R30" s="44">
+      <c r="R30" s="43">
         <v>0</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="45"/>
-      <c r="X30" s="46" t="s">
+      <c r="W30" s="44"/>
+      <c r="X30" s="45" t="s">
         <v>400</v>
       </c>
       <c r="Y30" s="3" t="s">
@@ -4516,12 +4513,12 @@
       <c r="Z30" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="AA30" s="45" t="s">
+      <c r="AA30" s="44" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="43">
+      <c r="A31" s="42">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4572,15 +4569,15 @@
       <c r="Q31" s="4">
         <v>0</v>
       </c>
-      <c r="R31" s="44">
+      <c r="R31" s="43">
         <v>0</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="45"/>
-      <c r="X31" s="46" t="s">
+      <c r="W31" s="44"/>
+      <c r="X31" s="45" t="s">
         <v>404</v>
       </c>
       <c r="Y31" s="3" t="s">
@@ -4589,12 +4586,12 @@
       <c r="Z31" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="AA31" s="45" t="s">
+      <c r="AA31" s="44" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="43">
+      <c r="A32" s="42">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4645,15 +4642,15 @@
       <c r="Q32" s="4">
         <v>0</v>
       </c>
-      <c r="R32" s="44">
+      <c r="R32" s="43">
         <v>0</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="45"/>
-      <c r="X32" s="46" t="s">
+      <c r="W32" s="44"/>
+      <c r="X32" s="45" t="s">
         <v>408</v>
       </c>
       <c r="Y32" s="3" t="s">
@@ -4662,12 +4659,12 @@
       <c r="Z32" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="AA32" s="45" t="s">
+      <c r="AA32" s="44" t="s">
         <v>411</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="43">
+      <c r="A33" s="42">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -4718,15 +4715,15 @@
       <c r="Q33" s="4">
         <v>0</v>
       </c>
-      <c r="R33" s="44">
+      <c r="R33" s="43">
         <v>0</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="45"/>
-      <c r="X33" s="46" t="s">
+      <c r="W33" s="44"/>
+      <c r="X33" s="45" t="s">
         <v>413</v>
       </c>
       <c r="Y33" s="3" t="s">
@@ -4735,12 +4732,12 @@
       <c r="Z33" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="AA33" s="45" t="s">
+      <c r="AA33" s="44" t="s">
         <v>416</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="43">
+      <c r="A34" s="42">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -4791,15 +4788,15 @@
       <c r="Q34" s="4">
         <v>0</v>
       </c>
-      <c r="R34" s="44">
+      <c r="R34" s="43">
         <v>0</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="45"/>
-      <c r="X34" s="46" t="s">
+      <c r="W34" s="44"/>
+      <c r="X34" s="45" t="s">
         <v>418</v>
       </c>
       <c r="Y34" s="3" t="s">
@@ -4808,12 +4805,12 @@
       <c r="Z34" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="AA34" s="45" t="s">
+      <c r="AA34" s="44" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="43">
+      <c r="A35" s="42">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -4864,15 +4861,15 @@
       <c r="Q35" s="4">
         <v>0</v>
       </c>
-      <c r="R35" s="44">
+      <c r="R35" s="43">
         <v>0</v>
       </c>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="45"/>
-      <c r="X35" s="46" t="s">
+      <c r="W35" s="44"/>
+      <c r="X35" s="45" t="s">
         <v>422</v>
       </c>
       <c r="Y35" s="3" t="s">
@@ -4881,12 +4878,12 @@
       <c r="Z35" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="AA35" s="45" t="s">
+      <c r="AA35" s="44" t="s">
         <v>425</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="43">
+      <c r="A36" s="42">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4937,15 +4934,15 @@
       <c r="Q36" s="4">
         <v>0</v>
       </c>
-      <c r="R36" s="44">
+      <c r="R36" s="43">
         <v>0</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="45"/>
-      <c r="X36" s="46" t="s">
+      <c r="W36" s="44"/>
+      <c r="X36" s="45" t="s">
         <v>427</v>
       </c>
       <c r="Y36" s="3" t="s">
@@ -4954,12 +4951,12 @@
       <c r="Z36" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="AA36" s="45" t="s">
+      <c r="AA36" s="44" t="s">
         <v>430</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="43">
+      <c r="A37" s="42">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -5010,15 +5007,15 @@
       <c r="Q37" s="4">
         <v>0</v>
       </c>
-      <c r="R37" s="44">
+      <c r="R37" s="43">
         <v>0</v>
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="45"/>
-      <c r="X37" s="46" t="s">
+      <c r="W37" s="44"/>
+      <c r="X37" s="45" t="s">
         <v>432</v>
       </c>
       <c r="Y37" s="3" t="s">
@@ -5027,12 +5024,12 @@
       <c r="Z37" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="AA37" s="45" t="s">
+      <c r="AA37" s="44" t="s">
         <v>435</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="43">
+      <c r="A38" s="42">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -5083,15 +5080,15 @@
       <c r="Q38" s="4">
         <v>0</v>
       </c>
-      <c r="R38" s="44">
+      <c r="R38" s="43">
         <v>0</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="45"/>
-      <c r="X38" s="46" t="s">
+      <c r="W38" s="44"/>
+      <c r="X38" s="45" t="s">
         <v>437</v>
       </c>
       <c r="Y38" s="3" t="s">
@@ -5100,12 +5097,12 @@
       <c r="Z38" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="AA38" s="45" t="s">
+      <c r="AA38" s="44" t="s">
         <v>440</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="43">
+      <c r="A39" s="42">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -5156,15 +5153,15 @@
       <c r="Q39" s="4">
         <v>0</v>
       </c>
-      <c r="R39" s="44">
+      <c r="R39" s="43">
         <v>0</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="45"/>
-      <c r="X39" s="46" t="s">
+      <c r="W39" s="44"/>
+      <c r="X39" s="45" t="s">
         <v>442</v>
       </c>
       <c r="Y39" s="3" t="s">
@@ -5173,12 +5170,12 @@
       <c r="Z39" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="AA39" s="45" t="s">
+      <c r="AA39" s="44" t="s">
         <v>445</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="43">
+      <c r="A40" s="42">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -5229,15 +5226,15 @@
       <c r="Q40" s="4">
         <v>0</v>
       </c>
-      <c r="R40" s="44">
+      <c r="R40" s="43">
         <v>0</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-      <c r="W40" s="45"/>
-      <c r="X40" s="46" t="s">
+      <c r="W40" s="44"/>
+      <c r="X40" s="45" t="s">
         <v>447</v>
       </c>
       <c r="Y40" s="3" t="s">
@@ -5246,80 +5243,80 @@
       <c r="Z40" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="AA40" s="45" t="s">
+      <c r="AA40" s="44" t="s">
         <v>271</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="47">
+      <c r="A41" s="46">
         <v>38</v>
       </c>
-      <c r="B41" s="48" t="s">
+      <c r="B41" s="47" t="s">
         <v>450</v>
       </c>
-      <c r="C41" s="49">
-        <v>10</v>
-      </c>
-      <c r="D41" s="49">
-        <v>0</v>
-      </c>
-      <c r="E41" s="49">
-        <v>0</v>
-      </c>
-      <c r="F41" s="49">
-        <v>10</v>
-      </c>
-      <c r="G41" s="49">
-        <v>0</v>
-      </c>
-      <c r="H41" s="49">
-        <v>0</v>
-      </c>
-      <c r="I41" s="49">
-        <v>0</v>
-      </c>
-      <c r="J41" s="49">
+      <c r="C41" s="48">
+        <v>10</v>
+      </c>
+      <c r="D41" s="48">
+        <v>0</v>
+      </c>
+      <c r="E41" s="48">
+        <v>0</v>
+      </c>
+      <c r="F41" s="48">
+        <v>10</v>
+      </c>
+      <c r="G41" s="48">
+        <v>0</v>
+      </c>
+      <c r="H41" s="48">
+        <v>0</v>
+      </c>
+      <c r="I41" s="48">
+        <v>0</v>
+      </c>
+      <c r="J41" s="48">
         <v>2</v>
       </c>
-      <c r="K41" s="49">
-        <v>1</v>
-      </c>
-      <c r="L41" s="49">
-        <v>0</v>
-      </c>
-      <c r="M41" s="49">
-        <v>0</v>
-      </c>
-      <c r="N41" s="49">
-        <v>0</v>
-      </c>
-      <c r="O41" s="49">
-        <v>0</v>
-      </c>
-      <c r="P41" s="49">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="49">
-        <v>0</v>
-      </c>
-      <c r="R41" s="50">
-        <v>0</v>
-      </c>
-      <c r="S41" s="48"/>
-      <c r="T41" s="48"/>
-      <c r="U41" s="48"/>
-      <c r="V41" s="48"/>
-      <c r="W41" s="51"/>
-      <c r="X41" s="52" t="s">
+      <c r="K41" s="48">
+        <v>1</v>
+      </c>
+      <c r="L41" s="48">
+        <v>0</v>
+      </c>
+      <c r="M41" s="48">
+        <v>0</v>
+      </c>
+      <c r="N41" s="48">
+        <v>0</v>
+      </c>
+      <c r="O41" s="48">
+        <v>0</v>
+      </c>
+      <c r="P41" s="48">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="48">
+        <v>0</v>
+      </c>
+      <c r="R41" s="49">
+        <v>0</v>
+      </c>
+      <c r="S41" s="47"/>
+      <c r="T41" s="47"/>
+      <c r="U41" s="47"/>
+      <c r="V41" s="47"/>
+      <c r="W41" s="50"/>
+      <c r="X41" s="51" t="s">
         <v>451</v>
       </c>
-      <c r="Y41" s="48" t="s">
+      <c r="Y41" s="47" t="s">
         <v>452</v>
       </c>
-      <c r="Z41" s="48" t="s">
+      <c r="Z41" s="47" t="s">
         <v>453</v>
       </c>
-      <c r="AA41" s="51" t="s">
+      <c r="AA41" s="50" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5358,7 +5355,7 @@
       <c r="B1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>217</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -5376,10 +5373,10 @@
       <c r="H1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="15" t="s">
+      <c r="I1" s="14" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="15" t="s">
+      <c r="J1" s="14" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5390,7 +5387,7 @@
       <c r="B2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="14" t="s">
         <v>226</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -5408,10 +5405,10 @@
       <c r="H2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="15" t="s">
+      <c r="I2" s="14" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="15" t="s">
+      <c r="J2" s="14" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5422,7 +5419,7 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="15" t="s">
+      <c r="C3" s="14" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -5440,10 +5437,10 @@
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="15" t="s">
+      <c r="I3" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="15" t="s">
+      <c r="J3" s="14" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5590,7 +5587,7 @@
       <c r="B4" s="5" t="s">
         <v>162</v>
       </c>
-      <c r="C4" s="14">
+      <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
@@ -5619,7 +5616,7 @@
       <c r="B5" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="C5" s="14">
+      <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
@@ -5648,7 +5645,7 @@
       <c r="B6" s="5" t="s">
         <v>166</v>
       </c>
-      <c r="C6" s="14">
+      <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
@@ -5677,7 +5674,7 @@
       <c r="B7" s="5" t="s">
         <v>168</v>
       </c>
-      <c r="C7" s="14">
+      <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
@@ -5706,7 +5703,7 @@
       <c r="B8" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="C8" s="14">
+      <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
@@ -5735,7 +5732,7 @@
       <c r="B9" s="5" t="s">
         <v>172</v>
       </c>
-      <c r="C9" s="14">
+      <c r="C9" s="6">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
@@ -5764,7 +5761,7 @@
       <c r="B10" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="C10" s="14">
+      <c r="C10" s="6">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
@@ -5793,7 +5790,7 @@
       <c r="B11" s="5" t="s">
         <v>176</v>
       </c>
-      <c r="C11" s="14">
+      <c r="C11" s="6">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
@@ -1389,7 +1389,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1423,12 +1423,6 @@
       <name val="宋体"/>
       <family val="2"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1810,7 +1804,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="52">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1847,9 +1841,6 @@
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="2" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2276,7 +2267,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="52" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="51" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -2306,85 +2297,85 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="15" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="16" t="s">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="15" t="s">
         <v>236</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="16" t="s">
         <v>237</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="16" t="s">
         <v>238</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="16" t="s">
         <v>239</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="16" t="s">
         <v>240</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>241</v>
       </c>
-      <c r="H1" s="17" t="s">
+      <c r="H1" s="16" t="s">
         <v>242</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>243</v>
       </c>
-      <c r="J1" s="17" t="s">
+      <c r="J1" s="16" t="s">
         <v>244</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>245</v>
       </c>
-      <c r="L1" s="17" t="s">
+      <c r="L1" s="16" t="s">
         <v>246</v>
       </c>
-      <c r="M1" s="17" t="s">
+      <c r="M1" s="16" t="s">
         <v>247</v>
       </c>
-      <c r="N1" s="17" t="s">
+      <c r="N1" s="16" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="17" t="s">
+      <c r="O1" s="16" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="17" t="s">
+      <c r="P1" s="16" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="17" t="s">
+      <c r="Q1" s="16" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="18" t="s">
+      <c r="R1" s="17" t="s">
         <v>252</v>
       </c>
-      <c r="S1" s="16" t="s">
+      <c r="S1" s="15" t="s">
         <v>253</v>
       </c>
-      <c r="T1" s="16" t="s">
+      <c r="T1" s="15" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="16" t="s">
+      <c r="U1" s="15" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="16" t="s">
+      <c r="V1" s="15" t="s">
         <v>256</v>
       </c>
-      <c r="W1" s="19" t="s">
+      <c r="W1" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="X1" s="20"/>
-      <c r="Y1" s="20"/>
-      <c r="Z1" s="20"/>
-      <c r="AA1" s="21"/>
+      <c r="X1" s="19"/>
+      <c r="Y1" s="19"/>
+      <c r="Z1" s="19"/>
+      <c r="AA1" s="20"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="22" t="s">
+      <c r="A2" s="21" t="s">
         <v>258</v>
       </c>
-      <c r="B2" s="23" t="s">
+      <c r="B2" s="22" t="s">
         <v>259</v>
       </c>
       <c r="C2" s="11" t="s">
@@ -2432,195 +2423,195 @@
       <c r="Q2" s="11" t="s">
         <v>274</v>
       </c>
-      <c r="R2" s="24" t="s">
+      <c r="R2" s="23" t="s">
         <v>275</v>
       </c>
-      <c r="S2" s="23" t="s">
+      <c r="S2" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="T2" s="23" t="s">
+      <c r="T2" s="22" t="s">
         <v>277</v>
       </c>
-      <c r="U2" s="23" t="s">
+      <c r="U2" s="22" t="s">
         <v>278</v>
       </c>
-      <c r="V2" s="23" t="s">
+      <c r="V2" s="22" t="s">
         <v>279</v>
       </c>
-      <c r="W2" s="25" t="s">
+      <c r="W2" s="24" t="s">
         <v>274</v>
       </c>
-      <c r="X2" s="26" t="s">
+      <c r="X2" s="25" t="s">
         <v>280</v>
       </c>
-      <c r="Y2" s="27" t="s">
+      <c r="Y2" s="26" t="s">
         <v>281</v>
       </c>
-      <c r="Z2" s="27" t="s">
+      <c r="Z2" s="26" t="s">
         <v>282</v>
       </c>
-      <c r="AA2" s="28" t="s">
+      <c r="AA2" s="27" t="s">
         <v>283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="29" t="s">
+      <c r="A3" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="31" t="s">
+      <c r="D3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="31" t="s">
+      <c r="E3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="31" t="s">
+      <c r="F3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="31" t="s">
+      <c r="G3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="31" t="s">
+      <c r="H3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="31" t="s">
+      <c r="I3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="31" t="s">
+      <c r="J3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="31" t="s">
+      <c r="K3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="31" t="s">
+      <c r="L3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="31" t="s">
+      <c r="M3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="31" t="s">
+      <c r="N3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="31" t="s">
+      <c r="O3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="31" t="s">
+      <c r="P3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="31" t="s">
+      <c r="Q3" s="30" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="32" t="s">
+      <c r="R3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="30" t="s">
+      <c r="S3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="30" t="s">
+      <c r="T3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="30" t="s">
+      <c r="U3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="30" t="s">
+      <c r="V3" s="29" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="33" t="s">
+      <c r="W3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="34" t="s">
+      <c r="X3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="34" t="s">
+      <c r="Y3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="34" t="s">
+      <c r="Z3" s="33" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="35" t="s">
+      <c r="AA3" s="34" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="36">
-        <v>1</v>
-      </c>
-      <c r="B4" s="37" t="s">
+      <c r="A4" s="35">
+        <v>1</v>
+      </c>
+      <c r="B4" s="36" t="s">
         <v>284</v>
       </c>
-      <c r="C4" s="38">
-        <v>10</v>
-      </c>
-      <c r="D4" s="38">
-        <v>0</v>
-      </c>
-      <c r="E4" s="38">
-        <v>0</v>
-      </c>
-      <c r="F4" s="38">
-        <v>10</v>
-      </c>
-      <c r="G4" s="38">
-        <v>0</v>
-      </c>
-      <c r="H4" s="38">
-        <v>0</v>
-      </c>
-      <c r="I4" s="38">
-        <v>0</v>
-      </c>
-      <c r="J4" s="38">
+      <c r="C4" s="37">
+        <v>10</v>
+      </c>
+      <c r="D4" s="37">
+        <v>0</v>
+      </c>
+      <c r="E4" s="37">
+        <v>0</v>
+      </c>
+      <c r="F4" s="37">
+        <v>10</v>
+      </c>
+      <c r="G4" s="37">
+        <v>0</v>
+      </c>
+      <c r="H4" s="37">
+        <v>0</v>
+      </c>
+      <c r="I4" s="37">
+        <v>0</v>
+      </c>
+      <c r="J4" s="37">
         <v>2</v>
       </c>
-      <c r="K4" s="38">
-        <v>1</v>
-      </c>
-      <c r="L4" s="38">
-        <v>0</v>
-      </c>
-      <c r="M4" s="38">
-        <v>0</v>
-      </c>
-      <c r="N4" s="38">
-        <v>0</v>
-      </c>
-      <c r="O4" s="38">
-        <v>0</v>
-      </c>
-      <c r="P4" s="38">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="38">
-        <v>0</v>
-      </c>
-      <c r="R4" s="39">
-        <v>0</v>
-      </c>
-      <c r="S4" s="37"/>
-      <c r="T4" s="37"/>
-      <c r="U4" s="37"/>
-      <c r="V4" s="37"/>
-      <c r="W4" s="40"/>
-      <c r="X4" s="41" t="s">
+      <c r="K4" s="37">
+        <v>1</v>
+      </c>
+      <c r="L4" s="37">
+        <v>0</v>
+      </c>
+      <c r="M4" s="37">
+        <v>0</v>
+      </c>
+      <c r="N4" s="37">
+        <v>0</v>
+      </c>
+      <c r="O4" s="37">
+        <v>0</v>
+      </c>
+      <c r="P4" s="37">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="37">
+        <v>0</v>
+      </c>
+      <c r="R4" s="38">
+        <v>0</v>
+      </c>
+      <c r="S4" s="36"/>
+      <c r="T4" s="36"/>
+      <c r="U4" s="36"/>
+      <c r="V4" s="36"/>
+      <c r="W4" s="39"/>
+      <c r="X4" s="40" t="s">
         <v>285</v>
       </c>
-      <c r="Y4" s="37" t="s">
+      <c r="Y4" s="36" t="s">
         <v>286</v>
       </c>
-      <c r="Z4" s="37" t="s">
+      <c r="Z4" s="36" t="s">
         <v>287</v>
       </c>
-      <c r="AA4" s="40" t="s">
+      <c r="AA4" s="39" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="42">
+      <c r="A5" s="41">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
@@ -2671,15 +2662,15 @@
       <c r="Q5" s="4">
         <v>0</v>
       </c>
-      <c r="R5" s="43">
+      <c r="R5" s="42">
         <v>0</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="44"/>
-      <c r="X5" s="45" t="s">
+      <c r="W5" s="43"/>
+      <c r="X5" s="44" t="s">
         <v>290</v>
       </c>
       <c r="Y5" s="3" t="s">
@@ -2688,12 +2679,12 @@
       <c r="Z5" s="3" t="s">
         <v>291</v>
       </c>
-      <c r="AA5" s="44" t="s">
+      <c r="AA5" s="43" t="s">
         <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="42">
+      <c r="A6" s="41">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
@@ -2744,15 +2735,15 @@
       <c r="Q6" s="4">
         <v>0</v>
       </c>
-      <c r="R6" s="43">
+      <c r="R6" s="42">
         <v>0</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="44"/>
-      <c r="X6" s="45" t="s">
+      <c r="W6" s="43"/>
+      <c r="X6" s="44" t="s">
         <v>293</v>
       </c>
       <c r="Y6" s="3" t="s">
@@ -2761,12 +2752,12 @@
       <c r="Z6" s="3" t="s">
         <v>294</v>
       </c>
-      <c r="AA6" s="44" t="s">
+      <c r="AA6" s="43" t="s">
         <v>295</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="42">
+      <c r="A7" s="41">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
@@ -2817,15 +2808,15 @@
       <c r="Q7" s="4">
         <v>0</v>
       </c>
-      <c r="R7" s="43">
+      <c r="R7" s="42">
         <v>0</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="44"/>
-      <c r="X7" s="45" t="s">
+      <c r="W7" s="43"/>
+      <c r="X7" s="44" t="s">
         <v>297</v>
       </c>
       <c r="Y7" s="3" t="s">
@@ -2834,12 +2825,12 @@
       <c r="Z7" s="3" t="s">
         <v>298</v>
       </c>
-      <c r="AA7" s="44" t="s">
+      <c r="AA7" s="43" t="s">
         <v>299</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="42">
+      <c r="A8" s="41">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
@@ -2890,15 +2881,15 @@
       <c r="Q8" s="4">
         <v>0</v>
       </c>
-      <c r="R8" s="43">
+      <c r="R8" s="42">
         <v>0</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="44"/>
-      <c r="X8" s="45" t="s">
+      <c r="W8" s="43"/>
+      <c r="X8" s="44" t="s">
         <v>301</v>
       </c>
       <c r="Y8" s="3" t="s">
@@ -2907,12 +2898,12 @@
       <c r="Z8" s="3" t="s">
         <v>302</v>
       </c>
-      <c r="AA8" s="44" t="s">
+      <c r="AA8" s="43" t="s">
         <v>303</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="42">
+      <c r="A9" s="41">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
@@ -2963,15 +2954,15 @@
       <c r="Q9" s="4">
         <v>0</v>
       </c>
-      <c r="R9" s="43">
+      <c r="R9" s="42">
         <v>0</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="44"/>
-      <c r="X9" s="45" t="s">
+      <c r="W9" s="43"/>
+      <c r="X9" s="44" t="s">
         <v>305</v>
       </c>
       <c r="Y9" s="3" t="s">
@@ -2980,12 +2971,12 @@
       <c r="Z9" s="3" t="s">
         <v>307</v>
       </c>
-      <c r="AA9" s="44" t="s">
+      <c r="AA9" s="43" t="s">
         <v>308</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="42">
+      <c r="A10" s="41">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
@@ -3036,15 +3027,15 @@
       <c r="Q10" s="4">
         <v>0</v>
       </c>
-      <c r="R10" s="43">
+      <c r="R10" s="42">
         <v>0</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="44"/>
-      <c r="X10" s="45" t="s">
+      <c r="W10" s="43"/>
+      <c r="X10" s="44" t="s">
         <v>310</v>
       </c>
       <c r="Y10" s="3" t="s">
@@ -3053,12 +3044,12 @@
       <c r="Z10" s="3" t="s">
         <v>312</v>
       </c>
-      <c r="AA10" s="44" t="s">
+      <c r="AA10" s="43" t="s">
         <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="42">
+      <c r="A11" s="41">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
@@ -3109,15 +3100,15 @@
       <c r="Q11" s="4">
         <v>0</v>
       </c>
-      <c r="R11" s="43">
+      <c r="R11" s="42">
         <v>0</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="44"/>
-      <c r="X11" s="45" t="s">
+      <c r="W11" s="43"/>
+      <c r="X11" s="44" t="s">
         <v>314</v>
       </c>
       <c r="Y11" s="3" t="s">
@@ -3126,12 +3117,12 @@
       <c r="Z11" s="3" t="s">
         <v>316</v>
       </c>
-      <c r="AA11" s="44" t="s">
+      <c r="AA11" s="43" t="s">
         <v>317</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="42">
+      <c r="A12" s="41">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
@@ -3182,15 +3173,15 @@
       <c r="Q12" s="4">
         <v>0</v>
       </c>
-      <c r="R12" s="43">
+      <c r="R12" s="42">
         <v>0</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="44"/>
-      <c r="X12" s="45" t="s">
+      <c r="W12" s="43"/>
+      <c r="X12" s="44" t="s">
         <v>319</v>
       </c>
       <c r="Y12" s="3" t="s">
@@ -3199,12 +3190,12 @@
       <c r="Z12" s="3" t="s">
         <v>321</v>
       </c>
-      <c r="AA12" s="44" t="s">
+      <c r="AA12" s="43" t="s">
         <v>322</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="42">
+      <c r="A13" s="41">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
@@ -3255,15 +3246,15 @@
       <c r="Q13" s="4">
         <v>0</v>
       </c>
-      <c r="R13" s="43">
+      <c r="R13" s="42">
         <v>0</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="44"/>
-      <c r="X13" s="45" t="s">
+      <c r="W13" s="43"/>
+      <c r="X13" s="44" t="s">
         <v>324</v>
       </c>
       <c r="Y13" s="3" t="s">
@@ -3272,12 +3263,12 @@
       <c r="Z13" s="3" t="s">
         <v>325</v>
       </c>
-      <c r="AA13" s="44" t="s">
+      <c r="AA13" s="43" t="s">
         <v>326</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="42">
+      <c r="A14" s="41">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
@@ -3328,15 +3319,15 @@
       <c r="Q14" s="4">
         <v>0</v>
       </c>
-      <c r="R14" s="43">
+      <c r="R14" s="42">
         <v>0</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="44"/>
-      <c r="X14" s="45" t="s">
+      <c r="W14" s="43"/>
+      <c r="X14" s="44" t="s">
         <v>328</v>
       </c>
       <c r="Y14" s="3" t="s">
@@ -3345,12 +3336,12 @@
       <c r="Z14" s="3" t="s">
         <v>330</v>
       </c>
-      <c r="AA14" s="44" t="s">
+      <c r="AA14" s="43" t="s">
         <v>331</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="42">
+      <c r="A15" s="41">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
@@ -3401,15 +3392,15 @@
       <c r="Q15" s="4">
         <v>0</v>
       </c>
-      <c r="R15" s="43">
+      <c r="R15" s="42">
         <v>0</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="44"/>
-      <c r="X15" s="45" t="s">
+      <c r="W15" s="43"/>
+      <c r="X15" s="44" t="s">
         <v>333</v>
       </c>
       <c r="Y15" s="3" t="s">
@@ -3418,12 +3409,12 @@
       <c r="Z15" s="3" t="s">
         <v>335</v>
       </c>
-      <c r="AA15" s="44" t="s">
+      <c r="AA15" s="43" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="42">
+      <c r="A16" s="41">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
@@ -3474,15 +3465,15 @@
       <c r="Q16" s="4">
         <v>0</v>
       </c>
-      <c r="R16" s="43">
+      <c r="R16" s="42">
         <v>0</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="44"/>
-      <c r="X16" s="45" t="s">
+      <c r="W16" s="43"/>
+      <c r="X16" s="44" t="s">
         <v>337</v>
       </c>
       <c r="Y16" s="3" t="s">
@@ -3491,12 +3482,12 @@
       <c r="Z16" s="3" t="s">
         <v>339</v>
       </c>
-      <c r="AA16" s="44" t="s">
+      <c r="AA16" s="43" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="42">
+      <c r="A17" s="41">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
@@ -3547,15 +3538,15 @@
       <c r="Q17" s="4">
         <v>0</v>
       </c>
-      <c r="R17" s="43">
+      <c r="R17" s="42">
         <v>0</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="44"/>
-      <c r="X17" s="45" t="s">
+      <c r="W17" s="43"/>
+      <c r="X17" s="44" t="s">
         <v>341</v>
       </c>
       <c r="Y17" s="3" t="s">
@@ -3564,12 +3555,12 @@
       <c r="Z17" s="3" t="s">
         <v>343</v>
       </c>
-      <c r="AA17" s="44" t="s">
+      <c r="AA17" s="43" t="s">
         <v>344</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="42">
+      <c r="A18" s="41">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
@@ -3620,15 +3611,15 @@
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="43">
+      <c r="R18" s="42">
         <v>0</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="44"/>
-      <c r="X18" s="45" t="s">
+      <c r="W18" s="43"/>
+      <c r="X18" s="44" t="s">
         <v>346</v>
       </c>
       <c r="Y18" s="3" t="s">
@@ -3637,12 +3628,12 @@
       <c r="Z18" s="3" t="s">
         <v>348</v>
       </c>
-      <c r="AA18" s="44" t="s">
+      <c r="AA18" s="43" t="s">
         <v>264</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="42">
+      <c r="A19" s="41">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
@@ -3693,15 +3684,15 @@
       <c r="Q19" s="4">
         <v>0</v>
       </c>
-      <c r="R19" s="43">
+      <c r="R19" s="42">
         <v>0</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="44"/>
-      <c r="X19" s="45" t="s">
+      <c r="W19" s="43"/>
+      <c r="X19" s="44" t="s">
         <v>350</v>
       </c>
       <c r="Y19" s="3" t="s">
@@ -3710,12 +3701,12 @@
       <c r="Z19" s="3" t="s">
         <v>352</v>
       </c>
-      <c r="AA19" s="44" t="s">
+      <c r="AA19" s="43" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="42">
+      <c r="A20" s="41">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
@@ -3766,15 +3757,15 @@
       <c r="Q20" s="4">
         <v>0</v>
       </c>
-      <c r="R20" s="43">
+      <c r="R20" s="42">
         <v>0</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="44"/>
-      <c r="X20" s="45" t="s">
+      <c r="W20" s="43"/>
+      <c r="X20" s="44" t="s">
         <v>354</v>
       </c>
       <c r="Y20" s="3" t="s">
@@ -3783,12 +3774,12 @@
       <c r="Z20" s="3" t="s">
         <v>356</v>
       </c>
-      <c r="AA20" s="44" t="s">
+      <c r="AA20" s="43" t="s">
         <v>262</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="42">
+      <c r="A21" s="41">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
@@ -3839,15 +3830,15 @@
       <c r="Q21" s="4">
         <v>0</v>
       </c>
-      <c r="R21" s="43">
+      <c r="R21" s="42">
         <v>0</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="W21" s="44"/>
-      <c r="X21" s="45" t="s">
+      <c r="W21" s="43"/>
+      <c r="X21" s="44" t="s">
         <v>358</v>
       </c>
       <c r="Y21" s="3" t="s">
@@ -3856,12 +3847,12 @@
       <c r="Z21" s="3" t="s">
         <v>360</v>
       </c>
-      <c r="AA21" s="44" t="s">
+      <c r="AA21" s="43" t="s">
         <v>275</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="42">
+      <c r="A22" s="41">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
@@ -3912,15 +3903,15 @@
       <c r="Q22" s="4">
         <v>0</v>
       </c>
-      <c r="R22" s="43">
+      <c r="R22" s="42">
         <v>0</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="44"/>
-      <c r="X22" s="45" t="s">
+      <c r="W22" s="43"/>
+      <c r="X22" s="44" t="s">
         <v>362</v>
       </c>
       <c r="Y22" s="3" t="s">
@@ -3929,12 +3920,12 @@
       <c r="Z22" s="3" t="s">
         <v>364</v>
       </c>
-      <c r="AA22" s="44" t="s">
+      <c r="AA22" s="43" t="s">
         <v>365</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="42">
+      <c r="A23" s="41">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
@@ -3985,15 +3976,15 @@
       <c r="Q23" s="4">
         <v>0</v>
       </c>
-      <c r="R23" s="43">
+      <c r="R23" s="42">
         <v>0</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="44"/>
-      <c r="X23" s="45" t="s">
+      <c r="W23" s="43"/>
+      <c r="X23" s="44" t="s">
         <v>367</v>
       </c>
       <c r="Y23" s="3" t="s">
@@ -4002,12 +3993,12 @@
       <c r="Z23" s="3" t="s">
         <v>369</v>
       </c>
-      <c r="AA23" s="44" t="s">
+      <c r="AA23" s="43" t="s">
         <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="42">
+      <c r="A24" s="41">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
@@ -4058,15 +4049,15 @@
       <c r="Q24" s="4">
         <v>0</v>
       </c>
-      <c r="R24" s="43">
+      <c r="R24" s="42">
         <v>0</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="44"/>
-      <c r="X24" s="45" t="s">
+      <c r="W24" s="43"/>
+      <c r="X24" s="44" t="s">
         <v>371</v>
       </c>
       <c r="Y24" s="3" t="s">
@@ -4075,12 +4066,12 @@
       <c r="Z24" s="3" t="s">
         <v>373</v>
       </c>
-      <c r="AA24" s="44" t="s">
+      <c r="AA24" s="43" t="s">
         <v>374</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="42">
+      <c r="A25" s="41">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
@@ -4131,15 +4122,15 @@
       <c r="Q25" s="4">
         <v>0</v>
       </c>
-      <c r="R25" s="43">
+      <c r="R25" s="42">
         <v>0</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="44"/>
-      <c r="X25" s="45" t="s">
+      <c r="W25" s="43"/>
+      <c r="X25" s="44" t="s">
         <v>376</v>
       </c>
       <c r="Y25" s="3" t="s">
@@ -4148,12 +4139,12 @@
       <c r="Z25" s="3" t="s">
         <v>378</v>
       </c>
-      <c r="AA25" s="44" t="s">
+      <c r="AA25" s="43" t="s">
         <v>269</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="42">
+      <c r="A26" s="41">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
@@ -4204,15 +4195,15 @@
       <c r="Q26" s="4">
         <v>0</v>
       </c>
-      <c r="R26" s="43">
+      <c r="R26" s="42">
         <v>0</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="44"/>
-      <c r="X26" s="45" t="s">
+      <c r="W26" s="43"/>
+      <c r="X26" s="44" t="s">
         <v>380</v>
       </c>
       <c r="Y26" s="3" t="s">
@@ -4221,12 +4212,12 @@
       <c r="Z26" s="3" t="s">
         <v>382</v>
       </c>
-      <c r="AA26" s="44" t="s">
+      <c r="AA26" s="43" t="s">
         <v>383</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="42">
+      <c r="A27" s="41">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
@@ -4277,15 +4268,15 @@
       <c r="Q27" s="4">
         <v>0</v>
       </c>
-      <c r="R27" s="43">
+      <c r="R27" s="42">
         <v>0</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="44"/>
-      <c r="X27" s="45" t="s">
+      <c r="W27" s="43"/>
+      <c r="X27" s="44" t="s">
         <v>385</v>
       </c>
       <c r="Y27" s="3" t="s">
@@ -4294,12 +4285,12 @@
       <c r="Z27" s="3" t="s">
         <v>387</v>
       </c>
-      <c r="AA27" s="44" t="s">
+      <c r="AA27" s="43" t="s">
         <v>388</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="42">
+      <c r="A28" s="41">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
@@ -4350,15 +4341,15 @@
       <c r="Q28" s="4">
         <v>0</v>
       </c>
-      <c r="R28" s="43">
+      <c r="R28" s="42">
         <v>0</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="44"/>
-      <c r="X28" s="45" t="s">
+      <c r="W28" s="43"/>
+      <c r="X28" s="44" t="s">
         <v>390</v>
       </c>
       <c r="Y28" s="3" t="s">
@@ -4367,12 +4358,12 @@
       <c r="Z28" s="3" t="s">
         <v>392</v>
       </c>
-      <c r="AA28" s="44" t="s">
+      <c r="AA28" s="43" t="s">
         <v>393</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="42">
+      <c r="A29" s="41">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
@@ -4423,15 +4414,15 @@
       <c r="Q29" s="4">
         <v>0</v>
       </c>
-      <c r="R29" s="43">
+      <c r="R29" s="42">
         <v>0</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="44"/>
-      <c r="X29" s="45" t="s">
+      <c r="W29" s="43"/>
+      <c r="X29" s="44" t="s">
         <v>395</v>
       </c>
       <c r="Y29" s="3" t="s">
@@ -4440,12 +4431,12 @@
       <c r="Z29" s="3" t="s">
         <v>397</v>
       </c>
-      <c r="AA29" s="44" t="s">
+      <c r="AA29" s="43" t="s">
         <v>398</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="42">
+      <c r="A30" s="41">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
@@ -4496,15 +4487,15 @@
       <c r="Q30" s="4">
         <v>0</v>
       </c>
-      <c r="R30" s="43">
+      <c r="R30" s="42">
         <v>0</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="44"/>
-      <c r="X30" s="45" t="s">
+      <c r="W30" s="43"/>
+      <c r="X30" s="44" t="s">
         <v>400</v>
       </c>
       <c r="Y30" s="3" t="s">
@@ -4513,12 +4504,12 @@
       <c r="Z30" s="3" t="s">
         <v>402</v>
       </c>
-      <c r="AA30" s="44" t="s">
+      <c r="AA30" s="43" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="42">
+      <c r="A31" s="41">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
@@ -4569,15 +4560,15 @@
       <c r="Q31" s="4">
         <v>0</v>
       </c>
-      <c r="R31" s="43">
+      <c r="R31" s="42">
         <v>0</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="44"/>
-      <c r="X31" s="45" t="s">
+      <c r="W31" s="43"/>
+      <c r="X31" s="44" t="s">
         <v>404</v>
       </c>
       <c r="Y31" s="3" t="s">
@@ -4586,12 +4577,12 @@
       <c r="Z31" s="3" t="s">
         <v>406</v>
       </c>
-      <c r="AA31" s="44" t="s">
+      <c r="AA31" s="43" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="42">
+      <c r="A32" s="41">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
@@ -4642,15 +4633,15 @@
       <c r="Q32" s="4">
         <v>0</v>
       </c>
-      <c r="R32" s="43">
+      <c r="R32" s="42">
         <v>0</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="44"/>
-      <c r="X32" s="45" t="s">
+      <c r="W32" s="43"/>
+      <c r="X32" s="44" t="s">
         <v>408</v>
       </c>
       <c r="Y32" s="3" t="s">
@@ -4659,12 +4650,12 @@
       <c r="Z32" s="3" t="s">
         <v>410</v>
       </c>
-      <c r="AA32" s="44" t="s">
+      <c r="AA32" s="43" t="s">
         <v>411</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="42">
+      <c r="A33" s="41">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
@@ -4715,15 +4706,15 @@
       <c r="Q33" s="4">
         <v>0</v>
       </c>
-      <c r="R33" s="43">
+      <c r="R33" s="42">
         <v>0</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="44"/>
-      <c r="X33" s="45" t="s">
+      <c r="W33" s="43"/>
+      <c r="X33" s="44" t="s">
         <v>413</v>
       </c>
       <c r="Y33" s="3" t="s">
@@ -4732,12 +4723,12 @@
       <c r="Z33" s="3" t="s">
         <v>415</v>
       </c>
-      <c r="AA33" s="44" t="s">
+      <c r="AA33" s="43" t="s">
         <v>416</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="42">
+      <c r="A34" s="41">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
@@ -4788,15 +4779,15 @@
       <c r="Q34" s="4">
         <v>0</v>
       </c>
-      <c r="R34" s="43">
+      <c r="R34" s="42">
         <v>0</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="44"/>
-      <c r="X34" s="45" t="s">
+      <c r="W34" s="43"/>
+      <c r="X34" s="44" t="s">
         <v>418</v>
       </c>
       <c r="Y34" s="3" t="s">
@@ -4805,12 +4796,12 @@
       <c r="Z34" s="3" t="s">
         <v>420</v>
       </c>
-      <c r="AA34" s="44" t="s">
+      <c r="AA34" s="43" t="s">
         <v>288</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="42">
+      <c r="A35" s="41">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
@@ -4861,15 +4852,15 @@
       <c r="Q35" s="4">
         <v>0</v>
       </c>
-      <c r="R35" s="43">
+      <c r="R35" s="42">
         <v>0</v>
       </c>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="44"/>
-      <c r="X35" s="45" t="s">
+      <c r="W35" s="43"/>
+      <c r="X35" s="44" t="s">
         <v>422</v>
       </c>
       <c r="Y35" s="3" t="s">
@@ -4878,12 +4869,12 @@
       <c r="Z35" s="3" t="s">
         <v>424</v>
       </c>
-      <c r="AA35" s="44" t="s">
+      <c r="AA35" s="43" t="s">
         <v>425</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="42">
+      <c r="A36" s="41">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
@@ -4934,15 +4925,15 @@
       <c r="Q36" s="4">
         <v>0</v>
       </c>
-      <c r="R36" s="43">
+      <c r="R36" s="42">
         <v>0</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="44"/>
-      <c r="X36" s="45" t="s">
+      <c r="W36" s="43"/>
+      <c r="X36" s="44" t="s">
         <v>427</v>
       </c>
       <c r="Y36" s="3" t="s">
@@ -4951,12 +4942,12 @@
       <c r="Z36" s="3" t="s">
         <v>429</v>
       </c>
-      <c r="AA36" s="44" t="s">
+      <c r="AA36" s="43" t="s">
         <v>430</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="42">
+      <c r="A37" s="41">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
@@ -5007,15 +4998,15 @@
       <c r="Q37" s="4">
         <v>0</v>
       </c>
-      <c r="R37" s="43">
+      <c r="R37" s="42">
         <v>0</v>
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="44"/>
-      <c r="X37" s="45" t="s">
+      <c r="W37" s="43"/>
+      <c r="X37" s="44" t="s">
         <v>432</v>
       </c>
       <c r="Y37" s="3" t="s">
@@ -5024,12 +5015,12 @@
       <c r="Z37" s="3" t="s">
         <v>434</v>
       </c>
-      <c r="AA37" s="44" t="s">
+      <c r="AA37" s="43" t="s">
         <v>435</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="42">
+      <c r="A38" s="41">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
@@ -5080,15 +5071,15 @@
       <c r="Q38" s="4">
         <v>0</v>
       </c>
-      <c r="R38" s="43">
+      <c r="R38" s="42">
         <v>0</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="44"/>
-      <c r="X38" s="45" t="s">
+      <c r="W38" s="43"/>
+      <c r="X38" s="44" t="s">
         <v>437</v>
       </c>
       <c r="Y38" s="3" t="s">
@@ -5097,12 +5088,12 @@
       <c r="Z38" s="3" t="s">
         <v>439</v>
       </c>
-      <c r="AA38" s="44" t="s">
+      <c r="AA38" s="43" t="s">
         <v>440</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="42">
+      <c r="A39" s="41">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
@@ -5153,15 +5144,15 @@
       <c r="Q39" s="4">
         <v>0</v>
       </c>
-      <c r="R39" s="43">
+      <c r="R39" s="42">
         <v>0</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="44"/>
-      <c r="X39" s="45" t="s">
+      <c r="W39" s="43"/>
+      <c r="X39" s="44" t="s">
         <v>442</v>
       </c>
       <c r="Y39" s="3" t="s">
@@ -5170,12 +5161,12 @@
       <c r="Z39" s="3" t="s">
         <v>444</v>
       </c>
-      <c r="AA39" s="44" t="s">
+      <c r="AA39" s="43" t="s">
         <v>445</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="42">
+      <c r="A40" s="41">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
@@ -5226,15 +5217,15 @@
       <c r="Q40" s="4">
         <v>0</v>
       </c>
-      <c r="R40" s="43">
+      <c r="R40" s="42">
         <v>0</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-      <c r="W40" s="44"/>
-      <c r="X40" s="45" t="s">
+      <c r="W40" s="43"/>
+      <c r="X40" s="44" t="s">
         <v>447</v>
       </c>
       <c r="Y40" s="3" t="s">
@@ -5243,80 +5234,80 @@
       <c r="Z40" s="3" t="s">
         <v>449</v>
       </c>
-      <c r="AA40" s="44" t="s">
+      <c r="AA40" s="43" t="s">
         <v>271</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="46">
+      <c r="A41" s="45">
         <v>38</v>
       </c>
-      <c r="B41" s="47" t="s">
+      <c r="B41" s="46" t="s">
         <v>450</v>
       </c>
-      <c r="C41" s="48">
-        <v>10</v>
-      </c>
-      <c r="D41" s="48">
-        <v>0</v>
-      </c>
-      <c r="E41" s="48">
-        <v>0</v>
-      </c>
-      <c r="F41" s="48">
-        <v>10</v>
-      </c>
-      <c r="G41" s="48">
-        <v>0</v>
-      </c>
-      <c r="H41" s="48">
-        <v>0</v>
-      </c>
-      <c r="I41" s="48">
-        <v>0</v>
-      </c>
-      <c r="J41" s="48">
+      <c r="C41" s="47">
+        <v>10</v>
+      </c>
+      <c r="D41" s="47">
+        <v>0</v>
+      </c>
+      <c r="E41" s="47">
+        <v>0</v>
+      </c>
+      <c r="F41" s="47">
+        <v>10</v>
+      </c>
+      <c r="G41" s="47">
+        <v>0</v>
+      </c>
+      <c r="H41" s="47">
+        <v>0</v>
+      </c>
+      <c r="I41" s="47">
+        <v>0</v>
+      </c>
+      <c r="J41" s="47">
         <v>2</v>
       </c>
-      <c r="K41" s="48">
-        <v>1</v>
-      </c>
-      <c r="L41" s="48">
-        <v>0</v>
-      </c>
-      <c r="M41" s="48">
-        <v>0</v>
-      </c>
-      <c r="N41" s="48">
-        <v>0</v>
-      </c>
-      <c r="O41" s="48">
-        <v>0</v>
-      </c>
-      <c r="P41" s="48">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="48">
-        <v>0</v>
-      </c>
-      <c r="R41" s="49">
-        <v>0</v>
-      </c>
-      <c r="S41" s="47"/>
-      <c r="T41" s="47"/>
-      <c r="U41" s="47"/>
-      <c r="V41" s="47"/>
-      <c r="W41" s="50"/>
-      <c r="X41" s="51" t="s">
+      <c r="K41" s="47">
+        <v>1</v>
+      </c>
+      <c r="L41" s="47">
+        <v>0</v>
+      </c>
+      <c r="M41" s="47">
+        <v>0</v>
+      </c>
+      <c r="N41" s="47">
+        <v>0</v>
+      </c>
+      <c r="O41" s="47">
+        <v>0</v>
+      </c>
+      <c r="P41" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="47">
+        <v>0</v>
+      </c>
+      <c r="R41" s="48">
+        <v>0</v>
+      </c>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="49"/>
+      <c r="X41" s="50" t="s">
         <v>451</v>
       </c>
-      <c r="Y41" s="47" t="s">
+      <c r="Y41" s="46" t="s">
         <v>452</v>
       </c>
-      <c r="Z41" s="47" t="s">
+      <c r="Z41" s="46" t="s">
         <v>453</v>
       </c>
-      <c r="AA41" s="50" t="s">
+      <c r="AA41" s="49" t="s">
         <v>288</v>
       </c>
     </row>
@@ -5355,7 +5346,7 @@
       <c r="B1" s="3" t="s">
         <v>216</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="13" t="s">
         <v>217</v>
       </c>
       <c r="D1" s="3" t="s">
@@ -5373,10 +5364,10 @@
       <c r="H1" s="3" t="s">
         <v>222</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="13" t="s">
         <v>223</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="13" t="s">
         <v>224</v>
       </c>
     </row>
@@ -5387,7 +5378,7 @@
       <c r="B2" s="3" t="s">
         <v>225</v>
       </c>
-      <c r="C2" s="14" t="s">
+      <c r="C2" s="13" t="s">
         <v>226</v>
       </c>
       <c r="D2" s="3" t="s">
@@ -5405,10 +5396,10 @@
       <c r="H2" s="3" t="s">
         <v>231</v>
       </c>
-      <c r="I2" s="14" t="s">
+      <c r="I2" s="13" t="s">
         <v>232</v>
       </c>
-      <c r="J2" s="14" t="s">
+      <c r="J2" s="13" t="s">
         <v>233</v>
       </c>
     </row>
@@ -5419,7 +5410,7 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="14" t="s">
+      <c r="C3" s="13" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -5437,10 +5428,10 @@
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="14" t="s">
+      <c r="I3" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="14" t="s">
+      <c r="J3" s="13" t="s">
         <v>16</v>
       </c>
     </row>
@@ -5480,7 +5471,7 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5502,7 +5493,7 @@
       <c r="B1" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C1" s="6" t="s">
         <v>177</v>
       </c>
       <c r="D1" s="12" t="s">
@@ -5531,7 +5522,7 @@
       <c r="B2" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="C2" s="13" t="s">
+      <c r="C2" s="6" t="s">
         <v>184</v>
       </c>
       <c r="D2" s="12" t="s">
@@ -5558,7 +5549,7 @@
       <c r="B3" s="12" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="12" t="s">
@@ -5824,7 +5815,7 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5946,7 +5937,7 @@
         <v>5</v>
       </c>
       <c r="G4" s="4">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="H4" s="4">
         <v>1</v>
@@ -5975,7 +5966,7 @@
         <v>5</v>
       </c>
       <c r="G5" s="4">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="H5" s="4">
         <v>1</v>
@@ -6091,7 +6082,7 @@
         <v>5</v>
       </c>
       <c r="G9" s="4">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="H9" s="4">
         <v>1</v>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion rupBuild="9303" lowestEdited="5" lastEdited="5" appName="xl"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="3"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="8505" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet r:id="rId1" sheetId="1" name="Sheet1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="671" uniqueCount="454">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="466">
   <si>
     <t>ID</t>
   </si>
@@ -109,399 +109,432 @@
     <t>命中率</t>
   </si>
   <si>
+    <t>crit_rate</t>
+  </si>
+  <si>
+    <t>暴击率</t>
+  </si>
+  <si>
+    <t>ability_name</t>
+  </si>
+  <si>
+    <t>ability_tags</t>
+  </si>
+  <si>
+    <t>ability_description</t>
+  </si>
+  <si>
+    <t>icon</t>
+  </si>
+  <si>
+    <t>effect_id</t>
+  </si>
+  <si>
+    <t>buff_type</t>
+  </si>
+  <si>
+    <t>is_permanent</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>can_stack</t>
+  </si>
+  <si>
+    <t>技能名称</t>
+  </si>
+  <si>
+    <t>技能标签</t>
+  </si>
+  <si>
+    <t>技能描述</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>效果ID</t>
+  </si>
+  <si>
+    <t>buff类型</t>
+  </si>
+  <si>
+    <t>是否永久</t>
+  </si>
+  <si>
+    <t>能否堆叠</t>
+  </si>
+  <si>
+    <t>string[]</t>
+  </si>
+  <si>
+    <t>resource</t>
+  </si>
+  <si>
+    <t>battle_cry</t>
+  </si>
+  <si>
+    <t>战吼</t>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Buffs/element_boost.png</t>
+  </si>
+  <si>
+    <t>battle_cry_buff</t>
+  </si>
+  <si>
+    <t>duration</t>
+  </si>
+  <si>
+    <t>ignite</t>
+  </si>
+  <si>
+    <t>点燃</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Spells/lightning_spell.png</t>
+  </si>
+  <si>
+    <t>ignite_buff</t>
+  </si>
+  <si>
+    <t>magic_shield</t>
+  </si>
+  <si>
+    <t>魔法盾</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Buffs/magic_amplification.png</t>
+  </si>
+  <si>
+    <t>magic_shield_buff</t>
+  </si>
+  <si>
+    <t>stun</t>
+  </si>
+  <si>
+    <t>眩晕</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Debuffs/sleeping.png</t>
+  </si>
+  <si>
+    <t>stun_buff</t>
+  </si>
+  <si>
+    <t>torrential_curse</t>
+  </si>
+  <si>
+    <t>漩涡约束</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Debuffs/slowed.png</t>
+  </si>
+  <si>
+    <t>torrential_curse_buff</t>
+  </si>
+  <si>
+    <t>target_range</t>
+  </si>
+  <si>
+    <t>valid_positions</t>
+  </si>
+  <si>
+    <t>target_positions</t>
+  </si>
+  <si>
+    <t>is_auto_cast</t>
+  </si>
+  <si>
+    <t>ability_costs</t>
+  </si>
+  <si>
+    <t>cooldown</t>
+  </si>
+  <si>
+    <t>目标范围&amp;#10;0 NONE,   ## 无目标&amp;#10;1 SINGLE_ENEMY, ## 敌方单个&amp;#10;2 SINGLE_ALLY, ## 友方单个&amp;#10;3 ALL_ENEMY,  ## 全体敌方目标位置&amp;#10;4 ALL_ALLY,  ## 全体友方目标位置&amp;#10;5 SELF,   ## 自己</t>
+  </si>
+  <si>
+    <t>有效位置</t>
+  </si>
+  <si>
+    <t>目标位置</t>
+  </si>
+  <si>
+    <t>是否自动释放</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>冷却时间</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>1*2*3*4</t>
+  </si>
+  <si>
+    <t>attack_effect</t>
+  </si>
+  <si>
+    <t>1*2</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Buffs/critical_boost.png</t>
+  </si>
+  <si>
+    <t>battle_cry_effect</t>
+  </si>
+  <si>
+    <t>rage*30</t>
+  </si>
+  <si>
+    <t>heroic_strike</t>
+  </si>
+  <si>
+    <t>全力一击</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Spells/poison_dagger.png</t>
+  </si>
+  <si>
+    <t>heroic_strike_effect</t>
+  </si>
+  <si>
+    <t>rage*15</t>
+  </si>
+  <si>
+    <t>resolute</t>
+  </si>
+  <si>
+    <t>不屈精神</t>
+  </si>
+  <si>
+    <t>1*2*3</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon26.png</t>
+  </si>
+  <si>
+    <t>resolute_effect</t>
+  </si>
+  <si>
+    <t>retaliate</t>
+  </si>
+  <si>
+    <t>反击</t>
+  </si>
+  <si>
+    <t>2*3</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon34.png</t>
+  </si>
+  <si>
+    <t>retaliate_effect</t>
+  </si>
+  <si>
+    <t>arrow_attack</t>
+  </si>
+  <si>
+    <t>远程攻击</t>
+  </si>
+  <si>
+    <t>arrow_attack_effect</t>
+  </si>
+  <si>
+    <t>arrow_beam</t>
+  </si>
+  <si>
+    <t>光束箭</t>
+  </si>
+  <si>
+    <t>3*4</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon38.png</t>
+  </si>
+  <si>
+    <t>arrow_beam_effect</t>
+  </si>
+  <si>
+    <t>enery*30</t>
+  </si>
+  <si>
+    <t>arrow_entangle</t>
+  </si>
+  <si>
+    <t>约束之箭</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon28.png</t>
+  </si>
+  <si>
+    <t>arrow_entangle_effect</t>
+  </si>
+  <si>
+    <t>enery*15</t>
+  </si>
+  <si>
+    <t>arrow_poison</t>
+  </si>
+  <si>
+    <t>毒箭</t>
+  </si>
+  <si>
+    <t>2*3*4</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon30.png</t>
+  </si>
+  <si>
+    <t>arrow_poison_effect</t>
+  </si>
+  <si>
+    <t>enery*10</t>
+  </si>
+  <si>
+    <t>arrow_shower</t>
+  </si>
+  <si>
+    <t>箭雨</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon35.png</t>
+  </si>
+  <si>
+    <t>arrow_shower_effect</t>
+  </si>
+  <si>
+    <t>enery*20</t>
+  </si>
+  <si>
+    <t>water_blade_slash</t>
+  </si>
+  <si>
+    <t>水刃斩</t>
+  </si>
+  <si>
+    <t>water_blade_slash_effect</t>
+  </si>
+  <si>
+    <t>vortex_bind</t>
+  </si>
+  <si>
+    <t>涡流约束</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon3.png</t>
+  </si>
+  <si>
+    <t>vortex_bind_effect</t>
+  </si>
+  <si>
+    <t>mana*30</t>
+  </si>
+  <si>
+    <t>tidal_fury</t>
+  </si>
+  <si>
+    <t>潮汐狂暴</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon23.png</t>
+  </si>
+  <si>
+    <t>tidal_fury_effect</t>
+  </si>
+  <si>
+    <t>mana*20</t>
+  </si>
+  <si>
+    <t>healing_spring</t>
+  </si>
+  <si>
+    <t>恢复之泉</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon20.png</t>
+  </si>
+  <si>
+    <t>healing_spring_effect</t>
+  </si>
+  <si>
+    <t>mana*10</t>
+  </si>
+  <si>
+    <t>aqua_shield</t>
+  </si>
+  <si>
+    <t>水之护盾</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon9.png</t>
+  </si>
+  <si>
+    <t>aqua_shield_effect</t>
+  </si>
+  <si>
+    <t>arcane_missiles</t>
+  </si>
+  <si>
+    <t>魔法飞弹</t>
+  </si>
+  <si>
+    <t>arcane_missiles_effect</t>
+  </si>
+  <si>
+    <t>fireball</t>
+  </si>
+  <si>
+    <t>火球术</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Spells/fire_spell.png</t>
+  </si>
+  <si>
+    <t>fireball_effect</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Spells/fortify_spell.png</t>
+  </si>
+  <si>
+    <t>magic_shield_effect</t>
+  </si>
+  <si>
+    <t>mana*15</t>
+  </si>
+  <si>
+    <t>mana_surge</t>
+  </si>
+  <si>
+    <t>魔法涌现</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Spells/ice_spell.png</t>
+  </si>
+  <si>
+    <t>mana_surge_effect</t>
+  </si>
+  <si>
+    <t>character_name</t>
+  </si>
+  <si>
     <t>crie_rate</t>
   </si>
   <si>
-    <t>暴击率</t>
-  </si>
-  <si>
-    <t>ability_name</t>
-  </si>
-  <si>
-    <t>ability_tags</t>
-  </si>
-  <si>
-    <t>ability_description</t>
-  </si>
-  <si>
-    <t>icon</t>
-  </si>
-  <si>
-    <t>effect_config_path</t>
-  </si>
-  <si>
-    <t>buff_type</t>
-  </si>
-  <si>
-    <t>is_permanent</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>can_stack</t>
-  </si>
-  <si>
-    <t>技能名称</t>
-  </si>
-  <si>
-    <t>技能标签</t>
-  </si>
-  <si>
-    <t>技能描述</t>
-  </si>
-  <si>
-    <t>图标</t>
-  </si>
-  <si>
-    <t>效果json文件地址</t>
-  </si>
-  <si>
-    <t>buff类型</t>
-  </si>
-  <si>
-    <t>是否永久</t>
-  </si>
-  <si>
-    <t>能否堆叠</t>
-  </si>
-  <si>
-    <t>string[]</t>
-  </si>
-  <si>
-    <t>resource</t>
-  </si>
-  <si>
-    <t>battle_cry</t>
-  </si>
-  <si>
-    <t>战吼</t>
-  </si>
-  <si>
-    <t>buff</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Buffs/element_boost.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/battle_cry_buff.json</t>
-  </si>
-  <si>
-    <t>duration</t>
-  </si>
-  <si>
-    <t>ignite</t>
-  </si>
-  <si>
-    <t>点燃</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Spells/lightning_spell.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/ignite_buff.json</t>
-  </si>
-  <si>
-    <t>magic_shield</t>
-  </si>
-  <si>
-    <t>魔法盾</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Buffs/magic_amplification.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/magic_shield_buff.json</t>
-  </si>
-  <si>
-    <t>stun</t>
-  </si>
-  <si>
-    <t>眩晕</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Debuffs/sleeping.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/stun_buff.json</t>
-  </si>
-  <si>
-    <t>torrential_curse</t>
-  </si>
-  <si>
-    <t>漩涡约束</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Debuffs/slowed.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/torrential_curse_buff.js</t>
-  </si>
-  <si>
-    <t>is_auto_cast</t>
-  </si>
-  <si>
-    <t>target_type</t>
-  </si>
-  <si>
-    <t>ability_costs</t>
-  </si>
-  <si>
-    <t>cooldown</t>
-  </si>
-  <si>
-    <t>是否自动释放</t>
-  </si>
-  <si>
-    <t>目标类型</t>
-  </si>
-  <si>
-    <t>消耗</t>
-  </si>
-  <si>
-    <t>冷却时间</t>
-  </si>
-  <si>
-    <t>普通攻击</t>
-  </si>
-  <si>
-    <t>skill</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/attack_effect.json</t>
-  </si>
-  <si>
-    <t>enemy</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Buffs/critical_boost.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/battle_cry_effect.json</t>
-  </si>
-  <si>
-    <t>rage*30</t>
-  </si>
-  <si>
-    <t>heroic_strike</t>
-  </si>
-  <si>
-    <t>全力一击</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Spells/poison_dagger.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/heroic_strike_effect.json</t>
-  </si>
-  <si>
-    <t>rage*15</t>
-  </si>
-  <si>
-    <t>resolute</t>
-  </si>
-  <si>
-    <t>不屈精神</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon26.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/resolute_effect.json</t>
-  </si>
-  <si>
-    <t>retaliate</t>
-  </si>
-  <si>
-    <t>反击</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon34.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/retaliate_effect.json</t>
-  </si>
-  <si>
-    <t>arrow_attack</t>
-  </si>
-  <si>
-    <t>远程攻击</t>
-  </si>
-  <si>
-    <t>://ources/data/effects/arrow_attack_effect.json</t>
-  </si>
-  <si>
-    <t>arrow_beam</t>
-  </si>
-  <si>
-    <t>光束箭</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon38.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/arrow_beam_effect.json</t>
-  </si>
-  <si>
-    <t>enery*30</t>
-  </si>
-  <si>
-    <t>arrow_entangle</t>
-  </si>
-  <si>
-    <t>约束之箭</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon28.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/arrow_entangle_effect.json</t>
-  </si>
-  <si>
-    <t>enery*15</t>
-  </si>
-  <si>
-    <t>arrow_poison</t>
-  </si>
-  <si>
-    <t>毒箭</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon30.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/arrow_poison_effect.json</t>
-  </si>
-  <si>
-    <t>enery*10</t>
-  </si>
-  <si>
-    <t>arrow_shower</t>
-  </si>
-  <si>
-    <t>箭雨</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon35.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/arrow_shower_effect.json</t>
-  </si>
-  <si>
-    <t>enery*20</t>
-  </si>
-  <si>
-    <t>water_blade_slash</t>
-  </si>
-  <si>
-    <t>水刃斩</t>
-  </si>
-  <si>
-    <t>://ources/data/effects/water_blade_slash_effect.json</t>
-  </si>
-  <si>
-    <t>vortex_bind</t>
-  </si>
-  <si>
-    <t>涡流约束</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon3.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/vortex_bind_effect.json</t>
-  </si>
-  <si>
-    <t>mana*30</t>
-  </si>
-  <si>
-    <t>tidal_fury</t>
-  </si>
-  <si>
-    <t>潮汐狂暴</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon23.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/tidal_fury_effect.json</t>
-  </si>
-  <si>
-    <t>mana*20</t>
-  </si>
-  <si>
-    <t>healing_spring</t>
-  </si>
-  <si>
-    <t>恢复之泉</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon20.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/healing_spring_effect.json</t>
-  </si>
-  <si>
-    <t>mana*10</t>
-  </si>
-  <si>
-    <t>aqua_shield</t>
-  </si>
-  <si>
-    <t>水之护盾</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon9.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/aqua_shield_effect.json</t>
-  </si>
-  <si>
-    <t>arcane_missiles</t>
-  </si>
-  <si>
-    <t>魔法飞弹</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/arcane_missiles_effect.json</t>
-  </si>
-  <si>
-    <t>fireball</t>
-  </si>
-  <si>
-    <t>火球术</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Spells/fire_spell.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/fireball_effect.json</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Spells/fortify_spell.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/magic_shield_effect.json</t>
-  </si>
-  <si>
-    <t>mana*15</t>
-  </si>
-  <si>
-    <t>mana_surge</t>
-  </si>
-  <si>
-    <t>魔法涌现</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Spells/ice_spell.png</t>
-  </si>
-  <si>
-    <t>res://resources/data/effects/mana_surge_effect.json</t>
-  </si>
-  <si>
-    <t>character_name</t>
-  </si>
-  <si>
     <t>角色名</t>
   </si>
   <si>
@@ -728,6 +761,9 @@
   </si>
   <si>
     <t>测试战斗</t>
+  </si>
+  <si>
+    <t/>
   </si>
   <si>
     <t>name</t>
@@ -1804,7 +1840,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="54">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1836,13 +1872,19 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="3" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="4" applyFont="1" fillId="0" applyAlignment="1">
@@ -2267,7 +2309,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="51" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="53" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -2297,325 +2339,325 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="14" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="15" t="s">
-        <v>236</v>
-      </c>
-      <c r="C1" s="16" t="s">
-        <v>237</v>
-      </c>
-      <c r="D1" s="16" t="s">
-        <v>238</v>
-      </c>
-      <c r="E1" s="16" t="s">
-        <v>239</v>
-      </c>
-      <c r="F1" s="16" t="s">
-        <v>240</v>
-      </c>
-      <c r="G1" s="16" t="s">
-        <v>241</v>
-      </c>
-      <c r="H1" s="16" t="s">
-        <v>242</v>
-      </c>
-      <c r="I1" s="16" t="s">
-        <v>243</v>
-      </c>
-      <c r="J1" s="16" t="s">
-        <v>244</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>245</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>246</v>
-      </c>
-      <c r="M1" s="16" t="s">
-        <v>247</v>
-      </c>
-      <c r="N1" s="16" t="s">
+      <c r="A1" s="16" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
         <v>248</v>
       </c>
-      <c r="O1" s="16" t="s">
+      <c r="C1" s="18" t="s">
         <v>249</v>
       </c>
-      <c r="P1" s="16" t="s">
+      <c r="D1" s="18" t="s">
         <v>250</v>
       </c>
-      <c r="Q1" s="16" t="s">
+      <c r="E1" s="18" t="s">
         <v>251</v>
       </c>
-      <c r="R1" s="17" t="s">
+      <c r="F1" s="18" t="s">
         <v>252</v>
       </c>
-      <c r="S1" s="15" t="s">
+      <c r="G1" s="18" t="s">
         <v>253</v>
       </c>
-      <c r="T1" s="15" t="s">
+      <c r="H1" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="U1" s="15" t="s">
+      <c r="I1" s="18" t="s">
         <v>255</v>
       </c>
-      <c r="V1" s="15" t="s">
+      <c r="J1" s="18" t="s">
         <v>256</v>
       </c>
-      <c r="W1" s="18" t="s">
+      <c r="K1" s="18" t="s">
         <v>257</v>
       </c>
-      <c r="X1" s="19"/>
-      <c r="Y1" s="19"/>
-      <c r="Z1" s="19"/>
-      <c r="AA1" s="20"/>
+      <c r="L1" s="18" t="s">
+        <v>258</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>259</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>260</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>261</v>
+      </c>
+      <c r="P1" s="18" t="s">
+        <v>262</v>
+      </c>
+      <c r="Q1" s="18" t="s">
+        <v>263</v>
+      </c>
+      <c r="R1" s="19" t="s">
+        <v>264</v>
+      </c>
+      <c r="S1" s="17" t="s">
+        <v>265</v>
+      </c>
+      <c r="T1" s="17" t="s">
+        <v>266</v>
+      </c>
+      <c r="U1" s="17" t="s">
+        <v>267</v>
+      </c>
+      <c r="V1" s="17" t="s">
+        <v>268</v>
+      </c>
+      <c r="W1" s="20" t="s">
+        <v>269</v>
+      </c>
+      <c r="X1" s="21"/>
+      <c r="Y1" s="21"/>
+      <c r="Z1" s="21"/>
+      <c r="AA1" s="22"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="21" t="s">
-        <v>258</v>
-      </c>
-      <c r="B2" s="22" t="s">
-        <v>259</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>260</v>
-      </c>
-      <c r="D2" s="11" t="s">
-        <v>261</v>
-      </c>
-      <c r="E2" s="11" t="s">
-        <v>262</v>
-      </c>
-      <c r="F2" s="11" t="s">
-        <v>263</v>
-      </c>
-      <c r="G2" s="11" t="s">
-        <v>264</v>
-      </c>
-      <c r="H2" s="11" t="s">
-        <v>265</v>
-      </c>
-      <c r="I2" s="11" t="s">
-        <v>266</v>
-      </c>
-      <c r="J2" s="11" t="s">
-        <v>267</v>
-      </c>
-      <c r="K2" s="11" t="s">
-        <v>268</v>
-      </c>
-      <c r="L2" s="11" t="s">
-        <v>269</v>
-      </c>
-      <c r="M2" s="11" t="s">
+      <c r="A2" s="23" t="s">
         <v>270</v>
       </c>
-      <c r="N2" s="11" t="s">
+      <c r="B2" s="24" t="s">
         <v>271</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="C2" s="13" t="s">
         <v>272</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="D2" s="13" t="s">
         <v>273</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>274</v>
       </c>
-      <c r="R2" s="23" t="s">
+      <c r="F2" s="13" t="s">
         <v>275</v>
       </c>
-      <c r="S2" s="22" t="s">
+      <c r="G2" s="13" t="s">
         <v>276</v>
       </c>
-      <c r="T2" s="22" t="s">
+      <c r="H2" s="13" t="s">
         <v>277</v>
       </c>
-      <c r="U2" s="22" t="s">
+      <c r="I2" s="13" t="s">
         <v>278</v>
       </c>
-      <c r="V2" s="22" t="s">
+      <c r="J2" s="13" t="s">
         <v>279</v>
       </c>
-      <c r="W2" s="24" t="s">
-        <v>274</v>
-      </c>
-      <c r="X2" s="25" t="s">
+      <c r="K2" s="13" t="s">
         <v>280</v>
       </c>
-      <c r="Y2" s="26" t="s">
+      <c r="L2" s="13" t="s">
         <v>281</v>
       </c>
-      <c r="Z2" s="26" t="s">
+      <c r="M2" s="13" t="s">
         <v>282</v>
       </c>
-      <c r="AA2" s="27" t="s">
+      <c r="N2" s="13" t="s">
         <v>283</v>
       </c>
+      <c r="O2" s="13" t="s">
+        <v>284</v>
+      </c>
+      <c r="P2" s="13" t="s">
+        <v>285</v>
+      </c>
+      <c r="Q2" s="13" t="s">
+        <v>286</v>
+      </c>
+      <c r="R2" s="25" t="s">
+        <v>287</v>
+      </c>
+      <c r="S2" s="24" t="s">
+        <v>288</v>
+      </c>
+      <c r="T2" s="24" t="s">
+        <v>289</v>
+      </c>
+      <c r="U2" s="24" t="s">
+        <v>290</v>
+      </c>
+      <c r="V2" s="24" t="s">
+        <v>291</v>
+      </c>
+      <c r="W2" s="26" t="s">
+        <v>286</v>
+      </c>
+      <c r="X2" s="27" t="s">
+        <v>292</v>
+      </c>
+      <c r="Y2" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="Z2" s="28" t="s">
+        <v>294</v>
+      </c>
+      <c r="AA2" s="29" t="s">
+        <v>295</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="28" t="s">
+      <c r="A3" s="30" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="29" t="s">
+      <c r="B3" s="31" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="30" t="s">
+      <c r="E3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="30" t="s">
+      <c r="F3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="30" t="s">
+      <c r="G3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="30" t="s">
+      <c r="H3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="30" t="s">
+      <c r="I3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="30" t="s">
+      <c r="J3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="30" t="s">
+      <c r="K3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="30" t="s">
+      <c r="L3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="30" t="s">
+      <c r="M3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="30" t="s">
+      <c r="N3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="30" t="s">
+      <c r="O3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="30" t="s">
+      <c r="P3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="30" t="s">
+      <c r="Q3" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="31" t="s">
+      <c r="R3" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="29" t="s">
+      <c r="S3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="29" t="s">
+      <c r="T3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="29" t="s">
+      <c r="U3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="29" t="s">
+      <c r="V3" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="32" t="s">
+      <c r="W3" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="33" t="s">
+      <c r="X3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="33" t="s">
+      <c r="Y3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="33" t="s">
+      <c r="Z3" s="35" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="34" t="s">
+      <c r="AA3" s="36" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="35">
-        <v>1</v>
-      </c>
-      <c r="B4" s="36" t="s">
-        <v>284</v>
-      </c>
-      <c r="C4" s="37">
-        <v>10</v>
-      </c>
-      <c r="D4" s="37">
-        <v>0</v>
-      </c>
-      <c r="E4" s="37">
-        <v>0</v>
-      </c>
-      <c r="F4" s="37">
-        <v>10</v>
-      </c>
-      <c r="G4" s="37">
-        <v>0</v>
-      </c>
-      <c r="H4" s="37">
-        <v>0</v>
-      </c>
-      <c r="I4" s="37">
-        <v>0</v>
-      </c>
-      <c r="J4" s="37">
+      <c r="A4" s="37">
+        <v>1</v>
+      </c>
+      <c r="B4" s="38" t="s">
+        <v>296</v>
+      </c>
+      <c r="C4" s="39">
+        <v>10</v>
+      </c>
+      <c r="D4" s="39">
+        <v>0</v>
+      </c>
+      <c r="E4" s="39">
+        <v>0</v>
+      </c>
+      <c r="F4" s="39">
+        <v>10</v>
+      </c>
+      <c r="G4" s="39">
+        <v>0</v>
+      </c>
+      <c r="H4" s="39">
+        <v>0</v>
+      </c>
+      <c r="I4" s="39">
+        <v>0</v>
+      </c>
+      <c r="J4" s="39">
         <v>2</v>
       </c>
-      <c r="K4" s="37">
-        <v>1</v>
-      </c>
-      <c r="L4" s="37">
-        <v>0</v>
-      </c>
-      <c r="M4" s="37">
-        <v>0</v>
-      </c>
-      <c r="N4" s="37">
-        <v>0</v>
-      </c>
-      <c r="O4" s="37">
-        <v>0</v>
-      </c>
-      <c r="P4" s="37">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="37">
-        <v>0</v>
-      </c>
-      <c r="R4" s="38">
-        <v>0</v>
-      </c>
-      <c r="S4" s="36"/>
-      <c r="T4" s="36"/>
-      <c r="U4" s="36"/>
-      <c r="V4" s="36"/>
-      <c r="W4" s="39"/>
-      <c r="X4" s="40" t="s">
-        <v>285</v>
-      </c>
-      <c r="Y4" s="36" t="s">
-        <v>286</v>
-      </c>
-      <c r="Z4" s="36" t="s">
-        <v>287</v>
-      </c>
-      <c r="AA4" s="39" t="s">
-        <v>288</v>
+      <c r="K4" s="39">
+        <v>1</v>
+      </c>
+      <c r="L4" s="39">
+        <v>0</v>
+      </c>
+      <c r="M4" s="39">
+        <v>0</v>
+      </c>
+      <c r="N4" s="39">
+        <v>0</v>
+      </c>
+      <c r="O4" s="39">
+        <v>0</v>
+      </c>
+      <c r="P4" s="39">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="39">
+        <v>0</v>
+      </c>
+      <c r="R4" s="40">
+        <v>0</v>
+      </c>
+      <c r="S4" s="38"/>
+      <c r="T4" s="38"/>
+      <c r="U4" s="38"/>
+      <c r="V4" s="38"/>
+      <c r="W4" s="41"/>
+      <c r="X4" s="42" t="s">
+        <v>297</v>
+      </c>
+      <c r="Y4" s="38" t="s">
+        <v>298</v>
+      </c>
+      <c r="Z4" s="38" t="s">
+        <v>299</v>
+      </c>
+      <c r="AA4" s="41" t="s">
+        <v>300</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="41">
+      <c r="A5" s="43">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>289</v>
+        <v>301</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
@@ -2662,33 +2704,33 @@
       <c r="Q5" s="4">
         <v>0</v>
       </c>
-      <c r="R5" s="42">
+      <c r="R5" s="44">
         <v>0</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="43"/>
-      <c r="X5" s="44" t="s">
-        <v>290</v>
+      <c r="W5" s="45"/>
+      <c r="X5" s="46" t="s">
+        <v>302</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>291</v>
-      </c>
-      <c r="AA5" s="43" t="s">
-        <v>264</v>
+        <v>303</v>
+      </c>
+      <c r="AA5" s="45" t="s">
+        <v>276</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="41">
+      <c r="A6" s="43">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>292</v>
+        <v>304</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
@@ -2735,33 +2777,33 @@
       <c r="Q6" s="4">
         <v>0</v>
       </c>
-      <c r="R6" s="42">
+      <c r="R6" s="44">
         <v>0</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="43"/>
-      <c r="X6" s="44" t="s">
-        <v>293</v>
+      <c r="W6" s="45"/>
+      <c r="X6" s="46" t="s">
+        <v>305</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>294</v>
-      </c>
-      <c r="AA6" s="43" t="s">
-        <v>295</v>
+        <v>306</v>
+      </c>
+      <c r="AA6" s="45" t="s">
+        <v>307</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="41">
+      <c r="A7" s="43">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>296</v>
+        <v>308</v>
       </c>
       <c r="C7" s="4">
         <v>10</v>
@@ -2808,33 +2850,33 @@
       <c r="Q7" s="4">
         <v>0</v>
       </c>
-      <c r="R7" s="42">
+      <c r="R7" s="44">
         <v>0</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="43"/>
-      <c r="X7" s="44" t="s">
-        <v>297</v>
+      <c r="W7" s="45"/>
+      <c r="X7" s="46" t="s">
+        <v>309</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>298</v>
-      </c>
-      <c r="AA7" s="43" t="s">
-        <v>299</v>
+        <v>310</v>
+      </c>
+      <c r="AA7" s="45" t="s">
+        <v>311</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="41">
+      <c r="A8" s="43">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>300</v>
+        <v>312</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
@@ -2881,33 +2923,33 @@
       <c r="Q8" s="4">
         <v>0</v>
       </c>
-      <c r="R8" s="42">
+      <c r="R8" s="44">
         <v>0</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="43"/>
-      <c r="X8" s="44" t="s">
-        <v>301</v>
+      <c r="W8" s="45"/>
+      <c r="X8" s="46" t="s">
+        <v>313</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>286</v>
+        <v>298</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>302</v>
-      </c>
-      <c r="AA8" s="43" t="s">
-        <v>303</v>
+        <v>314</v>
+      </c>
+      <c r="AA8" s="45" t="s">
+        <v>315</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="41">
+      <c r="A9" s="43">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>304</v>
+        <v>316</v>
       </c>
       <c r="C9" s="4">
         <v>10</v>
@@ -2954,33 +2996,33 @@
       <c r="Q9" s="4">
         <v>0</v>
       </c>
-      <c r="R9" s="42">
+      <c r="R9" s="44">
         <v>0</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="43"/>
-      <c r="X9" s="44" t="s">
-        <v>305</v>
+      <c r="W9" s="45"/>
+      <c r="X9" s="46" t="s">
+        <v>317</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>306</v>
+        <v>318</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>307</v>
-      </c>
-      <c r="AA9" s="43" t="s">
-        <v>308</v>
+        <v>319</v>
+      </c>
+      <c r="AA9" s="45" t="s">
+        <v>320</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="41">
+      <c r="A10" s="43">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>309</v>
+        <v>321</v>
       </c>
       <c r="C10" s="4">
         <v>10</v>
@@ -3027,33 +3069,33 @@
       <c r="Q10" s="4">
         <v>0</v>
       </c>
-      <c r="R10" s="42">
+      <c r="R10" s="44">
         <v>0</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="43"/>
-      <c r="X10" s="44" t="s">
-        <v>310</v>
+      <c r="W10" s="45"/>
+      <c r="X10" s="46" t="s">
+        <v>322</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>311</v>
+        <v>323</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="AA10" s="43" t="s">
-        <v>313</v>
+        <v>324</v>
+      </c>
+      <c r="AA10" s="45" t="s">
+        <v>325</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="41">
+      <c r="A11" s="43">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>274</v>
+        <v>286</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
@@ -3100,33 +3142,33 @@
       <c r="Q11" s="4">
         <v>0</v>
       </c>
-      <c r="R11" s="42">
+      <c r="R11" s="44">
         <v>0</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="43"/>
-      <c r="X11" s="44" t="s">
-        <v>314</v>
+      <c r="W11" s="45"/>
+      <c r="X11" s="46" t="s">
+        <v>326</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>316</v>
-      </c>
-      <c r="AA11" s="43" t="s">
-        <v>317</v>
+        <v>328</v>
+      </c>
+      <c r="AA11" s="45" t="s">
+        <v>329</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="41">
+      <c r="A12" s="43">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>318</v>
+        <v>330</v>
       </c>
       <c r="C12" s="4">
         <v>10</v>
@@ -3173,33 +3215,33 @@
       <c r="Q12" s="4">
         <v>0</v>
       </c>
-      <c r="R12" s="42">
+      <c r="R12" s="44">
         <v>0</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="43"/>
-      <c r="X12" s="44" t="s">
-        <v>319</v>
+      <c r="W12" s="45"/>
+      <c r="X12" s="46" t="s">
+        <v>331</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>320</v>
+        <v>332</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>321</v>
-      </c>
-      <c r="AA12" s="43" t="s">
-        <v>322</v>
+        <v>333</v>
+      </c>
+      <c r="AA12" s="45" t="s">
+        <v>334</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="41">
+      <c r="A13" s="43">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>323</v>
+        <v>335</v>
       </c>
       <c r="C13" s="4">
         <v>10</v>
@@ -3246,33 +3288,33 @@
       <c r="Q13" s="4">
         <v>0</v>
       </c>
-      <c r="R13" s="42">
+      <c r="R13" s="44">
         <v>0</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="43"/>
-      <c r="X13" s="44" t="s">
-        <v>324</v>
+      <c r="W13" s="45"/>
+      <c r="X13" s="46" t="s">
+        <v>336</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>315</v>
+        <v>327</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>325</v>
-      </c>
-      <c r="AA13" s="43" t="s">
-        <v>326</v>
+        <v>337</v>
+      </c>
+      <c r="AA13" s="45" t="s">
+        <v>338</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="41">
+      <c r="A14" s="43">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>327</v>
+        <v>339</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
@@ -3319,33 +3361,33 @@
       <c r="Q14" s="4">
         <v>0</v>
       </c>
-      <c r="R14" s="42">
+      <c r="R14" s="44">
         <v>0</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="43"/>
-      <c r="X14" s="44" t="s">
-        <v>328</v>
+      <c r="W14" s="45"/>
+      <c r="X14" s="46" t="s">
+        <v>340</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>329</v>
+        <v>341</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>330</v>
-      </c>
-      <c r="AA14" s="43" t="s">
-        <v>331</v>
+        <v>342</v>
+      </c>
+      <c r="AA14" s="45" t="s">
+        <v>343</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="41">
+      <c r="A15" s="43">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>332</v>
+        <v>344</v>
       </c>
       <c r="C15" s="4">
         <v>10</v>
@@ -3392,33 +3434,33 @@
       <c r="Q15" s="4">
         <v>0</v>
       </c>
-      <c r="R15" s="42">
+      <c r="R15" s="44">
         <v>0</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="43"/>
-      <c r="X15" s="44" t="s">
-        <v>333</v>
+      <c r="W15" s="45"/>
+      <c r="X15" s="46" t="s">
+        <v>345</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>334</v>
+        <v>346</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>335</v>
-      </c>
-      <c r="AA15" s="43" t="s">
-        <v>288</v>
+        <v>347</v>
+      </c>
+      <c r="AA15" s="45" t="s">
+        <v>300</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="41">
+      <c r="A16" s="43">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>336</v>
+        <v>348</v>
       </c>
       <c r="C16" s="4">
         <v>10</v>
@@ -3465,33 +3507,33 @@
       <c r="Q16" s="4">
         <v>0</v>
       </c>
-      <c r="R16" s="42">
+      <c r="R16" s="44">
         <v>0</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="43"/>
-      <c r="X16" s="44" t="s">
-        <v>337</v>
+      <c r="W16" s="45"/>
+      <c r="X16" s="46" t="s">
+        <v>349</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>338</v>
+        <v>350</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>339</v>
-      </c>
-      <c r="AA16" s="43" t="s">
-        <v>288</v>
+        <v>351</v>
+      </c>
+      <c r="AA16" s="45" t="s">
+        <v>300</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="41">
+      <c r="A17" s="43">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>340</v>
+        <v>352</v>
       </c>
       <c r="C17" s="4">
         <v>10</v>
@@ -3538,33 +3580,33 @@
       <c r="Q17" s="4">
         <v>0</v>
       </c>
-      <c r="R17" s="42">
+      <c r="R17" s="44">
         <v>0</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="43"/>
-      <c r="X17" s="44" t="s">
-        <v>341</v>
+      <c r="W17" s="45"/>
+      <c r="X17" s="46" t="s">
+        <v>353</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>342</v>
+        <v>354</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>343</v>
-      </c>
-      <c r="AA17" s="43" t="s">
-        <v>344</v>
+        <v>355</v>
+      </c>
+      <c r="AA17" s="45" t="s">
+        <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="41">
+      <c r="A18" s="43">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>345</v>
+        <v>357</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
@@ -3611,33 +3653,33 @@
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="42">
+      <c r="R18" s="44">
         <v>0</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="43"/>
-      <c r="X18" s="44" t="s">
-        <v>346</v>
+      <c r="W18" s="45"/>
+      <c r="X18" s="46" t="s">
+        <v>358</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>347</v>
+        <v>359</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>348</v>
-      </c>
-      <c r="AA18" s="43" t="s">
-        <v>264</v>
+        <v>360</v>
+      </c>
+      <c r="AA18" s="45" t="s">
+        <v>276</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="41">
+      <c r="A19" s="43">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>349</v>
+        <v>361</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
@@ -3684,33 +3726,33 @@
       <c r="Q19" s="4">
         <v>0</v>
       </c>
-      <c r="R19" s="42">
+      <c r="R19" s="44">
         <v>0</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="43"/>
-      <c r="X19" s="44" t="s">
-        <v>350</v>
+      <c r="W19" s="45"/>
+      <c r="X19" s="46" t="s">
+        <v>362</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>351</v>
+        <v>363</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA19" s="43" t="s">
-        <v>288</v>
+        <v>364</v>
+      </c>
+      <c r="AA19" s="45" t="s">
+        <v>300</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="41">
+      <c r="A20" s="43">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>353</v>
+        <v>365</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
@@ -3757,33 +3799,33 @@
       <c r="Q20" s="4">
         <v>0</v>
       </c>
-      <c r="R20" s="42">
+      <c r="R20" s="44">
         <v>0</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="43"/>
-      <c r="X20" s="44" t="s">
-        <v>354</v>
+      <c r="W20" s="45"/>
+      <c r="X20" s="46" t="s">
+        <v>366</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>355</v>
+        <v>367</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA20" s="43" t="s">
-        <v>262</v>
+        <v>368</v>
+      </c>
+      <c r="AA20" s="45" t="s">
+        <v>274</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="41">
+      <c r="A21" s="43">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>357</v>
+        <v>369</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
@@ -3830,33 +3872,33 @@
       <c r="Q21" s="4">
         <v>0</v>
       </c>
-      <c r="R21" s="42">
+      <c r="R21" s="44">
         <v>0</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="W21" s="43"/>
-      <c r="X21" s="44" t="s">
-        <v>358</v>
+      <c r="W21" s="45"/>
+      <c r="X21" s="46" t="s">
+        <v>370</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>359</v>
+        <v>371</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA21" s="43" t="s">
-        <v>275</v>
+        <v>372</v>
+      </c>
+      <c r="AA21" s="45" t="s">
+        <v>287</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="41">
+      <c r="A22" s="43">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>361</v>
+        <v>373</v>
       </c>
       <c r="C22" s="4">
         <v>10</v>
@@ -3903,33 +3945,33 @@
       <c r="Q22" s="4">
         <v>0</v>
       </c>
-      <c r="R22" s="42">
+      <c r="R22" s="44">
         <v>0</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="43"/>
-      <c r="X22" s="44" t="s">
-        <v>362</v>
+      <c r="W22" s="45"/>
+      <c r="X22" s="46" t="s">
+        <v>374</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>363</v>
+        <v>375</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>364</v>
-      </c>
-      <c r="AA22" s="43" t="s">
-        <v>365</v>
+        <v>376</v>
+      </c>
+      <c r="AA22" s="45" t="s">
+        <v>377</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="41">
+      <c r="A23" s="43">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>366</v>
+        <v>378</v>
       </c>
       <c r="C23" s="4">
         <v>10</v>
@@ -3976,33 +4018,33 @@
       <c r="Q23" s="4">
         <v>0</v>
       </c>
-      <c r="R23" s="42">
+      <c r="R23" s="44">
         <v>0</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="43"/>
-      <c r="X23" s="44" t="s">
-        <v>367</v>
+      <c r="W23" s="45"/>
+      <c r="X23" s="46" t="s">
+        <v>379</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>368</v>
+        <v>380</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA23" s="43" t="s">
+        <v>381</v>
+      </c>
+      <c r="AA23" s="45" t="s">
         <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="41">
+      <c r="A24" s="43">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>370</v>
+        <v>382</v>
       </c>
       <c r="C24" s="4">
         <v>10</v>
@@ -4049,33 +4091,33 @@
       <c r="Q24" s="4">
         <v>0</v>
       </c>
-      <c r="R24" s="42">
+      <c r="R24" s="44">
         <v>0</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="43"/>
-      <c r="X24" s="44" t="s">
-        <v>371</v>
+      <c r="W24" s="45"/>
+      <c r="X24" s="46" t="s">
+        <v>383</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>372</v>
+        <v>384</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA24" s="43" t="s">
-        <v>374</v>
+        <v>385</v>
+      </c>
+      <c r="AA24" s="45" t="s">
+        <v>386</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="41">
+      <c r="A25" s="43">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>375</v>
+        <v>387</v>
       </c>
       <c r="C25" s="4">
         <v>10</v>
@@ -4122,33 +4164,33 @@
       <c r="Q25" s="4">
         <v>0</v>
       </c>
-      <c r="R25" s="42">
+      <c r="R25" s="44">
         <v>0</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="43"/>
-      <c r="X25" s="44" t="s">
-        <v>376</v>
+      <c r="W25" s="45"/>
+      <c r="X25" s="46" t="s">
+        <v>388</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>377</v>
+        <v>389</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>378</v>
-      </c>
-      <c r="AA25" s="43" t="s">
-        <v>269</v>
+        <v>390</v>
+      </c>
+      <c r="AA25" s="45" t="s">
+        <v>281</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="41">
+      <c r="A26" s="43">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>379</v>
+        <v>391</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
@@ -4195,33 +4237,33 @@
       <c r="Q26" s="4">
         <v>0</v>
       </c>
-      <c r="R26" s="42">
+      <c r="R26" s="44">
         <v>0</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="43"/>
-      <c r="X26" s="44" t="s">
-        <v>380</v>
+      <c r="W26" s="45"/>
+      <c r="X26" s="46" t="s">
+        <v>392</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>381</v>
+        <v>393</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>382</v>
-      </c>
-      <c r="AA26" s="43" t="s">
-        <v>383</v>
+        <v>394</v>
+      </c>
+      <c r="AA26" s="45" t="s">
+        <v>395</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="41">
+      <c r="A27" s="43">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>384</v>
+        <v>396</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
@@ -4268,33 +4310,33 @@
       <c r="Q27" s="4">
         <v>0</v>
       </c>
-      <c r="R27" s="42">
+      <c r="R27" s="44">
         <v>0</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="44" t="s">
-        <v>385</v>
+      <c r="W27" s="45"/>
+      <c r="X27" s="46" t="s">
+        <v>397</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>386</v>
+        <v>398</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>387</v>
-      </c>
-      <c r="AA27" s="43" t="s">
-        <v>388</v>
+        <v>399</v>
+      </c>
+      <c r="AA27" s="45" t="s">
+        <v>400</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="41">
+      <c r="A28" s="43">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>389</v>
+        <v>401</v>
       </c>
       <c r="C28" s="4">
         <v>10</v>
@@ -4341,33 +4383,33 @@
       <c r="Q28" s="4">
         <v>0</v>
       </c>
-      <c r="R28" s="42">
+      <c r="R28" s="44">
         <v>0</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="43"/>
-      <c r="X28" s="44" t="s">
-        <v>390</v>
+      <c r="W28" s="45"/>
+      <c r="X28" s="46" t="s">
+        <v>402</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>391</v>
+        <v>403</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>392</v>
-      </c>
-      <c r="AA28" s="43" t="s">
-        <v>393</v>
+        <v>404</v>
+      </c>
+      <c r="AA28" s="45" t="s">
+        <v>405</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="41">
+      <c r="A29" s="43">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>394</v>
+        <v>406</v>
       </c>
       <c r="C29" s="4">
         <v>10</v>
@@ -4414,33 +4456,33 @@
       <c r="Q29" s="4">
         <v>0</v>
       </c>
-      <c r="R29" s="42">
+      <c r="R29" s="44">
         <v>0</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="43"/>
-      <c r="X29" s="44" t="s">
-        <v>395</v>
+      <c r="W29" s="45"/>
+      <c r="X29" s="46" t="s">
+        <v>407</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>397</v>
-      </c>
-      <c r="AA29" s="43" t="s">
-        <v>398</v>
+        <v>409</v>
+      </c>
+      <c r="AA29" s="45" t="s">
+        <v>410</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="41">
+      <c r="A30" s="43">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>399</v>
+        <v>411</v>
       </c>
       <c r="C30" s="4">
         <v>10</v>
@@ -4487,33 +4529,33 @@
       <c r="Q30" s="4">
         <v>0</v>
       </c>
-      <c r="R30" s="42">
+      <c r="R30" s="44">
         <v>0</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="43"/>
-      <c r="X30" s="44" t="s">
-        <v>400</v>
+      <c r="W30" s="45"/>
+      <c r="X30" s="46" t="s">
+        <v>412</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>401</v>
+        <v>413</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>402</v>
-      </c>
-      <c r="AA30" s="43" t="s">
-        <v>288</v>
+        <v>414</v>
+      </c>
+      <c r="AA30" s="45" t="s">
+        <v>300</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="41">
+      <c r="A31" s="43">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>403</v>
+        <v>415</v>
       </c>
       <c r="C31" s="4">
         <v>10</v>
@@ -4560,33 +4602,33 @@
       <c r="Q31" s="4">
         <v>0</v>
       </c>
-      <c r="R31" s="42">
+      <c r="R31" s="44">
         <v>0</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="43"/>
-      <c r="X31" s="44" t="s">
-        <v>404</v>
+      <c r="W31" s="45"/>
+      <c r="X31" s="46" t="s">
+        <v>416</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>405</v>
+        <v>417</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>406</v>
-      </c>
-      <c r="AA31" s="43" t="s">
-        <v>288</v>
+        <v>418</v>
+      </c>
+      <c r="AA31" s="45" t="s">
+        <v>300</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="41">
+      <c r="A32" s="43">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>407</v>
+        <v>419</v>
       </c>
       <c r="C32" s="4">
         <v>10</v>
@@ -4633,33 +4675,33 @@
       <c r="Q32" s="4">
         <v>0</v>
       </c>
-      <c r="R32" s="42">
+      <c r="R32" s="44">
         <v>0</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="43"/>
-      <c r="X32" s="44" t="s">
-        <v>408</v>
+      <c r="W32" s="45"/>
+      <c r="X32" s="46" t="s">
+        <v>420</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>409</v>
+        <v>421</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>410</v>
-      </c>
-      <c r="AA32" s="43" t="s">
-        <v>411</v>
+        <v>422</v>
+      </c>
+      <c r="AA32" s="45" t="s">
+        <v>423</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="41">
+      <c r="A33" s="43">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>412</v>
+        <v>424</v>
       </c>
       <c r="C33" s="4">
         <v>10</v>
@@ -4706,33 +4748,33 @@
       <c r="Q33" s="4">
         <v>0</v>
       </c>
-      <c r="R33" s="42">
+      <c r="R33" s="44">
         <v>0</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="43"/>
-      <c r="X33" s="44" t="s">
-        <v>413</v>
+      <c r="W33" s="45"/>
+      <c r="X33" s="46" t="s">
+        <v>425</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>414</v>
+        <v>426</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>415</v>
-      </c>
-      <c r="AA33" s="43" t="s">
-        <v>416</v>
+        <v>427</v>
+      </c>
+      <c r="AA33" s="45" t="s">
+        <v>428</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="41">
+      <c r="A34" s="43">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>417</v>
+        <v>429</v>
       </c>
       <c r="C34" s="4">
         <v>10</v>
@@ -4779,33 +4821,33 @@
       <c r="Q34" s="4">
         <v>0</v>
       </c>
-      <c r="R34" s="42">
+      <c r="R34" s="44">
         <v>0</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="43"/>
-      <c r="X34" s="44" t="s">
-        <v>418</v>
+      <c r="W34" s="45"/>
+      <c r="X34" s="46" t="s">
+        <v>430</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>419</v>
+        <v>431</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>420</v>
-      </c>
-      <c r="AA34" s="43" t="s">
-        <v>288</v>
+        <v>432</v>
+      </c>
+      <c r="AA34" s="45" t="s">
+        <v>300</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="41">
+      <c r="A35" s="43">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>421</v>
+        <v>433</v>
       </c>
       <c r="C35" s="4">
         <v>10</v>
@@ -4852,33 +4894,33 @@
       <c r="Q35" s="4">
         <v>0</v>
       </c>
-      <c r="R35" s="42">
+      <c r="R35" s="44">
         <v>0</v>
       </c>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="43"/>
-      <c r="X35" s="44" t="s">
-        <v>422</v>
+      <c r="W35" s="45"/>
+      <c r="X35" s="46" t="s">
+        <v>434</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>423</v>
+        <v>435</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>424</v>
-      </c>
-      <c r="AA35" s="43" t="s">
-        <v>425</v>
+        <v>436</v>
+      </c>
+      <c r="AA35" s="45" t="s">
+        <v>437</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="41">
+      <c r="A36" s="43">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>426</v>
+        <v>438</v>
       </c>
       <c r="C36" s="4">
         <v>10</v>
@@ -4925,33 +4967,33 @@
       <c r="Q36" s="4">
         <v>0</v>
       </c>
-      <c r="R36" s="42">
+      <c r="R36" s="44">
         <v>0</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="43"/>
-      <c r="X36" s="44" t="s">
-        <v>427</v>
+      <c r="W36" s="45"/>
+      <c r="X36" s="46" t="s">
+        <v>439</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>428</v>
+        <v>440</v>
       </c>
       <c r="Z36" s="3" t="s">
-        <v>429</v>
-      </c>
-      <c r="AA36" s="43" t="s">
-        <v>430</v>
+        <v>441</v>
+      </c>
+      <c r="AA36" s="45" t="s">
+        <v>442</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="41">
+      <c r="A37" s="43">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>431</v>
+        <v>443</v>
       </c>
       <c r="C37" s="4">
         <v>10</v>
@@ -4998,33 +5040,33 @@
       <c r="Q37" s="4">
         <v>0</v>
       </c>
-      <c r="R37" s="42">
+      <c r="R37" s="44">
         <v>0</v>
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="43"/>
-      <c r="X37" s="44" t="s">
-        <v>432</v>
+      <c r="W37" s="45"/>
+      <c r="X37" s="46" t="s">
+        <v>444</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>433</v>
+        <v>445</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>434</v>
-      </c>
-      <c r="AA37" s="43" t="s">
-        <v>435</v>
+        <v>446</v>
+      </c>
+      <c r="AA37" s="45" t="s">
+        <v>447</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="41">
+      <c r="A38" s="43">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>436</v>
+        <v>448</v>
       </c>
       <c r="C38" s="4">
         <v>10</v>
@@ -5071,33 +5113,33 @@
       <c r="Q38" s="4">
         <v>0</v>
       </c>
-      <c r="R38" s="42">
+      <c r="R38" s="44">
         <v>0</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="43"/>
-      <c r="X38" s="44" t="s">
-        <v>437</v>
+      <c r="W38" s="45"/>
+      <c r="X38" s="46" t="s">
+        <v>449</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>438</v>
+        <v>450</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>439</v>
-      </c>
-      <c r="AA38" s="43" t="s">
-        <v>440</v>
+        <v>451</v>
+      </c>
+      <c r="AA38" s="45" t="s">
+        <v>452</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="41">
+      <c r="A39" s="43">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>441</v>
+        <v>453</v>
       </c>
       <c r="C39" s="4">
         <v>10</v>
@@ -5144,33 +5186,33 @@
       <c r="Q39" s="4">
         <v>0</v>
       </c>
-      <c r="R39" s="42">
+      <c r="R39" s="44">
         <v>0</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="43"/>
-      <c r="X39" s="44" t="s">
-        <v>442</v>
+      <c r="W39" s="45"/>
+      <c r="X39" s="46" t="s">
+        <v>454</v>
       </c>
       <c r="Y39" s="3" t="s">
-        <v>443</v>
+        <v>455</v>
       </c>
       <c r="Z39" s="3" t="s">
-        <v>444</v>
-      </c>
-      <c r="AA39" s="43" t="s">
-        <v>445</v>
+        <v>456</v>
+      </c>
+      <c r="AA39" s="45" t="s">
+        <v>457</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="41">
+      <c r="A40" s="43">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>446</v>
+        <v>458</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
@@ -5217,98 +5259,98 @@
       <c r="Q40" s="4">
         <v>0</v>
       </c>
-      <c r="R40" s="42">
+      <c r="R40" s="44">
         <v>0</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-      <c r="W40" s="43"/>
-      <c r="X40" s="44" t="s">
-        <v>447</v>
+      <c r="W40" s="45"/>
+      <c r="X40" s="46" t="s">
+        <v>459</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>448</v>
+        <v>460</v>
       </c>
       <c r="Z40" s="3" t="s">
-        <v>449</v>
-      </c>
-      <c r="AA40" s="43" t="s">
-        <v>271</v>
+        <v>461</v>
+      </c>
+      <c r="AA40" s="45" t="s">
+        <v>283</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="45">
+      <c r="A41" s="47">
         <v>38</v>
       </c>
-      <c r="B41" s="46" t="s">
-        <v>450</v>
-      </c>
-      <c r="C41" s="47">
-        <v>10</v>
-      </c>
-      <c r="D41" s="47">
-        <v>0</v>
-      </c>
-      <c r="E41" s="47">
-        <v>0</v>
-      </c>
-      <c r="F41" s="47">
-        <v>10</v>
-      </c>
-      <c r="G41" s="47">
-        <v>0</v>
-      </c>
-      <c r="H41" s="47">
-        <v>0</v>
-      </c>
-      <c r="I41" s="47">
-        <v>0</v>
-      </c>
-      <c r="J41" s="47">
+      <c r="B41" s="48" t="s">
+        <v>462</v>
+      </c>
+      <c r="C41" s="49">
+        <v>10</v>
+      </c>
+      <c r="D41" s="49">
+        <v>0</v>
+      </c>
+      <c r="E41" s="49">
+        <v>0</v>
+      </c>
+      <c r="F41" s="49">
+        <v>10</v>
+      </c>
+      <c r="G41" s="49">
+        <v>0</v>
+      </c>
+      <c r="H41" s="49">
+        <v>0</v>
+      </c>
+      <c r="I41" s="49">
+        <v>0</v>
+      </c>
+      <c r="J41" s="49">
         <v>2</v>
       </c>
-      <c r="K41" s="47">
-        <v>1</v>
-      </c>
-      <c r="L41" s="47">
-        <v>0</v>
-      </c>
-      <c r="M41" s="47">
-        <v>0</v>
-      </c>
-      <c r="N41" s="47">
-        <v>0</v>
-      </c>
-      <c r="O41" s="47">
-        <v>0</v>
-      </c>
-      <c r="P41" s="47">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="47">
-        <v>0</v>
-      </c>
-      <c r="R41" s="48">
-        <v>0</v>
-      </c>
-      <c r="S41" s="46"/>
-      <c r="T41" s="46"/>
-      <c r="U41" s="46"/>
-      <c r="V41" s="46"/>
-      <c r="W41" s="49"/>
-      <c r="X41" s="50" t="s">
-        <v>451</v>
-      </c>
-      <c r="Y41" s="46" t="s">
-        <v>452</v>
-      </c>
-      <c r="Z41" s="46" t="s">
-        <v>453</v>
-      </c>
-      <c r="AA41" s="49" t="s">
-        <v>288</v>
+      <c r="K41" s="49">
+        <v>1</v>
+      </c>
+      <c r="L41" s="49">
+        <v>0</v>
+      </c>
+      <c r="M41" s="49">
+        <v>0</v>
+      </c>
+      <c r="N41" s="49">
+        <v>0</v>
+      </c>
+      <c r="O41" s="49">
+        <v>0</v>
+      </c>
+      <c r="P41" s="49">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="49">
+        <v>0</v>
+      </c>
+      <c r="R41" s="50">
+        <v>0</v>
+      </c>
+      <c r="S41" s="48"/>
+      <c r="T41" s="48"/>
+      <c r="U41" s="48"/>
+      <c r="V41" s="48"/>
+      <c r="W41" s="51"/>
+      <c r="X41" s="52" t="s">
+        <v>463</v>
+      </c>
+      <c r="Y41" s="48" t="s">
+        <v>464</v>
+      </c>
+      <c r="Z41" s="48" t="s">
+        <v>465</v>
+      </c>
+      <c r="AA41" s="51" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>
@@ -5323,7 +5365,7 @@
   </sheetPr>
   <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0" tabSelected="1"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5344,31 +5386,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>216</v>
-      </c>
-      <c r="C1" s="13" t="s">
-        <v>217</v>
+        <v>227</v>
+      </c>
+      <c r="C1" s="11" t="s">
+        <v>228</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>218</v>
+        <v>229</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>219</v>
+        <v>230</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>220</v>
+        <v>231</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>221</v>
+        <v>232</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>222</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>223</v>
-      </c>
-      <c r="J1" s="13" t="s">
-        <v>224</v>
+        <v>233</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>234</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>235</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -5376,31 +5418,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>225</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>226</v>
+        <v>236</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>237</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>228</v>
+        <v>239</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>229</v>
+        <v>240</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>230</v>
+        <v>241</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>231</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>232</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>233</v>
+        <v>242</v>
+      </c>
+      <c r="I2" s="11" t="s">
+        <v>243</v>
+      </c>
+      <c r="J2" s="11" t="s">
+        <v>244</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -5410,7 +5452,7 @@
       <c r="B3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="13" t="s">
+      <c r="C3" s="11" t="s">
         <v>15</v>
       </c>
       <c r="D3" s="3" t="s">
@@ -5428,29 +5470,35 @@
       <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="13" t="s">
+      <c r="I3" s="11" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="13" t="s">
+      <c r="J3" s="11" t="s">
         <v>16</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
       <c r="A4" s="3" t="s">
-        <v>234</v>
+        <v>245</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>235</v>
+        <v>246</v>
       </c>
       <c r="C4" s="4">
         <v>99</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="E4" s="3"/>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
+        <v>182</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="G4" s="15" t="s">
+        <v>247</v>
+      </c>
       <c r="H4" s="3"/>
       <c r="I4" s="4">
         <v>1</v>
@@ -5487,85 +5535,85 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>159</v>
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>169</v>
       </c>
       <c r="C1" s="6" t="s">
-        <v>177</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>178</v>
-      </c>
-      <c r="E1" s="12" t="s">
-        <v>179</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>180</v>
-      </c>
-      <c r="G1" s="12" t="s">
-        <v>181</v>
+        <v>188</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>189</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>190</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="G1" s="14" t="s">
+        <v>192</v>
       </c>
       <c r="H1" s="5" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="I1" s="5" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>160</v>
+      <c r="A2" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>171</v>
       </c>
       <c r="C2" s="6" t="s">
-        <v>184</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>185</v>
-      </c>
-      <c r="E2" s="12" t="s">
-        <v>186</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>187</v>
-      </c>
-      <c r="G2" s="12" t="s">
-        <v>188</v>
+        <v>195</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>196</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>197</v>
+      </c>
+      <c r="F2" s="14" t="s">
+        <v>198</v>
+      </c>
+      <c r="G2" s="14" t="s">
+        <v>199</v>
       </c>
       <c r="H2" s="5"/>
       <c r="I2" s="5" t="s">
-        <v>189</v>
+        <v>200</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="12" t="s">
+      <c r="A3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="12" t="s">
+      <c r="B3" s="14" t="s">
         <v>13</v>
       </c>
       <c r="C3" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="12" t="s">
+      <c r="D3" s="14" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="14" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="12" t="s">
+      <c r="F3" s="14" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="12" t="s">
+      <c r="G3" s="14" t="s">
         <v>48</v>
       </c>
       <c r="H3" s="5" t="s">
-        <v>190</v>
+        <v>201</v>
       </c>
       <c r="I3" s="5" t="s">
         <v>49</v>
@@ -5573,135 +5621,135 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="5" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C4" s="6">
         <v>1</v>
       </c>
       <c r="D4" s="5" t="s">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>192</v>
+        <v>203</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>193</v>
+        <v>204</v>
       </c>
       <c r="H4" s="5" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="I4" s="5" t="s">
-        <v>195</v>
+        <v>206</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="5" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C5" s="6">
         <v>1</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>196</v>
+        <v>207</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>197</v>
+        <v>208</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="H5" s="5" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="I5" s="5" t="s">
-        <v>199</v>
+        <v>210</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C6" s="6">
         <v>1</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>200</v>
+        <v>211</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>201</v>
+        <v>212</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>202</v>
+        <v>213</v>
       </c>
       <c r="H6" s="5" t="s">
-        <v>194</v>
+        <v>205</v>
       </c>
       <c r="I6" s="5" t="s">
-        <v>203</v>
+        <v>214</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="5" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C7" s="6">
         <v>1</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>204</v>
+        <v>215</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="F7" s="5" t="s">
+        <v>216</v>
+      </c>
+      <c r="G7" s="5" t="s">
+        <v>213</v>
+      </c>
+      <c r="H7" s="5" t="s">
         <v>205</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>202</v>
-      </c>
-      <c r="H7" s="5" t="s">
-        <v>194</v>
-      </c>
       <c r="I7" s="5" t="s">
-        <v>206</v>
+        <v>217</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="5" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C8" s="6">
         <v>2</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>207</v>
+        <v>218</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>21</v>
@@ -5710,27 +5758,27 @@
         <v>17</v>
       </c>
       <c r="H8" s="5" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="I8" s="5" t="s">
-        <v>209</v>
+        <v>220</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="5" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C9" s="6">
         <v>2</v>
       </c>
       <c r="D9" s="5" t="s">
-        <v>210</v>
+        <v>221</v>
       </c>
       <c r="E9" s="5" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>21</v>
@@ -5739,27 +5787,27 @@
         <v>17</v>
       </c>
       <c r="H9" s="5" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="I9" s="5" t="s">
-        <v>211</v>
+        <v>222</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="5" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C10" s="6">
         <v>2</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>212</v>
+        <v>223</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>21</v>
@@ -5768,27 +5816,27 @@
         <v>17</v>
       </c>
       <c r="H10" s="5" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="I10" s="5" t="s">
-        <v>213</v>
+        <v>224</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C11" s="6">
         <v>2</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>214</v>
+        <v>225</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>21</v>
@@ -5797,10 +5845,10 @@
         <v>17</v>
       </c>
       <c r="H11" s="5" t="s">
-        <v>208</v>
+        <v>219</v>
       </c>
       <c r="I11" s="5" t="s">
-        <v>215</v>
+        <v>226</v>
       </c>
     </row>
   </sheetData>
@@ -5815,7 +5863,7 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0" tabSelected="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -5830,99 +5878,99 @@
     <col min="9" max="9" style="8" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
-    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
       <c r="A1" s="9" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="9" t="s">
-        <v>159</v>
-      </c>
-      <c r="C1" s="11" t="s">
+        <v>169</v>
+      </c>
+      <c r="C1" s="13" t="s">
         <v>17</v>
       </c>
       <c r="D1" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="13" t="s">
         <v>23</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="13" t="s">
         <v>25</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="13" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="I1" s="13" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C2" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="C2" s="13" t="s">
         <v>18</v>
       </c>
       <c r="D2" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="13" t="s">
         <v>28</v>
       </c>
-      <c r="I2" s="11" t="s">
+      <c r="I2" s="13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
       <c r="A3" s="1" t="s">
         <v>13</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="13" t="s">
         <v>14</v>
       </c>
       <c r="D3" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="F3" s="11" t="s">
+      <c r="F3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="G3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="H3" s="13" t="s">
         <v>14</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="I3" s="13" t="s">
         <v>14</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="3" t="s">
-        <v>161</v>
+        <v>172</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>162</v>
+        <v>173</v>
       </c>
       <c r="C4" s="4">
         <v>100</v>
@@ -5946,12 +5994,12 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="3" t="s">
-        <v>163</v>
+        <v>174</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>164</v>
+        <v>175</v>
       </c>
       <c r="C5" s="4">
         <v>100</v>
@@ -5975,12 +6023,12 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="3" t="s">
-        <v>165</v>
+        <v>176</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>166</v>
+        <v>177</v>
       </c>
       <c r="C6" s="4">
         <v>100</v>
@@ -6004,12 +6052,12 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="3" t="s">
-        <v>167</v>
+        <v>178</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>168</v>
+        <v>179</v>
       </c>
       <c r="C7" s="4">
         <v>100</v>
@@ -6033,12 +6081,12 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="3" t="s">
-        <v>169</v>
+        <v>180</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>170</v>
+        <v>181</v>
       </c>
       <c r="C8" s="4">
         <v>100</v>
@@ -6062,12 +6110,12 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="3" t="s">
-        <v>171</v>
+        <v>182</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>172</v>
+        <v>183</v>
       </c>
       <c r="C9" s="4">
         <v>100</v>
@@ -6091,12 +6139,12 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="3" t="s">
-        <v>173</v>
+        <v>184</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>174</v>
+        <v>185</v>
       </c>
       <c r="C10" s="4">
         <v>100</v>
@@ -6120,12 +6168,12 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="3" t="s">
-        <v>175</v>
+        <v>186</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>176</v>
+        <v>187</v>
       </c>
       <c r="C11" s="4">
         <v>100</v>
@@ -6159,9 +6207,11 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:K22"/>
+  <dimension ref="A1:M22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane state="frozen" activePane="bottomLeft" topLeftCell="A4" ySplit="3" xSplit="0"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -6169,13 +6219,15 @@
     <col min="2" max="2" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="7" width="9.290714285714287" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="8" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="7" width="22.862142857142857" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="7" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="8" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="12" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="12" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="7" width="9.290714285714287" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="8" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="7" width="42.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="7" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="8" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="8" width="8.862142857142858" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -6191,25 +6243,31 @@
       <c r="D1" s="9" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="9" t="s">
+      <c r="E1" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="9" t="s">
         <v>34</v>
       </c>
-      <c r="F1" s="10" t="s">
-        <v>72</v>
-      </c>
-      <c r="G1" s="9" t="s">
+      <c r="I1" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="J1" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="H1" s="9" t="s">
-        <v>73</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>75</v>
-      </c>
-      <c r="K1" s="10" t="s">
+      <c r="K1" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="L1" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="M1" s="10" t="s">
         <v>5</v>
       </c>
     </row>
@@ -6226,25 +6284,31 @@
       <c r="D2" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="E2" s="9" t="s">
+      <c r="E2" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="F2" s="9" t="s">
+        <v>79</v>
+      </c>
+      <c r="G2" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="H2" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="F2" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="I2" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="J2" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="H2" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="I2" s="9" t="s">
-        <v>78</v>
-      </c>
-      <c r="J2" s="10" t="s">
-        <v>79</v>
-      </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L2" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M2" s="10" t="s">
         <v>11</v>
       </c>
     </row>
@@ -6261,58 +6325,70 @@
       <c r="D3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F3" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="H3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="I3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="J3" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="H3" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="I3" s="9" t="s">
+      <c r="K3" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="L3" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="K3" s="10" t="s">
+      <c r="M3" s="10" t="s">
         <v>16</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D4" s="3"/>
-      <c r="E4" s="3"/>
-      <c r="F4" s="4">
-        <v>0</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I4" s="3"/>
-      <c r="J4" s="4">
-        <v>0</v>
-      </c>
-      <c r="K4" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+      <c r="E4" s="11">
+        <v>1</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G4" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H4" s="3"/>
+      <c r="I4" s="4">
+        <v>0</v>
+      </c>
+      <c r="J4" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="K4" s="3"/>
+      <c r="L4" s="4">
+        <v>0</v>
+      </c>
+      <c r="M4" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="3" t="s">
         <v>50</v>
       </c>
@@ -6320,493 +6396,609 @@
         <v>51</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="F5" s="4">
-        <v>0</v>
-      </c>
-      <c r="G5" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3" t="s">
+      <c r="E5" s="11">
+        <v>4</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G5" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H5" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" s="4">
+        <v>0</v>
+      </c>
+      <c r="J5" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="L5" s="4">
+        <v>3</v>
+      </c>
+      <c r="M5" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
+      <c r="A6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>86</v>
       </c>
-      <c r="J5" s="4">
+      <c r="D6" s="3"/>
+      <c r="E6" s="11">
+        <v>1</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="G6" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="I6" s="4">
+        <v>0</v>
+      </c>
+      <c r="J6" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="L6" s="4">
+        <v>2</v>
+      </c>
+      <c r="M6" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
+      <c r="A7" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D7" s="3"/>
+      <c r="E7" s="11">
+        <v>5</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="G7" s="11">
+        <v>0</v>
+      </c>
+      <c r="H7" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="I7" s="4">
+        <v>1</v>
+      </c>
+      <c r="J7" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="K7" s="3"/>
+      <c r="L7" s="4">
+        <v>0</v>
+      </c>
+      <c r="M7" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
+      <c r="A8" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D8" s="3"/>
+      <c r="E8" s="11">
+        <v>1</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="G8" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="I8" s="4">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="K8" s="3"/>
+      <c r="L8" s="4">
+        <v>0</v>
+      </c>
+      <c r="M8" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
+      <c r="A9" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D9" s="3"/>
+      <c r="E9" s="11">
+        <v>1</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G9" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="3"/>
+      <c r="I9" s="4">
+        <v>0</v>
+      </c>
+      <c r="J9" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="K9" s="3"/>
+      <c r="L9" s="4">
+        <v>0</v>
+      </c>
+      <c r="M9" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
+      <c r="A10" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D10" s="3"/>
+      <c r="E10" s="11">
         <v>3</v>
       </c>
-      <c r="K5" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="3" t="s">
+      <c r="F10" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="B6" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D6" s="3"/>
-      <c r="E6" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="F6" s="4">
-        <v>0</v>
-      </c>
-      <c r="G6" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>91</v>
-      </c>
-      <c r="J6" s="4">
+      <c r="H10" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="I10" s="4">
+        <v>0</v>
+      </c>
+      <c r="J10" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="K10" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="L10" s="4">
+        <v>4</v>
+      </c>
+      <c r="M10" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
+      <c r="A11" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="3"/>
+      <c r="E11" s="11">
+        <v>1</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G11" s="11" t="s">
+        <v>105</v>
+      </c>
+      <c r="H11" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="I11" s="4">
+        <v>0</v>
+      </c>
+      <c r="J11" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="L11" s="4">
+        <v>3</v>
+      </c>
+      <c r="M11" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
+      <c r="A12" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D12" s="3"/>
+      <c r="E12" s="11">
+        <v>1</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G12" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H12" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="I12" s="4">
+        <v>0</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="L12" s="4">
         <v>2</v>
       </c>
-      <c r="K6" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D7" s="3"/>
-      <c r="E7" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="F7" s="4">
-        <v>1</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="4">
-        <v>0</v>
-      </c>
-      <c r="K7" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="B8" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D8" s="3"/>
-      <c r="E8" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="F8" s="4">
-        <v>1</v>
-      </c>
-      <c r="G8" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="4">
-        <v>0</v>
-      </c>
-      <c r="K8" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="B9" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
-      <c r="F9" s="4">
-        <v>0</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="4">
-        <v>0</v>
-      </c>
-      <c r="K9" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="B10" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3" t="s">
+      <c r="M12" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
+      <c r="A13" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D13" s="3"/>
+      <c r="E13" s="11">
+        <v>3</v>
+      </c>
+      <c r="F13" s="3" t="s">
         <v>105</v>
       </c>
-      <c r="F10" s="4">
-        <v>0</v>
-      </c>
-      <c r="G10" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="J10" s="4">
-        <v>4</v>
-      </c>
-      <c r="K10" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="F11" s="4">
-        <v>0</v>
-      </c>
-      <c r="G11" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I11" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="J11" s="4">
+      <c r="G13" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H13" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="I13" s="4">
+        <v>0</v>
+      </c>
+      <c r="J13" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="K13" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="L13" s="4">
+        <v>2</v>
+      </c>
+      <c r="M13" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
+      <c r="A14" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D14" s="3"/>
+      <c r="E14" s="11">
+        <v>1</v>
+      </c>
+      <c r="F14" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G14" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H14" s="3"/>
+      <c r="I14" s="4">
+        <v>0</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="K14" s="3"/>
+      <c r="L14" s="4">
+        <v>0</v>
+      </c>
+      <c r="M14" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
+      <c r="A15" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D15" s="3"/>
+      <c r="E15" s="11">
         <v>3</v>
       </c>
-      <c r="K11" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="3" t="s">
+      <c r="F15" s="3" t="s">
         <v>113</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="F12" s="4">
-        <v>0</v>
-      </c>
-      <c r="G12" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I12" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="J12" s="4">
+      <c r="G15" s="11" t="s">
+        <v>113</v>
+      </c>
+      <c r="H15" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="I15" s="4">
+        <v>0</v>
+      </c>
+      <c r="J15" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="K15" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L15" s="4">
+        <v>3</v>
+      </c>
+      <c r="M15" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
+      <c r="A16" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D16" s="3"/>
+      <c r="E16" s="11">
+        <v>3</v>
+      </c>
+      <c r="F16" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G16" s="11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="I16" s="4">
+        <v>0</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="K16" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="L16" s="4">
+        <v>3</v>
+      </c>
+      <c r="M16" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
+      <c r="A17" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D17" s="3"/>
+      <c r="E17" s="11">
+        <v>5</v>
+      </c>
+      <c r="F17" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" s="11">
+        <v>0</v>
+      </c>
+      <c r="H17" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I17" s="4">
+        <v>0</v>
+      </c>
+      <c r="J17" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="L17" s="4">
         <v>2</v>
       </c>
-      <c r="K12" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="F13" s="4">
-        <v>0</v>
-      </c>
-      <c r="G13" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="J13" s="4">
+      <c r="M17" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
+      <c r="A18" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D18" s="3"/>
+      <c r="E18" s="11">
+        <v>5</v>
+      </c>
+      <c r="F18" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="G18" s="11">
+        <v>0</v>
+      </c>
+      <c r="H18" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="I18" s="4">
+        <v>1</v>
+      </c>
+      <c r="J18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="K18" s="3"/>
+      <c r="L18" s="4">
         <v>2</v>
       </c>
-      <c r="K13" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B14" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C14" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="4">
-        <v>0</v>
-      </c>
-      <c r="G14" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I14" s="3"/>
-      <c r="J14" s="4">
-        <v>0</v>
-      </c>
-      <c r="K14" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="B15" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="F15" s="4">
-        <v>0</v>
-      </c>
-      <c r="G15" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J15" s="4">
+      <c r="M18" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
+      <c r="A19" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D19" s="3"/>
+      <c r="E19" s="11">
+        <v>1</v>
+      </c>
+      <c r="F19" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G19" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H19" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="I19" s="4">
+        <v>0</v>
+      </c>
+      <c r="J19" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="K19" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L19" s="4">
         <v>3</v>
       </c>
-      <c r="K15" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B16" s="3" t="s">
-        <v>132</v>
-      </c>
-      <c r="C16" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="F16" s="4">
-        <v>0</v>
-      </c>
-      <c r="G16" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="J16" s="4">
+      <c r="M19" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
+      <c r="A20" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D20" s="3"/>
+      <c r="E20" s="11">
+        <v>1</v>
+      </c>
+      <c r="F20" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G20" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="I20" s="4">
+        <v>0</v>
+      </c>
+      <c r="J20" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="K20" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="L20" s="4">
         <v>3</v>
       </c>
-      <c r="K16" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B17" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="F17" s="4">
-        <v>0</v>
-      </c>
-      <c r="G17" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3" t="s">
-        <v>140</v>
-      </c>
-      <c r="J17" s="4">
-        <v>2</v>
-      </c>
-      <c r="K17" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B18" s="3" t="s">
-        <v>142</v>
-      </c>
-      <c r="C18" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="F18" s="4">
-        <v>1</v>
-      </c>
-      <c r="G18" s="3" t="s">
-        <v>144</v>
-      </c>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="4">
-        <v>2</v>
-      </c>
-      <c r="K18" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>146</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="F19" s="4">
-        <v>0</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>147</v>
-      </c>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J19" s="4">
-        <v>3</v>
-      </c>
-      <c r="K19" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>149</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3" t="s">
-        <v>150</v>
-      </c>
-      <c r="F20" s="4">
-        <v>0</v>
-      </c>
-      <c r="G20" s="3" t="s">
-        <v>151</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="J20" s="4">
-        <v>3</v>
-      </c>
-      <c r="K20" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
+      <c r="M20" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
       <c r="A21" s="3" t="s">
         <v>60</v>
       </c>
@@ -6814,55 +7006,71 @@
         <v>61</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D21" s="3"/>
-      <c r="E21" s="3" t="s">
-        <v>152</v>
-      </c>
-      <c r="F21" s="4">
-        <v>0</v>
-      </c>
-      <c r="G21" s="3" t="s">
-        <v>153</v>
-      </c>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3" t="s">
-        <v>154</v>
-      </c>
-      <c r="J21" s="4">
+      <c r="E21" s="11">
+        <v>1</v>
+      </c>
+      <c r="F21" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G21" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H21" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="I21" s="4">
+        <v>0</v>
+      </c>
+      <c r="J21" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="K21" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="L21" s="4">
         <v>2</v>
       </c>
-      <c r="K21" s="4">
-        <v>1</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
+      <c r="M21" s="4">
+        <v>1</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75">
       <c r="A22" s="3" t="s">
-        <v>155</v>
+        <v>165</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>156</v>
+        <v>166</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="D22" s="3"/>
-      <c r="E22" s="3" t="s">
-        <v>157</v>
-      </c>
-      <c r="F22" s="4">
-        <v>1</v>
-      </c>
-      <c r="G22" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="4">
-        <v>0</v>
-      </c>
-      <c r="K22" s="4">
+      <c r="E22" s="11">
+        <v>1</v>
+      </c>
+      <c r="F22" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="G22" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="H22" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="I22" s="4">
+        <v>1</v>
+      </c>
+      <c r="J22" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="K22" s="3"/>
+      <c r="L22" s="4">
+        <v>0</v>
+      </c>
+      <c r="M22" s="4">
         <v>1</v>
       </c>
     </row>
@@ -7255,7 +7463,7 @@
         <v>0</v>
       </c>
     </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="20.25">
       <c r="A5" s="5" t="s">
         <v>19</v>
       </c>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowHeight="18375" activeTab="4"/>
+    <workbookView windowWidth="20745" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="467">
   <si>
     <t>ID</t>
   </si>
@@ -806,7 +806,7 @@
     <t>属性组</t>
   </si>
   <si>
-    <t>技能组</t>
+    <t>技能组*arrow_beam*arrow_entangle*arrow_poison*arrow_shower</t>
   </si>
   <si>
     <t>技能资源组</t>
@@ -839,7 +839,7 @@
     <t>health*rage</t>
   </si>
   <si>
-    <t>0,-128</t>
+    <t>0,-192</t>
   </si>
   <si>
     <t>res://scenes/character/resources/animation/hero/animation_library_crystal_mauler.res</t>
@@ -854,7 +854,7 @@
     <t>res://assets/texture/icon/character_profile_picture/leaf_ranger.png</t>
   </si>
   <si>
-    <t>arrow_attack*arrow_beam*arrow_entangle*arrow_poison*arrow_shower</t>
+    <t>arrow_attack</t>
   </si>
   <si>
     <t>health*enery</t>
@@ -911,7 +911,7 @@
     <t>health</t>
   </si>
   <si>
-    <t>0,-59</t>
+    <t>0,-70</t>
   </si>
   <si>
     <t>res://scenes/character/resources/animation/enemy/animation_library_flying_eye.res</t>
@@ -1143,9 +1143,6 @@
   </si>
   <si>
     <t>retaliate_effect</t>
-  </si>
-  <si>
-    <t>arrow_attack</t>
   </si>
   <si>
     <t>远程攻击</t>
@@ -1449,7 +1446,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="25">
+  <fonts count="24">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1482,13 +1479,6 @@
       <color rgb="FF000000"/>
       <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -2307,148 +2297,148 @@
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="41" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="42" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="6" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="23" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="24" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -6164,8 +6154,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6853,10 +6843,10 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="Q14" sqref="Q14"/>
+      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7235,10 +7225,10 @@
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:15">
       <c r="A9" s="14" t="s">
+        <v>273</v>
+      </c>
+      <c r="B9" s="14" t="s">
         <v>370</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>371</v>
       </c>
       <c r="C9" s="14" t="s">
         <v>346</v>
@@ -7258,7 +7248,7 @@
         <v>0</v>
       </c>
       <c r="J9" s="14" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="K9" s="14"/>
       <c r="L9" s="16">
@@ -7276,10 +7266,10 @@
     </row>
     <row r="10" ht="21" customHeight="1" spans="1:15">
       <c r="A10" s="14" t="s">
+        <v>372</v>
+      </c>
+      <c r="B10" s="14" t="s">
         <v>373</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>374</v>
       </c>
       <c r="C10" s="14" t="s">
         <v>346</v>
@@ -7289,22 +7279,22 @@
         <v>3</v>
       </c>
       <c r="F10" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G10" s="15" t="s">
         <v>347</v>
       </c>
       <c r="H10" s="14" t="s">
+        <v>375</v>
+      </c>
+      <c r="I10" s="16">
+        <v>0</v>
+      </c>
+      <c r="J10" s="14" t="s">
         <v>376</v>
       </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14" t="s">
+      <c r="K10" s="14" t="s">
         <v>377</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>378</v>
       </c>
       <c r="L10" s="16">
         <v>4</v>
@@ -7321,10 +7311,10 @@
     </row>
     <row r="11" ht="21" customHeight="1" spans="1:15">
       <c r="A11" s="14" t="s">
+        <v>378</v>
+      </c>
+      <c r="B11" s="14" t="s">
         <v>379</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>380</v>
       </c>
       <c r="C11" s="14" t="s">
         <v>346</v>
@@ -7334,22 +7324,22 @@
         <v>1</v>
       </c>
       <c r="F11" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G11" s="15" t="s">
         <v>367</v>
       </c>
       <c r="H11" s="14" t="s">
+        <v>380</v>
+      </c>
+      <c r="I11" s="16">
+        <v>0</v>
+      </c>
+      <c r="J11" s="14" t="s">
         <v>381</v>
       </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14" t="s">
+      <c r="K11" s="14" t="s">
         <v>382</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>383</v>
       </c>
       <c r="L11" s="16">
         <v>3</v>
@@ -7366,10 +7356,10 @@
     </row>
     <row r="12" ht="21" customHeight="1" spans="1:15">
       <c r="A12" s="14" t="s">
+        <v>383</v>
+      </c>
+      <c r="B12" s="14" t="s">
         <v>384</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>385</v>
       </c>
       <c r="C12" s="14" t="s">
         <v>346</v>
@@ -7379,22 +7369,22 @@
         <v>1</v>
       </c>
       <c r="F12" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G12" s="15" t="s">
+        <v>385</v>
+      </c>
+      <c r="H12" s="14" t="s">
         <v>386</v>
       </c>
-      <c r="H12" s="14" t="s">
+      <c r="I12" s="16">
+        <v>0</v>
+      </c>
+      <c r="J12" s="14" t="s">
         <v>387</v>
       </c>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14" t="s">
+      <c r="K12" s="14" t="s">
         <v>388</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>389</v>
       </c>
       <c r="L12" s="16">
         <v>2</v>
@@ -7411,10 +7401,10 @@
     </row>
     <row r="13" ht="21" customHeight="1" spans="1:15">
       <c r="A13" s="14" t="s">
+        <v>389</v>
+      </c>
+      <c r="B13" s="14" t="s">
         <v>390</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>391</v>
       </c>
       <c r="C13" s="14" t="s">
         <v>346</v>
@@ -7430,16 +7420,16 @@
         <v>347</v>
       </c>
       <c r="H13" s="14" t="s">
+        <v>391</v>
+      </c>
+      <c r="I13" s="16">
+        <v>0</v>
+      </c>
+      <c r="J13" s="14" t="s">
         <v>392</v>
       </c>
-      <c r="I13" s="16">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14" t="s">
+      <c r="K13" s="14" t="s">
         <v>393</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>394</v>
       </c>
       <c r="L13" s="16">
         <v>2</v>
@@ -7456,10 +7446,10 @@
     </row>
     <row r="14" ht="21" customHeight="1" spans="1:15">
       <c r="A14" s="14" t="s">
+        <v>394</v>
+      </c>
+      <c r="B14" s="14" t="s">
         <v>395</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>396</v>
       </c>
       <c r="C14" s="14" t="s">
         <v>346</v>
@@ -7479,7 +7469,7 @@
         <v>0</v>
       </c>
       <c r="J14" s="14" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="K14" s="14"/>
       <c r="L14" s="16">
@@ -7497,10 +7487,10 @@
     </row>
     <row r="15" ht="21" customHeight="1" spans="1:15">
       <c r="A15" s="14" t="s">
+        <v>397</v>
+      </c>
+      <c r="B15" s="14" t="s">
         <v>398</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>399</v>
       </c>
       <c r="C15" s="14" t="s">
         <v>346</v>
@@ -7510,22 +7500,22 @@
         <v>3</v>
       </c>
       <c r="F15" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G15" s="15" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="H15" s="14" t="s">
+        <v>399</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>400</v>
       </c>
-      <c r="I15" s="16">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14" t="s">
+      <c r="K15" s="14" t="s">
         <v>401</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>402</v>
       </c>
       <c r="L15" s="16">
         <v>3</v>
@@ -7542,10 +7532,10 @@
     </row>
     <row r="16" ht="21" customHeight="1" spans="1:15">
       <c r="A16" s="14" t="s">
+        <v>402</v>
+      </c>
+      <c r="B16" s="14" t="s">
         <v>403</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>404</v>
       </c>
       <c r="C16" s="14" t="s">
         <v>346</v>
@@ -7555,22 +7545,22 @@
         <v>3</v>
       </c>
       <c r="F16" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G16" s="15" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="H16" s="14" t="s">
+        <v>404</v>
+      </c>
+      <c r="I16" s="16">
+        <v>0</v>
+      </c>
+      <c r="J16" s="14" t="s">
         <v>405</v>
       </c>
-      <c r="I16" s="16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14" t="s">
+      <c r="K16" s="14" t="s">
         <v>406</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>407</v>
       </c>
       <c r="L16" s="16">
         <v>3</v>
@@ -7587,10 +7577,10 @@
     </row>
     <row r="17" ht="21" customHeight="1" spans="1:15">
       <c r="A17" s="14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" s="14" t="s">
         <v>408</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>409</v>
       </c>
       <c r="C17" s="14" t="s">
         <v>346</v>
@@ -7600,22 +7590,22 @@
         <v>5</v>
       </c>
       <c r="F17" s="14" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G17" s="15">
         <v>0</v>
       </c>
       <c r="H17" s="14" t="s">
+        <v>409</v>
+      </c>
+      <c r="I17" s="16">
+        <v>0</v>
+      </c>
+      <c r="J17" s="14" t="s">
         <v>410</v>
       </c>
-      <c r="I17" s="16">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14" t="s">
+      <c r="K17" s="14" t="s">
         <v>411</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>412</v>
       </c>
       <c r="L17" s="16">
         <v>2</v>
@@ -7632,10 +7622,10 @@
     </row>
     <row r="18" ht="21" customHeight="1" spans="1:15">
       <c r="A18" s="14" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" s="14" t="s">
         <v>413</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>414</v>
       </c>
       <c r="C18" s="14" t="s">
         <v>346</v>
@@ -7645,19 +7635,19 @@
         <v>5</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G18" s="15">
         <v>0</v>
       </c>
       <c r="H18" s="14" t="s">
+        <v>414</v>
+      </c>
+      <c r="I18" s="16">
+        <v>1</v>
+      </c>
+      <c r="J18" s="14" t="s">
         <v>415</v>
-      </c>
-      <c r="I18" s="16">
-        <v>1</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>416</v>
       </c>
       <c r="K18" s="14"/>
       <c r="L18" s="16">
@@ -7675,10 +7665,10 @@
     </row>
     <row r="19" ht="21" customHeight="1" spans="1:15">
       <c r="A19" s="14" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="14" t="s">
         <v>417</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>418</v>
       </c>
       <c r="C19" s="14" t="s">
         <v>346</v>
@@ -7694,16 +7684,16 @@
         <v>347</v>
       </c>
       <c r="H19" s="14" t="s">
+        <v>418</v>
+      </c>
+      <c r="I19" s="16">
+        <v>0</v>
+      </c>
+      <c r="J19" s="14" t="s">
         <v>419</v>
       </c>
-      <c r="I19" s="16">
-        <v>0</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>420</v>
-      </c>
       <c r="K19" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L19" s="16">
         <v>3</v>
@@ -7720,10 +7710,10 @@
     </row>
     <row r="20" ht="21" customHeight="1" spans="1:15">
       <c r="A20" s="14" t="s">
+        <v>420</v>
+      </c>
+      <c r="B20" s="14" t="s">
         <v>421</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>422</v>
       </c>
       <c r="C20" s="14" t="s">
         <v>346</v>
@@ -7739,16 +7729,16 @@
         <v>347</v>
       </c>
       <c r="H20" s="14" t="s">
+        <v>422</v>
+      </c>
+      <c r="I20" s="16">
+        <v>0</v>
+      </c>
+      <c r="J20" s="14" t="s">
         <v>423</v>
       </c>
-      <c r="I20" s="16">
-        <v>0</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>424</v>
-      </c>
       <c r="K20" s="14" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="L20" s="16">
         <v>3</v>
@@ -7765,10 +7755,10 @@
     </row>
     <row r="21" ht="21" customHeight="1" spans="1:15">
       <c r="A21" s="14" t="s">
+        <v>424</v>
+      </c>
+      <c r="B21" s="14" t="s">
         <v>425</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>426</v>
       </c>
       <c r="C21" s="14" t="s">
         <v>346</v>
@@ -7784,16 +7774,16 @@
         <v>347</v>
       </c>
       <c r="H21" s="14" t="s">
+        <v>426</v>
+      </c>
+      <c r="I21" s="16">
+        <v>0</v>
+      </c>
+      <c r="J21" s="14" t="s">
         <v>427</v>
       </c>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
-      <c r="J21" s="14" t="s">
+      <c r="K21" s="14" t="s">
         <v>428</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>429</v>
       </c>
       <c r="L21" s="16">
         <v>2</v>
@@ -7810,10 +7800,10 @@
     </row>
     <row r="22" ht="21.75" customHeight="1" spans="1:15">
       <c r="A22" s="14" t="s">
+        <v>429</v>
+      </c>
+      <c r="B22" s="14" t="s">
         <v>430</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>431</v>
       </c>
       <c r="C22" s="14" t="s">
         <v>346</v>
@@ -7829,13 +7819,13 @@
         <v>347</v>
       </c>
       <c r="H22" s="14" t="s">
+        <v>431</v>
+      </c>
+      <c r="I22" s="16">
+        <v>1</v>
+      </c>
+      <c r="J22" s="14" t="s">
         <v>432</v>
-      </c>
-      <c r="I22" s="16">
-        <v>1</v>
-      </c>
-      <c r="J22" s="14" t="s">
-        <v>433</v>
       </c>
       <c r="K22" s="14"/>
       <c r="L22" s="16">
@@ -7899,16 +7889,16 @@
         <v>324</v>
       </c>
       <c r="G1" s="9" t="s">
+        <v>433</v>
+      </c>
+      <c r="H1" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="I1" s="10" t="s">
         <v>435</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="J1" s="10" t="s">
         <v>436</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>437</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:10">
@@ -7931,14 +7921,14 @@
         <v>338</v>
       </c>
       <c r="G2" s="9" t="s">
+        <v>437</v>
+      </c>
+      <c r="H2" s="10" t="s">
         <v>438</v>
-      </c>
-      <c r="H2" s="10" t="s">
-        <v>439</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:10">
@@ -7981,17 +7971,17 @@
         <v>350</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>442</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="G4" s="5" t="s">
         <v>443</v>
-      </c>
-      <c r="G4" s="5" t="s">
-        <v>444</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -8005,23 +7995,23 @@
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:10">
       <c r="A5" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="B5" s="5" t="s">
         <v>445</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>446</v>
-      </c>
       <c r="C5" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -8035,23 +8025,23 @@
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:10">
       <c r="A6" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B6" s="5" t="s">
         <v>425</v>
       </c>
-      <c r="B6" s="5" t="s">
-        <v>426</v>
-      </c>
       <c r="C6" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="F6" s="5" t="s">
         <v>448</v>
       </c>
-      <c r="F6" s="5" t="s">
-        <v>449</v>
-      </c>
       <c r="G6" s="5" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="H6" s="6">
         <v>1</v>
@@ -8065,23 +8055,23 @@
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="B7" s="5" t="s">
         <v>450</v>
       </c>
-      <c r="B7" s="5" t="s">
-        <v>451</v>
-      </c>
       <c r="C7" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="F7" s="5" t="s">
         <v>452</v>
       </c>
-      <c r="F7" s="5" t="s">
-        <v>453</v>
-      </c>
       <c r="G7" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -8095,23 +8085,23 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:10">
       <c r="A8" s="5" t="s">
+        <v>453</v>
+      </c>
+      <c r="B8" s="5" t="s">
         <v>454</v>
       </c>
-      <c r="B8" s="5" t="s">
-        <v>455</v>
-      </c>
       <c r="C8" s="5" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
+        <v>455</v>
+      </c>
+      <c r="F8" s="5" t="s">
         <v>456</v>
       </c>
-      <c r="F8" s="5" t="s">
-        <v>457</v>
-      </c>
       <c r="G8" s="5" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -8152,22 +8142,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
+        <v>457</v>
+      </c>
+      <c r="C1" s="4" t="s">
         <v>458</v>
       </c>
-      <c r="C1" s="4" t="s">
+      <c r="D1" s="4" t="s">
         <v>459</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="E1" s="4" t="s">
         <v>460</v>
-      </c>
-      <c r="E1" s="4" t="s">
-        <v>461</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>327</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:7">
@@ -8175,22 +8165,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
+        <v>462</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>463</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="D2" s="4" t="s">
         <v>464</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="E2" s="4" t="s">
         <v>465</v>
-      </c>
-      <c r="E2" s="4" t="s">
-        <v>466</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>341</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:7">

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20745" activeTab="2"/>
+    <workbookView windowWidth="20745" windowHeight="9330" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="467">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="468">
   <si>
     <t>ID</t>
   </si>
@@ -797,7 +797,9 @@
     <t>角色名</t>
   </si>
   <si>
-    <t>角色阵营1玩家2敌人</t>
+    <t>角色阵营
+1玩家
+2敌人</t>
   </si>
   <si>
     <t>角色头像</t>
@@ -1007,331 +1009,334 @@
     <t>is_auto_cast</t>
   </si>
   <si>
+    <t>action_tree_id</t>
+  </si>
+  <si>
+    <t>ability_costs</t>
+  </si>
+  <si>
+    <t>cooldown</t>
+  </si>
+  <si>
+    <t>is_show</t>
+  </si>
+  <si>
+    <t>is_melee</t>
+  </si>
+  <si>
+    <t>use_count</t>
+  </si>
+  <si>
+    <t>技能名称</t>
+  </si>
+  <si>
+    <t>技能标签</t>
+  </si>
+  <si>
+    <t>技能描述</t>
+  </si>
+  <si>
+    <t>目标范围&amp;#10;0 NONE,   ## 无目标&amp;#10;1 SINGLE_ENEMY, ## 敌方单个&amp;#10;2 SINGLE_ALLY, ## 友方单个&amp;#10;3 ALL_ENEMY,  ## 全体敌方目标位置&amp;#10;4 ALL_ALLY,  ## 全体友方目标位置&amp;#10;5 SELF,   ## 自己</t>
+  </si>
+  <si>
+    <t>有效位置</t>
+  </si>
+  <si>
+    <t>目标位置</t>
+  </si>
+  <si>
+    <t>图标</t>
+  </si>
+  <si>
+    <t>是否自动释放</t>
+  </si>
+  <si>
+    <t>效果ID</t>
+  </si>
+  <si>
+    <t>消耗</t>
+  </si>
+  <si>
+    <t>冷却时间</t>
+  </si>
+  <si>
+    <t>是否显示</t>
+  </si>
+  <si>
+    <t>是否为近战技能</t>
+  </si>
+  <si>
+    <t>可用次数，0表示不限次数</t>
+  </si>
+  <si>
+    <t>int[]</t>
+  </si>
+  <si>
+    <t>普通攻击</t>
+  </si>
+  <si>
+    <t>skill</t>
+  </si>
+  <si>
+    <t>1*2*3*4</t>
+  </si>
+  <si>
+    <t>attack_effect</t>
+  </si>
+  <si>
+    <t>battle_cry</t>
+  </si>
+  <si>
+    <t>战吼</t>
+  </si>
+  <si>
+    <t>1*2</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Buffs/critical_boost.png</t>
+  </si>
+  <si>
+    <t>battle_cry_effect</t>
+  </si>
+  <si>
+    <t>rage*30</t>
+  </si>
+  <si>
+    <t>heroic_strike</t>
+  </si>
+  <si>
+    <t>全力一击</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Spells/poison_dagger.png</t>
+  </si>
+  <si>
+    <t>heroic_strike_effect</t>
+  </si>
+  <si>
+    <t>rage*15</t>
+  </si>
+  <si>
+    <t>resolute</t>
+  </si>
+  <si>
+    <t>不屈精神</t>
+  </si>
+  <si>
+    <t>1*2*3</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon26.png</t>
+  </si>
+  <si>
+    <t>resolute_effect</t>
+  </si>
+  <si>
+    <t>retaliate</t>
+  </si>
+  <si>
+    <t>反击</t>
+  </si>
+  <si>
+    <t>2*3</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon34.png</t>
+  </si>
+  <si>
+    <t>retaliate_effect</t>
+  </si>
+  <si>
+    <t>远程攻击</t>
+  </si>
+  <si>
+    <t>arrow_attack_effect</t>
+  </si>
+  <si>
+    <t>arrow_beam</t>
+  </si>
+  <si>
+    <t>光束箭</t>
+  </si>
+  <si>
+    <t>3*4</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon38.png</t>
+  </si>
+  <si>
+    <t>arrow_beam_effect</t>
+  </si>
+  <si>
+    <t>enery*30</t>
+  </si>
+  <si>
+    <t>arrow_entangle</t>
+  </si>
+  <si>
+    <t>约束之箭</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon28.png</t>
+  </si>
+  <si>
+    <t>arrow_entangle_effect</t>
+  </si>
+  <si>
+    <t>enery*15</t>
+  </si>
+  <si>
+    <t>arrow_poison</t>
+  </si>
+  <si>
+    <t>毒箭</t>
+  </si>
+  <si>
+    <t>2*3*4</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon30.png</t>
+  </si>
+  <si>
+    <t>arrow_poison_effect</t>
+  </si>
+  <si>
+    <t>enery*10</t>
+  </si>
+  <si>
+    <t>arrow_shower</t>
+  </si>
+  <si>
+    <t>箭雨</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon35.png</t>
+  </si>
+  <si>
+    <t>arrow_shower_effect</t>
+  </si>
+  <si>
+    <t>enery*20</t>
+  </si>
+  <si>
+    <t>water_blade_slash</t>
+  </si>
+  <si>
+    <t>水刃斩</t>
+  </si>
+  <si>
+    <t>water_blade_slash_effect</t>
+  </si>
+  <si>
+    <t>vortex_bind</t>
+  </si>
+  <si>
+    <t>涡流约束</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon3.png</t>
+  </si>
+  <si>
+    <t>vortex_bind_effect</t>
+  </si>
+  <si>
+    <t>mana*30</t>
+  </si>
+  <si>
+    <t>tidal_fury</t>
+  </si>
+  <si>
+    <t>潮汐狂暴</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon23.png</t>
+  </si>
+  <si>
+    <t>tidal_fury_effect</t>
+  </si>
+  <si>
+    <t>mana*20</t>
+  </si>
+  <si>
+    <t>healing_spring</t>
+  </si>
+  <si>
+    <t>恢复之泉</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon20.png</t>
+  </si>
+  <si>
+    <t>healing_spring_effect</t>
+  </si>
+  <si>
+    <t>mana*10</t>
+  </si>
+  <si>
+    <t>aqua_shield</t>
+  </si>
+  <si>
+    <t>水之护盾</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/skills/Icon9.png</t>
+  </si>
+  <si>
+    <t>aqua_shield_effect</t>
+  </si>
+  <si>
+    <t>arcane_missiles</t>
+  </si>
+  <si>
+    <t>魔法飞弹</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Spells/lightning_spell.png</t>
+  </si>
+  <si>
+    <t>arcane_missiles_effect</t>
+  </si>
+  <si>
+    <t>fireball</t>
+  </si>
+  <si>
+    <t>火球术</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Spells/fire_spell.png</t>
+  </si>
+  <si>
+    <t>fireball_effect</t>
+  </si>
+  <si>
+    <t>magic_shield</t>
+  </si>
+  <si>
+    <t>魔法盾</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Spells/fortify_spell.png</t>
+  </si>
+  <si>
+    <t>magic_shield_effect</t>
+  </si>
+  <si>
+    <t>mana*15</t>
+  </si>
+  <si>
+    <t>mana_surge</t>
+  </si>
+  <si>
+    <t>魔法涌现</t>
+  </si>
+  <si>
+    <t>res://assets/texture/icon/Spells/ice_spell.png</t>
+  </si>
+  <si>
+    <t>mana_surge_effect</t>
+  </si>
+  <si>
     <t>effect_id</t>
-  </si>
-  <si>
-    <t>ability_costs</t>
-  </si>
-  <si>
-    <t>cooldown</t>
-  </si>
-  <si>
-    <t>is_show</t>
-  </si>
-  <si>
-    <t>is_melee</t>
-  </si>
-  <si>
-    <t>use_count</t>
-  </si>
-  <si>
-    <t>技能名称</t>
-  </si>
-  <si>
-    <t>技能标签</t>
-  </si>
-  <si>
-    <t>技能描述</t>
-  </si>
-  <si>
-    <t>目标范围&amp;#10;0 NONE,   ## 无目标&amp;#10;1 SINGLE_ENEMY, ## 敌方单个&amp;#10;2 SINGLE_ALLY, ## 友方单个&amp;#10;3 ALL_ENEMY,  ## 全体敌方目标位置&amp;#10;4 ALL_ALLY,  ## 全体友方目标位置&amp;#10;5 SELF,   ## 自己</t>
-  </si>
-  <si>
-    <t>有效位置</t>
-  </si>
-  <si>
-    <t>目标位置</t>
-  </si>
-  <si>
-    <t>图标</t>
-  </si>
-  <si>
-    <t>是否自动释放</t>
-  </si>
-  <si>
-    <t>效果ID</t>
-  </si>
-  <si>
-    <t>消耗</t>
-  </si>
-  <si>
-    <t>冷却时间</t>
-  </si>
-  <si>
-    <t>是否显示</t>
-  </si>
-  <si>
-    <t>是否为近战技能</t>
-  </si>
-  <si>
-    <t>可用次数，0表示不限次数</t>
-  </si>
-  <si>
-    <t>int[]</t>
-  </si>
-  <si>
-    <t>普通攻击</t>
-  </si>
-  <si>
-    <t>skill</t>
-  </si>
-  <si>
-    <t>1*2*3*4</t>
-  </si>
-  <si>
-    <t>attack_effect</t>
-  </si>
-  <si>
-    <t>battle_cry</t>
-  </si>
-  <si>
-    <t>战吼</t>
-  </si>
-  <si>
-    <t>1*2</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Buffs/critical_boost.png</t>
-  </si>
-  <si>
-    <t>battle_cry_effect</t>
-  </si>
-  <si>
-    <t>rage*30</t>
-  </si>
-  <si>
-    <t>heroic_strike</t>
-  </si>
-  <si>
-    <t>全力一击</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Spells/poison_dagger.png</t>
-  </si>
-  <si>
-    <t>heroic_strike_effect</t>
-  </si>
-  <si>
-    <t>rage*15</t>
-  </si>
-  <si>
-    <t>resolute</t>
-  </si>
-  <si>
-    <t>不屈精神</t>
-  </si>
-  <si>
-    <t>1*2*3</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon26.png</t>
-  </si>
-  <si>
-    <t>resolute_effect</t>
-  </si>
-  <si>
-    <t>retaliate</t>
-  </si>
-  <si>
-    <t>反击</t>
-  </si>
-  <si>
-    <t>2*3</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon34.png</t>
-  </si>
-  <si>
-    <t>retaliate_effect</t>
-  </si>
-  <si>
-    <t>远程攻击</t>
-  </si>
-  <si>
-    <t>arrow_attack_effect</t>
-  </si>
-  <si>
-    <t>arrow_beam</t>
-  </si>
-  <si>
-    <t>光束箭</t>
-  </si>
-  <si>
-    <t>3*4</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon38.png</t>
-  </si>
-  <si>
-    <t>arrow_beam_effect</t>
-  </si>
-  <si>
-    <t>enery*30</t>
-  </si>
-  <si>
-    <t>arrow_entangle</t>
-  </si>
-  <si>
-    <t>约束之箭</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon28.png</t>
-  </si>
-  <si>
-    <t>arrow_entangle_effect</t>
-  </si>
-  <si>
-    <t>enery*15</t>
-  </si>
-  <si>
-    <t>arrow_poison</t>
-  </si>
-  <si>
-    <t>毒箭</t>
-  </si>
-  <si>
-    <t>2*3*4</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon30.png</t>
-  </si>
-  <si>
-    <t>arrow_poison_effect</t>
-  </si>
-  <si>
-    <t>enery*10</t>
-  </si>
-  <si>
-    <t>arrow_shower</t>
-  </si>
-  <si>
-    <t>箭雨</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon35.png</t>
-  </si>
-  <si>
-    <t>arrow_shower_effect</t>
-  </si>
-  <si>
-    <t>enery*20</t>
-  </si>
-  <si>
-    <t>water_blade_slash</t>
-  </si>
-  <si>
-    <t>水刃斩</t>
-  </si>
-  <si>
-    <t>water_blade_slash_effect</t>
-  </si>
-  <si>
-    <t>vortex_bind</t>
-  </si>
-  <si>
-    <t>涡流约束</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon3.png</t>
-  </si>
-  <si>
-    <t>vortex_bind_effect</t>
-  </si>
-  <si>
-    <t>mana*30</t>
-  </si>
-  <si>
-    <t>tidal_fury</t>
-  </si>
-  <si>
-    <t>潮汐狂暴</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon23.png</t>
-  </si>
-  <si>
-    <t>tidal_fury_effect</t>
-  </si>
-  <si>
-    <t>mana*20</t>
-  </si>
-  <si>
-    <t>healing_spring</t>
-  </si>
-  <si>
-    <t>恢复之泉</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon20.png</t>
-  </si>
-  <si>
-    <t>healing_spring_effect</t>
-  </si>
-  <si>
-    <t>mana*10</t>
-  </si>
-  <si>
-    <t>aqua_shield</t>
-  </si>
-  <si>
-    <t>水之护盾</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/skills/Icon9.png</t>
-  </si>
-  <si>
-    <t>aqua_shield_effect</t>
-  </si>
-  <si>
-    <t>arcane_missiles</t>
-  </si>
-  <si>
-    <t>魔法飞弹</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Spells/lightning_spell.png</t>
-  </si>
-  <si>
-    <t>arcane_missiles_effect</t>
-  </si>
-  <si>
-    <t>fireball</t>
-  </si>
-  <si>
-    <t>火球术</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Spells/fire_spell.png</t>
-  </si>
-  <si>
-    <t>fireball_effect</t>
-  </si>
-  <si>
-    <t>magic_shield</t>
-  </si>
-  <si>
-    <t>魔法盾</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Spells/fortify_spell.png</t>
-  </si>
-  <si>
-    <t>magic_shield_effect</t>
-  </si>
-  <si>
-    <t>mana*15</t>
-  </si>
-  <si>
-    <t>mana_surge</t>
-  </si>
-  <si>
-    <t>魔法涌现</t>
-  </si>
-  <si>
-    <t>res://assets/texture/icon/Spells/ice_spell.png</t>
-  </si>
-  <si>
-    <t>mana_surge_effect</t>
   </si>
   <si>
     <t>buff_type</t>
@@ -2442,7 +2447,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="58">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2494,6 +2499,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2971,328 +2979,328 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.575" style="19" customWidth="1"/>
+    <col min="1" max="1" width="13.575" style="20" customWidth="1"/>
     <col min="2" max="2" width="13.575" style="1" customWidth="1"/>
     <col min="3" max="18" width="13.575" style="2" customWidth="1"/>
     <col min="19" max="27" width="13.575" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A1" s="20" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="22" t="s">
+      <c r="A1" s="21" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="23" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="22" t="s">
+      <c r="D1" s="23" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="22" t="s">
+      <c r="E1" s="23" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="22" t="s">
+      <c r="F1" s="23" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="22" t="s">
+      <c r="G1" s="23" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="22" t="s">
+      <c r="H1" s="23" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="22" t="s">
+      <c r="I1" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="22" t="s">
+      <c r="J1" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="22" t="s">
+      <c r="K1" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="22" t="s">
+      <c r="M1" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="23" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="22" t="s">
+      <c r="O1" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="22" t="s">
+      <c r="Q1" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="36" t="s">
+      <c r="R1" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="21" t="s">
+      <c r="T1" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="21" t="s">
+      <c r="V1" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="37" t="s">
+      <c r="W1" s="38" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="38"/>
-      <c r="Y1" s="38"/>
-      <c r="Z1" s="38"/>
-      <c r="AA1" s="54"/>
+      <c r="X1" s="39"/>
+      <c r="Y1" s="39"/>
+      <c r="Z1" s="39"/>
+      <c r="AA1" s="55"/>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="24" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="24" t="s">
+      <c r="B2" s="25" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="25" t="s">
+      <c r="C2" s="26" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="25" t="s">
+      <c r="D2" s="26" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="25" t="s">
+      <c r="E2" s="26" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="25" t="s">
+      <c r="F2" s="26" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="25" t="s">
+      <c r="G2" s="26" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="25" t="s">
+      <c r="H2" s="26" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="25" t="s">
+      <c r="I2" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="25" t="s">
+      <c r="J2" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="25" t="s">
+      <c r="K2" s="26" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="25" t="s">
+      <c r="L2" s="26" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="25" t="s">
+      <c r="M2" s="26" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="25" t="s">
+      <c r="N2" s="26" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="25" t="s">
+      <c r="O2" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="25" t="s">
+      <c r="P2" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="25" t="s">
+      <c r="Q2" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="39" t="s">
+      <c r="R2" s="40" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="24" t="s">
+      <c r="S2" s="25" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="24" t="s">
+      <c r="T2" s="25" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="24" t="s">
+      <c r="U2" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="24" t="s">
+      <c r="V2" s="25" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="40" t="s">
+      <c r="W2" s="41" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="41" t="s">
+      <c r="X2" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="55" t="s">
+      <c r="Y2" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="55" t="s">
+      <c r="Z2" s="56" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="56" t="s">
+      <c r="AA2" s="57" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A3" s="26" t="s">
+      <c r="A3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="27" t="s">
+      <c r="B3" s="28" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="28" t="s">
+      <c r="D3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="28" t="s">
+      <c r="E3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="28" t="s">
+      <c r="F3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="28" t="s">
+      <c r="G3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="28" t="s">
+      <c r="H3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="28" t="s">
+      <c r="I3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="28" t="s">
+      <c r="J3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="28" t="s">
+      <c r="K3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="28" t="s">
+      <c r="L3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="28" t="s">
+      <c r="M3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="28" t="s">
+      <c r="N3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="28" t="s">
+      <c r="O3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="28" t="s">
+      <c r="P3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="28" t="s">
+      <c r="Q3" s="29" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="42" t="s">
+      <c r="R3" s="43" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="27" t="s">
+      <c r="S3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="27" t="s">
+      <c r="T3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="27" t="s">
+      <c r="U3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="27" t="s">
+      <c r="V3" s="28" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="43" t="s">
+      <c r="W3" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="44" t="s">
+      <c r="X3" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" s="44" t="s">
+      <c r="Y3" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="44" t="s">
+      <c r="Z3" s="45" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="57" t="s">
+      <c r="AA3" s="58" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A4" s="29">
-        <v>1</v>
-      </c>
-      <c r="B4" s="30" t="s">
+      <c r="A4" s="30">
+        <v>1</v>
+      </c>
+      <c r="B4" s="31" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="31">
-        <v>10</v>
-      </c>
-      <c r="D4" s="31">
-        <v>0</v>
-      </c>
-      <c r="E4" s="31">
-        <v>0</v>
-      </c>
-      <c r="F4" s="31">
-        <v>10</v>
-      </c>
-      <c r="G4" s="31">
-        <v>0</v>
-      </c>
-      <c r="H4" s="31">
-        <v>0</v>
-      </c>
-      <c r="I4" s="31">
-        <v>0</v>
-      </c>
-      <c r="J4" s="31">
+      <c r="C4" s="32">
+        <v>10</v>
+      </c>
+      <c r="D4" s="32">
+        <v>0</v>
+      </c>
+      <c r="E4" s="32">
+        <v>0</v>
+      </c>
+      <c r="F4" s="32">
+        <v>10</v>
+      </c>
+      <c r="G4" s="32">
+        <v>0</v>
+      </c>
+      <c r="H4" s="32">
+        <v>0</v>
+      </c>
+      <c r="I4" s="32">
+        <v>0</v>
+      </c>
+      <c r="J4" s="32">
         <v>2</v>
       </c>
-      <c r="K4" s="31">
-        <v>1</v>
-      </c>
-      <c r="L4" s="31">
-        <v>0</v>
-      </c>
-      <c r="M4" s="31">
-        <v>0</v>
-      </c>
-      <c r="N4" s="31">
-        <v>0</v>
-      </c>
-      <c r="O4" s="31">
-        <v>0</v>
-      </c>
-      <c r="P4" s="31">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="31">
-        <v>0</v>
-      </c>
-      <c r="R4" s="45">
-        <v>0</v>
-      </c>
-      <c r="S4" s="30"/>
-      <c r="T4" s="30"/>
-      <c r="U4" s="30"/>
-      <c r="V4" s="30"/>
-      <c r="W4" s="46"/>
-      <c r="X4" s="47" t="s">
+      <c r="K4" s="32">
+        <v>1</v>
+      </c>
+      <c r="L4" s="32">
+        <v>0</v>
+      </c>
+      <c r="M4" s="32">
+        <v>0</v>
+      </c>
+      <c r="N4" s="32">
+        <v>0</v>
+      </c>
+      <c r="O4" s="32">
+        <v>0</v>
+      </c>
+      <c r="P4" s="32">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="32">
+        <v>0</v>
+      </c>
+      <c r="R4" s="46">
+        <v>0</v>
+      </c>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="47"/>
+      <c r="X4" s="48" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="30" t="s">
+      <c r="Y4" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="Z4" s="30" t="s">
+      <c r="Z4" s="31" t="s">
         <v>54</v>
       </c>
-      <c r="AA4" s="46" t="s">
+      <c r="AA4" s="47" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A5" s="32">
+      <c r="A5" s="33">
         <v>2</v>
       </c>
       <c r="B5" s="5" t="s">
@@ -3343,15 +3351,15 @@
       <c r="Q5" s="6">
         <v>0</v>
       </c>
-      <c r="R5" s="48">
+      <c r="R5" s="49">
         <v>0</v>
       </c>
       <c r="S5" s="5"/>
       <c r="T5" s="5"/>
       <c r="U5" s="5"/>
       <c r="V5" s="5"/>
-      <c r="W5" s="49"/>
-      <c r="X5" s="50" t="s">
+      <c r="W5" s="50"/>
+      <c r="X5" s="51" t="s">
         <v>57</v>
       </c>
       <c r="Y5" s="5" t="s">
@@ -3360,12 +3368,12 @@
       <c r="Z5" s="5" t="s">
         <v>58</v>
       </c>
-      <c r="AA5" s="49" t="s">
+      <c r="AA5" s="50" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A6" s="32">
+      <c r="A6" s="33">
         <v>3</v>
       </c>
       <c r="B6" s="5" t="s">
@@ -3416,15 +3424,15 @@
       <c r="Q6" s="6">
         <v>0</v>
       </c>
-      <c r="R6" s="48">
+      <c r="R6" s="49">
         <v>0</v>
       </c>
       <c r="S6" s="5"/>
       <c r="T6" s="5"/>
       <c r="U6" s="5"/>
       <c r="V6" s="5"/>
-      <c r="W6" s="49"/>
-      <c r="X6" s="50" t="s">
+      <c r="W6" s="50"/>
+      <c r="X6" s="51" t="s">
         <v>60</v>
       </c>
       <c r="Y6" s="5" t="s">
@@ -3433,12 +3441,12 @@
       <c r="Z6" s="5" t="s">
         <v>61</v>
       </c>
-      <c r="AA6" s="49" t="s">
+      <c r="AA6" s="50" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A7" s="32">
+      <c r="A7" s="33">
         <v>4</v>
       </c>
       <c r="B7" s="5" t="s">
@@ -3489,15 +3497,15 @@
       <c r="Q7" s="6">
         <v>0</v>
       </c>
-      <c r="R7" s="48">
+      <c r="R7" s="49">
         <v>0</v>
       </c>
       <c r="S7" s="5"/>
       <c r="T7" s="5"/>
       <c r="U7" s="5"/>
       <c r="V7" s="5"/>
-      <c r="W7" s="49"/>
-      <c r="X7" s="50" t="s">
+      <c r="W7" s="50"/>
+      <c r="X7" s="51" t="s">
         <v>64</v>
       </c>
       <c r="Y7" s="5" t="s">
@@ -3506,12 +3514,12 @@
       <c r="Z7" s="5" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="49" t="s">
+      <c r="AA7" s="50" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A8" s="32">
+      <c r="A8" s="33">
         <v>5</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -3562,15 +3570,15 @@
       <c r="Q8" s="6">
         <v>0</v>
       </c>
-      <c r="R8" s="48">
+      <c r="R8" s="49">
         <v>0</v>
       </c>
       <c r="S8" s="5"/>
       <c r="T8" s="5"/>
       <c r="U8" s="5"/>
       <c r="V8" s="5"/>
-      <c r="W8" s="49"/>
-      <c r="X8" s="50" t="s">
+      <c r="W8" s="50"/>
+      <c r="X8" s="51" t="s">
         <v>68</v>
       </c>
       <c r="Y8" s="5" t="s">
@@ -3579,12 +3587,12 @@
       <c r="Z8" s="5" t="s">
         <v>69</v>
       </c>
-      <c r="AA8" s="49" t="s">
+      <c r="AA8" s="50" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A9" s="32">
+      <c r="A9" s="33">
         <v>6</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -3635,15 +3643,15 @@
       <c r="Q9" s="6">
         <v>0</v>
       </c>
-      <c r="R9" s="48">
+      <c r="R9" s="49">
         <v>0</v>
       </c>
       <c r="S9" s="5"/>
       <c r="T9" s="5"/>
       <c r="U9" s="5"/>
       <c r="V9" s="5"/>
-      <c r="W9" s="49"/>
-      <c r="X9" s="50" t="s">
+      <c r="W9" s="50"/>
+      <c r="X9" s="51" t="s">
         <v>72</v>
       </c>
       <c r="Y9" s="5" t="s">
@@ -3652,12 +3660,12 @@
       <c r="Z9" s="5" t="s">
         <v>74</v>
       </c>
-      <c r="AA9" s="49" t="s">
+      <c r="AA9" s="50" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A10" s="32">
+      <c r="A10" s="33">
         <v>7</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -3708,15 +3716,15 @@
       <c r="Q10" s="6">
         <v>0</v>
       </c>
-      <c r="R10" s="48">
+      <c r="R10" s="49">
         <v>0</v>
       </c>
       <c r="S10" s="5"/>
       <c r="T10" s="5"/>
       <c r="U10" s="5"/>
       <c r="V10" s="5"/>
-      <c r="W10" s="49"/>
-      <c r="X10" s="50" t="s">
+      <c r="W10" s="50"/>
+      <c r="X10" s="51" t="s">
         <v>77</v>
       </c>
       <c r="Y10" s="5" t="s">
@@ -3725,12 +3733,12 @@
       <c r="Z10" s="5" t="s">
         <v>79</v>
       </c>
-      <c r="AA10" s="49" t="s">
+      <c r="AA10" s="50" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A11" s="32">
+      <c r="A11" s="33">
         <v>8</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -3781,15 +3789,15 @@
       <c r="Q11" s="6">
         <v>0</v>
       </c>
-      <c r="R11" s="48">
+      <c r="R11" s="49">
         <v>0</v>
       </c>
       <c r="S11" s="5"/>
       <c r="T11" s="5"/>
       <c r="U11" s="5"/>
       <c r="V11" s="5"/>
-      <c r="W11" s="49"/>
-      <c r="X11" s="50" t="s">
+      <c r="W11" s="50"/>
+      <c r="X11" s="51" t="s">
         <v>81</v>
       </c>
       <c r="Y11" s="5" t="s">
@@ -3798,12 +3806,12 @@
       <c r="Z11" s="5" t="s">
         <v>83</v>
       </c>
-      <c r="AA11" s="49" t="s">
+      <c r="AA11" s="50" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A12" s="32">
+      <c r="A12" s="33">
         <v>9</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -3854,15 +3862,15 @@
       <c r="Q12" s="6">
         <v>0</v>
       </c>
-      <c r="R12" s="48">
+      <c r="R12" s="49">
         <v>0</v>
       </c>
       <c r="S12" s="5"/>
       <c r="T12" s="5"/>
       <c r="U12" s="5"/>
       <c r="V12" s="5"/>
-      <c r="W12" s="49"/>
-      <c r="X12" s="50" t="s">
+      <c r="W12" s="50"/>
+      <c r="X12" s="51" t="s">
         <v>86</v>
       </c>
       <c r="Y12" s="5" t="s">
@@ -3871,12 +3879,12 @@
       <c r="Z12" s="5" t="s">
         <v>88</v>
       </c>
-      <c r="AA12" s="49" t="s">
+      <c r="AA12" s="50" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A13" s="32">
+      <c r="A13" s="33">
         <v>10</v>
       </c>
       <c r="B13" s="5" t="s">
@@ -3927,15 +3935,15 @@
       <c r="Q13" s="6">
         <v>0</v>
       </c>
-      <c r="R13" s="48">
+      <c r="R13" s="49">
         <v>0</v>
       </c>
       <c r="S13" s="5"/>
       <c r="T13" s="5"/>
       <c r="U13" s="5"/>
       <c r="V13" s="5"/>
-      <c r="W13" s="49"/>
-      <c r="X13" s="50" t="s">
+      <c r="W13" s="50"/>
+      <c r="X13" s="51" t="s">
         <v>91</v>
       </c>
       <c r="Y13" s="5" t="s">
@@ -3944,12 +3952,12 @@
       <c r="Z13" s="5" t="s">
         <v>92</v>
       </c>
-      <c r="AA13" s="49" t="s">
+      <c r="AA13" s="50" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A14" s="32">
+      <c r="A14" s="33">
         <v>11</v>
       </c>
       <c r="B14" s="5" t="s">
@@ -4000,15 +4008,15 @@
       <c r="Q14" s="6">
         <v>0</v>
       </c>
-      <c r="R14" s="48">
+      <c r="R14" s="49">
         <v>0</v>
       </c>
       <c r="S14" s="5"/>
       <c r="T14" s="5"/>
       <c r="U14" s="5"/>
       <c r="V14" s="5"/>
-      <c r="W14" s="49"/>
-      <c r="X14" s="50" t="s">
+      <c r="W14" s="50"/>
+      <c r="X14" s="51" t="s">
         <v>95</v>
       </c>
       <c r="Y14" s="5" t="s">
@@ -4017,12 +4025,12 @@
       <c r="Z14" s="5" t="s">
         <v>97</v>
       </c>
-      <c r="AA14" s="49" t="s">
+      <c r="AA14" s="50" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A15" s="32">
+      <c r="A15" s="33">
         <v>12</v>
       </c>
       <c r="B15" s="5" t="s">
@@ -4073,15 +4081,15 @@
       <c r="Q15" s="6">
         <v>0</v>
       </c>
-      <c r="R15" s="48">
+      <c r="R15" s="49">
         <v>0</v>
       </c>
       <c r="S15" s="5"/>
       <c r="T15" s="5"/>
       <c r="U15" s="5"/>
       <c r="V15" s="5"/>
-      <c r="W15" s="49"/>
-      <c r="X15" s="50" t="s">
+      <c r="W15" s="50"/>
+      <c r="X15" s="51" t="s">
         <v>100</v>
       </c>
       <c r="Y15" s="5" t="s">
@@ -4090,12 +4098,12 @@
       <c r="Z15" s="5" t="s">
         <v>102</v>
       </c>
-      <c r="AA15" s="49" t="s">
+      <c r="AA15" s="50" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A16" s="32">
+      <c r="A16" s="33">
         <v>13</v>
       </c>
       <c r="B16" s="5" t="s">
@@ -4146,15 +4154,15 @@
       <c r="Q16" s="6">
         <v>0</v>
       </c>
-      <c r="R16" s="48">
+      <c r="R16" s="49">
         <v>0</v>
       </c>
       <c r="S16" s="5"/>
       <c r="T16" s="5"/>
       <c r="U16" s="5"/>
       <c r="V16" s="5"/>
-      <c r="W16" s="49"/>
-      <c r="X16" s="50" t="s">
+      <c r="W16" s="50"/>
+      <c r="X16" s="51" t="s">
         <v>104</v>
       </c>
       <c r="Y16" s="5" t="s">
@@ -4163,12 +4171,12 @@
       <c r="Z16" s="5" t="s">
         <v>106</v>
       </c>
-      <c r="AA16" s="49" t="s">
+      <c r="AA16" s="50" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A17" s="32">
+      <c r="A17" s="33">
         <v>14</v>
       </c>
       <c r="B17" s="5" t="s">
@@ -4219,15 +4227,15 @@
       <c r="Q17" s="6">
         <v>0</v>
       </c>
-      <c r="R17" s="48">
+      <c r="R17" s="49">
         <v>0</v>
       </c>
       <c r="S17" s="5"/>
       <c r="T17" s="5"/>
       <c r="U17" s="5"/>
       <c r="V17" s="5"/>
-      <c r="W17" s="49"/>
-      <c r="X17" s="50" t="s">
+      <c r="W17" s="50"/>
+      <c r="X17" s="51" t="s">
         <v>108</v>
       </c>
       <c r="Y17" s="5" t="s">
@@ -4236,12 +4244,12 @@
       <c r="Z17" s="5" t="s">
         <v>110</v>
       </c>
-      <c r="AA17" s="49" t="s">
+      <c r="AA17" s="50" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A18" s="32">
+      <c r="A18" s="33">
         <v>15</v>
       </c>
       <c r="B18" s="5" t="s">
@@ -4292,15 +4300,15 @@
       <c r="Q18" s="6">
         <v>0</v>
       </c>
-      <c r="R18" s="48">
+      <c r="R18" s="49">
         <v>0</v>
       </c>
       <c r="S18" s="5"/>
       <c r="T18" s="5"/>
       <c r="U18" s="5"/>
       <c r="V18" s="5"/>
-      <c r="W18" s="49"/>
-      <c r="X18" s="50" t="s">
+      <c r="W18" s="50"/>
+      <c r="X18" s="51" t="s">
         <v>113</v>
       </c>
       <c r="Y18" s="5" t="s">
@@ -4309,12 +4317,12 @@
       <c r="Z18" s="5" t="s">
         <v>115</v>
       </c>
-      <c r="AA18" s="49" t="s">
+      <c r="AA18" s="50" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A19" s="32">
+      <c r="A19" s="33">
         <v>16</v>
       </c>
       <c r="B19" s="5" t="s">
@@ -4365,15 +4373,15 @@
       <c r="Q19" s="6">
         <v>0</v>
       </c>
-      <c r="R19" s="48">
+      <c r="R19" s="49">
         <v>0</v>
       </c>
       <c r="S19" s="5"/>
       <c r="T19" s="5"/>
       <c r="U19" s="5"/>
       <c r="V19" s="5"/>
-      <c r="W19" s="49"/>
-      <c r="X19" s="50" t="s">
+      <c r="W19" s="50"/>
+      <c r="X19" s="51" t="s">
         <v>117</v>
       </c>
       <c r="Y19" s="5" t="s">
@@ -4382,12 +4390,12 @@
       <c r="Z19" s="5" t="s">
         <v>119</v>
       </c>
-      <c r="AA19" s="49" t="s">
+      <c r="AA19" s="50" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A20" s="32">
+      <c r="A20" s="33">
         <v>17</v>
       </c>
       <c r="B20" s="5" t="s">
@@ -4438,15 +4446,15 @@
       <c r="Q20" s="6">
         <v>0</v>
       </c>
-      <c r="R20" s="48">
+      <c r="R20" s="49">
         <v>0</v>
       </c>
       <c r="S20" s="5"/>
       <c r="T20" s="5"/>
       <c r="U20" s="5"/>
       <c r="V20" s="5"/>
-      <c r="W20" s="49"/>
-      <c r="X20" s="50" t="s">
+      <c r="W20" s="50"/>
+      <c r="X20" s="51" t="s">
         <v>121</v>
       </c>
       <c r="Y20" s="5" t="s">
@@ -4455,12 +4463,12 @@
       <c r="Z20" s="5" t="s">
         <v>123</v>
       </c>
-      <c r="AA20" s="49" t="s">
+      <c r="AA20" s="50" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A21" s="32">
+      <c r="A21" s="33">
         <v>18</v>
       </c>
       <c r="B21" s="5" t="s">
@@ -4511,15 +4519,15 @@
       <c r="Q21" s="6">
         <v>0</v>
       </c>
-      <c r="R21" s="48">
+      <c r="R21" s="49">
         <v>0</v>
       </c>
       <c r="S21" s="5"/>
       <c r="T21" s="5"/>
       <c r="U21" s="5"/>
       <c r="V21" s="5"/>
-      <c r="W21" s="49"/>
-      <c r="X21" s="50" t="s">
+      <c r="W21" s="50"/>
+      <c r="X21" s="51" t="s">
         <v>125</v>
       </c>
       <c r="Y21" s="5" t="s">
@@ -4528,12 +4536,12 @@
       <c r="Z21" s="5" t="s">
         <v>127</v>
       </c>
-      <c r="AA21" s="49" t="s">
+      <c r="AA21" s="50" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A22" s="32">
+      <c r="A22" s="33">
         <v>19</v>
       </c>
       <c r="B22" s="5" t="s">
@@ -4584,15 +4592,15 @@
       <c r="Q22" s="6">
         <v>0</v>
       </c>
-      <c r="R22" s="48">
+      <c r="R22" s="49">
         <v>0</v>
       </c>
       <c r="S22" s="5"/>
       <c r="T22" s="5"/>
       <c r="U22" s="5"/>
       <c r="V22" s="5"/>
-      <c r="W22" s="49"/>
-      <c r="X22" s="50" t="s">
+      <c r="W22" s="50"/>
+      <c r="X22" s="51" t="s">
         <v>129</v>
       </c>
       <c r="Y22" s="5" t="s">
@@ -4601,12 +4609,12 @@
       <c r="Z22" s="5" t="s">
         <v>131</v>
       </c>
-      <c r="AA22" s="49" t="s">
+      <c r="AA22" s="50" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A23" s="32">
+      <c r="A23" s="33">
         <v>20</v>
       </c>
       <c r="B23" s="5" t="s">
@@ -4657,15 +4665,15 @@
       <c r="Q23" s="6">
         <v>0</v>
       </c>
-      <c r="R23" s="48">
+      <c r="R23" s="49">
         <v>0</v>
       </c>
       <c r="S23" s="5"/>
       <c r="T23" s="5"/>
       <c r="U23" s="5"/>
       <c r="V23" s="5"/>
-      <c r="W23" s="49"/>
-      <c r="X23" s="50" t="s">
+      <c r="W23" s="50"/>
+      <c r="X23" s="51" t="s">
         <v>134</v>
       </c>
       <c r="Y23" s="5" t="s">
@@ -4674,12 +4682,12 @@
       <c r="Z23" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="AA23" s="49" t="s">
+      <c r="AA23" s="50" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A24" s="32">
+      <c r="A24" s="33">
         <v>21</v>
       </c>
       <c r="B24" s="5" t="s">
@@ -4730,15 +4738,15 @@
       <c r="Q24" s="6">
         <v>0</v>
       </c>
-      <c r="R24" s="48">
+      <c r="R24" s="49">
         <v>0</v>
       </c>
       <c r="S24" s="5"/>
       <c r="T24" s="5"/>
       <c r="U24" s="5"/>
       <c r="V24" s="5"/>
-      <c r="W24" s="49"/>
-      <c r="X24" s="50" t="s">
+      <c r="W24" s="50"/>
+      <c r="X24" s="51" t="s">
         <v>139</v>
       </c>
       <c r="Y24" s="5" t="s">
@@ -4747,12 +4755,12 @@
       <c r="Z24" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="AA24" s="49" t="s">
+      <c r="AA24" s="50" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A25" s="32">
+      <c r="A25" s="33">
         <v>22</v>
       </c>
       <c r="B25" s="5" t="s">
@@ -4803,15 +4811,15 @@
       <c r="Q25" s="6">
         <v>0</v>
       </c>
-      <c r="R25" s="48">
+      <c r="R25" s="49">
         <v>0</v>
       </c>
       <c r="S25" s="5"/>
       <c r="T25" s="5"/>
       <c r="U25" s="5"/>
       <c r="V25" s="5"/>
-      <c r="W25" s="49"/>
-      <c r="X25" s="50" t="s">
+      <c r="W25" s="50"/>
+      <c r="X25" s="51" t="s">
         <v>144</v>
       </c>
       <c r="Y25" s="5" t="s">
@@ -4820,12 +4828,12 @@
       <c r="Z25" s="5" t="s">
         <v>146</v>
       </c>
-      <c r="AA25" s="49" t="s">
+      <c r="AA25" s="50" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A26" s="32">
+      <c r="A26" s="33">
         <v>23</v>
       </c>
       <c r="B26" s="5" t="s">
@@ -4876,15 +4884,15 @@
       <c r="Q26" s="6">
         <v>0</v>
       </c>
-      <c r="R26" s="48">
+      <c r="R26" s="49">
         <v>0</v>
       </c>
       <c r="S26" s="5"/>
       <c r="T26" s="5"/>
       <c r="U26" s="5"/>
       <c r="V26" s="5"/>
-      <c r="W26" s="49"/>
-      <c r="X26" s="50" t="s">
+      <c r="W26" s="50"/>
+      <c r="X26" s="51" t="s">
         <v>148</v>
       </c>
       <c r="Y26" s="5" t="s">
@@ -4893,12 +4901,12 @@
       <c r="Z26" s="5" t="s">
         <v>150</v>
       </c>
-      <c r="AA26" s="49" t="s">
+      <c r="AA26" s="50" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A27" s="32">
+      <c r="A27" s="33">
         <v>24</v>
       </c>
       <c r="B27" s="5" t="s">
@@ -4949,15 +4957,15 @@
       <c r="Q27" s="6">
         <v>0</v>
       </c>
-      <c r="R27" s="48">
+      <c r="R27" s="49">
         <v>0</v>
       </c>
       <c r="S27" s="5"/>
       <c r="T27" s="5"/>
       <c r="U27" s="5"/>
       <c r="V27" s="5"/>
-      <c r="W27" s="49"/>
-      <c r="X27" s="50" t="s">
+      <c r="W27" s="50"/>
+      <c r="X27" s="51" t="s">
         <v>153</v>
       </c>
       <c r="Y27" s="5" t="s">
@@ -4966,12 +4974,12 @@
       <c r="Z27" s="5" t="s">
         <v>155</v>
       </c>
-      <c r="AA27" s="49" t="s">
+      <c r="AA27" s="50" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A28" s="32">
+      <c r="A28" s="33">
         <v>25</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -5022,15 +5030,15 @@
       <c r="Q28" s="6">
         <v>0</v>
       </c>
-      <c r="R28" s="48">
+      <c r="R28" s="49">
         <v>0</v>
       </c>
       <c r="S28" s="5"/>
       <c r="T28" s="5"/>
       <c r="U28" s="5"/>
       <c r="V28" s="5"/>
-      <c r="W28" s="49"/>
-      <c r="X28" s="50" t="s">
+      <c r="W28" s="50"/>
+      <c r="X28" s="51" t="s">
         <v>158</v>
       </c>
       <c r="Y28" s="5" t="s">
@@ -5039,12 +5047,12 @@
       <c r="Z28" s="5" t="s">
         <v>160</v>
       </c>
-      <c r="AA28" s="49" t="s">
+      <c r="AA28" s="50" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A29" s="32">
+      <c r="A29" s="33">
         <v>26</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -5095,15 +5103,15 @@
       <c r="Q29" s="6">
         <v>0</v>
       </c>
-      <c r="R29" s="48">
+      <c r="R29" s="49">
         <v>0</v>
       </c>
       <c r="S29" s="5"/>
       <c r="T29" s="5"/>
       <c r="U29" s="5"/>
       <c r="V29" s="5"/>
-      <c r="W29" s="49"/>
-      <c r="X29" s="50" t="s">
+      <c r="W29" s="50"/>
+      <c r="X29" s="51" t="s">
         <v>163</v>
       </c>
       <c r="Y29" s="5" t="s">
@@ -5112,12 +5120,12 @@
       <c r="Z29" s="5" t="s">
         <v>165</v>
       </c>
-      <c r="AA29" s="49" t="s">
+      <c r="AA29" s="50" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A30" s="32">
+      <c r="A30" s="33">
         <v>27</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -5168,15 +5176,15 @@
       <c r="Q30" s="6">
         <v>0</v>
       </c>
-      <c r="R30" s="48">
+      <c r="R30" s="49">
         <v>0</v>
       </c>
       <c r="S30" s="5"/>
       <c r="T30" s="5"/>
       <c r="U30" s="5"/>
       <c r="V30" s="5"/>
-      <c r="W30" s="49"/>
-      <c r="X30" s="50" t="s">
+      <c r="W30" s="50"/>
+      <c r="X30" s="51" t="s">
         <v>168</v>
       </c>
       <c r="Y30" s="5" t="s">
@@ -5185,12 +5193,12 @@
       <c r="Z30" s="5" t="s">
         <v>170</v>
       </c>
-      <c r="AA30" s="49" t="s">
+      <c r="AA30" s="50" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A31" s="32">
+      <c r="A31" s="33">
         <v>28</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -5241,15 +5249,15 @@
       <c r="Q31" s="6">
         <v>0</v>
       </c>
-      <c r="R31" s="48">
+      <c r="R31" s="49">
         <v>0</v>
       </c>
       <c r="S31" s="5"/>
       <c r="T31" s="5"/>
       <c r="U31" s="5"/>
       <c r="V31" s="5"/>
-      <c r="W31" s="49"/>
-      <c r="X31" s="50" t="s">
+      <c r="W31" s="50"/>
+      <c r="X31" s="51" t="s">
         <v>172</v>
       </c>
       <c r="Y31" s="5" t="s">
@@ -5258,12 +5266,12 @@
       <c r="Z31" s="5" t="s">
         <v>174</v>
       </c>
-      <c r="AA31" s="49" t="s">
+      <c r="AA31" s="50" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A32" s="32">
+      <c r="A32" s="33">
         <v>29</v>
       </c>
       <c r="B32" s="5" t="s">
@@ -5314,15 +5322,15 @@
       <c r="Q32" s="6">
         <v>0</v>
       </c>
-      <c r="R32" s="48">
+      <c r="R32" s="49">
         <v>0</v>
       </c>
       <c r="S32" s="5"/>
       <c r="T32" s="5"/>
       <c r="U32" s="5"/>
       <c r="V32" s="5"/>
-      <c r="W32" s="49"/>
-      <c r="X32" s="50" t="s">
+      <c r="W32" s="50"/>
+      <c r="X32" s="51" t="s">
         <v>176</v>
       </c>
       <c r="Y32" s="5" t="s">
@@ -5331,12 +5339,12 @@
       <c r="Z32" s="5" t="s">
         <v>178</v>
       </c>
-      <c r="AA32" s="49" t="s">
+      <c r="AA32" s="50" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A33" s="32">
+      <c r="A33" s="33">
         <v>30</v>
       </c>
       <c r="B33" s="5" t="s">
@@ -5387,15 +5395,15 @@
       <c r="Q33" s="6">
         <v>0</v>
       </c>
-      <c r="R33" s="48">
+      <c r="R33" s="49">
         <v>0</v>
       </c>
       <c r="S33" s="5"/>
       <c r="T33" s="5"/>
       <c r="U33" s="5"/>
       <c r="V33" s="5"/>
-      <c r="W33" s="49"/>
-      <c r="X33" s="50" t="s">
+      <c r="W33" s="50"/>
+      <c r="X33" s="51" t="s">
         <v>181</v>
       </c>
       <c r="Y33" s="5" t="s">
@@ -5404,12 +5412,12 @@
       <c r="Z33" s="5" t="s">
         <v>183</v>
       </c>
-      <c r="AA33" s="49" t="s">
+      <c r="AA33" s="50" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A34" s="32">
+      <c r="A34" s="33">
         <v>31</v>
       </c>
       <c r="B34" s="5" t="s">
@@ -5460,15 +5468,15 @@
       <c r="Q34" s="6">
         <v>0</v>
       </c>
-      <c r="R34" s="48">
+      <c r="R34" s="49">
         <v>0</v>
       </c>
       <c r="S34" s="5"/>
       <c r="T34" s="5"/>
       <c r="U34" s="5"/>
       <c r="V34" s="5"/>
-      <c r="W34" s="49"/>
-      <c r="X34" s="50" t="s">
+      <c r="W34" s="50"/>
+      <c r="X34" s="51" t="s">
         <v>186</v>
       </c>
       <c r="Y34" s="5" t="s">
@@ -5477,12 +5485,12 @@
       <c r="Z34" s="5" t="s">
         <v>188</v>
       </c>
-      <c r="AA34" s="49" t="s">
+      <c r="AA34" s="50" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A35" s="32">
+      <c r="A35" s="33">
         <v>32</v>
       </c>
       <c r="B35" s="5" t="s">
@@ -5533,15 +5541,15 @@
       <c r="Q35" s="6">
         <v>0</v>
       </c>
-      <c r="R35" s="48">
+      <c r="R35" s="49">
         <v>0</v>
       </c>
       <c r="S35" s="5"/>
       <c r="T35" s="5"/>
       <c r="U35" s="5"/>
       <c r="V35" s="5"/>
-      <c r="W35" s="49"/>
-      <c r="X35" s="50" t="s">
+      <c r="W35" s="50"/>
+      <c r="X35" s="51" t="s">
         <v>190</v>
       </c>
       <c r="Y35" s="5" t="s">
@@ -5550,12 +5558,12 @@
       <c r="Z35" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="AA35" s="49" t="s">
+      <c r="AA35" s="50" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="36" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A36" s="32">
+      <c r="A36" s="33">
         <v>33</v>
       </c>
       <c r="B36" s="5" t="s">
@@ -5606,15 +5614,15 @@
       <c r="Q36" s="6">
         <v>0</v>
       </c>
-      <c r="R36" s="48">
+      <c r="R36" s="49">
         <v>0</v>
       </c>
       <c r="S36" s="5"/>
       <c r="T36" s="5"/>
       <c r="U36" s="5"/>
       <c r="V36" s="5"/>
-      <c r="W36" s="49"/>
-      <c r="X36" s="50" t="s">
+      <c r="W36" s="50"/>
+      <c r="X36" s="51" t="s">
         <v>195</v>
       </c>
       <c r="Y36" s="5" t="s">
@@ -5623,12 +5631,12 @@
       <c r="Z36" s="5" t="s">
         <v>197</v>
       </c>
-      <c r="AA36" s="49" t="s">
+      <c r="AA36" s="50" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="37" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A37" s="32">
+      <c r="A37" s="33">
         <v>34</v>
       </c>
       <c r="B37" s="5" t="s">
@@ -5679,15 +5687,15 @@
       <c r="Q37" s="6">
         <v>0</v>
       </c>
-      <c r="R37" s="48">
+      <c r="R37" s="49">
         <v>0</v>
       </c>
       <c r="S37" s="5"/>
       <c r="T37" s="5"/>
       <c r="U37" s="5"/>
       <c r="V37" s="5"/>
-      <c r="W37" s="49"/>
-      <c r="X37" s="50" t="s">
+      <c r="W37" s="50"/>
+      <c r="X37" s="51" t="s">
         <v>200</v>
       </c>
       <c r="Y37" s="5" t="s">
@@ -5696,12 +5704,12 @@
       <c r="Z37" s="5" t="s">
         <v>202</v>
       </c>
-      <c r="AA37" s="49" t="s">
+      <c r="AA37" s="50" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A38" s="32">
+      <c r="A38" s="33">
         <v>35</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -5752,15 +5760,15 @@
       <c r="Q38" s="6">
         <v>0</v>
       </c>
-      <c r="R38" s="48">
+      <c r="R38" s="49">
         <v>0</v>
       </c>
       <c r="S38" s="5"/>
       <c r="T38" s="5"/>
       <c r="U38" s="5"/>
       <c r="V38" s="5"/>
-      <c r="W38" s="49"/>
-      <c r="X38" s="50" t="s">
+      <c r="W38" s="50"/>
+      <c r="X38" s="51" t="s">
         <v>205</v>
       </c>
       <c r="Y38" s="5" t="s">
@@ -5769,12 +5777,12 @@
       <c r="Z38" s="5" t="s">
         <v>207</v>
       </c>
-      <c r="AA38" s="49" t="s">
+      <c r="AA38" s="50" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A39" s="32">
+      <c r="A39" s="33">
         <v>36</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -5825,15 +5833,15 @@
       <c r="Q39" s="6">
         <v>0</v>
       </c>
-      <c r="R39" s="48">
+      <c r="R39" s="49">
         <v>0</v>
       </c>
       <c r="S39" s="5"/>
       <c r="T39" s="5"/>
       <c r="U39" s="5"/>
       <c r="V39" s="5"/>
-      <c r="W39" s="49"/>
-      <c r="X39" s="50" t="s">
+      <c r="W39" s="50"/>
+      <c r="X39" s="51" t="s">
         <v>210</v>
       </c>
       <c r="Y39" s="5" t="s">
@@ -5842,12 +5850,12 @@
       <c r="Z39" s="5" t="s">
         <v>212</v>
       </c>
-      <c r="AA39" s="49" t="s">
+      <c r="AA39" s="50" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A40" s="32">
+      <c r="A40" s="33">
         <v>37</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -5898,15 +5906,15 @@
       <c r="Q40" s="6">
         <v>0</v>
       </c>
-      <c r="R40" s="48">
+      <c r="R40" s="49">
         <v>0</v>
       </c>
       <c r="S40" s="5"/>
       <c r="T40" s="5"/>
       <c r="U40" s="5"/>
       <c r="V40" s="5"/>
-      <c r="W40" s="49"/>
-      <c r="X40" s="50" t="s">
+      <c r="W40" s="50"/>
+      <c r="X40" s="51" t="s">
         <v>215</v>
       </c>
       <c r="Y40" s="5" t="s">
@@ -5915,80 +5923,80 @@
       <c r="Z40" s="5" t="s">
         <v>217</v>
       </c>
-      <c r="AA40" s="49" t="s">
+      <c r="AA40" s="50" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A41" s="33">
+      <c r="A41" s="34">
         <v>38</v>
       </c>
-      <c r="B41" s="34" t="s">
+      <c r="B41" s="35" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="35">
-        <v>10</v>
-      </c>
-      <c r="D41" s="35">
-        <v>0</v>
-      </c>
-      <c r="E41" s="35">
-        <v>0</v>
-      </c>
-      <c r="F41" s="35">
-        <v>10</v>
-      </c>
-      <c r="G41" s="35">
-        <v>0</v>
-      </c>
-      <c r="H41" s="35">
-        <v>0</v>
-      </c>
-      <c r="I41" s="35">
-        <v>0</v>
-      </c>
-      <c r="J41" s="35">
+      <c r="C41" s="36">
+        <v>10</v>
+      </c>
+      <c r="D41" s="36">
+        <v>0</v>
+      </c>
+      <c r="E41" s="36">
+        <v>0</v>
+      </c>
+      <c r="F41" s="36">
+        <v>10</v>
+      </c>
+      <c r="G41" s="36">
+        <v>0</v>
+      </c>
+      <c r="H41" s="36">
+        <v>0</v>
+      </c>
+      <c r="I41" s="36">
+        <v>0</v>
+      </c>
+      <c r="J41" s="36">
         <v>2</v>
       </c>
-      <c r="K41" s="35">
-        <v>1</v>
-      </c>
-      <c r="L41" s="35">
-        <v>0</v>
-      </c>
-      <c r="M41" s="35">
-        <v>0</v>
-      </c>
-      <c r="N41" s="35">
-        <v>0</v>
-      </c>
-      <c r="O41" s="35">
-        <v>0</v>
-      </c>
-      <c r="P41" s="35">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="35">
-        <v>0</v>
-      </c>
-      <c r="R41" s="51">
-        <v>0</v>
-      </c>
-      <c r="S41" s="34"/>
-      <c r="T41" s="34"/>
-      <c r="U41" s="34"/>
-      <c r="V41" s="34"/>
-      <c r="W41" s="52"/>
-      <c r="X41" s="53" t="s">
+      <c r="K41" s="36">
+        <v>1</v>
+      </c>
+      <c r="L41" s="36">
+        <v>0</v>
+      </c>
+      <c r="M41" s="36">
+        <v>0</v>
+      </c>
+      <c r="N41" s="36">
+        <v>0</v>
+      </c>
+      <c r="O41" s="36">
+        <v>0</v>
+      </c>
+      <c r="P41" s="36">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="36">
+        <v>0</v>
+      </c>
+      <c r="R41" s="52">
+        <v>0</v>
+      </c>
+      <c r="S41" s="35"/>
+      <c r="T41" s="35"/>
+      <c r="U41" s="35"/>
+      <c r="V41" s="35"/>
+      <c r="W41" s="53"/>
+      <c r="X41" s="54" t="s">
         <v>219</v>
       </c>
-      <c r="Y41" s="34" t="s">
+      <c r="Y41" s="35" t="s">
         <v>220</v>
       </c>
-      <c r="Z41" s="34" t="s">
+      <c r="Z41" s="35" t="s">
         <v>221</v>
       </c>
-      <c r="AA41" s="52" t="s">
+      <c r="AA41" s="53" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6024,7 +6032,7 @@
       <c r="B1" s="5" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="18" t="s">
+      <c r="C1" s="19" t="s">
         <v>223</v>
       </c>
       <c r="D1" s="5" t="s">
@@ -6042,10 +6050,10 @@
       <c r="H1" s="5" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="18" t="s">
+      <c r="I1" s="19" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="18" t="s">
+      <c r="J1" s="19" t="s">
         <v>230</v>
       </c>
     </row>
@@ -6056,7 +6064,7 @@
       <c r="B2" s="5" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="19" t="s">
         <v>232</v>
       </c>
       <c r="D2" s="5" t="s">
@@ -6074,10 +6082,10 @@
       <c r="H2" s="5" t="s">
         <v>237</v>
       </c>
-      <c r="I2" s="18" t="s">
+      <c r="I2" s="19" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="18" t="s">
+      <c r="J2" s="19" t="s">
         <v>239</v>
       </c>
     </row>
@@ -6088,7 +6096,7 @@
       <c r="B3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="18" t="s">
+      <c r="C3" s="19" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="5" t="s">
@@ -6106,10 +6114,10 @@
       <c r="H3" s="5" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="18" t="s">
+      <c r="I3" s="19" t="s">
         <v>240</v>
       </c>
-      <c r="J3" s="18" t="s">
+      <c r="J3" s="19" t="s">
         <v>240</v>
       </c>
     </row>
@@ -6154,8 +6162,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6177,7 +6185,7 @@
       <c r="B1" s="17" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="8" t="s">
+      <c r="C1" s="17" t="s">
         <v>246</v>
       </c>
       <c r="D1" s="17" t="s">
@@ -6199,14 +6207,14 @@
         <v>252</v>
       </c>
     </row>
-    <row r="2" ht="21" customHeight="1" spans="1:9">
+    <row r="2" ht="40.5" spans="1:9">
       <c r="A2" s="17" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="17" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="8" t="s">
+      <c r="C2" s="18" t="s">
         <v>254</v>
       </c>
       <c r="D2" s="17" t="s">
@@ -6233,7 +6241,7 @@
       <c r="B3" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="8" t="s">
+      <c r="C3" s="17" t="s">
         <v>50</v>
       </c>
       <c r="D3" s="17" t="s">
@@ -6262,7 +6270,7 @@
       <c r="B4" s="7" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
       <c r="D4" s="7" t="s">
@@ -6291,7 +6299,7 @@
       <c r="B5" s="7" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>1</v>
       </c>
       <c r="D5" s="7" t="s">
@@ -6320,7 +6328,7 @@
       <c r="B6" s="7" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>1</v>
       </c>
       <c r="D6" s="7" t="s">
@@ -6349,7 +6357,7 @@
       <c r="B7" s="7" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>1</v>
       </c>
       <c r="D7" s="7" t="s">
@@ -6378,7 +6386,7 @@
       <c r="B8" s="7" t="s">
         <v>288</v>
       </c>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>2</v>
       </c>
       <c r="D8" s="7" t="s">
@@ -6407,7 +6415,7 @@
       <c r="B9" s="7" t="s">
         <v>294</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>2</v>
       </c>
       <c r="D9" s="7" t="s">
@@ -6436,7 +6444,7 @@
       <c r="B10" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="C10" s="8">
+      <c r="C10" s="7">
         <v>2</v>
       </c>
       <c r="D10" s="7" t="s">
@@ -6465,7 +6473,7 @@
       <c r="B11" s="7" t="s">
         <v>301</v>
       </c>
-      <c r="C11" s="8">
+      <c r="C11" s="7">
         <v>2</v>
       </c>
       <c r="D11" s="7" t="s">
@@ -6843,10 +6851,10 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C14" sqref="C14"/>
+      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -7886,19 +7894,19 @@
         <v>322</v>
       </c>
       <c r="F1" s="9" t="s">
-        <v>324</v>
+        <v>433</v>
       </c>
       <c r="G1" s="9" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:10">
@@ -7921,14 +7929,14 @@
         <v>338</v>
       </c>
       <c r="G2" s="9" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="H2" s="10" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="I2" s="10"/>
       <c r="J2" s="10" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:10">
@@ -7971,17 +7979,17 @@
         <v>350</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="G4" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H4" s="6">
         <v>0</v>
@@ -7995,23 +8003,23 @@
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:10">
       <c r="A5" s="5" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D5" s="5"/>
       <c r="E5" s="5" t="s">
         <v>418</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="G5" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H5" s="6">
         <v>0</v>
@@ -8031,17 +8039,17 @@
         <v>425</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D6" s="5"/>
       <c r="E6" s="5" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="F6" s="5" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="H6" s="6">
         <v>1</v>
@@ -8055,23 +8063,23 @@
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:10">
       <c r="A7" s="5" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="F7" s="5" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H7" s="6">
         <v>0</v>
@@ -8085,23 +8093,23 @@
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:10">
       <c r="A8" s="5" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C8" s="5" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D8" s="5"/>
       <c r="E8" s="5" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="H8" s="6">
         <v>0</v>
@@ -8142,22 +8150,22 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C1" s="4" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D1" s="4" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E1" s="4" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>327</v>
       </c>
       <c r="G1" s="4" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:7">
@@ -8165,22 +8173,22 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="D2" s="4" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E2" s="4" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="F2" s="4" t="s">
         <v>341</v>
       </c>
       <c r="G2" s="4" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:7">

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20745" windowHeight="9330" firstSheet="3" activeTab="4"/>
+    <workbookView windowWidth="20745" windowHeight="9330" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -6162,8 +6162,8 @@
   </sheetPr>
   <dimension ref="A1:I11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6509,7 +6509,7 @@
   <dimension ref="A1:I11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G34" sqref="G34"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6851,10 +6851,10 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="J4" sqref="J4"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20745" windowHeight="9330" activeTab="4"/>
+    <workbookView windowWidth="20745" firstSheet="3" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="713" uniqueCount="468">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="717" uniqueCount="470">
   <si>
     <t>ID</t>
   </si>
@@ -835,7 +835,7 @@
     <t>res://assets/texture/icon/character_profile_picture/crystal_mauler.png</t>
   </si>
   <si>
-    <t>attack*battle_cry*heroic_strike*resolute*retaliate</t>
+    <t>attack</t>
   </si>
   <si>
     <t>health*rage</t>
@@ -847,6 +847,9 @@
     <t>res://scenes/character/resources/animation/hero/animation_library_crystal_mauler.res</t>
   </si>
   <si>
+    <t>*battle_cry*heroic_strike*resolute*retaliate</t>
+  </si>
+  <si>
     <t>leaf_ranger</t>
   </si>
   <si>
@@ -874,7 +877,7 @@
     <t>res://assets/texture/icon/character_profile_picture/water_priestess.png</t>
   </si>
   <si>
-    <t>water_blade_slash*vortex_bind*tidal_fury*healing_spring*aqua_shield</t>
+    <t>water_blade_slash</t>
   </si>
   <si>
     <t>health*mana</t>
@@ -883,6 +886,9 @@
     <t>res://scenes/character/resources/animation/hero/animation_library_water_priestess.res</t>
   </si>
   <si>
+    <t>*vortex_bind*tidal_fury*healing_spring*aqua_shield</t>
+  </si>
+  <si>
     <t>wizard</t>
   </si>
   <si>
@@ -892,12 +898,12 @@
     <t>res://assets/texture/icon/character_profile_picture/wizard.tres</t>
   </si>
   <si>
+    <t>res://scenes/character/resources/animation/hero/animation_library_wizard.res</t>
+  </si>
+  <si>
     <t>attack*arcane_missiles*fireball*magic_shield*mana_surge</t>
   </si>
   <si>
-    <t>res://scenes/character/resources/animation/hero/animation_library_wizard.res</t>
-  </si>
-  <si>
     <t>flying_eye</t>
   </si>
   <si>
@@ -907,9 +913,6 @@
     <t>res://assets/texture/icon/character_profile_picture/flying_eye.tres</t>
   </si>
   <si>
-    <t>attack</t>
-  </si>
-  <si>
     <t>health</t>
   </si>
   <si>
@@ -1219,9 +1222,6 @@
     <t>enery*20</t>
   </si>
   <si>
-    <t>water_blade_slash</t>
-  </si>
-  <si>
     <t>水刃斩</t>
   </si>
   <si>
@@ -1439,6 +1439,12 @@
   </si>
   <si>
     <t>是否为百分比显示</t>
+  </si>
+  <si>
+    <t>dodge_rate</t>
+  </si>
+  <si>
+    <t>闪避率</t>
   </si>
 </sst>
 </file>
@@ -1451,7 +1457,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="24">
+  <fonts count="25">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1469,6 +1475,12 @@
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FFCE9178"/>
+      <name val="Consolas"/>
       <charset val="134"/>
     </font>
     <font>
@@ -1630,7 +1642,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="34">
+  <fills count="36">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1640,6 +1652,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF000000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1840,6 +1864,21 @@
     </border>
     <border>
       <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF000000"/>
       </left>
       <right style="thin">
@@ -1850,21 +1889,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF000000"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
       </bottom>
       <diagonal/>
     </border>
@@ -2317,76 +2341,70 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="28" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="30" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="4" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="32" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="16" fillId="7" borderId="31" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="8" borderId="33" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="34" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="35" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="21" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2395,10 +2413,10 @@
     <xf numFmtId="0" fontId="23" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2407,10 +2425,10 @@
     <xf numFmtId="0" fontId="23" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2419,10 +2437,10 @@
     <xf numFmtId="0" fontId="23" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2431,10 +2449,10 @@
     <xf numFmtId="0" fontId="23" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="23" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -2443,11 +2461,17 @@
     <xf numFmtId="0" fontId="23" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="24" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2467,73 +2491,102 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="4" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="3" fontId="2" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="3" fontId="3" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2557,31 +2610,31 @@
     <xf numFmtId="3" fontId="2" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="3" fontId="2" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -2614,13 +2667,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -2979,3024 +3032,3024 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="1" max="1" width="13.575" style="20" customWidth="1"/>
+    <col min="1" max="1" width="13.575" style="31" customWidth="1"/>
     <col min="2" max="2" width="13.575" style="1" customWidth="1"/>
     <col min="3" max="18" width="13.575" style="2" customWidth="1"/>
     <col min="19" max="27" width="13.575" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A1" s="21" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="22" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="23" t="s">
+      <c r="A1" s="32" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="23" t="s">
+      <c r="D1" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="23" t="s">
+      <c r="E1" s="34" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="23" t="s">
+      <c r="F1" s="34" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="23" t="s">
+      <c r="H1" s="34" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="23" t="s">
+      <c r="I1" s="34" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="23" t="s">
+      <c r="J1" s="34" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="23" t="s">
+      <c r="K1" s="34" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="34" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="23" t="s">
+      <c r="M1" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="23" t="s">
+      <c r="N1" s="34" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="23" t="s">
+      <c r="O1" s="34" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="23" t="s">
+      <c r="P1" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="23" t="s">
+      <c r="Q1" s="34" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="37" t="s">
+      <c r="R1" s="48" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="22" t="s">
+      <c r="S1" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="22" t="s">
+      <c r="U1" s="33" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="22" t="s">
+      <c r="V1" s="33" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="38" t="s">
+      <c r="W1" s="49" t="s">
         <v>22</v>
       </c>
-      <c r="X1" s="39"/>
-      <c r="Y1" s="39"/>
-      <c r="Z1" s="39"/>
-      <c r="AA1" s="55"/>
+      <c r="X1" s="50"/>
+      <c r="Y1" s="50"/>
+      <c r="Z1" s="50"/>
+      <c r="AA1" s="66"/>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="35" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="25" t="s">
+      <c r="B2" s="36" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="26" t="s">
+      <c r="C2" s="37" t="s">
         <v>25</v>
       </c>
-      <c r="D2" s="26" t="s">
+      <c r="D2" s="37" t="s">
         <v>26</v>
       </c>
-      <c r="E2" s="26" t="s">
+      <c r="E2" s="37" t="s">
         <v>27</v>
       </c>
-      <c r="F2" s="26" t="s">
+      <c r="F2" s="37" t="s">
         <v>28</v>
       </c>
-      <c r="G2" s="26" t="s">
+      <c r="G2" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="H2" s="26" t="s">
+      <c r="H2" s="37" t="s">
         <v>30</v>
       </c>
-      <c r="I2" s="26" t="s">
+      <c r="I2" s="37" t="s">
         <v>31</v>
       </c>
-      <c r="J2" s="26" t="s">
+      <c r="J2" s="37" t="s">
         <v>32</v>
       </c>
-      <c r="K2" s="26" t="s">
+      <c r="K2" s="37" t="s">
         <v>33</v>
       </c>
-      <c r="L2" s="26" t="s">
+      <c r="L2" s="37" t="s">
         <v>34</v>
       </c>
-      <c r="M2" s="26" t="s">
+      <c r="M2" s="37" t="s">
         <v>35</v>
       </c>
-      <c r="N2" s="26" t="s">
+      <c r="N2" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="O2" s="26" t="s">
+      <c r="O2" s="37" t="s">
         <v>37</v>
       </c>
-      <c r="P2" s="26" t="s">
+      <c r="P2" s="37" t="s">
         <v>38</v>
       </c>
-      <c r="Q2" s="26" t="s">
+      <c r="Q2" s="37" t="s">
         <v>39</v>
       </c>
-      <c r="R2" s="40" t="s">
+      <c r="R2" s="51" t="s">
         <v>40</v>
       </c>
-      <c r="S2" s="25" t="s">
+      <c r="S2" s="36" t="s">
         <v>41</v>
       </c>
-      <c r="T2" s="25" t="s">
+      <c r="T2" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="U2" s="25" t="s">
+      <c r="U2" s="36" t="s">
         <v>43</v>
       </c>
-      <c r="V2" s="25" t="s">
+      <c r="V2" s="36" t="s">
         <v>44</v>
       </c>
-      <c r="W2" s="41" t="s">
+      <c r="W2" s="52" t="s">
         <v>39</v>
       </c>
-      <c r="X2" s="42" t="s">
+      <c r="X2" s="53" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="56" t="s">
+      <c r="Y2" s="67" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="56" t="s">
+      <c r="Z2" s="67" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="57" t="s">
+      <c r="AA2" s="68" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A3" s="27" t="s">
+      <c r="A3" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="28" t="s">
+      <c r="B3" s="39" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="29" t="s">
+      <c r="D3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="E3" s="29" t="s">
+      <c r="E3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="29" t="s">
+      <c r="F3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="G3" s="29" t="s">
+      <c r="G3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="H3" s="29" t="s">
+      <c r="H3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="I3" s="29" t="s">
+      <c r="I3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="29" t="s">
+      <c r="J3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="K3" s="29" t="s">
+      <c r="K3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="29" t="s">
+      <c r="L3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="M3" s="29" t="s">
+      <c r="M3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="N3" s="29" t="s">
+      <c r="N3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="O3" s="29" t="s">
+      <c r="O3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="P3" s="29" t="s">
+      <c r="P3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="Q3" s="29" t="s">
+      <c r="Q3" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="R3" s="43" t="s">
+      <c r="R3" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="S3" s="28" t="s">
+      <c r="S3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="T3" s="28" t="s">
+      <c r="T3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="U3" s="28" t="s">
+      <c r="U3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="V3" s="28" t="s">
+      <c r="V3" s="39" t="s">
         <v>50</v>
       </c>
-      <c r="W3" s="44" t="s">
+      <c r="W3" s="55" t="s">
         <v>50</v>
       </c>
-      <c r="X3" s="45" t="s">
+      <c r="X3" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="Y3" s="45" t="s">
+      <c r="Y3" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="Z3" s="45" t="s">
+      <c r="Z3" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="AA3" s="58" t="s">
+      <c r="AA3" s="69" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A4" s="30">
-        <v>1</v>
-      </c>
-      <c r="B4" s="31" t="s">
+      <c r="A4" s="41">
+        <v>1</v>
+      </c>
+      <c r="B4" s="42" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="32">
-        <v>10</v>
-      </c>
-      <c r="D4" s="32">
-        <v>0</v>
-      </c>
-      <c r="E4" s="32">
-        <v>0</v>
-      </c>
-      <c r="F4" s="32">
-        <v>10</v>
-      </c>
-      <c r="G4" s="32">
-        <v>0</v>
-      </c>
-      <c r="H4" s="32">
-        <v>0</v>
-      </c>
-      <c r="I4" s="32">
-        <v>0</v>
-      </c>
-      <c r="J4" s="32">
+      <c r="C4" s="43">
+        <v>10</v>
+      </c>
+      <c r="D4" s="43">
+        <v>0</v>
+      </c>
+      <c r="E4" s="43">
+        <v>0</v>
+      </c>
+      <c r="F4" s="43">
+        <v>10</v>
+      </c>
+      <c r="G4" s="43">
+        <v>0</v>
+      </c>
+      <c r="H4" s="43">
+        <v>0</v>
+      </c>
+      <c r="I4" s="43">
+        <v>0</v>
+      </c>
+      <c r="J4" s="43">
         <v>2</v>
       </c>
-      <c r="K4" s="32">
-        <v>1</v>
-      </c>
-      <c r="L4" s="32">
-        <v>0</v>
-      </c>
-      <c r="M4" s="32">
-        <v>0</v>
-      </c>
-      <c r="N4" s="32">
-        <v>0</v>
-      </c>
-      <c r="O4" s="32">
-        <v>0</v>
-      </c>
-      <c r="P4" s="32">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="32">
-        <v>0</v>
-      </c>
-      <c r="R4" s="46">
-        <v>0</v>
-      </c>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="47"/>
-      <c r="X4" s="48" t="s">
+      <c r="K4" s="43">
+        <v>1</v>
+      </c>
+      <c r="L4" s="43">
+        <v>0</v>
+      </c>
+      <c r="M4" s="43">
+        <v>0</v>
+      </c>
+      <c r="N4" s="43">
+        <v>0</v>
+      </c>
+      <c r="O4" s="43">
+        <v>0</v>
+      </c>
+      <c r="P4" s="43">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="43">
+        <v>0</v>
+      </c>
+      <c r="R4" s="57">
+        <v>0</v>
+      </c>
+      <c r="S4" s="42"/>
+      <c r="T4" s="42"/>
+      <c r="U4" s="42"/>
+      <c r="V4" s="42"/>
+      <c r="W4" s="58"/>
+      <c r="X4" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="Y4" s="31" t="s">
+      <c r="Y4" s="42" t="s">
         <v>53</v>
       </c>
-      <c r="Z4" s="31" t="s">
+      <c r="Z4" s="42" t="s">
         <v>54</v>
       </c>
-      <c r="AA4" s="47" t="s">
+      <c r="AA4" s="58" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A5" s="33">
+      <c r="A5" s="44">
         <v>2</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="C5" s="6">
-        <v>10</v>
-      </c>
-      <c r="D5" s="6">
-        <v>0</v>
-      </c>
-      <c r="E5" s="6">
-        <v>0</v>
-      </c>
-      <c r="F5" s="6">
-        <v>10</v>
-      </c>
-      <c r="G5" s="6">
-        <v>0</v>
-      </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
-        <v>0</v>
-      </c>
-      <c r="J5" s="6">
+      <c r="C5" s="13">
+        <v>10</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0</v>
+      </c>
+      <c r="F5" s="13">
+        <v>10</v>
+      </c>
+      <c r="G5" s="13">
+        <v>0</v>
+      </c>
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
+        <v>0</v>
+      </c>
+      <c r="J5" s="13">
         <v>2</v>
       </c>
-      <c r="K5" s="6">
-        <v>1</v>
-      </c>
-      <c r="L5" s="6">
-        <v>0</v>
-      </c>
-      <c r="M5" s="6">
-        <v>0</v>
-      </c>
-      <c r="N5" s="6">
-        <v>0</v>
-      </c>
-      <c r="O5" s="6">
-        <v>0</v>
-      </c>
-      <c r="P5" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q5" s="6">
-        <v>0</v>
-      </c>
-      <c r="R5" s="49">
-        <v>0</v>
-      </c>
-      <c r="S5" s="5"/>
-      <c r="T5" s="5"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="50"/>
-      <c r="X5" s="51" t="s">
+      <c r="K5" s="13">
+        <v>1</v>
+      </c>
+      <c r="L5" s="13">
+        <v>0</v>
+      </c>
+      <c r="M5" s="13">
+        <v>0</v>
+      </c>
+      <c r="N5" s="13">
+        <v>0</v>
+      </c>
+      <c r="O5" s="13">
+        <v>0</v>
+      </c>
+      <c r="P5" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q5" s="13">
+        <v>0</v>
+      </c>
+      <c r="R5" s="60">
+        <v>0</v>
+      </c>
+      <c r="S5" s="12"/>
+      <c r="T5" s="12"/>
+      <c r="U5" s="12"/>
+      <c r="V5" s="12"/>
+      <c r="W5" s="61"/>
+      <c r="X5" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="Y5" s="5" t="s">
+      <c r="Y5" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Z5" s="5" t="s">
+      <c r="Z5" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="AA5" s="50" t="s">
+      <c r="AA5" s="61" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A6" s="33">
+      <c r="A6" s="44">
         <v>3</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="C6" s="6">
-        <v>10</v>
-      </c>
-      <c r="D6" s="6">
-        <v>0</v>
-      </c>
-      <c r="E6" s="6">
-        <v>0</v>
-      </c>
-      <c r="F6" s="6">
-        <v>10</v>
-      </c>
-      <c r="G6" s="6">
-        <v>0</v>
-      </c>
-      <c r="H6" s="6">
-        <v>0</v>
-      </c>
-      <c r="I6" s="6">
-        <v>0</v>
-      </c>
-      <c r="J6" s="6">
+      <c r="C6" s="13">
+        <v>10</v>
+      </c>
+      <c r="D6" s="13">
+        <v>0</v>
+      </c>
+      <c r="E6" s="13">
+        <v>0</v>
+      </c>
+      <c r="F6" s="13">
+        <v>10</v>
+      </c>
+      <c r="G6" s="13">
+        <v>0</v>
+      </c>
+      <c r="H6" s="13">
+        <v>0</v>
+      </c>
+      <c r="I6" s="13">
+        <v>0</v>
+      </c>
+      <c r="J6" s="13">
         <v>2</v>
       </c>
-      <c r="K6" s="6">
-        <v>1</v>
-      </c>
-      <c r="L6" s="6">
-        <v>0</v>
-      </c>
-      <c r="M6" s="6">
-        <v>0</v>
-      </c>
-      <c r="N6" s="6">
-        <v>0</v>
-      </c>
-      <c r="O6" s="6">
-        <v>0</v>
-      </c>
-      <c r="P6" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q6" s="6">
-        <v>0</v>
-      </c>
-      <c r="R6" s="49">
-        <v>0</v>
-      </c>
-      <c r="S6" s="5"/>
-      <c r="T6" s="5"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="50"/>
-      <c r="X6" s="51" t="s">
+      <c r="K6" s="13">
+        <v>1</v>
+      </c>
+      <c r="L6" s="13">
+        <v>0</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="13">
+        <v>0</v>
+      </c>
+      <c r="O6" s="13">
+        <v>0</v>
+      </c>
+      <c r="P6" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q6" s="13">
+        <v>0</v>
+      </c>
+      <c r="R6" s="60">
+        <v>0</v>
+      </c>
+      <c r="S6" s="12"/>
+      <c r="T6" s="12"/>
+      <c r="U6" s="12"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="61"/>
+      <c r="X6" s="62" t="s">
         <v>60</v>
       </c>
-      <c r="Y6" s="5" t="s">
+      <c r="Y6" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Z6" s="5" t="s">
+      <c r="Z6" s="12" t="s">
         <v>61</v>
       </c>
-      <c r="AA6" s="50" t="s">
+      <c r="AA6" s="61" t="s">
         <v>62</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A7" s="33">
+      <c r="A7" s="44">
         <v>4</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="C7" s="6">
-        <v>10</v>
-      </c>
-      <c r="D7" s="6">
-        <v>0</v>
-      </c>
-      <c r="E7" s="6">
-        <v>0</v>
-      </c>
-      <c r="F7" s="6">
-        <v>10</v>
-      </c>
-      <c r="G7" s="6">
-        <v>0</v>
-      </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
-        <v>0</v>
-      </c>
-      <c r="J7" s="6">
+      <c r="C7" s="13">
+        <v>10</v>
+      </c>
+      <c r="D7" s="13">
+        <v>0</v>
+      </c>
+      <c r="E7" s="13">
+        <v>0</v>
+      </c>
+      <c r="F7" s="13">
+        <v>10</v>
+      </c>
+      <c r="G7" s="13">
+        <v>0</v>
+      </c>
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
+        <v>0</v>
+      </c>
+      <c r="J7" s="13">
         <v>2</v>
       </c>
-      <c r="K7" s="6">
-        <v>1</v>
-      </c>
-      <c r="L7" s="6">
-        <v>0</v>
-      </c>
-      <c r="M7" s="6">
-        <v>0</v>
-      </c>
-      <c r="N7" s="6">
-        <v>0</v>
-      </c>
-      <c r="O7" s="6">
-        <v>0</v>
-      </c>
-      <c r="P7" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q7" s="6">
-        <v>0</v>
-      </c>
-      <c r="R7" s="49">
-        <v>0</v>
-      </c>
-      <c r="S7" s="5"/>
-      <c r="T7" s="5"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="50"/>
-      <c r="X7" s="51" t="s">
+      <c r="K7" s="13">
+        <v>1</v>
+      </c>
+      <c r="L7" s="13">
+        <v>0</v>
+      </c>
+      <c r="M7" s="13">
+        <v>0</v>
+      </c>
+      <c r="N7" s="13">
+        <v>0</v>
+      </c>
+      <c r="O7" s="13">
+        <v>0</v>
+      </c>
+      <c r="P7" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="13">
+        <v>0</v>
+      </c>
+      <c r="R7" s="60">
+        <v>0</v>
+      </c>
+      <c r="S7" s="12"/>
+      <c r="T7" s="12"/>
+      <c r="U7" s="12"/>
+      <c r="V7" s="12"/>
+      <c r="W7" s="61"/>
+      <c r="X7" s="62" t="s">
         <v>64</v>
       </c>
-      <c r="Y7" s="5" t="s">
+      <c r="Y7" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Z7" s="5" t="s">
+      <c r="Z7" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="AA7" s="50" t="s">
+      <c r="AA7" s="61" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A8" s="33">
+      <c r="A8" s="44">
         <v>5</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="C8" s="6">
-        <v>10</v>
-      </c>
-      <c r="D8" s="6">
-        <v>0</v>
-      </c>
-      <c r="E8" s="6">
-        <v>0</v>
-      </c>
-      <c r="F8" s="6">
-        <v>10</v>
-      </c>
-      <c r="G8" s="6">
-        <v>0</v>
-      </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
-        <v>0</v>
-      </c>
-      <c r="J8" s="6">
+      <c r="C8" s="13">
+        <v>10</v>
+      </c>
+      <c r="D8" s="13">
+        <v>0</v>
+      </c>
+      <c r="E8" s="13">
+        <v>0</v>
+      </c>
+      <c r="F8" s="13">
+        <v>10</v>
+      </c>
+      <c r="G8" s="13">
+        <v>0</v>
+      </c>
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
+        <v>0</v>
+      </c>
+      <c r="J8" s="13">
         <v>2</v>
       </c>
-      <c r="K8" s="6">
-        <v>1</v>
-      </c>
-      <c r="L8" s="6">
-        <v>0</v>
-      </c>
-      <c r="M8" s="6">
-        <v>0</v>
-      </c>
-      <c r="N8" s="6">
-        <v>0</v>
-      </c>
-      <c r="O8" s="6">
-        <v>0</v>
-      </c>
-      <c r="P8" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q8" s="6">
-        <v>0</v>
-      </c>
-      <c r="R8" s="49">
-        <v>0</v>
-      </c>
-      <c r="S8" s="5"/>
-      <c r="T8" s="5"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="50"/>
-      <c r="X8" s="51" t="s">
+      <c r="K8" s="13">
+        <v>1</v>
+      </c>
+      <c r="L8" s="13">
+        <v>0</v>
+      </c>
+      <c r="M8" s="13">
+        <v>0</v>
+      </c>
+      <c r="N8" s="13">
+        <v>0</v>
+      </c>
+      <c r="O8" s="13">
+        <v>0</v>
+      </c>
+      <c r="P8" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>0</v>
+      </c>
+      <c r="R8" s="60">
+        <v>0</v>
+      </c>
+      <c r="S8" s="12"/>
+      <c r="T8" s="12"/>
+      <c r="U8" s="12"/>
+      <c r="V8" s="12"/>
+      <c r="W8" s="61"/>
+      <c r="X8" s="62" t="s">
         <v>68</v>
       </c>
-      <c r="Y8" s="5" t="s">
+      <c r="Y8" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="Z8" s="5" t="s">
+      <c r="Z8" s="12" t="s">
         <v>69</v>
       </c>
-      <c r="AA8" s="50" t="s">
+      <c r="AA8" s="61" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="9" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A9" s="33">
+      <c r="A9" s="44">
         <v>6</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="12" t="s">
         <v>71</v>
       </c>
-      <c r="C9" s="6">
-        <v>10</v>
-      </c>
-      <c r="D9" s="6">
-        <v>0</v>
-      </c>
-      <c r="E9" s="6">
-        <v>0</v>
-      </c>
-      <c r="F9" s="6">
-        <v>10</v>
-      </c>
-      <c r="G9" s="6">
-        <v>0</v>
-      </c>
-      <c r="H9" s="6">
-        <v>0</v>
-      </c>
-      <c r="I9" s="6">
-        <v>0</v>
-      </c>
-      <c r="J9" s="6">
+      <c r="C9" s="13">
+        <v>10</v>
+      </c>
+      <c r="D9" s="13">
+        <v>0</v>
+      </c>
+      <c r="E9" s="13">
+        <v>0</v>
+      </c>
+      <c r="F9" s="13">
+        <v>10</v>
+      </c>
+      <c r="G9" s="13">
+        <v>0</v>
+      </c>
+      <c r="H9" s="13">
+        <v>0</v>
+      </c>
+      <c r="I9" s="13">
+        <v>0</v>
+      </c>
+      <c r="J9" s="13">
         <v>2</v>
       </c>
-      <c r="K9" s="6">
-        <v>1</v>
-      </c>
-      <c r="L9" s="6">
-        <v>0</v>
-      </c>
-      <c r="M9" s="6">
-        <v>0</v>
-      </c>
-      <c r="N9" s="6">
-        <v>0</v>
-      </c>
-      <c r="O9" s="6">
-        <v>0</v>
-      </c>
-      <c r="P9" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q9" s="6">
-        <v>0</v>
-      </c>
-      <c r="R9" s="49">
-        <v>0</v>
-      </c>
-      <c r="S9" s="5"/>
-      <c r="T9" s="5"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="50"/>
-      <c r="X9" s="51" t="s">
+      <c r="K9" s="13">
+        <v>1</v>
+      </c>
+      <c r="L9" s="13">
+        <v>0</v>
+      </c>
+      <c r="M9" s="13">
+        <v>0</v>
+      </c>
+      <c r="N9" s="13">
+        <v>0</v>
+      </c>
+      <c r="O9" s="13">
+        <v>0</v>
+      </c>
+      <c r="P9" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="13">
+        <v>0</v>
+      </c>
+      <c r="R9" s="60">
+        <v>0</v>
+      </c>
+      <c r="S9" s="12"/>
+      <c r="T9" s="12"/>
+      <c r="U9" s="12"/>
+      <c r="V9" s="12"/>
+      <c r="W9" s="61"/>
+      <c r="X9" s="62" t="s">
         <v>72</v>
       </c>
-      <c r="Y9" s="5" t="s">
+      <c r="Y9" s="12" t="s">
         <v>73</v>
       </c>
-      <c r="Z9" s="5" t="s">
+      <c r="Z9" s="12" t="s">
         <v>74</v>
       </c>
-      <c r="AA9" s="50" t="s">
+      <c r="AA9" s="61" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="10" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A10" s="33">
+      <c r="A10" s="44">
         <v>7</v>
       </c>
-      <c r="B10" s="5" t="s">
+      <c r="B10" s="12" t="s">
         <v>76</v>
       </c>
-      <c r="C10" s="6">
-        <v>10</v>
-      </c>
-      <c r="D10" s="6">
-        <v>0</v>
-      </c>
-      <c r="E10" s="6">
-        <v>0</v>
-      </c>
-      <c r="F10" s="6">
-        <v>10</v>
-      </c>
-      <c r="G10" s="6">
-        <v>0</v>
-      </c>
-      <c r="H10" s="6">
-        <v>0</v>
-      </c>
-      <c r="I10" s="6">
-        <v>0</v>
-      </c>
-      <c r="J10" s="6">
+      <c r="C10" s="13">
+        <v>10</v>
+      </c>
+      <c r="D10" s="13">
+        <v>0</v>
+      </c>
+      <c r="E10" s="13">
+        <v>0</v>
+      </c>
+      <c r="F10" s="13">
+        <v>10</v>
+      </c>
+      <c r="G10" s="13">
+        <v>0</v>
+      </c>
+      <c r="H10" s="13">
+        <v>0</v>
+      </c>
+      <c r="I10" s="13">
+        <v>0</v>
+      </c>
+      <c r="J10" s="13">
         <v>2</v>
       </c>
-      <c r="K10" s="6">
-        <v>1</v>
-      </c>
-      <c r="L10" s="6">
-        <v>0</v>
-      </c>
-      <c r="M10" s="6">
-        <v>0</v>
-      </c>
-      <c r="N10" s="6">
-        <v>0</v>
-      </c>
-      <c r="O10" s="6">
-        <v>0</v>
-      </c>
-      <c r="P10" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q10" s="6">
-        <v>0</v>
-      </c>
-      <c r="R10" s="49">
-        <v>0</v>
-      </c>
-      <c r="S10" s="5"/>
-      <c r="T10" s="5"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="50"/>
-      <c r="X10" s="51" t="s">
+      <c r="K10" s="13">
+        <v>1</v>
+      </c>
+      <c r="L10" s="13">
+        <v>0</v>
+      </c>
+      <c r="M10" s="13">
+        <v>0</v>
+      </c>
+      <c r="N10" s="13">
+        <v>0</v>
+      </c>
+      <c r="O10" s="13">
+        <v>0</v>
+      </c>
+      <c r="P10" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q10" s="13">
+        <v>0</v>
+      </c>
+      <c r="R10" s="60">
+        <v>0</v>
+      </c>
+      <c r="S10" s="12"/>
+      <c r="T10" s="12"/>
+      <c r="U10" s="12"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="61"/>
+      <c r="X10" s="62" t="s">
         <v>77</v>
       </c>
-      <c r="Y10" s="5" t="s">
+      <c r="Y10" s="12" t="s">
         <v>78</v>
       </c>
-      <c r="Z10" s="5" t="s">
+      <c r="Z10" s="12" t="s">
         <v>79</v>
       </c>
-      <c r="AA10" s="50" t="s">
+      <c r="AA10" s="61" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="11" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A11" s="33">
+      <c r="A11" s="44">
         <v>8</v>
       </c>
-      <c r="B11" s="5" t="s">
+      <c r="B11" s="12" t="s">
         <v>39</v>
       </c>
-      <c r="C11" s="6">
-        <v>10</v>
-      </c>
-      <c r="D11" s="6">
-        <v>0</v>
-      </c>
-      <c r="E11" s="6">
-        <v>0</v>
-      </c>
-      <c r="F11" s="6">
-        <v>10</v>
-      </c>
-      <c r="G11" s="6">
-        <v>0</v>
-      </c>
-      <c r="H11" s="6">
-        <v>0</v>
-      </c>
-      <c r="I11" s="6">
-        <v>0</v>
-      </c>
-      <c r="J11" s="6">
+      <c r="C11" s="13">
+        <v>10</v>
+      </c>
+      <c r="D11" s="13">
+        <v>0</v>
+      </c>
+      <c r="E11" s="13">
+        <v>0</v>
+      </c>
+      <c r="F11" s="13">
+        <v>10</v>
+      </c>
+      <c r="G11" s="13">
+        <v>0</v>
+      </c>
+      <c r="H11" s="13">
+        <v>0</v>
+      </c>
+      <c r="I11" s="13">
+        <v>0</v>
+      </c>
+      <c r="J11" s="13">
         <v>2</v>
       </c>
-      <c r="K11" s="6">
-        <v>1</v>
-      </c>
-      <c r="L11" s="6">
-        <v>0</v>
-      </c>
-      <c r="M11" s="6">
-        <v>0</v>
-      </c>
-      <c r="N11" s="6">
-        <v>0</v>
-      </c>
-      <c r="O11" s="6">
-        <v>0</v>
-      </c>
-      <c r="P11" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q11" s="6">
-        <v>0</v>
-      </c>
-      <c r="R11" s="49">
-        <v>0</v>
-      </c>
-      <c r="S11" s="5"/>
-      <c r="T11" s="5"/>
-      <c r="U11" s="5"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="50"/>
-      <c r="X11" s="51" t="s">
+      <c r="K11" s="13">
+        <v>1</v>
+      </c>
+      <c r="L11" s="13">
+        <v>0</v>
+      </c>
+      <c r="M11" s="13">
+        <v>0</v>
+      </c>
+      <c r="N11" s="13">
+        <v>0</v>
+      </c>
+      <c r="O11" s="13">
+        <v>0</v>
+      </c>
+      <c r="P11" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q11" s="13">
+        <v>0</v>
+      </c>
+      <c r="R11" s="60">
+        <v>0</v>
+      </c>
+      <c r="S11" s="12"/>
+      <c r="T11" s="12"/>
+      <c r="U11" s="12"/>
+      <c r="V11" s="12"/>
+      <c r="W11" s="61"/>
+      <c r="X11" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="Y11" s="5" t="s">
+      <c r="Y11" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Z11" s="5" t="s">
+      <c r="Z11" s="12" t="s">
         <v>83</v>
       </c>
-      <c r="AA11" s="50" t="s">
+      <c r="AA11" s="61" t="s">
         <v>84</v>
       </c>
     </row>
     <row r="12" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A12" s="33">
+      <c r="A12" s="44">
         <v>9</v>
       </c>
-      <c r="B12" s="5" t="s">
+      <c r="B12" s="12" t="s">
         <v>85</v>
       </c>
-      <c r="C12" s="6">
-        <v>10</v>
-      </c>
-      <c r="D12" s="6">
-        <v>0</v>
-      </c>
-      <c r="E12" s="6">
-        <v>0</v>
-      </c>
-      <c r="F12" s="6">
-        <v>10</v>
-      </c>
-      <c r="G12" s="6">
-        <v>0</v>
-      </c>
-      <c r="H12" s="6">
-        <v>0</v>
-      </c>
-      <c r="I12" s="6">
-        <v>0</v>
-      </c>
-      <c r="J12" s="6">
+      <c r="C12" s="13">
+        <v>10</v>
+      </c>
+      <c r="D12" s="13">
+        <v>0</v>
+      </c>
+      <c r="E12" s="13">
+        <v>0</v>
+      </c>
+      <c r="F12" s="13">
+        <v>10</v>
+      </c>
+      <c r="G12" s="13">
+        <v>0</v>
+      </c>
+      <c r="H12" s="13">
+        <v>0</v>
+      </c>
+      <c r="I12" s="13">
+        <v>0</v>
+      </c>
+      <c r="J12" s="13">
         <v>2</v>
       </c>
-      <c r="K12" s="6">
-        <v>1</v>
-      </c>
-      <c r="L12" s="6">
-        <v>0</v>
-      </c>
-      <c r="M12" s="6">
-        <v>0</v>
-      </c>
-      <c r="N12" s="6">
-        <v>0</v>
-      </c>
-      <c r="O12" s="6">
-        <v>0</v>
-      </c>
-      <c r="P12" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q12" s="6">
-        <v>0</v>
-      </c>
-      <c r="R12" s="49">
-        <v>0</v>
-      </c>
-      <c r="S12" s="5"/>
-      <c r="T12" s="5"/>
-      <c r="U12" s="5"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="50"/>
-      <c r="X12" s="51" t="s">
+      <c r="K12" s="13">
+        <v>1</v>
+      </c>
+      <c r="L12" s="13">
+        <v>0</v>
+      </c>
+      <c r="M12" s="13">
+        <v>0</v>
+      </c>
+      <c r="N12" s="13">
+        <v>0</v>
+      </c>
+      <c r="O12" s="13">
+        <v>0</v>
+      </c>
+      <c r="P12" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q12" s="13">
+        <v>0</v>
+      </c>
+      <c r="R12" s="60">
+        <v>0</v>
+      </c>
+      <c r="S12" s="12"/>
+      <c r="T12" s="12"/>
+      <c r="U12" s="12"/>
+      <c r="V12" s="12"/>
+      <c r="W12" s="61"/>
+      <c r="X12" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="Y12" s="5" t="s">
+      <c r="Y12" s="12" t="s">
         <v>87</v>
       </c>
-      <c r="Z12" s="5" t="s">
+      <c r="Z12" s="12" t="s">
         <v>88</v>
       </c>
-      <c r="AA12" s="50" t="s">
+      <c r="AA12" s="61" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="13" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A13" s="33">
-        <v>10</v>
-      </c>
-      <c r="B13" s="5" t="s">
+      <c r="A13" s="44">
+        <v>10</v>
+      </c>
+      <c r="B13" s="12" t="s">
         <v>90</v>
       </c>
-      <c r="C13" s="6">
-        <v>10</v>
-      </c>
-      <c r="D13" s="6">
-        <v>0</v>
-      </c>
-      <c r="E13" s="6">
-        <v>0</v>
-      </c>
-      <c r="F13" s="6">
-        <v>10</v>
-      </c>
-      <c r="G13" s="6">
-        <v>0</v>
-      </c>
-      <c r="H13" s="6">
-        <v>0</v>
-      </c>
-      <c r="I13" s="6">
-        <v>0</v>
-      </c>
-      <c r="J13" s="6">
+      <c r="C13" s="13">
+        <v>10</v>
+      </c>
+      <c r="D13" s="13">
+        <v>0</v>
+      </c>
+      <c r="E13" s="13">
+        <v>0</v>
+      </c>
+      <c r="F13" s="13">
+        <v>10</v>
+      </c>
+      <c r="G13" s="13">
+        <v>0</v>
+      </c>
+      <c r="H13" s="13">
+        <v>0</v>
+      </c>
+      <c r="I13" s="13">
+        <v>0</v>
+      </c>
+      <c r="J13" s="13">
         <v>2</v>
       </c>
-      <c r="K13" s="6">
-        <v>1</v>
-      </c>
-      <c r="L13" s="6">
-        <v>0</v>
-      </c>
-      <c r="M13" s="6">
-        <v>0</v>
-      </c>
-      <c r="N13" s="6">
-        <v>0</v>
-      </c>
-      <c r="O13" s="6">
-        <v>0</v>
-      </c>
-      <c r="P13" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q13" s="6">
-        <v>0</v>
-      </c>
-      <c r="R13" s="49">
-        <v>0</v>
-      </c>
-      <c r="S13" s="5"/>
-      <c r="T13" s="5"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="50"/>
-      <c r="X13" s="51" t="s">
+      <c r="K13" s="13">
+        <v>1</v>
+      </c>
+      <c r="L13" s="13">
+        <v>0</v>
+      </c>
+      <c r="M13" s="13">
+        <v>0</v>
+      </c>
+      <c r="N13" s="13">
+        <v>0</v>
+      </c>
+      <c r="O13" s="13">
+        <v>0</v>
+      </c>
+      <c r="P13" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q13" s="13">
+        <v>0</v>
+      </c>
+      <c r="R13" s="60">
+        <v>0</v>
+      </c>
+      <c r="S13" s="12"/>
+      <c r="T13" s="12"/>
+      <c r="U13" s="12"/>
+      <c r="V13" s="12"/>
+      <c r="W13" s="61"/>
+      <c r="X13" s="62" t="s">
         <v>91</v>
       </c>
-      <c r="Y13" s="5" t="s">
+      <c r="Y13" s="12" t="s">
         <v>82</v>
       </c>
-      <c r="Z13" s="5" t="s">
+      <c r="Z13" s="12" t="s">
         <v>92</v>
       </c>
-      <c r="AA13" s="50" t="s">
+      <c r="AA13" s="61" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="14" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A14" s="33">
+      <c r="A14" s="44">
         <v>11</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="12" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="6">
-        <v>10</v>
-      </c>
-      <c r="D14" s="6">
-        <v>0</v>
-      </c>
-      <c r="E14" s="6">
-        <v>0</v>
-      </c>
-      <c r="F14" s="6">
-        <v>10</v>
-      </c>
-      <c r="G14" s="6">
-        <v>0</v>
-      </c>
-      <c r="H14" s="6">
-        <v>0</v>
-      </c>
-      <c r="I14" s="6">
-        <v>0</v>
-      </c>
-      <c r="J14" s="6">
+      <c r="C14" s="13">
+        <v>10</v>
+      </c>
+      <c r="D14" s="13">
+        <v>0</v>
+      </c>
+      <c r="E14" s="13">
+        <v>0</v>
+      </c>
+      <c r="F14" s="13">
+        <v>10</v>
+      </c>
+      <c r="G14" s="13">
+        <v>0</v>
+      </c>
+      <c r="H14" s="13">
+        <v>0</v>
+      </c>
+      <c r="I14" s="13">
+        <v>0</v>
+      </c>
+      <c r="J14" s="13">
         <v>2</v>
       </c>
-      <c r="K14" s="6">
-        <v>1</v>
-      </c>
-      <c r="L14" s="6">
-        <v>0</v>
-      </c>
-      <c r="M14" s="6">
-        <v>0</v>
-      </c>
-      <c r="N14" s="6">
-        <v>0</v>
-      </c>
-      <c r="O14" s="6">
-        <v>0</v>
-      </c>
-      <c r="P14" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q14" s="6">
-        <v>0</v>
-      </c>
-      <c r="R14" s="49">
-        <v>0</v>
-      </c>
-      <c r="S14" s="5"/>
-      <c r="T14" s="5"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="50"/>
-      <c r="X14" s="51" t="s">
+      <c r="K14" s="13">
+        <v>1</v>
+      </c>
+      <c r="L14" s="13">
+        <v>0</v>
+      </c>
+      <c r="M14" s="13">
+        <v>0</v>
+      </c>
+      <c r="N14" s="13">
+        <v>0</v>
+      </c>
+      <c r="O14" s="13">
+        <v>0</v>
+      </c>
+      <c r="P14" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="13">
+        <v>0</v>
+      </c>
+      <c r="R14" s="60">
+        <v>0</v>
+      </c>
+      <c r="S14" s="12"/>
+      <c r="T14" s="12"/>
+      <c r="U14" s="12"/>
+      <c r="V14" s="12"/>
+      <c r="W14" s="61"/>
+      <c r="X14" s="62" t="s">
         <v>95</v>
       </c>
-      <c r="Y14" s="5" t="s">
+      <c r="Y14" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="Z14" s="5" t="s">
+      <c r="Z14" s="12" t="s">
         <v>97</v>
       </c>
-      <c r="AA14" s="50" t="s">
+      <c r="AA14" s="61" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="15" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A15" s="33">
+      <c r="A15" s="44">
         <v>12</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="12" t="s">
         <v>99</v>
       </c>
-      <c r="C15" s="6">
-        <v>10</v>
-      </c>
-      <c r="D15" s="6">
-        <v>0</v>
-      </c>
-      <c r="E15" s="6">
-        <v>0</v>
-      </c>
-      <c r="F15" s="6">
-        <v>10</v>
-      </c>
-      <c r="G15" s="6">
-        <v>0</v>
-      </c>
-      <c r="H15" s="6">
-        <v>0</v>
-      </c>
-      <c r="I15" s="6">
-        <v>0</v>
-      </c>
-      <c r="J15" s="6">
+      <c r="C15" s="13">
+        <v>10</v>
+      </c>
+      <c r="D15" s="13">
+        <v>0</v>
+      </c>
+      <c r="E15" s="13">
+        <v>0</v>
+      </c>
+      <c r="F15" s="13">
+        <v>10</v>
+      </c>
+      <c r="G15" s="13">
+        <v>0</v>
+      </c>
+      <c r="H15" s="13">
+        <v>0</v>
+      </c>
+      <c r="I15" s="13">
+        <v>0</v>
+      </c>
+      <c r="J15" s="13">
         <v>2</v>
       </c>
-      <c r="K15" s="6">
-        <v>1</v>
-      </c>
-      <c r="L15" s="6">
-        <v>0</v>
-      </c>
-      <c r="M15" s="6">
-        <v>0</v>
-      </c>
-      <c r="N15" s="6">
-        <v>0</v>
-      </c>
-      <c r="O15" s="6">
-        <v>0</v>
-      </c>
-      <c r="P15" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q15" s="6">
-        <v>0</v>
-      </c>
-      <c r="R15" s="49">
-        <v>0</v>
-      </c>
-      <c r="S15" s="5"/>
-      <c r="T15" s="5"/>
-      <c r="U15" s="5"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="50"/>
-      <c r="X15" s="51" t="s">
+      <c r="K15" s="13">
+        <v>1</v>
+      </c>
+      <c r="L15" s="13">
+        <v>0</v>
+      </c>
+      <c r="M15" s="13">
+        <v>0</v>
+      </c>
+      <c r="N15" s="13">
+        <v>0</v>
+      </c>
+      <c r="O15" s="13">
+        <v>0</v>
+      </c>
+      <c r="P15" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="13">
+        <v>0</v>
+      </c>
+      <c r="R15" s="60">
+        <v>0</v>
+      </c>
+      <c r="S15" s="12"/>
+      <c r="T15" s="12"/>
+      <c r="U15" s="12"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="61"/>
+      <c r="X15" s="62" t="s">
         <v>100</v>
       </c>
-      <c r="Y15" s="5" t="s">
+      <c r="Y15" s="12" t="s">
         <v>101</v>
       </c>
-      <c r="Z15" s="5" t="s">
+      <c r="Z15" s="12" t="s">
         <v>102</v>
       </c>
-      <c r="AA15" s="50" t="s">
+      <c r="AA15" s="61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="16" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A16" s="33">
+      <c r="A16" s="44">
         <v>13</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="12" t="s">
         <v>103</v>
       </c>
-      <c r="C16" s="6">
-        <v>10</v>
-      </c>
-      <c r="D16" s="6">
-        <v>0</v>
-      </c>
-      <c r="E16" s="6">
-        <v>0</v>
-      </c>
-      <c r="F16" s="6">
-        <v>10</v>
-      </c>
-      <c r="G16" s="6">
-        <v>0</v>
-      </c>
-      <c r="H16" s="6">
-        <v>0</v>
-      </c>
-      <c r="I16" s="6">
-        <v>0</v>
-      </c>
-      <c r="J16" s="6">
+      <c r="C16" s="13">
+        <v>10</v>
+      </c>
+      <c r="D16" s="13">
+        <v>0</v>
+      </c>
+      <c r="E16" s="13">
+        <v>0</v>
+      </c>
+      <c r="F16" s="13">
+        <v>10</v>
+      </c>
+      <c r="G16" s="13">
+        <v>0</v>
+      </c>
+      <c r="H16" s="13">
+        <v>0</v>
+      </c>
+      <c r="I16" s="13">
+        <v>0</v>
+      </c>
+      <c r="J16" s="13">
         <v>2</v>
       </c>
-      <c r="K16" s="6">
-        <v>1</v>
-      </c>
-      <c r="L16" s="6">
-        <v>0</v>
-      </c>
-      <c r="M16" s="6">
-        <v>0</v>
-      </c>
-      <c r="N16" s="6">
-        <v>0</v>
-      </c>
-      <c r="O16" s="6">
-        <v>0</v>
-      </c>
-      <c r="P16" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q16" s="6">
-        <v>0</v>
-      </c>
-      <c r="R16" s="49">
-        <v>0</v>
-      </c>
-      <c r="S16" s="5"/>
-      <c r="T16" s="5"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="50"/>
-      <c r="X16" s="51" t="s">
+      <c r="K16" s="13">
+        <v>1</v>
+      </c>
+      <c r="L16" s="13">
+        <v>0</v>
+      </c>
+      <c r="M16" s="13">
+        <v>0</v>
+      </c>
+      <c r="N16" s="13">
+        <v>0</v>
+      </c>
+      <c r="O16" s="13">
+        <v>0</v>
+      </c>
+      <c r="P16" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q16" s="13">
+        <v>0</v>
+      </c>
+      <c r="R16" s="60">
+        <v>0</v>
+      </c>
+      <c r="S16" s="12"/>
+      <c r="T16" s="12"/>
+      <c r="U16" s="12"/>
+      <c r="V16" s="12"/>
+      <c r="W16" s="61"/>
+      <c r="X16" s="62" t="s">
         <v>104</v>
       </c>
-      <c r="Y16" s="5" t="s">
+      <c r="Y16" s="12" t="s">
         <v>105</v>
       </c>
-      <c r="Z16" s="5" t="s">
+      <c r="Z16" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="AA16" s="50" t="s">
+      <c r="AA16" s="61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="17" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A17" s="33">
+      <c r="A17" s="44">
         <v>14</v>
       </c>
-      <c r="B17" s="5" t="s">
+      <c r="B17" s="12" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="6">
-        <v>10</v>
-      </c>
-      <c r="D17" s="6">
-        <v>0</v>
-      </c>
-      <c r="E17" s="6">
-        <v>0</v>
-      </c>
-      <c r="F17" s="6">
-        <v>10</v>
-      </c>
-      <c r="G17" s="6">
-        <v>0</v>
-      </c>
-      <c r="H17" s="6">
-        <v>0</v>
-      </c>
-      <c r="I17" s="6">
-        <v>0</v>
-      </c>
-      <c r="J17" s="6">
+      <c r="C17" s="13">
+        <v>10</v>
+      </c>
+      <c r="D17" s="13">
+        <v>0</v>
+      </c>
+      <c r="E17" s="13">
+        <v>0</v>
+      </c>
+      <c r="F17" s="13">
+        <v>10</v>
+      </c>
+      <c r="G17" s="13">
+        <v>0</v>
+      </c>
+      <c r="H17" s="13">
+        <v>0</v>
+      </c>
+      <c r="I17" s="13">
+        <v>0</v>
+      </c>
+      <c r="J17" s="13">
         <v>2</v>
       </c>
-      <c r="K17" s="6">
-        <v>1</v>
-      </c>
-      <c r="L17" s="6">
-        <v>0</v>
-      </c>
-      <c r="M17" s="6">
-        <v>0</v>
-      </c>
-      <c r="N17" s="6">
-        <v>0</v>
-      </c>
-      <c r="O17" s="6">
-        <v>0</v>
-      </c>
-      <c r="P17" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q17" s="6">
-        <v>0</v>
-      </c>
-      <c r="R17" s="49">
-        <v>0</v>
-      </c>
-      <c r="S17" s="5"/>
-      <c r="T17" s="5"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="50"/>
-      <c r="X17" s="51" t="s">
+      <c r="K17" s="13">
+        <v>1</v>
+      </c>
+      <c r="L17" s="13">
+        <v>0</v>
+      </c>
+      <c r="M17" s="13">
+        <v>0</v>
+      </c>
+      <c r="N17" s="13">
+        <v>0</v>
+      </c>
+      <c r="O17" s="13">
+        <v>0</v>
+      </c>
+      <c r="P17" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q17" s="13">
+        <v>0</v>
+      </c>
+      <c r="R17" s="60">
+        <v>0</v>
+      </c>
+      <c r="S17" s="12"/>
+      <c r="T17" s="12"/>
+      <c r="U17" s="12"/>
+      <c r="V17" s="12"/>
+      <c r="W17" s="61"/>
+      <c r="X17" s="62" t="s">
         <v>108</v>
       </c>
-      <c r="Y17" s="5" t="s">
+      <c r="Y17" s="12" t="s">
         <v>109</v>
       </c>
-      <c r="Z17" s="5" t="s">
+      <c r="Z17" s="12" t="s">
         <v>110</v>
       </c>
-      <c r="AA17" s="50" t="s">
+      <c r="AA17" s="61" t="s">
         <v>111</v>
       </c>
     </row>
     <row r="18" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A18" s="33">
+      <c r="A18" s="44">
         <v>15</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="C18" s="6">
-        <v>10</v>
-      </c>
-      <c r="D18" s="6">
-        <v>0</v>
-      </c>
-      <c r="E18" s="6">
-        <v>0</v>
-      </c>
-      <c r="F18" s="6">
-        <v>10</v>
-      </c>
-      <c r="G18" s="6">
-        <v>0</v>
-      </c>
-      <c r="H18" s="6">
-        <v>0</v>
-      </c>
-      <c r="I18" s="6">
-        <v>0</v>
-      </c>
-      <c r="J18" s="6">
+      <c r="C18" s="13">
+        <v>10</v>
+      </c>
+      <c r="D18" s="13">
+        <v>0</v>
+      </c>
+      <c r="E18" s="13">
+        <v>0</v>
+      </c>
+      <c r="F18" s="13">
+        <v>10</v>
+      </c>
+      <c r="G18" s="13">
+        <v>0</v>
+      </c>
+      <c r="H18" s="13">
+        <v>0</v>
+      </c>
+      <c r="I18" s="13">
+        <v>0</v>
+      </c>
+      <c r="J18" s="13">
         <v>2</v>
       </c>
-      <c r="K18" s="6">
-        <v>1</v>
-      </c>
-      <c r="L18" s="6">
-        <v>0</v>
-      </c>
-      <c r="M18" s="6">
-        <v>0</v>
-      </c>
-      <c r="N18" s="6">
-        <v>0</v>
-      </c>
-      <c r="O18" s="6">
-        <v>0</v>
-      </c>
-      <c r="P18" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q18" s="6">
-        <v>0</v>
-      </c>
-      <c r="R18" s="49">
-        <v>0</v>
-      </c>
-      <c r="S18" s="5"/>
-      <c r="T18" s="5"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="50"/>
-      <c r="X18" s="51" t="s">
+      <c r="K18" s="13">
+        <v>1</v>
+      </c>
+      <c r="L18" s="13">
+        <v>0</v>
+      </c>
+      <c r="M18" s="13">
+        <v>0</v>
+      </c>
+      <c r="N18" s="13">
+        <v>0</v>
+      </c>
+      <c r="O18" s="13">
+        <v>0</v>
+      </c>
+      <c r="P18" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q18" s="13">
+        <v>0</v>
+      </c>
+      <c r="R18" s="60">
+        <v>0</v>
+      </c>
+      <c r="S18" s="12"/>
+      <c r="T18" s="12"/>
+      <c r="U18" s="12"/>
+      <c r="V18" s="12"/>
+      <c r="W18" s="61"/>
+      <c r="X18" s="62" t="s">
         <v>113</v>
       </c>
-      <c r="Y18" s="5" t="s">
+      <c r="Y18" s="12" t="s">
         <v>114</v>
       </c>
-      <c r="Z18" s="5" t="s">
+      <c r="Z18" s="12" t="s">
         <v>115</v>
       </c>
-      <c r="AA18" s="50" t="s">
+      <c r="AA18" s="61" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="19" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A19" s="33">
+      <c r="A19" s="44">
         <v>16</v>
       </c>
-      <c r="B19" s="5" t="s">
+      <c r="B19" s="12" t="s">
         <v>116</v>
       </c>
-      <c r="C19" s="6">
-        <v>10</v>
-      </c>
-      <c r="D19" s="6">
-        <v>0</v>
-      </c>
-      <c r="E19" s="6">
-        <v>0</v>
-      </c>
-      <c r="F19" s="6">
-        <v>10</v>
-      </c>
-      <c r="G19" s="6">
-        <v>0</v>
-      </c>
-      <c r="H19" s="6">
-        <v>0</v>
-      </c>
-      <c r="I19" s="6">
-        <v>0</v>
-      </c>
-      <c r="J19" s="6">
+      <c r="C19" s="13">
+        <v>10</v>
+      </c>
+      <c r="D19" s="13">
+        <v>0</v>
+      </c>
+      <c r="E19" s="13">
+        <v>0</v>
+      </c>
+      <c r="F19" s="13">
+        <v>10</v>
+      </c>
+      <c r="G19" s="13">
+        <v>0</v>
+      </c>
+      <c r="H19" s="13">
+        <v>0</v>
+      </c>
+      <c r="I19" s="13">
+        <v>0</v>
+      </c>
+      <c r="J19" s="13">
         <v>2</v>
       </c>
-      <c r="K19" s="6">
-        <v>1</v>
-      </c>
-      <c r="L19" s="6">
-        <v>0</v>
-      </c>
-      <c r="M19" s="6">
-        <v>0</v>
-      </c>
-      <c r="N19" s="6">
-        <v>0</v>
-      </c>
-      <c r="O19" s="6">
-        <v>0</v>
-      </c>
-      <c r="P19" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q19" s="6">
-        <v>0</v>
-      </c>
-      <c r="R19" s="49">
-        <v>0</v>
-      </c>
-      <c r="S19" s="5"/>
-      <c r="T19" s="5"/>
-      <c r="U19" s="5"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="50"/>
-      <c r="X19" s="51" t="s">
+      <c r="K19" s="13">
+        <v>1</v>
+      </c>
+      <c r="L19" s="13">
+        <v>0</v>
+      </c>
+      <c r="M19" s="13">
+        <v>0</v>
+      </c>
+      <c r="N19" s="13">
+        <v>0</v>
+      </c>
+      <c r="O19" s="13">
+        <v>0</v>
+      </c>
+      <c r="P19" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q19" s="13">
+        <v>0</v>
+      </c>
+      <c r="R19" s="60">
+        <v>0</v>
+      </c>
+      <c r="S19" s="12"/>
+      <c r="T19" s="12"/>
+      <c r="U19" s="12"/>
+      <c r="V19" s="12"/>
+      <c r="W19" s="61"/>
+      <c r="X19" s="62" t="s">
         <v>117</v>
       </c>
-      <c r="Y19" s="5" t="s">
+      <c r="Y19" s="12" t="s">
         <v>118</v>
       </c>
-      <c r="Z19" s="5" t="s">
+      <c r="Z19" s="12" t="s">
         <v>119</v>
       </c>
-      <c r="AA19" s="50" t="s">
+      <c r="AA19" s="61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="20" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A20" s="33">
+      <c r="A20" s="44">
         <v>17</v>
       </c>
-      <c r="B20" s="5" t="s">
+      <c r="B20" s="12" t="s">
         <v>120</v>
       </c>
-      <c r="C20" s="6">
-        <v>10</v>
-      </c>
-      <c r="D20" s="6">
-        <v>0</v>
-      </c>
-      <c r="E20" s="6">
-        <v>0</v>
-      </c>
-      <c r="F20" s="6">
-        <v>10</v>
-      </c>
-      <c r="G20" s="6">
-        <v>0</v>
-      </c>
-      <c r="H20" s="6">
-        <v>0</v>
-      </c>
-      <c r="I20" s="6">
-        <v>0</v>
-      </c>
-      <c r="J20" s="6">
+      <c r="C20" s="13">
+        <v>10</v>
+      </c>
+      <c r="D20" s="13">
+        <v>0</v>
+      </c>
+      <c r="E20" s="13">
+        <v>0</v>
+      </c>
+      <c r="F20" s="13">
+        <v>10</v>
+      </c>
+      <c r="G20" s="13">
+        <v>0</v>
+      </c>
+      <c r="H20" s="13">
+        <v>0</v>
+      </c>
+      <c r="I20" s="13">
+        <v>0</v>
+      </c>
+      <c r="J20" s="13">
         <v>2</v>
       </c>
-      <c r="K20" s="6">
-        <v>1</v>
-      </c>
-      <c r="L20" s="6">
-        <v>0</v>
-      </c>
-      <c r="M20" s="6">
-        <v>0</v>
-      </c>
-      <c r="N20" s="6">
-        <v>0</v>
-      </c>
-      <c r="O20" s="6">
-        <v>0</v>
-      </c>
-      <c r="P20" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q20" s="6">
-        <v>0</v>
-      </c>
-      <c r="R20" s="49">
-        <v>0</v>
-      </c>
-      <c r="S20" s="5"/>
-      <c r="T20" s="5"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="50"/>
-      <c r="X20" s="51" t="s">
+      <c r="K20" s="13">
+        <v>1</v>
+      </c>
+      <c r="L20" s="13">
+        <v>0</v>
+      </c>
+      <c r="M20" s="13">
+        <v>0</v>
+      </c>
+      <c r="N20" s="13">
+        <v>0</v>
+      </c>
+      <c r="O20" s="13">
+        <v>0</v>
+      </c>
+      <c r="P20" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q20" s="13">
+        <v>0</v>
+      </c>
+      <c r="R20" s="60">
+        <v>0</v>
+      </c>
+      <c r="S20" s="12"/>
+      <c r="T20" s="12"/>
+      <c r="U20" s="12"/>
+      <c r="V20" s="12"/>
+      <c r="W20" s="61"/>
+      <c r="X20" s="62" t="s">
         <v>121</v>
       </c>
-      <c r="Y20" s="5" t="s">
+      <c r="Y20" s="12" t="s">
         <v>122</v>
       </c>
-      <c r="Z20" s="5" t="s">
+      <c r="Z20" s="12" t="s">
         <v>123</v>
       </c>
-      <c r="AA20" s="50" t="s">
+      <c r="AA20" s="61" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="21" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A21" s="33">
+      <c r="A21" s="44">
         <v>18</v>
       </c>
-      <c r="B21" s="5" t="s">
+      <c r="B21" s="12" t="s">
         <v>124</v>
       </c>
-      <c r="C21" s="6">
-        <v>10</v>
-      </c>
-      <c r="D21" s="6">
-        <v>0</v>
-      </c>
-      <c r="E21" s="6">
-        <v>0</v>
-      </c>
-      <c r="F21" s="6">
-        <v>10</v>
-      </c>
-      <c r="G21" s="6">
-        <v>0</v>
-      </c>
-      <c r="H21" s="6">
-        <v>0</v>
-      </c>
-      <c r="I21" s="6">
-        <v>0</v>
-      </c>
-      <c r="J21" s="6">
+      <c r="C21" s="13">
+        <v>10</v>
+      </c>
+      <c r="D21" s="13">
+        <v>0</v>
+      </c>
+      <c r="E21" s="13">
+        <v>0</v>
+      </c>
+      <c r="F21" s="13">
+        <v>10</v>
+      </c>
+      <c r="G21" s="13">
+        <v>0</v>
+      </c>
+      <c r="H21" s="13">
+        <v>0</v>
+      </c>
+      <c r="I21" s="13">
+        <v>0</v>
+      </c>
+      <c r="J21" s="13">
         <v>2</v>
       </c>
-      <c r="K21" s="6">
-        <v>1</v>
-      </c>
-      <c r="L21" s="6">
-        <v>0</v>
-      </c>
-      <c r="M21" s="6">
-        <v>0</v>
-      </c>
-      <c r="N21" s="6">
-        <v>0</v>
-      </c>
-      <c r="O21" s="6">
-        <v>0</v>
-      </c>
-      <c r="P21" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q21" s="6">
-        <v>0</v>
-      </c>
-      <c r="R21" s="49">
-        <v>0</v>
-      </c>
-      <c r="S21" s="5"/>
-      <c r="T21" s="5"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="50"/>
-      <c r="X21" s="51" t="s">
+      <c r="K21" s="13">
+        <v>1</v>
+      </c>
+      <c r="L21" s="13">
+        <v>0</v>
+      </c>
+      <c r="M21" s="13">
+        <v>0</v>
+      </c>
+      <c r="N21" s="13">
+        <v>0</v>
+      </c>
+      <c r="O21" s="13">
+        <v>0</v>
+      </c>
+      <c r="P21" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q21" s="13">
+        <v>0</v>
+      </c>
+      <c r="R21" s="60">
+        <v>0</v>
+      </c>
+      <c r="S21" s="12"/>
+      <c r="T21" s="12"/>
+      <c r="U21" s="12"/>
+      <c r="V21" s="12"/>
+      <c r="W21" s="61"/>
+      <c r="X21" s="62" t="s">
         <v>125</v>
       </c>
-      <c r="Y21" s="5" t="s">
+      <c r="Y21" s="12" t="s">
         <v>126</v>
       </c>
-      <c r="Z21" s="5" t="s">
+      <c r="Z21" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="AA21" s="50" t="s">
+      <c r="AA21" s="61" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="22" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A22" s="33">
+      <c r="A22" s="44">
         <v>19</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="C22" s="6">
-        <v>10</v>
-      </c>
-      <c r="D22" s="6">
-        <v>0</v>
-      </c>
-      <c r="E22" s="6">
-        <v>0</v>
-      </c>
-      <c r="F22" s="6">
-        <v>10</v>
-      </c>
-      <c r="G22" s="6">
-        <v>0</v>
-      </c>
-      <c r="H22" s="6">
-        <v>0</v>
-      </c>
-      <c r="I22" s="6">
-        <v>0</v>
-      </c>
-      <c r="J22" s="6">
+      <c r="C22" s="13">
+        <v>10</v>
+      </c>
+      <c r="D22" s="13">
+        <v>0</v>
+      </c>
+      <c r="E22" s="13">
+        <v>0</v>
+      </c>
+      <c r="F22" s="13">
+        <v>10</v>
+      </c>
+      <c r="G22" s="13">
+        <v>0</v>
+      </c>
+      <c r="H22" s="13">
+        <v>0</v>
+      </c>
+      <c r="I22" s="13">
+        <v>0</v>
+      </c>
+      <c r="J22" s="13">
         <v>2</v>
       </c>
-      <c r="K22" s="6">
-        <v>1</v>
-      </c>
-      <c r="L22" s="6">
-        <v>0</v>
-      </c>
-      <c r="M22" s="6">
-        <v>0</v>
-      </c>
-      <c r="N22" s="6">
-        <v>0</v>
-      </c>
-      <c r="O22" s="6">
-        <v>0</v>
-      </c>
-      <c r="P22" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q22" s="6">
-        <v>0</v>
-      </c>
-      <c r="R22" s="49">
-        <v>0</v>
-      </c>
-      <c r="S22" s="5"/>
-      <c r="T22" s="5"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="50"/>
-      <c r="X22" s="51" t="s">
+      <c r="K22" s="13">
+        <v>1</v>
+      </c>
+      <c r="L22" s="13">
+        <v>0</v>
+      </c>
+      <c r="M22" s="13">
+        <v>0</v>
+      </c>
+      <c r="N22" s="13">
+        <v>0</v>
+      </c>
+      <c r="O22" s="13">
+        <v>0</v>
+      </c>
+      <c r="P22" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="13">
+        <v>0</v>
+      </c>
+      <c r="R22" s="60">
+        <v>0</v>
+      </c>
+      <c r="S22" s="12"/>
+      <c r="T22" s="12"/>
+      <c r="U22" s="12"/>
+      <c r="V22" s="12"/>
+      <c r="W22" s="61"/>
+      <c r="X22" s="62" t="s">
         <v>129</v>
       </c>
-      <c r="Y22" s="5" t="s">
+      <c r="Y22" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="Z22" s="5" t="s">
+      <c r="Z22" s="12" t="s">
         <v>131</v>
       </c>
-      <c r="AA22" s="50" t="s">
+      <c r="AA22" s="61" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="23" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A23" s="33">
+      <c r="A23" s="44">
         <v>20</v>
       </c>
-      <c r="B23" s="5" t="s">
+      <c r="B23" s="12" t="s">
         <v>133</v>
       </c>
-      <c r="C23" s="6">
-        <v>10</v>
-      </c>
-      <c r="D23" s="6">
-        <v>0</v>
-      </c>
-      <c r="E23" s="6">
-        <v>0</v>
-      </c>
-      <c r="F23" s="6">
-        <v>10</v>
-      </c>
-      <c r="G23" s="6">
-        <v>0</v>
-      </c>
-      <c r="H23" s="6">
-        <v>0</v>
-      </c>
-      <c r="I23" s="6">
-        <v>0</v>
-      </c>
-      <c r="J23" s="6">
+      <c r="C23" s="13">
+        <v>10</v>
+      </c>
+      <c r="D23" s="13">
+        <v>0</v>
+      </c>
+      <c r="E23" s="13">
+        <v>0</v>
+      </c>
+      <c r="F23" s="13">
+        <v>10</v>
+      </c>
+      <c r="G23" s="13">
+        <v>0</v>
+      </c>
+      <c r="H23" s="13">
+        <v>0</v>
+      </c>
+      <c r="I23" s="13">
+        <v>0</v>
+      </c>
+      <c r="J23" s="13">
         <v>2</v>
       </c>
-      <c r="K23" s="6">
-        <v>1</v>
-      </c>
-      <c r="L23" s="6">
-        <v>0</v>
-      </c>
-      <c r="M23" s="6">
-        <v>0</v>
-      </c>
-      <c r="N23" s="6">
-        <v>0</v>
-      </c>
-      <c r="O23" s="6">
-        <v>0</v>
-      </c>
-      <c r="P23" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q23" s="6">
-        <v>0</v>
-      </c>
-      <c r="R23" s="49">
-        <v>0</v>
-      </c>
-      <c r="S23" s="5"/>
-      <c r="T23" s="5"/>
-      <c r="U23" s="5"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="50"/>
-      <c r="X23" s="51" t="s">
+      <c r="K23" s="13">
+        <v>1</v>
+      </c>
+      <c r="L23" s="13">
+        <v>0</v>
+      </c>
+      <c r="M23" s="13">
+        <v>0</v>
+      </c>
+      <c r="N23" s="13">
+        <v>0</v>
+      </c>
+      <c r="O23" s="13">
+        <v>0</v>
+      </c>
+      <c r="P23" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q23" s="13">
+        <v>0</v>
+      </c>
+      <c r="R23" s="60">
+        <v>0</v>
+      </c>
+      <c r="S23" s="12"/>
+      <c r="T23" s="12"/>
+      <c r="U23" s="12"/>
+      <c r="V23" s="12"/>
+      <c r="W23" s="61"/>
+      <c r="X23" s="62" t="s">
         <v>134</v>
       </c>
-      <c r="Y23" s="5" t="s">
+      <c r="Y23" s="12" t="s">
         <v>135</v>
       </c>
-      <c r="Z23" s="5" t="s">
+      <c r="Z23" s="12" t="s">
         <v>136</v>
       </c>
-      <c r="AA23" s="50" t="s">
+      <c r="AA23" s="61" t="s">
         <v>137</v>
       </c>
     </row>
     <row r="24" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A24" s="33">
+      <c r="A24" s="44">
         <v>21</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="12" t="s">
         <v>138</v>
       </c>
-      <c r="C24" s="6">
-        <v>10</v>
-      </c>
-      <c r="D24" s="6">
-        <v>0</v>
-      </c>
-      <c r="E24" s="6">
-        <v>0</v>
-      </c>
-      <c r="F24" s="6">
-        <v>10</v>
-      </c>
-      <c r="G24" s="6">
-        <v>0</v>
-      </c>
-      <c r="H24" s="6">
-        <v>0</v>
-      </c>
-      <c r="I24" s="6">
-        <v>0</v>
-      </c>
-      <c r="J24" s="6">
+      <c r="C24" s="13">
+        <v>10</v>
+      </c>
+      <c r="D24" s="13">
+        <v>0</v>
+      </c>
+      <c r="E24" s="13">
+        <v>0</v>
+      </c>
+      <c r="F24" s="13">
+        <v>10</v>
+      </c>
+      <c r="G24" s="13">
+        <v>0</v>
+      </c>
+      <c r="H24" s="13">
+        <v>0</v>
+      </c>
+      <c r="I24" s="13">
+        <v>0</v>
+      </c>
+      <c r="J24" s="13">
         <v>2</v>
       </c>
-      <c r="K24" s="6">
-        <v>1</v>
-      </c>
-      <c r="L24" s="6">
-        <v>0</v>
-      </c>
-      <c r="M24" s="6">
-        <v>0</v>
-      </c>
-      <c r="N24" s="6">
-        <v>0</v>
-      </c>
-      <c r="O24" s="6">
-        <v>0</v>
-      </c>
-      <c r="P24" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q24" s="6">
-        <v>0</v>
-      </c>
-      <c r="R24" s="49">
-        <v>0</v>
-      </c>
-      <c r="S24" s="5"/>
-      <c r="T24" s="5"/>
-      <c r="U24" s="5"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="50"/>
-      <c r="X24" s="51" t="s">
+      <c r="K24" s="13">
+        <v>1</v>
+      </c>
+      <c r="L24" s="13">
+        <v>0</v>
+      </c>
+      <c r="M24" s="13">
+        <v>0</v>
+      </c>
+      <c r="N24" s="13">
+        <v>0</v>
+      </c>
+      <c r="O24" s="13">
+        <v>0</v>
+      </c>
+      <c r="P24" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q24" s="13">
+        <v>0</v>
+      </c>
+      <c r="R24" s="60">
+        <v>0</v>
+      </c>
+      <c r="S24" s="12"/>
+      <c r="T24" s="12"/>
+      <c r="U24" s="12"/>
+      <c r="V24" s="12"/>
+      <c r="W24" s="61"/>
+      <c r="X24" s="62" t="s">
         <v>139</v>
       </c>
-      <c r="Y24" s="5" t="s">
+      <c r="Y24" s="12" t="s">
         <v>140</v>
       </c>
-      <c r="Z24" s="5" t="s">
+      <c r="Z24" s="12" t="s">
         <v>141</v>
       </c>
-      <c r="AA24" s="50" t="s">
+      <c r="AA24" s="61" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A25" s="33">
+      <c r="A25" s="44">
         <v>22</v>
       </c>
-      <c r="B25" s="5" t="s">
+      <c r="B25" s="12" t="s">
         <v>143</v>
       </c>
-      <c r="C25" s="6">
-        <v>10</v>
-      </c>
-      <c r="D25" s="6">
-        <v>0</v>
-      </c>
-      <c r="E25" s="6">
-        <v>0</v>
-      </c>
-      <c r="F25" s="6">
-        <v>10</v>
-      </c>
-      <c r="G25" s="6">
-        <v>0</v>
-      </c>
-      <c r="H25" s="6">
-        <v>0</v>
-      </c>
-      <c r="I25" s="6">
-        <v>0</v>
-      </c>
-      <c r="J25" s="6">
+      <c r="C25" s="13">
+        <v>10</v>
+      </c>
+      <c r="D25" s="13">
+        <v>0</v>
+      </c>
+      <c r="E25" s="13">
+        <v>0</v>
+      </c>
+      <c r="F25" s="13">
+        <v>10</v>
+      </c>
+      <c r="G25" s="13">
+        <v>0</v>
+      </c>
+      <c r="H25" s="13">
+        <v>0</v>
+      </c>
+      <c r="I25" s="13">
+        <v>0</v>
+      </c>
+      <c r="J25" s="13">
         <v>2</v>
       </c>
-      <c r="K25" s="6">
-        <v>1</v>
-      </c>
-      <c r="L25" s="6">
-        <v>0</v>
-      </c>
-      <c r="M25" s="6">
-        <v>0</v>
-      </c>
-      <c r="N25" s="6">
-        <v>0</v>
-      </c>
-      <c r="O25" s="6">
-        <v>0</v>
-      </c>
-      <c r="P25" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q25" s="6">
-        <v>0</v>
-      </c>
-      <c r="R25" s="49">
-        <v>0</v>
-      </c>
-      <c r="S25" s="5"/>
-      <c r="T25" s="5"/>
-      <c r="U25" s="5"/>
-      <c r="V25" s="5"/>
-      <c r="W25" s="50"/>
-      <c r="X25" s="51" t="s">
+      <c r="K25" s="13">
+        <v>1</v>
+      </c>
+      <c r="L25" s="13">
+        <v>0</v>
+      </c>
+      <c r="M25" s="13">
+        <v>0</v>
+      </c>
+      <c r="N25" s="13">
+        <v>0</v>
+      </c>
+      <c r="O25" s="13">
+        <v>0</v>
+      </c>
+      <c r="P25" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q25" s="13">
+        <v>0</v>
+      </c>
+      <c r="R25" s="60">
+        <v>0</v>
+      </c>
+      <c r="S25" s="12"/>
+      <c r="T25" s="12"/>
+      <c r="U25" s="12"/>
+      <c r="V25" s="12"/>
+      <c r="W25" s="61"/>
+      <c r="X25" s="62" t="s">
         <v>144</v>
       </c>
-      <c r="Y25" s="5" t="s">
+      <c r="Y25" s="12" t="s">
         <v>145</v>
       </c>
-      <c r="Z25" s="5" t="s">
+      <c r="Z25" s="12" t="s">
         <v>146</v>
       </c>
-      <c r="AA25" s="50" t="s">
+      <c r="AA25" s="61" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="26" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A26" s="33">
+      <c r="A26" s="44">
         <v>23</v>
       </c>
-      <c r="B26" s="5" t="s">
+      <c r="B26" s="12" t="s">
         <v>147</v>
       </c>
-      <c r="C26" s="6">
-        <v>10</v>
-      </c>
-      <c r="D26" s="6">
-        <v>0</v>
-      </c>
-      <c r="E26" s="6">
-        <v>0</v>
-      </c>
-      <c r="F26" s="6">
-        <v>10</v>
-      </c>
-      <c r="G26" s="6">
-        <v>0</v>
-      </c>
-      <c r="H26" s="6">
-        <v>0</v>
-      </c>
-      <c r="I26" s="6">
-        <v>0</v>
-      </c>
-      <c r="J26" s="6">
+      <c r="C26" s="13">
+        <v>10</v>
+      </c>
+      <c r="D26" s="13">
+        <v>0</v>
+      </c>
+      <c r="E26" s="13">
+        <v>0</v>
+      </c>
+      <c r="F26" s="13">
+        <v>10</v>
+      </c>
+      <c r="G26" s="13">
+        <v>0</v>
+      </c>
+      <c r="H26" s="13">
+        <v>0</v>
+      </c>
+      <c r="I26" s="13">
+        <v>0</v>
+      </c>
+      <c r="J26" s="13">
         <v>2</v>
       </c>
-      <c r="K26" s="6">
-        <v>1</v>
-      </c>
-      <c r="L26" s="6">
-        <v>0</v>
-      </c>
-      <c r="M26" s="6">
-        <v>0</v>
-      </c>
-      <c r="N26" s="6">
-        <v>0</v>
-      </c>
-      <c r="O26" s="6">
-        <v>0</v>
-      </c>
-      <c r="P26" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q26" s="6">
-        <v>0</v>
-      </c>
-      <c r="R26" s="49">
-        <v>0</v>
-      </c>
-      <c r="S26" s="5"/>
-      <c r="T26" s="5"/>
-      <c r="U26" s="5"/>
-      <c r="V26" s="5"/>
-      <c r="W26" s="50"/>
-      <c r="X26" s="51" t="s">
+      <c r="K26" s="13">
+        <v>1</v>
+      </c>
+      <c r="L26" s="13">
+        <v>0</v>
+      </c>
+      <c r="M26" s="13">
+        <v>0</v>
+      </c>
+      <c r="N26" s="13">
+        <v>0</v>
+      </c>
+      <c r="O26" s="13">
+        <v>0</v>
+      </c>
+      <c r="P26" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="13">
+        <v>0</v>
+      </c>
+      <c r="R26" s="60">
+        <v>0</v>
+      </c>
+      <c r="S26" s="12"/>
+      <c r="T26" s="12"/>
+      <c r="U26" s="12"/>
+      <c r="V26" s="12"/>
+      <c r="W26" s="61"/>
+      <c r="X26" s="62" t="s">
         <v>148</v>
       </c>
-      <c r="Y26" s="5" t="s">
+      <c r="Y26" s="12" t="s">
         <v>149</v>
       </c>
-      <c r="Z26" s="5" t="s">
+      <c r="Z26" s="12" t="s">
         <v>150</v>
       </c>
-      <c r="AA26" s="50" t="s">
+      <c r="AA26" s="61" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="27" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A27" s="33">
+      <c r="A27" s="44">
         <v>24</v>
       </c>
-      <c r="B27" s="5" t="s">
+      <c r="B27" s="12" t="s">
         <v>152</v>
       </c>
-      <c r="C27" s="6">
-        <v>10</v>
-      </c>
-      <c r="D27" s="6">
-        <v>0</v>
-      </c>
-      <c r="E27" s="6">
-        <v>0</v>
-      </c>
-      <c r="F27" s="6">
-        <v>10</v>
-      </c>
-      <c r="G27" s="6">
-        <v>0</v>
-      </c>
-      <c r="H27" s="6">
-        <v>0</v>
-      </c>
-      <c r="I27" s="6">
-        <v>0</v>
-      </c>
-      <c r="J27" s="6">
+      <c r="C27" s="13">
+        <v>10</v>
+      </c>
+      <c r="D27" s="13">
+        <v>0</v>
+      </c>
+      <c r="E27" s="13">
+        <v>0</v>
+      </c>
+      <c r="F27" s="13">
+        <v>10</v>
+      </c>
+      <c r="G27" s="13">
+        <v>0</v>
+      </c>
+      <c r="H27" s="13">
+        <v>0</v>
+      </c>
+      <c r="I27" s="13">
+        <v>0</v>
+      </c>
+      <c r="J27" s="13">
         <v>2</v>
       </c>
-      <c r="K27" s="6">
-        <v>1</v>
-      </c>
-      <c r="L27" s="6">
-        <v>0</v>
-      </c>
-      <c r="M27" s="6">
-        <v>0</v>
-      </c>
-      <c r="N27" s="6">
-        <v>0</v>
-      </c>
-      <c r="O27" s="6">
-        <v>0</v>
-      </c>
-      <c r="P27" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q27" s="6">
-        <v>0</v>
-      </c>
-      <c r="R27" s="49">
-        <v>0</v>
-      </c>
-      <c r="S27" s="5"/>
-      <c r="T27" s="5"/>
-      <c r="U27" s="5"/>
-      <c r="V27" s="5"/>
-      <c r="W27" s="50"/>
-      <c r="X27" s="51" t="s">
+      <c r="K27" s="13">
+        <v>1</v>
+      </c>
+      <c r="L27" s="13">
+        <v>0</v>
+      </c>
+      <c r="M27" s="13">
+        <v>0</v>
+      </c>
+      <c r="N27" s="13">
+        <v>0</v>
+      </c>
+      <c r="O27" s="13">
+        <v>0</v>
+      </c>
+      <c r="P27" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="13">
+        <v>0</v>
+      </c>
+      <c r="R27" s="60">
+        <v>0</v>
+      </c>
+      <c r="S27" s="12"/>
+      <c r="T27" s="12"/>
+      <c r="U27" s="12"/>
+      <c r="V27" s="12"/>
+      <c r="W27" s="61"/>
+      <c r="X27" s="62" t="s">
         <v>153</v>
       </c>
-      <c r="Y27" s="5" t="s">
+      <c r="Y27" s="12" t="s">
         <v>154</v>
       </c>
-      <c r="Z27" s="5" t="s">
+      <c r="Z27" s="12" t="s">
         <v>155</v>
       </c>
-      <c r="AA27" s="50" t="s">
+      <c r="AA27" s="61" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="28" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A28" s="33">
+      <c r="A28" s="44">
         <v>25</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="12" t="s">
         <v>157</v>
       </c>
-      <c r="C28" s="6">
-        <v>10</v>
-      </c>
-      <c r="D28" s="6">
-        <v>0</v>
-      </c>
-      <c r="E28" s="6">
-        <v>0</v>
-      </c>
-      <c r="F28" s="6">
-        <v>10</v>
-      </c>
-      <c r="G28" s="6">
-        <v>0</v>
-      </c>
-      <c r="H28" s="6">
-        <v>0</v>
-      </c>
-      <c r="I28" s="6">
-        <v>0</v>
-      </c>
-      <c r="J28" s="6">
+      <c r="C28" s="13">
+        <v>10</v>
+      </c>
+      <c r="D28" s="13">
+        <v>0</v>
+      </c>
+      <c r="E28" s="13">
+        <v>0</v>
+      </c>
+      <c r="F28" s="13">
+        <v>10</v>
+      </c>
+      <c r="G28" s="13">
+        <v>0</v>
+      </c>
+      <c r="H28" s="13">
+        <v>0</v>
+      </c>
+      <c r="I28" s="13">
+        <v>0</v>
+      </c>
+      <c r="J28" s="13">
         <v>2</v>
       </c>
-      <c r="K28" s="6">
-        <v>1</v>
-      </c>
-      <c r="L28" s="6">
-        <v>0</v>
-      </c>
-      <c r="M28" s="6">
-        <v>0</v>
-      </c>
-      <c r="N28" s="6">
-        <v>0</v>
-      </c>
-      <c r="O28" s="6">
-        <v>0</v>
-      </c>
-      <c r="P28" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q28" s="6">
-        <v>0</v>
-      </c>
-      <c r="R28" s="49">
-        <v>0</v>
-      </c>
-      <c r="S28" s="5"/>
-      <c r="T28" s="5"/>
-      <c r="U28" s="5"/>
-      <c r="V28" s="5"/>
-      <c r="W28" s="50"/>
-      <c r="X28" s="51" t="s">
+      <c r="K28" s="13">
+        <v>1</v>
+      </c>
+      <c r="L28" s="13">
+        <v>0</v>
+      </c>
+      <c r="M28" s="13">
+        <v>0</v>
+      </c>
+      <c r="N28" s="13">
+        <v>0</v>
+      </c>
+      <c r="O28" s="13">
+        <v>0</v>
+      </c>
+      <c r="P28" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q28" s="13">
+        <v>0</v>
+      </c>
+      <c r="R28" s="60">
+        <v>0</v>
+      </c>
+      <c r="S28" s="12"/>
+      <c r="T28" s="12"/>
+      <c r="U28" s="12"/>
+      <c r="V28" s="12"/>
+      <c r="W28" s="61"/>
+      <c r="X28" s="62" t="s">
         <v>158</v>
       </c>
-      <c r="Y28" s="5" t="s">
+      <c r="Y28" s="12" t="s">
         <v>159</v>
       </c>
-      <c r="Z28" s="5" t="s">
+      <c r="Z28" s="12" t="s">
         <v>160</v>
       </c>
-      <c r="AA28" s="50" t="s">
+      <c r="AA28" s="61" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="29" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A29" s="33">
+      <c r="A29" s="44">
         <v>26</v>
       </c>
-      <c r="B29" s="5" t="s">
+      <c r="B29" s="12" t="s">
         <v>162</v>
       </c>
-      <c r="C29" s="6">
-        <v>10</v>
-      </c>
-      <c r="D29" s="6">
-        <v>0</v>
-      </c>
-      <c r="E29" s="6">
-        <v>0</v>
-      </c>
-      <c r="F29" s="6">
-        <v>10</v>
-      </c>
-      <c r="G29" s="6">
-        <v>0</v>
-      </c>
-      <c r="H29" s="6">
-        <v>0</v>
-      </c>
-      <c r="I29" s="6">
-        <v>0</v>
-      </c>
-      <c r="J29" s="6">
+      <c r="C29" s="13">
+        <v>10</v>
+      </c>
+      <c r="D29" s="13">
+        <v>0</v>
+      </c>
+      <c r="E29" s="13">
+        <v>0</v>
+      </c>
+      <c r="F29" s="13">
+        <v>10</v>
+      </c>
+      <c r="G29" s="13">
+        <v>0</v>
+      </c>
+      <c r="H29" s="13">
+        <v>0</v>
+      </c>
+      <c r="I29" s="13">
+        <v>0</v>
+      </c>
+      <c r="J29" s="13">
         <v>2</v>
       </c>
-      <c r="K29" s="6">
-        <v>1</v>
-      </c>
-      <c r="L29" s="6">
-        <v>0</v>
-      </c>
-      <c r="M29" s="6">
-        <v>0</v>
-      </c>
-      <c r="N29" s="6">
-        <v>0</v>
-      </c>
-      <c r="O29" s="6">
-        <v>0</v>
-      </c>
-      <c r="P29" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q29" s="6">
-        <v>0</v>
-      </c>
-      <c r="R29" s="49">
-        <v>0</v>
-      </c>
-      <c r="S29" s="5"/>
-      <c r="T29" s="5"/>
-      <c r="U29" s="5"/>
-      <c r="V29" s="5"/>
-      <c r="W29" s="50"/>
-      <c r="X29" s="51" t="s">
+      <c r="K29" s="13">
+        <v>1</v>
+      </c>
+      <c r="L29" s="13">
+        <v>0</v>
+      </c>
+      <c r="M29" s="13">
+        <v>0</v>
+      </c>
+      <c r="N29" s="13">
+        <v>0</v>
+      </c>
+      <c r="O29" s="13">
+        <v>0</v>
+      </c>
+      <c r="P29" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q29" s="13">
+        <v>0</v>
+      </c>
+      <c r="R29" s="60">
+        <v>0</v>
+      </c>
+      <c r="S29" s="12"/>
+      <c r="T29" s="12"/>
+      <c r="U29" s="12"/>
+      <c r="V29" s="12"/>
+      <c r="W29" s="61"/>
+      <c r="X29" s="62" t="s">
         <v>163</v>
       </c>
-      <c r="Y29" s="5" t="s">
+      <c r="Y29" s="12" t="s">
         <v>164</v>
       </c>
-      <c r="Z29" s="5" t="s">
+      <c r="Z29" s="12" t="s">
         <v>165</v>
       </c>
-      <c r="AA29" s="50" t="s">
+      <c r="AA29" s="61" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="30" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A30" s="33">
+      <c r="A30" s="44">
         <v>27</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B30" s="12" t="s">
         <v>167</v>
       </c>
-      <c r="C30" s="6">
-        <v>10</v>
-      </c>
-      <c r="D30" s="6">
-        <v>0</v>
-      </c>
-      <c r="E30" s="6">
-        <v>0</v>
-      </c>
-      <c r="F30" s="6">
-        <v>10</v>
-      </c>
-      <c r="G30" s="6">
-        <v>0</v>
-      </c>
-      <c r="H30" s="6">
-        <v>0</v>
-      </c>
-      <c r="I30" s="6">
-        <v>0</v>
-      </c>
-      <c r="J30" s="6">
+      <c r="C30" s="13">
+        <v>10</v>
+      </c>
+      <c r="D30" s="13">
+        <v>0</v>
+      </c>
+      <c r="E30" s="13">
+        <v>0</v>
+      </c>
+      <c r="F30" s="13">
+        <v>10</v>
+      </c>
+      <c r="G30" s="13">
+        <v>0</v>
+      </c>
+      <c r="H30" s="13">
+        <v>0</v>
+      </c>
+      <c r="I30" s="13">
+        <v>0</v>
+      </c>
+      <c r="J30" s="13">
         <v>2</v>
       </c>
-      <c r="K30" s="6">
-        <v>1</v>
-      </c>
-      <c r="L30" s="6">
-        <v>0</v>
-      </c>
-      <c r="M30" s="6">
-        <v>0</v>
-      </c>
-      <c r="N30" s="6">
-        <v>0</v>
-      </c>
-      <c r="O30" s="6">
-        <v>0</v>
-      </c>
-      <c r="P30" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q30" s="6">
-        <v>0</v>
-      </c>
-      <c r="R30" s="49">
-        <v>0</v>
-      </c>
-      <c r="S30" s="5"/>
-      <c r="T30" s="5"/>
-      <c r="U30" s="5"/>
-      <c r="V30" s="5"/>
-      <c r="W30" s="50"/>
-      <c r="X30" s="51" t="s">
+      <c r="K30" s="13">
+        <v>1</v>
+      </c>
+      <c r="L30" s="13">
+        <v>0</v>
+      </c>
+      <c r="M30" s="13">
+        <v>0</v>
+      </c>
+      <c r="N30" s="13">
+        <v>0</v>
+      </c>
+      <c r="O30" s="13">
+        <v>0</v>
+      </c>
+      <c r="P30" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q30" s="13">
+        <v>0</v>
+      </c>
+      <c r="R30" s="60">
+        <v>0</v>
+      </c>
+      <c r="S30" s="12"/>
+      <c r="T30" s="12"/>
+      <c r="U30" s="12"/>
+      <c r="V30" s="12"/>
+      <c r="W30" s="61"/>
+      <c r="X30" s="62" t="s">
         <v>168</v>
       </c>
-      <c r="Y30" s="5" t="s">
+      <c r="Y30" s="12" t="s">
         <v>169</v>
       </c>
-      <c r="Z30" s="5" t="s">
+      <c r="Z30" s="12" t="s">
         <v>170</v>
       </c>
-      <c r="AA30" s="50" t="s">
+      <c r="AA30" s="61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="31" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A31" s="33">
+      <c r="A31" s="44">
         <v>28</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="12" t="s">
         <v>171</v>
       </c>
-      <c r="C31" s="6">
-        <v>10</v>
-      </c>
-      <c r="D31" s="6">
-        <v>0</v>
-      </c>
-      <c r="E31" s="6">
-        <v>0</v>
-      </c>
-      <c r="F31" s="6">
-        <v>10</v>
-      </c>
-      <c r="G31" s="6">
-        <v>0</v>
-      </c>
-      <c r="H31" s="6">
-        <v>0</v>
-      </c>
-      <c r="I31" s="6">
-        <v>0</v>
-      </c>
-      <c r="J31" s="6">
+      <c r="C31" s="13">
+        <v>10</v>
+      </c>
+      <c r="D31" s="13">
+        <v>0</v>
+      </c>
+      <c r="E31" s="13">
+        <v>0</v>
+      </c>
+      <c r="F31" s="13">
+        <v>10</v>
+      </c>
+      <c r="G31" s="13">
+        <v>0</v>
+      </c>
+      <c r="H31" s="13">
+        <v>0</v>
+      </c>
+      <c r="I31" s="13">
+        <v>0</v>
+      </c>
+      <c r="J31" s="13">
         <v>2</v>
       </c>
-      <c r="K31" s="6">
-        <v>1</v>
-      </c>
-      <c r="L31" s="6">
-        <v>0</v>
-      </c>
-      <c r="M31" s="6">
-        <v>0</v>
-      </c>
-      <c r="N31" s="6">
-        <v>0</v>
-      </c>
-      <c r="O31" s="6">
-        <v>0</v>
-      </c>
-      <c r="P31" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q31" s="6">
-        <v>0</v>
-      </c>
-      <c r="R31" s="49">
-        <v>0</v>
-      </c>
-      <c r="S31" s="5"/>
-      <c r="T31" s="5"/>
-      <c r="U31" s="5"/>
-      <c r="V31" s="5"/>
-      <c r="W31" s="50"/>
-      <c r="X31" s="51" t="s">
+      <c r="K31" s="13">
+        <v>1</v>
+      </c>
+      <c r="L31" s="13">
+        <v>0</v>
+      </c>
+      <c r="M31" s="13">
+        <v>0</v>
+      </c>
+      <c r="N31" s="13">
+        <v>0</v>
+      </c>
+      <c r="O31" s="13">
+        <v>0</v>
+      </c>
+      <c r="P31" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q31" s="13">
+        <v>0</v>
+      </c>
+      <c r="R31" s="60">
+        <v>0</v>
+      </c>
+      <c r="S31" s="12"/>
+      <c r="T31" s="12"/>
+      <c r="U31" s="12"/>
+      <c r="V31" s="12"/>
+      <c r="W31" s="61"/>
+      <c r="X31" s="62" t="s">
         <v>172</v>
       </c>
-      <c r="Y31" s="5" t="s">
+      <c r="Y31" s="12" t="s">
         <v>173</v>
       </c>
-      <c r="Z31" s="5" t="s">
+      <c r="Z31" s="12" t="s">
         <v>174</v>
       </c>
-      <c r="AA31" s="50" t="s">
+      <c r="AA31" s="61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="32" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A32" s="33">
+      <c r="A32" s="44">
         <v>29</v>
       </c>
-      <c r="B32" s="5" t="s">
+      <c r="B32" s="12" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="6">
-        <v>10</v>
-      </c>
-      <c r="D32" s="6">
-        <v>0</v>
-      </c>
-      <c r="E32" s="6">
-        <v>0</v>
-      </c>
-      <c r="F32" s="6">
-        <v>10</v>
-      </c>
-      <c r="G32" s="6">
-        <v>0</v>
-      </c>
-      <c r="H32" s="6">
-        <v>0</v>
-      </c>
-      <c r="I32" s="6">
-        <v>0</v>
-      </c>
-      <c r="J32" s="6">
+      <c r="C32" s="13">
+        <v>10</v>
+      </c>
+      <c r="D32" s="13">
+        <v>0</v>
+      </c>
+      <c r="E32" s="13">
+        <v>0</v>
+      </c>
+      <c r="F32" s="13">
+        <v>10</v>
+      </c>
+      <c r="G32" s="13">
+        <v>0</v>
+      </c>
+      <c r="H32" s="13">
+        <v>0</v>
+      </c>
+      <c r="I32" s="13">
+        <v>0</v>
+      </c>
+      <c r="J32" s="13">
         <v>2</v>
       </c>
-      <c r="K32" s="6">
-        <v>1</v>
-      </c>
-      <c r="L32" s="6">
-        <v>0</v>
-      </c>
-      <c r="M32" s="6">
-        <v>0</v>
-      </c>
-      <c r="N32" s="6">
-        <v>0</v>
-      </c>
-      <c r="O32" s="6">
-        <v>0</v>
-      </c>
-      <c r="P32" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q32" s="6">
-        <v>0</v>
-      </c>
-      <c r="R32" s="49">
-        <v>0</v>
-      </c>
-      <c r="S32" s="5"/>
-      <c r="T32" s="5"/>
-      <c r="U32" s="5"/>
-      <c r="V32" s="5"/>
-      <c r="W32" s="50"/>
-      <c r="X32" s="51" t="s">
+      <c r="K32" s="13">
+        <v>1</v>
+      </c>
+      <c r="L32" s="13">
+        <v>0</v>
+      </c>
+      <c r="M32" s="13">
+        <v>0</v>
+      </c>
+      <c r="N32" s="13">
+        <v>0</v>
+      </c>
+      <c r="O32" s="13">
+        <v>0</v>
+      </c>
+      <c r="P32" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q32" s="13">
+        <v>0</v>
+      </c>
+      <c r="R32" s="60">
+        <v>0</v>
+      </c>
+      <c r="S32" s="12"/>
+      <c r="T32" s="12"/>
+      <c r="U32" s="12"/>
+      <c r="V32" s="12"/>
+      <c r="W32" s="61"/>
+      <c r="X32" s="62" t="s">
         <v>176</v>
       </c>
-      <c r="Y32" s="5" t="s">
+      <c r="Y32" s="12" t="s">
         <v>177</v>
       </c>
-      <c r="Z32" s="5" t="s">
+      <c r="Z32" s="12" t="s">
         <v>178</v>
       </c>
-      <c r="AA32" s="50" t="s">
+      <c r="AA32" s="61" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="33" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A33" s="33">
+      <c r="A33" s="44">
         <v>30</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="C33" s="6">
-        <v>10</v>
-      </c>
-      <c r="D33" s="6">
-        <v>0</v>
-      </c>
-      <c r="E33" s="6">
-        <v>0</v>
-      </c>
-      <c r="F33" s="6">
-        <v>10</v>
-      </c>
-      <c r="G33" s="6">
-        <v>0</v>
-      </c>
-      <c r="H33" s="6">
-        <v>0</v>
-      </c>
-      <c r="I33" s="6">
-        <v>0</v>
-      </c>
-      <c r="J33" s="6">
+      <c r="C33" s="13">
+        <v>10</v>
+      </c>
+      <c r="D33" s="13">
+        <v>0</v>
+      </c>
+      <c r="E33" s="13">
+        <v>0</v>
+      </c>
+      <c r="F33" s="13">
+        <v>10</v>
+      </c>
+      <c r="G33" s="13">
+        <v>0</v>
+      </c>
+      <c r="H33" s="13">
+        <v>0</v>
+      </c>
+      <c r="I33" s="13">
+        <v>0</v>
+      </c>
+      <c r="J33" s="13">
         <v>2</v>
       </c>
-      <c r="K33" s="6">
-        <v>1</v>
-      </c>
-      <c r="L33" s="6">
-        <v>0</v>
-      </c>
-      <c r="M33" s="6">
-        <v>0</v>
-      </c>
-      <c r="N33" s="6">
-        <v>0</v>
-      </c>
-      <c r="O33" s="6">
-        <v>0</v>
-      </c>
-      <c r="P33" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q33" s="6">
-        <v>0</v>
-      </c>
-      <c r="R33" s="49">
-        <v>0</v>
-      </c>
-      <c r="S33" s="5"/>
-      <c r="T33" s="5"/>
-      <c r="U33" s="5"/>
-      <c r="V33" s="5"/>
-      <c r="W33" s="50"/>
-      <c r="X33" s="51" t="s">
+      <c r="K33" s="13">
+        <v>1</v>
+      </c>
+      <c r="L33" s="13">
+        <v>0</v>
+      </c>
+      <c r="M33" s="13">
+        <v>0</v>
+      </c>
+      <c r="N33" s="13">
+        <v>0</v>
+      </c>
+      <c r="O33" s="13">
+        <v>0</v>
+      </c>
+      <c r="P33" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q33" s="13">
+        <v>0</v>
+      </c>
+      <c r="R33" s="60">
+        <v>0</v>
+      </c>
+      <c r="S33" s="12"/>
+      <c r="T33" s="12"/>
+      <c r="U33" s="12"/>
+      <c r="V33" s="12"/>
+      <c r="W33" s="61"/>
+      <c r="X33" s="62" t="s">
         <v>181</v>
       </c>
-      <c r="Y33" s="5" t="s">
+      <c r="Y33" s="12" t="s">
         <v>182</v>
       </c>
-      <c r="Z33" s="5" t="s">
+      <c r="Z33" s="12" t="s">
         <v>183</v>
       </c>
-      <c r="AA33" s="50" t="s">
+      <c r="AA33" s="61" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="34" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A34" s="33">
+      <c r="A34" s="44">
         <v>31</v>
       </c>
-      <c r="B34" s="5" t="s">
+      <c r="B34" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="C34" s="6">
-        <v>10</v>
-      </c>
-      <c r="D34" s="6">
-        <v>0</v>
-      </c>
-      <c r="E34" s="6">
-        <v>0</v>
-      </c>
-      <c r="F34" s="6">
-        <v>10</v>
-      </c>
-      <c r="G34" s="6">
-        <v>0</v>
-      </c>
-      <c r="H34" s="6">
-        <v>0</v>
-      </c>
-      <c r="I34" s="6">
-        <v>0</v>
-      </c>
-      <c r="J34" s="6">
+      <c r="C34" s="13">
+        <v>10</v>
+      </c>
+      <c r="D34" s="13">
+        <v>0</v>
+      </c>
+      <c r="E34" s="13">
+        <v>0</v>
+      </c>
+      <c r="F34" s="13">
+        <v>10</v>
+      </c>
+      <c r="G34" s="13">
+        <v>0</v>
+      </c>
+      <c r="H34" s="13">
+        <v>0</v>
+      </c>
+      <c r="I34" s="13">
+        <v>0</v>
+      </c>
+      <c r="J34" s="13">
         <v>2</v>
       </c>
-      <c r="K34" s="6">
-        <v>1</v>
-      </c>
-      <c r="L34" s="6">
-        <v>0</v>
-      </c>
-      <c r="M34" s="6">
-        <v>0</v>
-      </c>
-      <c r="N34" s="6">
-        <v>0</v>
-      </c>
-      <c r="O34" s="6">
-        <v>0</v>
-      </c>
-      <c r="P34" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q34" s="6">
-        <v>0</v>
-      </c>
-      <c r="R34" s="49">
-        <v>0</v>
-      </c>
-      <c r="S34" s="5"/>
-      <c r="T34" s="5"/>
-      <c r="U34" s="5"/>
-      <c r="V34" s="5"/>
-      <c r="W34" s="50"/>
-      <c r="X34" s="51" t="s">
+      <c r="K34" s="13">
+        <v>1</v>
+      </c>
+      <c r="L34" s="13">
+        <v>0</v>
+      </c>
+      <c r="M34" s="13">
+        <v>0</v>
+      </c>
+      <c r="N34" s="13">
+        <v>0</v>
+      </c>
+      <c r="O34" s="13">
+        <v>0</v>
+      </c>
+      <c r="P34" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q34" s="13">
+        <v>0</v>
+      </c>
+      <c r="R34" s="60">
+        <v>0</v>
+      </c>
+      <c r="S34" s="12"/>
+      <c r="T34" s="12"/>
+      <c r="U34" s="12"/>
+      <c r="V34" s="12"/>
+      <c r="W34" s="61"/>
+      <c r="X34" s="62" t="s">
         <v>186</v>
       </c>
-      <c r="Y34" s="5" t="s">
+      <c r="Y34" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="Z34" s="5" t="s">
+      <c r="Z34" s="12" t="s">
         <v>188</v>
       </c>
-      <c r="AA34" s="50" t="s">
+      <c r="AA34" s="61" t="s">
         <v>55</v>
       </c>
     </row>
     <row r="35" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A35" s="33">
+      <c r="A35" s="44">
         <v>32</v>
       </c>
-      <c r="B35" s="5" t="s">
+      <c r="B35" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="C35" s="6">
-        <v>10</v>
-      </c>
-      <c r="D35" s="6">
-        <v>0</v>
-      </c>
-      <c r="E35" s="6">
-        <v>0</v>
-      </c>
-      <c r="F35" s="6">
-        <v>10</v>
-      </c>
-      <c r="G35" s="6">
-        <v>0</v>
-      </c>
-      <c r="H35" s="6">
-        <v>0</v>
-      </c>
-      <c r="I35" s="6">
-        <v>0</v>
-      </c>
-      <c r="J35" s="6">
+      <c r="C35" s="13">
+        <v>10</v>
+      </c>
+      <c r="D35" s="13">
+        <v>0</v>
+      </c>
+      <c r="E35" s="13">
+        <v>0</v>
+      </c>
+      <c r="F35" s="13">
+        <v>10</v>
+      </c>
+      <c r="G35" s="13">
+        <v>0</v>
+      </c>
+      <c r="H35" s="13">
+        <v>0</v>
+      </c>
+      <c r="I35" s="13">
+        <v>0</v>
+      </c>
+      <c r="J35" s="13">
         <v>2</v>
       </c>
-      <c r="K35" s="6">
-        <v>1</v>
-      </c>
-      <c r="L35" s="6">
-        <v>0</v>
-      </c>
-      <c r="M35" s="6">
-        <v>0</v>
-      </c>
-      <c r="N35" s="6">
-        <v>0</v>
-      </c>
-      <c r="O35" s="6">
-        <v>0</v>
-      </c>
-      <c r="P35" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q35" s="6">
-        <v>0</v>
-      </c>
-      <c r="R35" s="49">
-        <v>0</v>
-      </c>
-      <c r="S35" s="5"/>
-      <c r="T35" s="5"/>
-      <c r="U35" s="5"/>
-      <c r="V35" s="5"/>
-      <c r="W35" s="50"/>
-      <c r="X35" s="51" t="s">
+      <c r="K35" s="13">
+        <v>1</v>
+      </c>
+      <c r="L35" s="13">
+        <v>0</v>
+      </c>
+      <c r="M35" s="13">
+        <v>0</v>
+      </c>
+      <c r="N35" s="13">
+        <v>0</v>
+      </c>
+      <c r="O35" s="13">
+        <v>0</v>
+      </c>
+      <c r="P35" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q35" s="13">
+        <v>0</v>
+      </c>
+      <c r="R35" s="60">
+        <v>0</v>
+      </c>
+      <c r="S35" s="12"/>
+      <c r="T35" s="12"/>
+      <c r="U35" s="12"/>
+      <c r="V35" s="12"/>
+      <c r="W35" s="61"/>
+      <c r="X35" s="62" t="s">
         <v>190</v>
       </c>
-      <c r="Y35" s="5" t="s">
+      <c r="Y35" s="12" t="s">
         <v>191</v>
       </c>
-      <c r="Z35" s="5" t="s">
+      <c r="Z35" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="AA35" s="50" t="s">
+      <c r="AA35" s="61" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="36" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A36" s="33">
+      <c r="A36" s="44">
         <v>33</v>
       </c>
-      <c r="B36" s="5" t="s">
+      <c r="B36" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="C36" s="6">
-        <v>10</v>
-      </c>
-      <c r="D36" s="6">
-        <v>0</v>
-      </c>
-      <c r="E36" s="6">
-        <v>0</v>
-      </c>
-      <c r="F36" s="6">
-        <v>10</v>
-      </c>
-      <c r="G36" s="6">
-        <v>0</v>
-      </c>
-      <c r="H36" s="6">
-        <v>0</v>
-      </c>
-      <c r="I36" s="6">
-        <v>0</v>
-      </c>
-      <c r="J36" s="6">
+      <c r="C36" s="13">
+        <v>10</v>
+      </c>
+      <c r="D36" s="13">
+        <v>0</v>
+      </c>
+      <c r="E36" s="13">
+        <v>0</v>
+      </c>
+      <c r="F36" s="13">
+        <v>10</v>
+      </c>
+      <c r="G36" s="13">
+        <v>0</v>
+      </c>
+      <c r="H36" s="13">
+        <v>0</v>
+      </c>
+      <c r="I36" s="13">
+        <v>0</v>
+      </c>
+      <c r="J36" s="13">
         <v>2</v>
       </c>
-      <c r="K36" s="6">
-        <v>1</v>
-      </c>
-      <c r="L36" s="6">
-        <v>0</v>
-      </c>
-      <c r="M36" s="6">
-        <v>0</v>
-      </c>
-      <c r="N36" s="6">
-        <v>0</v>
-      </c>
-      <c r="O36" s="6">
-        <v>0</v>
-      </c>
-      <c r="P36" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q36" s="6">
-        <v>0</v>
-      </c>
-      <c r="R36" s="49">
-        <v>0</v>
-      </c>
-      <c r="S36" s="5"/>
-      <c r="T36" s="5"/>
-      <c r="U36" s="5"/>
-      <c r="V36" s="5"/>
-      <c r="W36" s="50"/>
-      <c r="X36" s="51" t="s">
+      <c r="K36" s="13">
+        <v>1</v>
+      </c>
+      <c r="L36" s="13">
+        <v>0</v>
+      </c>
+      <c r="M36" s="13">
+        <v>0</v>
+      </c>
+      <c r="N36" s="13">
+        <v>0</v>
+      </c>
+      <c r="O36" s="13">
+        <v>0</v>
+      </c>
+      <c r="P36" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q36" s="13">
+        <v>0</v>
+      </c>
+      <c r="R36" s="60">
+        <v>0</v>
+      </c>
+      <c r="S36" s="12"/>
+      <c r="T36" s="12"/>
+      <c r="U36" s="12"/>
+      <c r="V36" s="12"/>
+      <c r="W36" s="61"/>
+      <c r="X36" s="62" t="s">
         <v>195</v>
       </c>
-      <c r="Y36" s="5" t="s">
+      <c r="Y36" s="12" t="s">
         <v>196</v>
       </c>
-      <c r="Z36" s="5" t="s">
+      <c r="Z36" s="12" t="s">
         <v>197</v>
       </c>
-      <c r="AA36" s="50" t="s">
+      <c r="AA36" s="61" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="37" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A37" s="33">
+      <c r="A37" s="44">
         <v>34</v>
       </c>
-      <c r="B37" s="5" t="s">
+      <c r="B37" s="12" t="s">
         <v>199</v>
       </c>
-      <c r="C37" s="6">
-        <v>10</v>
-      </c>
-      <c r="D37" s="6">
-        <v>0</v>
-      </c>
-      <c r="E37" s="6">
-        <v>0</v>
-      </c>
-      <c r="F37" s="6">
-        <v>10</v>
-      </c>
-      <c r="G37" s="6">
-        <v>0</v>
-      </c>
-      <c r="H37" s="6">
-        <v>0</v>
-      </c>
-      <c r="I37" s="6">
-        <v>0</v>
-      </c>
-      <c r="J37" s="6">
+      <c r="C37" s="13">
+        <v>10</v>
+      </c>
+      <c r="D37" s="13">
+        <v>0</v>
+      </c>
+      <c r="E37" s="13">
+        <v>0</v>
+      </c>
+      <c r="F37" s="13">
+        <v>10</v>
+      </c>
+      <c r="G37" s="13">
+        <v>0</v>
+      </c>
+      <c r="H37" s="13">
+        <v>0</v>
+      </c>
+      <c r="I37" s="13">
+        <v>0</v>
+      </c>
+      <c r="J37" s="13">
         <v>2</v>
       </c>
-      <c r="K37" s="6">
-        <v>1</v>
-      </c>
-      <c r="L37" s="6">
-        <v>0</v>
-      </c>
-      <c r="M37" s="6">
-        <v>0</v>
-      </c>
-      <c r="N37" s="6">
-        <v>0</v>
-      </c>
-      <c r="O37" s="6">
-        <v>0</v>
-      </c>
-      <c r="P37" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q37" s="6">
-        <v>0</v>
-      </c>
-      <c r="R37" s="49">
-        <v>0</v>
-      </c>
-      <c r="S37" s="5"/>
-      <c r="T37" s="5"/>
-      <c r="U37" s="5"/>
-      <c r="V37" s="5"/>
-      <c r="W37" s="50"/>
-      <c r="X37" s="51" t="s">
+      <c r="K37" s="13">
+        <v>1</v>
+      </c>
+      <c r="L37" s="13">
+        <v>0</v>
+      </c>
+      <c r="M37" s="13">
+        <v>0</v>
+      </c>
+      <c r="N37" s="13">
+        <v>0</v>
+      </c>
+      <c r="O37" s="13">
+        <v>0</v>
+      </c>
+      <c r="P37" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q37" s="13">
+        <v>0</v>
+      </c>
+      <c r="R37" s="60">
+        <v>0</v>
+      </c>
+      <c r="S37" s="12"/>
+      <c r="T37" s="12"/>
+      <c r="U37" s="12"/>
+      <c r="V37" s="12"/>
+      <c r="W37" s="61"/>
+      <c r="X37" s="62" t="s">
         <v>200</v>
       </c>
-      <c r="Y37" s="5" t="s">
+      <c r="Y37" s="12" t="s">
         <v>201</v>
       </c>
-      <c r="Z37" s="5" t="s">
+      <c r="Z37" s="12" t="s">
         <v>202</v>
       </c>
-      <c r="AA37" s="50" t="s">
+      <c r="AA37" s="61" t="s">
         <v>203</v>
       </c>
     </row>
     <row r="38" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A38" s="33">
+      <c r="A38" s="44">
         <v>35</v>
       </c>
-      <c r="B38" s="5" t="s">
+      <c r="B38" s="12" t="s">
         <v>204</v>
       </c>
-      <c r="C38" s="6">
-        <v>10</v>
-      </c>
-      <c r="D38" s="6">
-        <v>0</v>
-      </c>
-      <c r="E38" s="6">
-        <v>0</v>
-      </c>
-      <c r="F38" s="6">
-        <v>10</v>
-      </c>
-      <c r="G38" s="6">
-        <v>0</v>
-      </c>
-      <c r="H38" s="6">
-        <v>0</v>
-      </c>
-      <c r="I38" s="6">
-        <v>0</v>
-      </c>
-      <c r="J38" s="6">
+      <c r="C38" s="13">
+        <v>10</v>
+      </c>
+      <c r="D38" s="13">
+        <v>0</v>
+      </c>
+      <c r="E38" s="13">
+        <v>0</v>
+      </c>
+      <c r="F38" s="13">
+        <v>10</v>
+      </c>
+      <c r="G38" s="13">
+        <v>0</v>
+      </c>
+      <c r="H38" s="13">
+        <v>0</v>
+      </c>
+      <c r="I38" s="13">
+        <v>0</v>
+      </c>
+      <c r="J38" s="13">
         <v>2</v>
       </c>
-      <c r="K38" s="6">
-        <v>1</v>
-      </c>
-      <c r="L38" s="6">
-        <v>0</v>
-      </c>
-      <c r="M38" s="6">
-        <v>0</v>
-      </c>
-      <c r="N38" s="6">
-        <v>0</v>
-      </c>
-      <c r="O38" s="6">
-        <v>0</v>
-      </c>
-      <c r="P38" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q38" s="6">
-        <v>0</v>
-      </c>
-      <c r="R38" s="49">
-        <v>0</v>
-      </c>
-      <c r="S38" s="5"/>
-      <c r="T38" s="5"/>
-      <c r="U38" s="5"/>
-      <c r="V38" s="5"/>
-      <c r="W38" s="50"/>
-      <c r="X38" s="51" t="s">
+      <c r="K38" s="13">
+        <v>1</v>
+      </c>
+      <c r="L38" s="13">
+        <v>0</v>
+      </c>
+      <c r="M38" s="13">
+        <v>0</v>
+      </c>
+      <c r="N38" s="13">
+        <v>0</v>
+      </c>
+      <c r="O38" s="13">
+        <v>0</v>
+      </c>
+      <c r="P38" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="13">
+        <v>0</v>
+      </c>
+      <c r="R38" s="60">
+        <v>0</v>
+      </c>
+      <c r="S38" s="12"/>
+      <c r="T38" s="12"/>
+      <c r="U38" s="12"/>
+      <c r="V38" s="12"/>
+      <c r="W38" s="61"/>
+      <c r="X38" s="62" t="s">
         <v>205</v>
       </c>
-      <c r="Y38" s="5" t="s">
+      <c r="Y38" s="12" t="s">
         <v>206</v>
       </c>
-      <c r="Z38" s="5" t="s">
+      <c r="Z38" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="AA38" s="50" t="s">
+      <c r="AA38" s="61" t="s">
         <v>208</v>
       </c>
     </row>
     <row r="39" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A39" s="33">
+      <c r="A39" s="44">
         <v>36</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="12" t="s">
         <v>209</v>
       </c>
-      <c r="C39" s="6">
-        <v>10</v>
-      </c>
-      <c r="D39" s="6">
-        <v>0</v>
-      </c>
-      <c r="E39" s="6">
-        <v>0</v>
-      </c>
-      <c r="F39" s="6">
-        <v>10</v>
-      </c>
-      <c r="G39" s="6">
-        <v>0</v>
-      </c>
-      <c r="H39" s="6">
-        <v>0</v>
-      </c>
-      <c r="I39" s="6">
-        <v>0</v>
-      </c>
-      <c r="J39" s="6">
+      <c r="C39" s="13">
+        <v>10</v>
+      </c>
+      <c r="D39" s="13">
+        <v>0</v>
+      </c>
+      <c r="E39" s="13">
+        <v>0</v>
+      </c>
+      <c r="F39" s="13">
+        <v>10</v>
+      </c>
+      <c r="G39" s="13">
+        <v>0</v>
+      </c>
+      <c r="H39" s="13">
+        <v>0</v>
+      </c>
+      <c r="I39" s="13">
+        <v>0</v>
+      </c>
+      <c r="J39" s="13">
         <v>2</v>
       </c>
-      <c r="K39" s="6">
-        <v>1</v>
-      </c>
-      <c r="L39" s="6">
-        <v>0</v>
-      </c>
-      <c r="M39" s="6">
-        <v>0</v>
-      </c>
-      <c r="N39" s="6">
-        <v>0</v>
-      </c>
-      <c r="O39" s="6">
-        <v>0</v>
-      </c>
-      <c r="P39" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q39" s="6">
-        <v>0</v>
-      </c>
-      <c r="R39" s="49">
-        <v>0</v>
-      </c>
-      <c r="S39" s="5"/>
-      <c r="T39" s="5"/>
-      <c r="U39" s="5"/>
-      <c r="V39" s="5"/>
-      <c r="W39" s="50"/>
-      <c r="X39" s="51" t="s">
+      <c r="K39" s="13">
+        <v>1</v>
+      </c>
+      <c r="L39" s="13">
+        <v>0</v>
+      </c>
+      <c r="M39" s="13">
+        <v>0</v>
+      </c>
+      <c r="N39" s="13">
+        <v>0</v>
+      </c>
+      <c r="O39" s="13">
+        <v>0</v>
+      </c>
+      <c r="P39" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q39" s="13">
+        <v>0</v>
+      </c>
+      <c r="R39" s="60">
+        <v>0</v>
+      </c>
+      <c r="S39" s="12"/>
+      <c r="T39" s="12"/>
+      <c r="U39" s="12"/>
+      <c r="V39" s="12"/>
+      <c r="W39" s="61"/>
+      <c r="X39" s="62" t="s">
         <v>210</v>
       </c>
-      <c r="Y39" s="5" t="s">
+      <c r="Y39" s="12" t="s">
         <v>211</v>
       </c>
-      <c r="Z39" s="5" t="s">
+      <c r="Z39" s="12" t="s">
         <v>212</v>
       </c>
-      <c r="AA39" s="50" t="s">
+      <c r="AA39" s="61" t="s">
         <v>213</v>
       </c>
     </row>
     <row r="40" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A40" s="33">
+      <c r="A40" s="44">
         <v>37</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="12" t="s">
         <v>214</v>
       </c>
-      <c r="C40" s="6">
-        <v>10</v>
-      </c>
-      <c r="D40" s="6">
-        <v>0</v>
-      </c>
-      <c r="E40" s="6">
-        <v>0</v>
-      </c>
-      <c r="F40" s="6">
-        <v>10</v>
-      </c>
-      <c r="G40" s="6">
-        <v>0</v>
-      </c>
-      <c r="H40" s="6">
-        <v>0</v>
-      </c>
-      <c r="I40" s="6">
-        <v>0</v>
-      </c>
-      <c r="J40" s="6">
+      <c r="C40" s="13">
+        <v>10</v>
+      </c>
+      <c r="D40" s="13">
+        <v>0</v>
+      </c>
+      <c r="E40" s="13">
+        <v>0</v>
+      </c>
+      <c r="F40" s="13">
+        <v>10</v>
+      </c>
+      <c r="G40" s="13">
+        <v>0</v>
+      </c>
+      <c r="H40" s="13">
+        <v>0</v>
+      </c>
+      <c r="I40" s="13">
+        <v>0</v>
+      </c>
+      <c r="J40" s="13">
         <v>2</v>
       </c>
-      <c r="K40" s="6">
-        <v>1</v>
-      </c>
-      <c r="L40" s="6">
-        <v>0</v>
-      </c>
-      <c r="M40" s="6">
-        <v>0</v>
-      </c>
-      <c r="N40" s="6">
-        <v>0</v>
-      </c>
-      <c r="O40" s="6">
-        <v>0</v>
-      </c>
-      <c r="P40" s="6">
-        <v>0</v>
-      </c>
-      <c r="Q40" s="6">
-        <v>0</v>
-      </c>
-      <c r="R40" s="49">
-        <v>0</v>
-      </c>
-      <c r="S40" s="5"/>
-      <c r="T40" s="5"/>
-      <c r="U40" s="5"/>
-      <c r="V40" s="5"/>
-      <c r="W40" s="50"/>
-      <c r="X40" s="51" t="s">
+      <c r="K40" s="13">
+        <v>1</v>
+      </c>
+      <c r="L40" s="13">
+        <v>0</v>
+      </c>
+      <c r="M40" s="13">
+        <v>0</v>
+      </c>
+      <c r="N40" s="13">
+        <v>0</v>
+      </c>
+      <c r="O40" s="13">
+        <v>0</v>
+      </c>
+      <c r="P40" s="13">
+        <v>0</v>
+      </c>
+      <c r="Q40" s="13">
+        <v>0</v>
+      </c>
+      <c r="R40" s="60">
+        <v>0</v>
+      </c>
+      <c r="S40" s="12"/>
+      <c r="T40" s="12"/>
+      <c r="U40" s="12"/>
+      <c r="V40" s="12"/>
+      <c r="W40" s="61"/>
+      <c r="X40" s="62" t="s">
         <v>215</v>
       </c>
-      <c r="Y40" s="5" t="s">
+      <c r="Y40" s="12" t="s">
         <v>216</v>
       </c>
-      <c r="Z40" s="5" t="s">
+      <c r="Z40" s="12" t="s">
         <v>217</v>
       </c>
-      <c r="AA40" s="50" t="s">
+      <c r="AA40" s="61" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="41" ht="18.75" customHeight="1" spans="1:27">
-      <c r="A41" s="34">
+      <c r="A41" s="45">
         <v>38</v>
       </c>
-      <c r="B41" s="35" t="s">
+      <c r="B41" s="46" t="s">
         <v>218</v>
       </c>
-      <c r="C41" s="36">
-        <v>10</v>
-      </c>
-      <c r="D41" s="36">
-        <v>0</v>
-      </c>
-      <c r="E41" s="36">
-        <v>0</v>
-      </c>
-      <c r="F41" s="36">
-        <v>10</v>
-      </c>
-      <c r="G41" s="36">
-        <v>0</v>
-      </c>
-      <c r="H41" s="36">
-        <v>0</v>
-      </c>
-      <c r="I41" s="36">
-        <v>0</v>
-      </c>
-      <c r="J41" s="36">
+      <c r="C41" s="47">
+        <v>10</v>
+      </c>
+      <c r="D41" s="47">
+        <v>0</v>
+      </c>
+      <c r="E41" s="47">
+        <v>0</v>
+      </c>
+      <c r="F41" s="47">
+        <v>10</v>
+      </c>
+      <c r="G41" s="47">
+        <v>0</v>
+      </c>
+      <c r="H41" s="47">
+        <v>0</v>
+      </c>
+      <c r="I41" s="47">
+        <v>0</v>
+      </c>
+      <c r="J41" s="47">
         <v>2</v>
       </c>
-      <c r="K41" s="36">
-        <v>1</v>
-      </c>
-      <c r="L41" s="36">
-        <v>0</v>
-      </c>
-      <c r="M41" s="36">
-        <v>0</v>
-      </c>
-      <c r="N41" s="36">
-        <v>0</v>
-      </c>
-      <c r="O41" s="36">
-        <v>0</v>
-      </c>
-      <c r="P41" s="36">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="36">
-        <v>0</v>
-      </c>
-      <c r="R41" s="52">
-        <v>0</v>
-      </c>
-      <c r="S41" s="35"/>
-      <c r="T41" s="35"/>
-      <c r="U41" s="35"/>
-      <c r="V41" s="35"/>
-      <c r="W41" s="53"/>
-      <c r="X41" s="54" t="s">
+      <c r="K41" s="47">
+        <v>1</v>
+      </c>
+      <c r="L41" s="47">
+        <v>0</v>
+      </c>
+      <c r="M41" s="47">
+        <v>0</v>
+      </c>
+      <c r="N41" s="47">
+        <v>0</v>
+      </c>
+      <c r="O41" s="47">
+        <v>0</v>
+      </c>
+      <c r="P41" s="47">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="47">
+        <v>0</v>
+      </c>
+      <c r="R41" s="63">
+        <v>0</v>
+      </c>
+      <c r="S41" s="46"/>
+      <c r="T41" s="46"/>
+      <c r="U41" s="46"/>
+      <c r="V41" s="46"/>
+      <c r="W41" s="64"/>
+      <c r="X41" s="65" t="s">
         <v>219</v>
       </c>
-      <c r="Y41" s="35" t="s">
+      <c r="Y41" s="46" t="s">
         <v>220</v>
       </c>
-      <c r="Z41" s="35" t="s">
+      <c r="Z41" s="46" t="s">
         <v>221</v>
       </c>
-      <c r="AA41" s="53" t="s">
+      <c r="AA41" s="64" t="s">
         <v>55</v>
       </c>
     </row>
@@ -6026,126 +6079,126 @@
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:10">
-      <c r="A1" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="5" t="s">
+      <c r="A1" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12" t="s">
         <v>222</v>
       </c>
-      <c r="C1" s="19" t="s">
+      <c r="C1" s="30" t="s">
         <v>223</v>
       </c>
-      <c r="D1" s="5" t="s">
+      <c r="D1" s="12" t="s">
         <v>224</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="12" t="s">
         <v>225</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="F1" s="12" t="s">
         <v>226</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" s="12" t="s">
         <v>227</v>
       </c>
-      <c r="H1" s="5" t="s">
+      <c r="H1" s="12" t="s">
         <v>228</v>
       </c>
-      <c r="I1" s="19" t="s">
+      <c r="I1" s="30" t="s">
         <v>229</v>
       </c>
-      <c r="J1" s="19" t="s">
+      <c r="J1" s="30" t="s">
         <v>230</v>
       </c>
     </row>
     <row r="2" ht="21" customHeight="1" spans="1:10">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="5" t="s">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="12" t="s">
         <v>231</v>
       </c>
-      <c r="C2" s="19" t="s">
+      <c r="C2" s="30" t="s">
         <v>232</v>
       </c>
-      <c r="D2" s="5" t="s">
+      <c r="D2" s="12" t="s">
         <v>233</v>
       </c>
-      <c r="E2" s="5" t="s">
+      <c r="E2" s="12" t="s">
         <v>234</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="F2" s="12" t="s">
         <v>235</v>
       </c>
-      <c r="G2" s="5" t="s">
+      <c r="G2" s="12" t="s">
         <v>236</v>
       </c>
-      <c r="H2" s="5" t="s">
+      <c r="H2" s="12" t="s">
         <v>237</v>
       </c>
-      <c r="I2" s="19" t="s">
+      <c r="I2" s="30" t="s">
         <v>238</v>
       </c>
-      <c r="J2" s="19" t="s">
+      <c r="J2" s="30" t="s">
         <v>239</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:10">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="26" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="19" t="s">
+      <c r="C3" s="30" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="5" t="s">
+      <c r="D3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="5" t="s">
+      <c r="E3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="5" t="s">
+      <c r="G3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="5" t="s">
+      <c r="H3" s="12" t="s">
         <v>49</v>
       </c>
-      <c r="I3" s="19" t="s">
+      <c r="I3" s="30" t="s">
         <v>240</v>
       </c>
-      <c r="J3" s="19" t="s">
+      <c r="J3" s="30" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="4" ht="21.75" customHeight="1" spans="1:10">
-      <c r="A4" s="5" t="s">
+      <c r="A4" s="12" t="s">
         <v>241</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="12" t="s">
         <v>242</v>
       </c>
-      <c r="C4" s="6">
+      <c r="C4" s="13">
         <v>99</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="E4" s="5" t="s">
+      <c r="E4" s="12" t="s">
         <v>243</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="12" t="s">
         <v>244</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-      <c r="I4" s="6">
-        <v>1</v>
-      </c>
-      <c r="J4" s="6">
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="J4" s="13">
         <v>1</v>
       </c>
     </row>
@@ -6160,10 +6213,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:I11"/>
+  <dimension ref="A1:J11"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6175,324 +6228,332 @@
     <col min="5" max="5" width="20.4333333333333" style="1" customWidth="1"/>
     <col min="6" max="6" width="74.8583333333333" style="1" customWidth="1"/>
     <col min="7" max="7" width="19.4333333333333" style="1" customWidth="1"/>
-    <col min="8" max="9" width="13.575" style="1" customWidth="1"/>
+    <col min="8" max="8" width="13.575" style="1" customWidth="1"/>
+    <col min="9" max="9" width="38.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="38.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="17" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="17" t="s">
+      <c r="C1" s="27" t="s">
         <v>246</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="27" t="s">
         <v>247</v>
       </c>
-      <c r="E1" s="17" t="s">
+      <c r="E1" s="27" t="s">
         <v>248</v>
       </c>
-      <c r="F1" s="17" t="s">
+      <c r="F1" s="27" t="s">
         <v>249</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="H1" s="7" t="s">
+      <c r="H1" s="28" t="s">
         <v>251</v>
       </c>
-      <c r="I1" s="7" t="s">
+      <c r="I1" s="28" t="s">
         <v>252</v>
       </c>
     </row>
     <row r="2" ht="40.5" spans="1:9">
-      <c r="A2" s="17" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="17" t="s">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
         <v>253</v>
       </c>
-      <c r="C2" s="18" t="s">
+      <c r="C2" s="29" t="s">
         <v>254</v>
       </c>
-      <c r="D2" s="17" t="s">
+      <c r="D2" s="27" t="s">
         <v>255</v>
       </c>
-      <c r="E2" s="17" t="s">
+      <c r="E2" s="27" t="s">
         <v>256</v>
       </c>
-      <c r="F2" s="17" t="s">
+      <c r="F2" s="27" t="s">
         <v>257</v>
       </c>
-      <c r="G2" s="17" t="s">
+      <c r="G2" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
+      <c r="H2" s="28"/>
+      <c r="I2" s="28" t="s">
         <v>259</v>
       </c>
     </row>
     <row r="3" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A3" s="17" t="s">
+      <c r="A3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="17" t="s">
+      <c r="B3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="17" t="s">
+      <c r="C3" s="27" t="s">
         <v>50</v>
       </c>
-      <c r="D3" s="17" t="s">
+      <c r="D3" s="27" t="s">
         <v>260</v>
       </c>
-      <c r="E3" s="17" t="s">
+      <c r="E3" s="27" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="17" t="s">
+      <c r="F3" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="G3" s="17" t="s">
+      <c r="G3" s="27" t="s">
         <v>261</v>
       </c>
-      <c r="H3" s="7" t="s">
+      <c r="H3" s="28" t="s">
         <v>262</v>
       </c>
-      <c r="I3" s="7" t="s">
+      <c r="I3" s="28" t="s">
         <v>260</v>
       </c>
     </row>
-    <row r="4" ht="21" customHeight="1" spans="1:9">
-      <c r="A4" s="7" t="s">
+    <row r="4" ht="32" customHeight="1" spans="1:10">
+      <c r="A4" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="B4" s="7" t="s">
+      <c r="B4" s="28" t="s">
         <v>264</v>
       </c>
-      <c r="C4" s="7">
-        <v>1</v>
-      </c>
-      <c r="D4" s="7" t="s">
+      <c r="C4" s="28">
+        <v>1</v>
+      </c>
+      <c r="D4" s="28" t="s">
         <v>265</v>
       </c>
-      <c r="E4" s="7" t="s">
+      <c r="E4" s="28" t="s">
         <v>263</v>
       </c>
-      <c r="F4" s="7" t="s">
+      <c r="F4" s="28" t="s">
         <v>266</v>
       </c>
-      <c r="G4" s="7" t="s">
+      <c r="G4" s="28" t="s">
         <v>267</v>
       </c>
-      <c r="H4" s="7" t="s">
+      <c r="H4" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="I4" s="7" t="s">
+      <c r="I4" s="28" t="s">
         <v>269</v>
       </c>
-    </row>
-    <row r="5" ht="21" customHeight="1" spans="1:9">
-      <c r="A5" s="7" t="s">
+      <c r="J4" t="s">
         <v>270</v>
       </c>
-      <c r="B5" s="7" t="s">
+    </row>
+    <row r="5" ht="32" customHeight="1" spans="1:9">
+      <c r="A5" s="28" t="s">
         <v>271</v>
       </c>
-      <c r="C5" s="7">
-        <v>1</v>
-      </c>
-      <c r="D5" s="7" t="s">
+      <c r="B5" s="28" t="s">
         <v>272</v>
       </c>
-      <c r="E5" s="7" t="s">
-        <v>270</v>
-      </c>
-      <c r="F5" s="7" t="s">
+      <c r="C5" s="28">
+        <v>1</v>
+      </c>
+      <c r="D5" s="28" t="s">
         <v>273</v>
       </c>
-      <c r="G5" s="7" t="s">
+      <c r="E5" s="28" t="s">
+        <v>271</v>
+      </c>
+      <c r="F5" s="28" t="s">
         <v>274</v>
       </c>
-      <c r="H5" s="7" t="s">
+      <c r="G5" s="28" t="s">
+        <v>275</v>
+      </c>
+      <c r="H5" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="I5" s="7" t="s">
-        <v>275</v>
-      </c>
-    </row>
-    <row r="6" ht="21" customHeight="1" spans="1:9">
-      <c r="A6" s="7" t="s">
+      <c r="I5" s="28" t="s">
         <v>276</v>
       </c>
-      <c r="B6" s="7" t="s">
+    </row>
+    <row r="6" ht="32" customHeight="1" spans="1:10">
+      <c r="A6" s="28" t="s">
         <v>277</v>
       </c>
-      <c r="C6" s="7">
-        <v>1</v>
-      </c>
-      <c r="D6" s="7" t="s">
+      <c r="B6" s="28" t="s">
         <v>278</v>
       </c>
-      <c r="E6" s="7" t="s">
-        <v>276</v>
-      </c>
-      <c r="F6" s="7" t="s">
+      <c r="C6" s="28">
+        <v>1</v>
+      </c>
+      <c r="D6" s="28" t="s">
         <v>279</v>
       </c>
-      <c r="G6" s="7" t="s">
+      <c r="E6" s="28" t="s">
+        <v>277</v>
+      </c>
+      <c r="F6" s="28" t="s">
         <v>280</v>
       </c>
-      <c r="H6" s="7" t="s">
+      <c r="G6" s="28" t="s">
+        <v>281</v>
+      </c>
+      <c r="H6" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="I6" s="7" t="s">
+      <c r="I6" s="28" t="s">
+        <v>282</v>
+      </c>
+      <c r="J6" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="7" ht="32" customHeight="1" spans="1:10">
+      <c r="A7" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="28" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="28">
+        <v>1</v>
+      </c>
+      <c r="D7" s="28" t="s">
+        <v>286</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="28" t="s">
         <v>281</v>
       </c>
-    </row>
-    <row r="7" ht="21" customHeight="1" spans="1:9">
-      <c r="A7" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" s="7">
-        <v>1</v>
-      </c>
-      <c r="D7" s="7" t="s">
-        <v>284</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>282</v>
-      </c>
-      <c r="F7" s="7" t="s">
-        <v>285</v>
-      </c>
-      <c r="G7" s="7" t="s">
-        <v>280</v>
-      </c>
-      <c r="H7" s="7" t="s">
+      <c r="H7" s="28" t="s">
         <v>268</v>
       </c>
-      <c r="I7" s="7" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="8" ht="21" customHeight="1" spans="1:9">
-      <c r="A8" s="7" t="s">
+      <c r="I7" s="28" t="s">
         <v>287</v>
       </c>
-      <c r="B8" s="7" t="s">
+      <c r="J7" s="28" t="s">
         <v>288</v>
       </c>
-      <c r="C8" s="7">
+    </row>
+    <row r="8" ht="32" customHeight="1" spans="1:9">
+      <c r="A8" s="28" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>290</v>
+      </c>
+      <c r="C8" s="28">
         <v>2</v>
       </c>
-      <c r="D8" s="7" t="s">
+      <c r="D8" s="28" t="s">
+        <v>291</v>
+      </c>
+      <c r="E8" s="28" t="s">
         <v>289</v>
       </c>
-      <c r="E8" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G8" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H8" s="7" t="s">
+      <c r="F8" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G8" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="I8" s="7" t="s">
+      <c r="H8" s="28" t="s">
         <v>293</v>
       </c>
-    </row>
-    <row r="9" ht="21" customHeight="1" spans="1:9">
-      <c r="A9" s="7" t="s">
+      <c r="I8" s="28" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="9" ht="32" customHeight="1" spans="1:9">
+      <c r="A9" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="B9" s="7" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="7">
+      <c r="B9" s="28" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="28">
         <v>2</v>
       </c>
-      <c r="D9" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="E9" s="7" t="s">
+      <c r="D9" s="28" t="s">
+        <v>296</v>
+      </c>
+      <c r="E9" s="28" t="s">
         <v>243</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H9" s="7" t="s">
+      <c r="F9" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G9" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="I9" s="7" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="10" ht="21" customHeight="1" spans="1:9">
-      <c r="A10" s="7" t="s">
+      <c r="H9" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="I9" s="28" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="10" ht="32" customHeight="1" spans="1:9">
+      <c r="A10" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="B10" s="7" t="s">
-        <v>297</v>
-      </c>
-      <c r="C10" s="7">
+      <c r="B10" s="28" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="28">
         <v>2</v>
       </c>
-      <c r="D10" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="E10" s="7" t="s">
+      <c r="D10" s="28" t="s">
+        <v>299</v>
+      </c>
+      <c r="E10" s="28" t="s">
         <v>244</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H10" s="7" t="s">
+      <c r="F10" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G10" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="I10" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="11" ht="21" customHeight="1" spans="1:9">
-      <c r="A11" s="7" t="s">
+      <c r="H10" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="I10" s="28" t="s">
         <v>300</v>
       </c>
-      <c r="B11" s="7" t="s">
+    </row>
+    <row r="11" ht="32" customHeight="1" spans="1:9">
+      <c r="A11" s="28" t="s">
         <v>301</v>
       </c>
-      <c r="C11" s="7">
+      <c r="B11" s="28" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="28">
         <v>2</v>
       </c>
-      <c r="D11" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>290</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="H11" s="7" t="s">
+      <c r="D11" s="28" t="s">
+        <v>303</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>301</v>
+      </c>
+      <c r="F11" s="28" t="s">
+        <v>266</v>
+      </c>
+      <c r="G11" s="28" t="s">
         <v>292</v>
       </c>
-      <c r="I11" s="7" t="s">
-        <v>303</v>
+      <c r="H11" s="28" t="s">
+        <v>293</v>
+      </c>
+      <c r="I11" s="28" t="s">
+        <v>304</v>
       </c>
     </row>
   </sheetData>
@@ -6520,321 +6581,321 @@
   </cols>
   <sheetData>
     <row r="1" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>245</v>
       </c>
-      <c r="C1" s="9" t="s">
-        <v>291</v>
-      </c>
-      <c r="D1" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="E1" s="9" t="s">
+      <c r="C1" s="10" t="s">
+        <v>292</v>
+      </c>
+      <c r="D1" s="10" t="s">
+        <v>305</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>266</v>
+      </c>
+      <c r="F1" s="10" t="s">
+        <v>306</v>
+      </c>
+      <c r="G1" s="10" t="s">
+        <v>307</v>
+      </c>
+      <c r="H1" s="10" t="s">
+        <v>308</v>
+      </c>
+      <c r="I1" s="10" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="2" ht="21" customHeight="1" spans="1:9">
+      <c r="A2" s="26" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="26" t="s">
+        <v>253</v>
+      </c>
+      <c r="C2" s="26" t="s">
+        <v>310</v>
+      </c>
+      <c r="D2" s="26" t="s">
+        <v>311</v>
+      </c>
+      <c r="E2" s="26" t="s">
+        <v>312</v>
+      </c>
+      <c r="F2" s="26" t="s">
+        <v>313</v>
+      </c>
+      <c r="G2" s="26" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="26" t="s">
+        <v>314</v>
+      </c>
+      <c r="I2" s="26" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="3" ht="19.5" customHeight="1" spans="1:9">
+      <c r="A3" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="D3" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="E3" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="F3" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="G3" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="H3" s="26" t="s">
+        <v>316</v>
+      </c>
+      <c r="I3" s="26" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="4" ht="21" customHeight="1" spans="1:9">
+      <c r="A4" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B4" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="C4" s="12">
+        <v>100</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0</v>
+      </c>
+      <c r="E4" s="12">
+        <v>10</v>
+      </c>
+      <c r="F4" s="12">
+        <v>5</v>
+      </c>
+      <c r="G4" s="12">
+        <v>8</v>
+      </c>
+      <c r="H4" s="12">
+        <v>1</v>
+      </c>
+      <c r="I4" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" ht="21" customHeight="1" spans="1:9">
+      <c r="A5" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="C5" s="12">
+        <v>100</v>
+      </c>
+      <c r="D5" s="12">
+        <v>0</v>
+      </c>
+      <c r="E5" s="12">
+        <v>10</v>
+      </c>
+      <c r="F5" s="12">
+        <v>5</v>
+      </c>
+      <c r="G5" s="12">
+        <v>10</v>
+      </c>
+      <c r="H5" s="12">
+        <v>1</v>
+      </c>
+      <c r="I5" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" ht="21" customHeight="1" spans="1:9">
+      <c r="A6" s="12" t="s">
+        <v>277</v>
+      </c>
+      <c r="B6" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="C6" s="12">
+        <v>100</v>
+      </c>
+      <c r="D6" s="12">
+        <v>50</v>
+      </c>
+      <c r="E6" s="12">
+        <v>10</v>
+      </c>
+      <c r="F6" s="12">
+        <v>5</v>
+      </c>
+      <c r="G6" s="12">
+        <v>5</v>
+      </c>
+      <c r="H6" s="12">
+        <v>1</v>
+      </c>
+      <c r="I6" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" ht="21" customHeight="1" spans="1:9">
+      <c r="A7" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B7" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="C7" s="12">
+        <v>100</v>
+      </c>
+      <c r="D7" s="12">
+        <v>50</v>
+      </c>
+      <c r="E7" s="12">
+        <v>10</v>
+      </c>
+      <c r="F7" s="12">
+        <v>5</v>
+      </c>
+      <c r="G7" s="12">
+        <v>5</v>
+      </c>
+      <c r="H7" s="12">
+        <v>1</v>
+      </c>
+      <c r="I7" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" ht="21" customHeight="1" spans="1:9">
+      <c r="A8" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B8" s="12" t="s">
         <v>290</v>
       </c>
-      <c r="F1" s="9" t="s">
-        <v>305</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>306</v>
-      </c>
-      <c r="H1" s="9" t="s">
-        <v>307</v>
-      </c>
-      <c r="I1" s="9" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="2" ht="21" customHeight="1" spans="1:9">
-      <c r="A2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="3" t="s">
-        <v>253</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>309</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>310</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>312</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>313</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="3" ht="19.5" customHeight="1" spans="1:9">
-      <c r="A3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="4" ht="21" customHeight="1" spans="1:9">
-      <c r="A4" s="5" t="s">
-        <v>263</v>
-      </c>
-      <c r="B4" s="5" t="s">
-        <v>264</v>
-      </c>
-      <c r="C4" s="5">
+      <c r="C8" s="12">
         <v>100</v>
       </c>
-      <c r="D4" s="5">
-        <v>0</v>
-      </c>
-      <c r="E4" s="5">
-        <v>10</v>
-      </c>
-      <c r="F4" s="5">
+      <c r="D8" s="12">
+        <v>0</v>
+      </c>
+      <c r="E8" s="12">
+        <v>10</v>
+      </c>
+      <c r="F8" s="12">
         <v>5</v>
       </c>
-      <c r="G4" s="5">
-        <v>8</v>
-      </c>
-      <c r="H4" s="5">
-        <v>1</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="21" customHeight="1" spans="1:9">
-      <c r="A5" s="5" t="s">
-        <v>270</v>
-      </c>
-      <c r="B5" s="5" t="s">
-        <v>271</v>
-      </c>
-      <c r="C5" s="5">
+      <c r="G8" s="12">
+        <v>5</v>
+      </c>
+      <c r="H8" s="12">
+        <v>1</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:9">
+      <c r="A9" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B9" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="C9" s="12">
         <v>100</v>
       </c>
-      <c r="D5" s="5">
-        <v>0</v>
-      </c>
-      <c r="E5" s="5">
-        <v>10</v>
-      </c>
-      <c r="F5" s="5">
+      <c r="D9" s="12">
+        <v>0</v>
+      </c>
+      <c r="E9" s="12">
+        <v>10</v>
+      </c>
+      <c r="F9" s="12">
         <v>5</v>
       </c>
-      <c r="G5" s="5">
-        <v>10</v>
-      </c>
-      <c r="H5" s="5">
-        <v>1</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="21" customHeight="1" spans="1:9">
-      <c r="A6" s="5" t="s">
-        <v>276</v>
-      </c>
-      <c r="B6" s="5" t="s">
-        <v>277</v>
-      </c>
-      <c r="C6" s="5">
+      <c r="G9" s="12">
+        <v>6</v>
+      </c>
+      <c r="H9" s="12">
+        <v>1</v>
+      </c>
+      <c r="I9" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="21" customHeight="1" spans="1:9">
+      <c r="A10" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="C10" s="12">
         <v>100</v>
       </c>
-      <c r="D6" s="5">
-        <v>50</v>
-      </c>
-      <c r="E6" s="5">
-        <v>10</v>
-      </c>
-      <c r="F6" s="5">
+      <c r="D10" s="12">
+        <v>0</v>
+      </c>
+      <c r="E10" s="12">
+        <v>10</v>
+      </c>
+      <c r="F10" s="12">
         <v>5</v>
       </c>
-      <c r="G6" s="5">
+      <c r="G10" s="12">
         <v>5</v>
       </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="21" customHeight="1" spans="1:9">
-      <c r="A7" s="5" t="s">
-        <v>282</v>
-      </c>
-      <c r="B7" s="5" t="s">
-        <v>283</v>
-      </c>
-      <c r="C7" s="5">
+      <c r="H10" s="12">
+        <v>1</v>
+      </c>
+      <c r="I10" s="12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="21.75" customHeight="1" spans="1:9">
+      <c r="A11" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="C11" s="12">
         <v>100</v>
       </c>
-      <c r="D7" s="5">
-        <v>50</v>
-      </c>
-      <c r="E7" s="5">
-        <v>10</v>
-      </c>
-      <c r="F7" s="5">
+      <c r="D11" s="12">
+        <v>0</v>
+      </c>
+      <c r="E11" s="12">
+        <v>10</v>
+      </c>
+      <c r="F11" s="12">
         <v>5</v>
       </c>
-      <c r="G7" s="5">
+      <c r="G11" s="12">
         <v>5</v>
       </c>
-      <c r="H7" s="5">
-        <v>1</v>
-      </c>
-      <c r="I7" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="21" customHeight="1" spans="1:9">
-      <c r="A8" s="5" t="s">
-        <v>287</v>
-      </c>
-      <c r="B8" s="5" t="s">
-        <v>288</v>
-      </c>
-      <c r="C8" s="5">
-        <v>100</v>
-      </c>
-      <c r="D8" s="5">
-        <v>0</v>
-      </c>
-      <c r="E8" s="5">
-        <v>10</v>
-      </c>
-      <c r="F8" s="5">
-        <v>5</v>
-      </c>
-      <c r="G8" s="5">
-        <v>5</v>
-      </c>
-      <c r="H8" s="5">
-        <v>1</v>
-      </c>
-      <c r="I8" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="21" customHeight="1" spans="1:9">
-      <c r="A9" s="5" t="s">
-        <v>243</v>
-      </c>
-      <c r="B9" s="5" t="s">
-        <v>294</v>
-      </c>
-      <c r="C9" s="5">
-        <v>100</v>
-      </c>
-      <c r="D9" s="5">
-        <v>0</v>
-      </c>
-      <c r="E9" s="5">
-        <v>10</v>
-      </c>
-      <c r="F9" s="5">
-        <v>5</v>
-      </c>
-      <c r="G9" s="5">
-        <v>6</v>
-      </c>
-      <c r="H9" s="5">
-        <v>1</v>
-      </c>
-      <c r="I9" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="21" customHeight="1" spans="1:9">
-      <c r="A10" s="5" t="s">
-        <v>244</v>
-      </c>
-      <c r="B10" s="5" t="s">
-        <v>297</v>
-      </c>
-      <c r="C10" s="5">
-        <v>100</v>
-      </c>
-      <c r="D10" s="5">
-        <v>0</v>
-      </c>
-      <c r="E10" s="5">
-        <v>10</v>
-      </c>
-      <c r="F10" s="5">
-        <v>5</v>
-      </c>
-      <c r="G10" s="5">
-        <v>5</v>
-      </c>
-      <c r="H10" s="5">
-        <v>1</v>
-      </c>
-      <c r="I10" s="5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="21.75" customHeight="1" spans="1:9">
-      <c r="A11" s="5" t="s">
-        <v>300</v>
-      </c>
-      <c r="B11" s="5" t="s">
-        <v>301</v>
-      </c>
-      <c r="C11" s="5">
-        <v>100</v>
-      </c>
-      <c r="D11" s="5">
-        <v>0</v>
-      </c>
-      <c r="E11" s="5">
-        <v>10</v>
-      </c>
-      <c r="F11" s="5">
-        <v>5</v>
-      </c>
-      <c r="G11" s="5">
-        <v>5</v>
-      </c>
-      <c r="H11" s="5">
-        <v>1</v>
-      </c>
-      <c r="I11" s="5">
+      <c r="H11" s="12">
+        <v>1</v>
+      </c>
+      <c r="I11" s="12">
         <v>0</v>
       </c>
     </row>
@@ -6851,10 +6912,10 @@
   </sheetPr>
   <dimension ref="A1:O22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -6862,9 +6923,9 @@
     <col min="1" max="1" width="19.4333333333333" style="1" customWidth="1"/>
     <col min="2" max="3" width="15.4333333333333" style="1" customWidth="1"/>
     <col min="4" max="4" width="24.15" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.15" style="11" customWidth="1"/>
+    <col min="5" max="5" width="14.15" style="16" customWidth="1"/>
     <col min="6" max="6" width="13.575" style="1" customWidth="1"/>
-    <col min="7" max="7" width="13.575" style="11" customWidth="1"/>
+    <col min="7" max="7" width="13.575" style="16" customWidth="1"/>
     <col min="8" max="8" width="9.29166666666667" style="1" customWidth="1"/>
     <col min="9" max="9" width="15.4333333333333" style="2" customWidth="1"/>
     <col min="10" max="10" width="42.7166666666667" style="1" customWidth="1"/>
@@ -6874,978 +6935,978 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:15">
-      <c r="A1" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="12" t="s">
+      <c r="A1" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="C1" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="D1" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="18" t="s">
+        <v>320</v>
+      </c>
+      <c r="F1" s="17" t="s">
+        <v>321</v>
+      </c>
+      <c r="G1" s="18" t="s">
+        <v>322</v>
+      </c>
+      <c r="H1" s="17" t="s">
+        <v>323</v>
+      </c>
+      <c r="I1" s="18" t="s">
+        <v>324</v>
+      </c>
+      <c r="J1" s="17" t="s">
+        <v>325</v>
+      </c>
+      <c r="K1" s="17" t="s">
+        <v>326</v>
+      </c>
+      <c r="L1" s="18" t="s">
+        <v>327</v>
+      </c>
+      <c r="M1" s="18" t="s">
+        <v>328</v>
+      </c>
+      <c r="N1" s="18" t="s">
+        <v>329</v>
+      </c>
+      <c r="O1" s="18" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="2" ht="18.75" customHeight="1" spans="1:15">
+      <c r="A2" s="17" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="17" t="s">
+        <v>331</v>
+      </c>
+      <c r="C2" s="17" t="s">
+        <v>332</v>
+      </c>
+      <c r="D2" s="17" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="18" t="s">
+        <v>334</v>
+      </c>
+      <c r="F2" s="17" t="s">
+        <v>335</v>
+      </c>
+      <c r="G2" s="18" t="s">
+        <v>336</v>
+      </c>
+      <c r="H2" s="17" t="s">
+        <v>337</v>
+      </c>
+      <c r="I2" s="18" t="s">
+        <v>338</v>
+      </c>
+      <c r="J2" s="17" t="s">
+        <v>339</v>
+      </c>
+      <c r="K2" s="17" t="s">
+        <v>340</v>
+      </c>
+      <c r="L2" s="18" t="s">
+        <v>341</v>
+      </c>
+      <c r="M2" s="18" t="s">
+        <v>342</v>
+      </c>
+      <c r="N2" s="18" t="s">
+        <v>343</v>
+      </c>
+      <c r="O2" s="18" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="3" ht="18.75" customHeight="1" spans="1:15">
+      <c r="A3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="B3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="D3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="E3" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="F3" s="17" t="s">
+        <v>345</v>
+      </c>
+      <c r="G3" s="18" t="s">
+        <v>345</v>
+      </c>
+      <c r="H3" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="I3" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="J3" s="17" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="L3" s="18" t="s">
         <v>316</v>
       </c>
-      <c r="C1" s="12" t="s">
-        <v>317</v>
-      </c>
-      <c r="D1" s="12" t="s">
-        <v>318</v>
-      </c>
-      <c r="E1" s="13" t="s">
-        <v>319</v>
-      </c>
-      <c r="F1" s="12" t="s">
-        <v>320</v>
-      </c>
-      <c r="G1" s="13" t="s">
-        <v>321</v>
-      </c>
-      <c r="H1" s="12" t="s">
-        <v>322</v>
-      </c>
-      <c r="I1" s="13" t="s">
-        <v>323</v>
-      </c>
-      <c r="J1" s="12" t="s">
-        <v>324</v>
-      </c>
-      <c r="K1" s="12" t="s">
-        <v>325</v>
-      </c>
-      <c r="L1" s="13" t="s">
-        <v>326</v>
-      </c>
-      <c r="M1" s="13" t="s">
-        <v>327</v>
-      </c>
-      <c r="N1" s="13" t="s">
-        <v>328</v>
-      </c>
-      <c r="O1" s="13" t="s">
-        <v>329</v>
-      </c>
-    </row>
-    <row r="2" ht="18.75" customHeight="1" spans="1:15">
-      <c r="A2" s="12" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="12" t="s">
-        <v>331</v>
-      </c>
-      <c r="D2" s="12" t="s">
-        <v>332</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>333</v>
-      </c>
-      <c r="F2" s="12" t="s">
-        <v>334</v>
-      </c>
-      <c r="G2" s="13" t="s">
-        <v>335</v>
-      </c>
-      <c r="H2" s="12" t="s">
-        <v>336</v>
-      </c>
-      <c r="I2" s="13" t="s">
-        <v>337</v>
-      </c>
-      <c r="J2" s="12" t="s">
-        <v>338</v>
-      </c>
-      <c r="K2" s="12" t="s">
-        <v>339</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>340</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>341</v>
-      </c>
-      <c r="N2" s="13" t="s">
-        <v>342</v>
-      </c>
-      <c r="O2" s="13" t="s">
-        <v>343</v>
-      </c>
-    </row>
-    <row r="3" ht="18.75" customHeight="1" spans="1:15">
-      <c r="A3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="C3" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="D3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="E3" s="13" t="s">
+      <c r="M3" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="N3" s="18" t="s">
+        <v>240</v>
+      </c>
+      <c r="O3" s="18" t="s">
         <v>50</v>
       </c>
-      <c r="F3" s="12" t="s">
-        <v>344</v>
-      </c>
-      <c r="G3" s="13" t="s">
-        <v>344</v>
-      </c>
-      <c r="H3" s="12" t="s">
-        <v>260</v>
-      </c>
-      <c r="I3" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>49</v>
-      </c>
-      <c r="K3" s="12" t="s">
-        <v>261</v>
-      </c>
-      <c r="L3" s="13" t="s">
-        <v>315</v>
-      </c>
-      <c r="M3" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="N3" s="13" t="s">
-        <v>240</v>
-      </c>
-      <c r="O3" s="13" t="s">
-        <v>50</v>
-      </c>
     </row>
     <row r="4" ht="21" customHeight="1" spans="1:15">
-      <c r="A4" s="14" t="s">
-        <v>290</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>345</v>
-      </c>
-      <c r="C4" s="14" t="s">
+      <c r="A4" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="B4" s="5" t="s">
         <v>346</v>
       </c>
-      <c r="D4" s="14"/>
-      <c r="E4" s="15">
-        <v>1</v>
-      </c>
-      <c r="F4" s="14" t="s">
+      <c r="C4" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="G4" s="15" t="s">
+      <c r="D4" s="5"/>
+      <c r="E4" s="19">
+        <v>1</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G4" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H4" s="5"/>
+      <c r="I4" s="6">
+        <v>0</v>
+      </c>
+      <c r="J4" s="5" t="s">
+        <v>349</v>
+      </c>
+      <c r="K4" s="5"/>
+      <c r="L4" s="6">
+        <v>0</v>
+      </c>
+      <c r="M4" s="6">
+        <v>0</v>
+      </c>
+      <c r="N4" s="6">
+        <v>1</v>
+      </c>
+      <c r="O4" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" s="14" customFormat="1" ht="21" customHeight="1" spans="1:15">
+      <c r="A5" s="20" t="s">
+        <v>350</v>
+      </c>
+      <c r="B5" s="20" t="s">
+        <v>351</v>
+      </c>
+      <c r="C5" s="20" t="s">
         <v>347</v>
       </c>
-      <c r="H4" s="14"/>
-      <c r="I4" s="16">
-        <v>0</v>
-      </c>
-      <c r="J4" s="14" t="s">
+      <c r="D5" s="20"/>
+      <c r="E5" s="21">
+        <v>4</v>
+      </c>
+      <c r="F5" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="G5" s="21" t="s">
         <v>348</v>
       </c>
-      <c r="K4" s="14"/>
-      <c r="L4" s="16">
-        <v>0</v>
-      </c>
-      <c r="M4" s="16">
-        <v>0</v>
-      </c>
-      <c r="N4" s="16">
-        <v>1</v>
-      </c>
-      <c r="O4" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" ht="21" customHeight="1" spans="1:15">
-      <c r="A5" s="14" t="s">
-        <v>349</v>
-      </c>
-      <c r="B5" s="14" t="s">
-        <v>350</v>
-      </c>
-      <c r="C5" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D5" s="14"/>
-      <c r="E5" s="15">
+      <c r="H5" s="20" t="s">
+        <v>353</v>
+      </c>
+      <c r="I5" s="24">
+        <v>0</v>
+      </c>
+      <c r="J5" s="20" t="s">
+        <v>354</v>
+      </c>
+      <c r="K5" s="20" t="s">
+        <v>355</v>
+      </c>
+      <c r="L5" s="24">
+        <v>3</v>
+      </c>
+      <c r="M5" s="24">
+        <v>1</v>
+      </c>
+      <c r="N5" s="24">
+        <v>1</v>
+      </c>
+      <c r="O5" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" s="14" customFormat="1" ht="21" customHeight="1" spans="1:15">
+      <c r="A6" s="20" t="s">
+        <v>356</v>
+      </c>
+      <c r="B6" s="20" t="s">
+        <v>357</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="21">
+        <v>1</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>352</v>
+      </c>
+      <c r="G6" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="H6" s="20" t="s">
+        <v>358</v>
+      </c>
+      <c r="I6" s="24">
+        <v>0</v>
+      </c>
+      <c r="J6" s="20" t="s">
+        <v>359</v>
+      </c>
+      <c r="K6" s="20" t="s">
+        <v>360</v>
+      </c>
+      <c r="L6" s="24">
+        <v>2</v>
+      </c>
+      <c r="M6" s="24">
+        <v>1</v>
+      </c>
+      <c r="N6" s="24">
+        <v>1</v>
+      </c>
+      <c r="O6" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" s="14" customFormat="1" ht="21" customHeight="1" spans="1:15">
+      <c r="A7" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="B7" s="20" t="s">
+        <v>362</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D7" s="20"/>
+      <c r="E7" s="21">
+        <v>5</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>363</v>
+      </c>
+      <c r="G7" s="21">
+        <v>0</v>
+      </c>
+      <c r="H7" s="20" t="s">
+        <v>364</v>
+      </c>
+      <c r="I7" s="24">
+        <v>1</v>
+      </c>
+      <c r="J7" s="20" t="s">
+        <v>365</v>
+      </c>
+      <c r="K7" s="20"/>
+      <c r="L7" s="24">
+        <v>0</v>
+      </c>
+      <c r="M7" s="24">
+        <v>1</v>
+      </c>
+      <c r="N7" s="24">
+        <v>1</v>
+      </c>
+      <c r="O7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" s="14" customFormat="1" ht="21" customHeight="1" spans="1:15">
+      <c r="A8" s="20" t="s">
+        <v>366</v>
+      </c>
+      <c r="B8" s="20" t="s">
+        <v>367</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>347</v>
+      </c>
+      <c r="D8" s="20"/>
+      <c r="E8" s="21">
+        <v>1</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>368</v>
+      </c>
+      <c r="G8" s="21" t="s">
+        <v>352</v>
+      </c>
+      <c r="H8" s="20" t="s">
+        <v>369</v>
+      </c>
+      <c r="I8" s="24">
+        <v>1</v>
+      </c>
+      <c r="J8" s="20" t="s">
+        <v>370</v>
+      </c>
+      <c r="K8" s="20"/>
+      <c r="L8" s="24">
+        <v>0</v>
+      </c>
+      <c r="M8" s="24">
+        <v>1</v>
+      </c>
+      <c r="N8" s="24">
+        <v>1</v>
+      </c>
+      <c r="O8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" ht="21" customHeight="1" spans="1:15">
+      <c r="A9" s="5" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" s="5" t="s">
+        <v>371</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D9" s="5"/>
+      <c r="E9" s="19">
+        <v>1</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H9" s="5"/>
+      <c r="I9" s="6">
+        <v>0</v>
+      </c>
+      <c r="J9" s="5" t="s">
+        <v>372</v>
+      </c>
+      <c r="K9" s="5"/>
+      <c r="L9" s="6">
+        <v>0</v>
+      </c>
+      <c r="M9" s="6">
+        <v>0</v>
+      </c>
+      <c r="N9" s="6">
+        <v>0</v>
+      </c>
+      <c r="O9" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" ht="21" customHeight="1" spans="1:15">
+      <c r="A10" s="5" t="s">
+        <v>373</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>374</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D10" s="5"/>
+      <c r="E10" s="19">
+        <v>3</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H10" s="5" t="s">
+        <v>376</v>
+      </c>
+      <c r="I10" s="6">
+        <v>0</v>
+      </c>
+      <c r="J10" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="K10" s="5" t="s">
+        <v>378</v>
+      </c>
+      <c r="L10" s="6">
         <v>4</v>
       </c>
-      <c r="F5" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="G5" s="15" t="s">
+      <c r="M10" s="6">
+        <v>1</v>
+      </c>
+      <c r="N10" s="6">
+        <v>0</v>
+      </c>
+      <c r="O10" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" ht="21" customHeight="1" spans="1:15">
+      <c r="A11" s="5" t="s">
+        <v>379</v>
+      </c>
+      <c r="B11" s="5" t="s">
+        <v>380</v>
+      </c>
+      <c r="C11" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="H5" s="14" t="s">
-        <v>352</v>
-      </c>
-      <c r="I5" s="16">
-        <v>0</v>
-      </c>
-      <c r="J5" s="14" t="s">
-        <v>353</v>
-      </c>
-      <c r="K5" s="14" t="s">
-        <v>354</v>
-      </c>
-      <c r="L5" s="16">
+      <c r="D11" s="5"/>
+      <c r="E11" s="19">
+        <v>1</v>
+      </c>
+      <c r="F11" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G11" s="19" t="s">
+        <v>368</v>
+      </c>
+      <c r="H11" s="5" t="s">
+        <v>381</v>
+      </c>
+      <c r="I11" s="6">
+        <v>0</v>
+      </c>
+      <c r="J11" s="5" t="s">
+        <v>382</v>
+      </c>
+      <c r="K11" s="5" t="s">
+        <v>383</v>
+      </c>
+      <c r="L11" s="6">
         <v>3</v>
       </c>
-      <c r="M5" s="16">
-        <v>1</v>
-      </c>
-      <c r="N5" s="16">
-        <v>1</v>
-      </c>
-      <c r="O5" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" ht="21" customHeight="1" spans="1:15">
-      <c r="A6" s="14" t="s">
-        <v>355</v>
-      </c>
-      <c r="B6" s="14" t="s">
-        <v>356</v>
-      </c>
-      <c r="C6" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D6" s="14"/>
-      <c r="E6" s="15">
-        <v>1</v>
-      </c>
-      <c r="F6" s="14" t="s">
-        <v>351</v>
-      </c>
-      <c r="G6" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="H6" s="14" t="s">
-        <v>357</v>
-      </c>
-      <c r="I6" s="16">
-        <v>0</v>
-      </c>
-      <c r="J6" s="14" t="s">
-        <v>358</v>
-      </c>
-      <c r="K6" s="14" t="s">
-        <v>359</v>
-      </c>
-      <c r="L6" s="16">
+      <c r="M11" s="6">
+        <v>1</v>
+      </c>
+      <c r="N11" s="6">
+        <v>0</v>
+      </c>
+      <c r="O11" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" ht="21" customHeight="1" spans="1:15">
+      <c r="A12" s="5" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" s="5" t="s">
+        <v>385</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D12" s="5"/>
+      <c r="E12" s="19">
+        <v>1</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>375</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>386</v>
+      </c>
+      <c r="H12" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="I12" s="6">
+        <v>0</v>
+      </c>
+      <c r="J12" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="K12" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="L12" s="6">
         <v>2</v>
       </c>
-      <c r="M6" s="16">
-        <v>1</v>
-      </c>
-      <c r="N6" s="16">
-        <v>1</v>
-      </c>
-      <c r="O6" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" ht="21" customHeight="1" spans="1:15">
-      <c r="A7" s="14" t="s">
-        <v>360</v>
-      </c>
-      <c r="B7" s="14" t="s">
-        <v>361</v>
-      </c>
-      <c r="C7" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D7" s="14"/>
-      <c r="E7" s="15">
+      <c r="M12" s="6">
+        <v>1</v>
+      </c>
+      <c r="N12" s="6">
+        <v>0</v>
+      </c>
+      <c r="O12" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" ht="21" customHeight="1" spans="1:15">
+      <c r="A13" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="B13" s="5" t="s">
+        <v>391</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="19">
+        <v>3</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>368</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H13" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="I13" s="6">
+        <v>0</v>
+      </c>
+      <c r="J13" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="K13" s="5" t="s">
+        <v>394</v>
+      </c>
+      <c r="L13" s="6">
+        <v>2</v>
+      </c>
+      <c r="M13" s="6">
+        <v>1</v>
+      </c>
+      <c r="N13" s="6">
+        <v>0</v>
+      </c>
+      <c r="O13" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" s="15" customFormat="1" ht="21" customHeight="1" spans="1:15">
+      <c r="A14" s="22" t="s">
+        <v>280</v>
+      </c>
+      <c r="B14" s="22" t="s">
+        <v>395</v>
+      </c>
+      <c r="C14" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D14" s="22"/>
+      <c r="E14" s="23">
+        <v>1</v>
+      </c>
+      <c r="F14" s="22" t="s">
+        <v>348</v>
+      </c>
+      <c r="G14" s="23" t="s">
+        <v>348</v>
+      </c>
+      <c r="H14" s="22"/>
+      <c r="I14" s="25">
+        <v>0</v>
+      </c>
+      <c r="J14" s="22" t="s">
+        <v>396</v>
+      </c>
+      <c r="K14" s="22"/>
+      <c r="L14" s="25">
+        <v>0</v>
+      </c>
+      <c r="M14" s="25">
+        <v>0</v>
+      </c>
+      <c r="N14" s="25">
+        <v>1</v>
+      </c>
+      <c r="O14" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" s="15" customFormat="1" ht="21" customHeight="1" spans="1:15">
+      <c r="A15" s="22" t="s">
+        <v>397</v>
+      </c>
+      <c r="B15" s="22" t="s">
+        <v>398</v>
+      </c>
+      <c r="C15" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D15" s="22"/>
+      <c r="E15" s="23">
+        <v>3</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="G15" s="23" t="s">
+        <v>375</v>
+      </c>
+      <c r="H15" s="22" t="s">
+        <v>399</v>
+      </c>
+      <c r="I15" s="25">
+        <v>0</v>
+      </c>
+      <c r="J15" s="22" t="s">
+        <v>400</v>
+      </c>
+      <c r="K15" s="22" t="s">
+        <v>401</v>
+      </c>
+      <c r="L15" s="25">
+        <v>3</v>
+      </c>
+      <c r="M15" s="25">
+        <v>1</v>
+      </c>
+      <c r="N15" s="25">
+        <v>0</v>
+      </c>
+      <c r="O15" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" s="15" customFormat="1" ht="21" customHeight="1" spans="1:15">
+      <c r="A16" s="22" t="s">
+        <v>402</v>
+      </c>
+      <c r="B16" s="22" t="s">
+        <v>403</v>
+      </c>
+      <c r="C16" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D16" s="22"/>
+      <c r="E16" s="23">
+        <v>3</v>
+      </c>
+      <c r="F16" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="G16" s="23" t="s">
+        <v>386</v>
+      </c>
+      <c r="H16" s="22" t="s">
+        <v>404</v>
+      </c>
+      <c r="I16" s="25">
+        <v>0</v>
+      </c>
+      <c r="J16" s="22" t="s">
+        <v>405</v>
+      </c>
+      <c r="K16" s="22" t="s">
+        <v>406</v>
+      </c>
+      <c r="L16" s="25">
+        <v>3</v>
+      </c>
+      <c r="M16" s="25">
+        <v>1</v>
+      </c>
+      <c r="N16" s="25">
+        <v>0</v>
+      </c>
+      <c r="O16" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" s="15" customFormat="1" ht="21" customHeight="1" spans="1:15">
+      <c r="A17" s="22" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" s="22" t="s">
+        <v>408</v>
+      </c>
+      <c r="C17" s="22" t="s">
+        <v>347</v>
+      </c>
+      <c r="D17" s="22"/>
+      <c r="E17" s="23">
         <v>5</v>
       </c>
-      <c r="F7" s="14" t="s">
-        <v>362</v>
-      </c>
-      <c r="G7" s="15">
-        <v>0</v>
-      </c>
-      <c r="H7" s="14" t="s">
-        <v>363</v>
-      </c>
-      <c r="I7" s="16">
-        <v>1</v>
-      </c>
-      <c r="J7" s="14" t="s">
-        <v>364</v>
-      </c>
-      <c r="K7" s="14"/>
-      <c r="L7" s="16">
-        <v>0</v>
-      </c>
-      <c r="M7" s="16">
-        <v>1</v>
-      </c>
-      <c r="N7" s="16">
-        <v>1</v>
-      </c>
-      <c r="O7" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" ht="21" customHeight="1" spans="1:15">
-      <c r="A8" s="14" t="s">
-        <v>365</v>
-      </c>
-      <c r="B8" s="14" t="s">
-        <v>366</v>
-      </c>
-      <c r="C8" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D8" s="14"/>
-      <c r="E8" s="15">
-        <v>1</v>
-      </c>
-      <c r="F8" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="G8" s="15" t="s">
-        <v>351</v>
-      </c>
-      <c r="H8" s="14" t="s">
-        <v>368</v>
-      </c>
-      <c r="I8" s="16">
-        <v>1</v>
-      </c>
-      <c r="J8" s="14" t="s">
-        <v>369</v>
-      </c>
-      <c r="K8" s="14"/>
-      <c r="L8" s="16">
-        <v>0</v>
-      </c>
-      <c r="M8" s="16">
-        <v>1</v>
-      </c>
-      <c r="N8" s="16">
-        <v>1</v>
-      </c>
-      <c r="O8" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" ht="21" customHeight="1" spans="1:15">
-      <c r="A9" s="14" t="s">
-        <v>273</v>
-      </c>
-      <c r="B9" s="14" t="s">
-        <v>370</v>
-      </c>
-      <c r="C9" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D9" s="14"/>
-      <c r="E9" s="15">
-        <v>1</v>
-      </c>
-      <c r="F9" s="14" t="s">
+      <c r="F17" s="22" t="s">
+        <v>386</v>
+      </c>
+      <c r="G17" s="23">
+        <v>0</v>
+      </c>
+      <c r="H17" s="22" t="s">
+        <v>409</v>
+      </c>
+      <c r="I17" s="25">
+        <v>0</v>
+      </c>
+      <c r="J17" s="22" t="s">
+        <v>410</v>
+      </c>
+      <c r="K17" s="22" t="s">
+        <v>411</v>
+      </c>
+      <c r="L17" s="25">
+        <v>2</v>
+      </c>
+      <c r="M17" s="25">
+        <v>1</v>
+      </c>
+      <c r="N17" s="25">
+        <v>0</v>
+      </c>
+      <c r="O17" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" s="15" customFormat="1" ht="21" customHeight="1" spans="1:15">
+      <c r="A18" s="22" t="s">
+        <v>412</v>
+      </c>
+      <c r="B18" s="22" t="s">
+        <v>413</v>
+      </c>
+      <c r="C18" s="22" t="s">
         <v>347</v>
       </c>
-      <c r="G9" s="15" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="23">
+        <v>5</v>
+      </c>
+      <c r="F18" s="22" t="s">
+        <v>375</v>
+      </c>
+      <c r="G18" s="23">
+        <v>0</v>
+      </c>
+      <c r="H18" s="22" t="s">
+        <v>414</v>
+      </c>
+      <c r="I18" s="25">
+        <v>1</v>
+      </c>
+      <c r="J18" s="22" t="s">
+        <v>415</v>
+      </c>
+      <c r="K18" s="22"/>
+      <c r="L18" s="25">
+        <v>2</v>
+      </c>
+      <c r="M18" s="25">
+        <v>1</v>
+      </c>
+      <c r="N18" s="25">
+        <v>0</v>
+      </c>
+      <c r="O18" s="25">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" ht="21" customHeight="1" spans="1:15">
+      <c r="A19" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="C19" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="H9" s="14"/>
-      <c r="I9" s="16">
-        <v>0</v>
-      </c>
-      <c r="J9" s="14" t="s">
-        <v>371</v>
-      </c>
-      <c r="K9" s="14"/>
-      <c r="L9" s="16">
-        <v>0</v>
-      </c>
-      <c r="M9" s="16">
-        <v>0</v>
-      </c>
-      <c r="N9" s="16">
-        <v>0</v>
-      </c>
-      <c r="O9" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" ht="21" customHeight="1" spans="1:15">
-      <c r="A10" s="14" t="s">
-        <v>372</v>
-      </c>
-      <c r="B10" s="14" t="s">
-        <v>373</v>
-      </c>
-      <c r="C10" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D10" s="14"/>
-      <c r="E10" s="15">
+      <c r="D19" s="5"/>
+      <c r="E19" s="19">
+        <v>1</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H19" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="I19" s="6">
+        <v>0</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="K19" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="L19" s="6">
         <v>3</v>
       </c>
-      <c r="F10" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="G10" s="15" t="s">
+      <c r="M19" s="6">
+        <v>1</v>
+      </c>
+      <c r="N19" s="6">
+        <v>0</v>
+      </c>
+      <c r="O19" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" ht="21" customHeight="1" spans="1:15">
+      <c r="A20" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="B20" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="C20" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="H10" s="14" t="s">
-        <v>375</v>
-      </c>
-      <c r="I10" s="16">
-        <v>0</v>
-      </c>
-      <c r="J10" s="14" t="s">
-        <v>376</v>
-      </c>
-      <c r="K10" s="14" t="s">
-        <v>377</v>
-      </c>
-      <c r="L10" s="16">
-        <v>4</v>
-      </c>
-      <c r="M10" s="16">
-        <v>1</v>
-      </c>
-      <c r="N10" s="16">
-        <v>0</v>
-      </c>
-      <c r="O10" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" ht="21" customHeight="1" spans="1:15">
-      <c r="A11" s="14" t="s">
-        <v>378</v>
-      </c>
-      <c r="B11" s="14" t="s">
-        <v>379</v>
-      </c>
-      <c r="C11" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D11" s="14"/>
-      <c r="E11" s="15">
-        <v>1</v>
-      </c>
-      <c r="F11" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="G11" s="15" t="s">
-        <v>367</v>
-      </c>
-      <c r="H11" s="14" t="s">
-        <v>380</v>
-      </c>
-      <c r="I11" s="16">
-        <v>0</v>
-      </c>
-      <c r="J11" s="14" t="s">
-        <v>381</v>
-      </c>
-      <c r="K11" s="14" t="s">
-        <v>382</v>
-      </c>
-      <c r="L11" s="16">
+      <c r="D20" s="5"/>
+      <c r="E20" s="19">
+        <v>1</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H20" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="I20" s="6">
+        <v>0</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="K20" s="5" t="s">
+        <v>401</v>
+      </c>
+      <c r="L20" s="6">
         <v>3</v>
       </c>
-      <c r="M11" s="16">
-        <v>1</v>
-      </c>
-      <c r="N11" s="16">
-        <v>0</v>
-      </c>
-      <c r="O11" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" ht="21" customHeight="1" spans="1:15">
-      <c r="A12" s="14" t="s">
-        <v>383</v>
-      </c>
-      <c r="B12" s="14" t="s">
-        <v>384</v>
-      </c>
-      <c r="C12" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D12" s="14"/>
-      <c r="E12" s="15">
-        <v>1</v>
-      </c>
-      <c r="F12" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="G12" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="H12" s="14" t="s">
-        <v>386</v>
-      </c>
-      <c r="I12" s="16">
-        <v>0</v>
-      </c>
-      <c r="J12" s="14" t="s">
-        <v>387</v>
-      </c>
-      <c r="K12" s="14" t="s">
-        <v>388</v>
-      </c>
-      <c r="L12" s="16">
+      <c r="M20" s="6">
+        <v>1</v>
+      </c>
+      <c r="N20" s="6">
+        <v>0</v>
+      </c>
+      <c r="O20" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" ht="21" customHeight="1" spans="1:15">
+      <c r="A21" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>347</v>
+      </c>
+      <c r="D21" s="5"/>
+      <c r="E21" s="19">
+        <v>1</v>
+      </c>
+      <c r="F21" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H21" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="I21" s="6">
+        <v>0</v>
+      </c>
+      <c r="J21" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="K21" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="L21" s="6">
         <v>2</v>
       </c>
-      <c r="M12" s="16">
-        <v>1</v>
-      </c>
-      <c r="N12" s="16">
-        <v>0</v>
-      </c>
-      <c r="O12" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" ht="21" customHeight="1" spans="1:15">
-      <c r="A13" s="14" t="s">
-        <v>389</v>
-      </c>
-      <c r="B13" s="14" t="s">
-        <v>390</v>
-      </c>
-      <c r="C13" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D13" s="14"/>
-      <c r="E13" s="15">
-        <v>3</v>
-      </c>
-      <c r="F13" s="14" t="s">
-        <v>367</v>
-      </c>
-      <c r="G13" s="15" t="s">
+      <c r="M21" s="6">
+        <v>1</v>
+      </c>
+      <c r="N21" s="6">
+        <v>0</v>
+      </c>
+      <c r="O21" s="6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" ht="21.75" customHeight="1" spans="1:15">
+      <c r="A22" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="B22" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="C22" s="5" t="s">
         <v>347</v>
       </c>
-      <c r="H13" s="14" t="s">
-        <v>391</v>
-      </c>
-      <c r="I13" s="16">
-        <v>0</v>
-      </c>
-      <c r="J13" s="14" t="s">
-        <v>392</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>393</v>
-      </c>
-      <c r="L13" s="16">
-        <v>2</v>
-      </c>
-      <c r="M13" s="16">
-        <v>1</v>
-      </c>
-      <c r="N13" s="16">
-        <v>0</v>
-      </c>
-      <c r="O13" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" ht="21" customHeight="1" spans="1:15">
-      <c r="A14" s="14" t="s">
-        <v>394</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>395</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>396</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="16">
-        <v>0</v>
-      </c>
-      <c r="M14" s="16">
-        <v>0</v>
-      </c>
-      <c r="N14" s="16">
-        <v>1</v>
-      </c>
-      <c r="O14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" ht="21" customHeight="1" spans="1:15">
-      <c r="A15" s="14" t="s">
-        <v>397</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>398</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15">
-        <v>3</v>
-      </c>
-      <c r="F15" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>374</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>399</v>
-      </c>
-      <c r="I15" s="16">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>400</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="L15" s="16">
-        <v>3</v>
-      </c>
-      <c r="M15" s="16">
-        <v>1</v>
-      </c>
-      <c r="N15" s="16">
-        <v>0</v>
-      </c>
-      <c r="O15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" ht="21" customHeight="1" spans="1:15">
-      <c r="A16" s="14" t="s">
-        <v>402</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>403</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15">
-        <v>3</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>385</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>404</v>
-      </c>
-      <c r="I16" s="16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>405</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>406</v>
-      </c>
-      <c r="L16" s="16">
-        <v>3</v>
-      </c>
-      <c r="M16" s="16">
-        <v>1</v>
-      </c>
-      <c r="N16" s="16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" ht="21" customHeight="1" spans="1:15">
-      <c r="A17" s="14" t="s">
-        <v>407</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>408</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15">
-        <v>5</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>385</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>409</v>
-      </c>
-      <c r="I17" s="16">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>410</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>411</v>
-      </c>
-      <c r="L17" s="16">
-        <v>2</v>
-      </c>
-      <c r="M17" s="16">
-        <v>1</v>
-      </c>
-      <c r="N17" s="16">
-        <v>0</v>
-      </c>
-      <c r="O17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" ht="21" customHeight="1" spans="1:15">
-      <c r="A18" s="14" t="s">
-        <v>412</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>413</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15">
-        <v>5</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>374</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>414</v>
-      </c>
-      <c r="I18" s="16">
-        <v>1</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>415</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="16">
-        <v>2</v>
-      </c>
-      <c r="M18" s="16">
-        <v>1</v>
-      </c>
-      <c r="N18" s="16">
-        <v>0</v>
-      </c>
-      <c r="O18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" ht="21" customHeight="1" spans="1:15">
-      <c r="A19" s="14" t="s">
-        <v>416</v>
-      </c>
-      <c r="B19" s="14" t="s">
-        <v>417</v>
-      </c>
-      <c r="C19" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D19" s="14"/>
-      <c r="E19" s="15">
-        <v>1</v>
-      </c>
-      <c r="F19" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="G19" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="H19" s="14" t="s">
-        <v>418</v>
-      </c>
-      <c r="I19" s="16">
-        <v>0</v>
-      </c>
-      <c r="J19" s="14" t="s">
-        <v>419</v>
-      </c>
-      <c r="K19" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="L19" s="16">
-        <v>3</v>
-      </c>
-      <c r="M19" s="16">
-        <v>1</v>
-      </c>
-      <c r="N19" s="16">
-        <v>0</v>
-      </c>
-      <c r="O19" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" ht="21" customHeight="1" spans="1:15">
-      <c r="A20" s="14" t="s">
-        <v>420</v>
-      </c>
-      <c r="B20" s="14" t="s">
-        <v>421</v>
-      </c>
-      <c r="C20" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D20" s="14"/>
-      <c r="E20" s="15">
-        <v>1</v>
-      </c>
-      <c r="F20" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="G20" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="H20" s="14" t="s">
-        <v>422</v>
-      </c>
-      <c r="I20" s="16">
-        <v>0</v>
-      </c>
-      <c r="J20" s="14" t="s">
-        <v>423</v>
-      </c>
-      <c r="K20" s="14" t="s">
-        <v>401</v>
-      </c>
-      <c r="L20" s="16">
-        <v>3</v>
-      </c>
-      <c r="M20" s="16">
-        <v>1</v>
-      </c>
-      <c r="N20" s="16">
-        <v>0</v>
-      </c>
-      <c r="O20" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" ht="21" customHeight="1" spans="1:15">
-      <c r="A21" s="14" t="s">
-        <v>424</v>
-      </c>
-      <c r="B21" s="14" t="s">
-        <v>425</v>
-      </c>
-      <c r="C21" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D21" s="14"/>
-      <c r="E21" s="15">
-        <v>1</v>
-      </c>
-      <c r="F21" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="G21" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="H21" s="14" t="s">
-        <v>426</v>
-      </c>
-      <c r="I21" s="16">
-        <v>0</v>
-      </c>
-      <c r="J21" s="14" t="s">
-        <v>427</v>
-      </c>
-      <c r="K21" s="14" t="s">
-        <v>428</v>
-      </c>
-      <c r="L21" s="16">
-        <v>2</v>
-      </c>
-      <c r="M21" s="16">
-        <v>1</v>
-      </c>
-      <c r="N21" s="16">
-        <v>0</v>
-      </c>
-      <c r="O21" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" ht="21.75" customHeight="1" spans="1:15">
-      <c r="A22" s="14" t="s">
-        <v>429</v>
-      </c>
-      <c r="B22" s="14" t="s">
-        <v>430</v>
-      </c>
-      <c r="C22" s="14" t="s">
-        <v>346</v>
-      </c>
-      <c r="D22" s="14"/>
-      <c r="E22" s="15">
-        <v>1</v>
-      </c>
-      <c r="F22" s="14" t="s">
-        <v>347</v>
-      </c>
-      <c r="G22" s="15" t="s">
-        <v>347</v>
-      </c>
-      <c r="H22" s="14" t="s">
+      <c r="D22" s="5"/>
+      <c r="E22" s="19">
+        <v>1</v>
+      </c>
+      <c r="F22" s="5" t="s">
+        <v>348</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>348</v>
+      </c>
+      <c r="H22" s="5" t="s">
         <v>431</v>
       </c>
-      <c r="I22" s="16">
-        <v>1</v>
-      </c>
-      <c r="J22" s="14" t="s">
+      <c r="I22" s="6">
+        <v>1</v>
+      </c>
+      <c r="J22" s="5" t="s">
         <v>432</v>
       </c>
-      <c r="K22" s="14"/>
-      <c r="L22" s="16">
-        <v>0</v>
-      </c>
-      <c r="M22" s="16">
-        <v>1</v>
-      </c>
-      <c r="N22" s="16">
-        <v>0</v>
-      </c>
-      <c r="O22" s="16">
+      <c r="K22" s="5"/>
+      <c r="L22" s="6">
+        <v>0</v>
+      </c>
+      <c r="M22" s="6">
+        <v>1</v>
+      </c>
+      <c r="N22" s="6">
+        <v>0</v>
+      </c>
+      <c r="O22" s="6">
         <v>0</v>
       </c>
     </row>
@@ -7878,246 +7939,246 @@
   </cols>
   <sheetData>
     <row r="1" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A1" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="9" t="s">
-        <v>316</v>
-      </c>
-      <c r="C1" s="9" t="s">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
         <v>317</v>
       </c>
-      <c r="D1" s="9" t="s">
+      <c r="C1" s="10" t="s">
         <v>318</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>322</v>
-      </c>
-      <c r="F1" s="9" t="s">
+      <c r="D1" s="10" t="s">
+        <v>319</v>
+      </c>
+      <c r="E1" s="10" t="s">
+        <v>323</v>
+      </c>
+      <c r="F1" s="10" t="s">
         <v>433</v>
       </c>
-      <c r="G1" s="9" t="s">
+      <c r="G1" s="10" t="s">
         <v>434</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>435</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="I1" s="11" t="s">
         <v>436</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="J1" s="11" t="s">
         <v>437</v>
       </c>
     </row>
     <row r="2" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A2" s="9" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="9" t="s">
-        <v>330</v>
-      </c>
-      <c r="C2" s="9" t="s">
+      <c r="A2" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="10" t="s">
         <v>331</v>
       </c>
-      <c r="D2" s="9" t="s">
+      <c r="C2" s="10" t="s">
         <v>332</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>336</v>
-      </c>
-      <c r="F2" s="9" t="s">
-        <v>338</v>
-      </c>
-      <c r="G2" s="9" t="s">
+      <c r="D2" s="10" t="s">
+        <v>333</v>
+      </c>
+      <c r="E2" s="10" t="s">
+        <v>337</v>
+      </c>
+      <c r="F2" s="10" t="s">
+        <v>339</v>
+      </c>
+      <c r="G2" s="10" t="s">
         <v>438</v>
       </c>
-      <c r="H2" s="10" t="s">
+      <c r="H2" s="11" t="s">
         <v>439</v>
       </c>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="I2" s="11"/>
+      <c r="J2" s="11" t="s">
         <v>440</v>
       </c>
     </row>
     <row r="3" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A3" s="9" t="s">
+      <c r="A3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="C3" s="10" t="s">
         <v>261</v>
       </c>
-      <c r="D3" s="9" t="s">
+      <c r="D3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="E3" s="10" t="s">
         <v>260</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="G3" s="9" t="s">
+      <c r="G3" s="10" t="s">
         <v>49</v>
       </c>
-      <c r="H3" s="10" t="s">
+      <c r="H3" s="11" t="s">
         <v>240</v>
       </c>
-      <c r="I3" s="10" t="s">
+      <c r="I3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="J3" s="10" t="s">
+      <c r="J3" s="11" t="s">
         <v>240</v>
       </c>
     </row>
     <row r="4" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A4" s="5" t="s">
-        <v>349</v>
-      </c>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="12" t="s">
         <v>350</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="B4" s="12" t="s">
+        <v>351</v>
+      </c>
+      <c r="C4" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D4" s="5"/>
-      <c r="E4" s="5" t="s">
+      <c r="D4" s="12"/>
+      <c r="E4" s="12" t="s">
         <v>442</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="12" t="s">
         <v>443</v>
       </c>
-      <c r="G4" s="5" t="s">
+      <c r="G4" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="H4" s="6">
-        <v>0</v>
-      </c>
-      <c r="I4" s="6">
+      <c r="H4" s="13">
+        <v>0</v>
+      </c>
+      <c r="I4" s="13">
         <v>2</v>
       </c>
-      <c r="J4" s="6">
+      <c r="J4" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="5" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="12" t="s">
         <v>445</v>
       </c>
-      <c r="B5" s="5" t="s">
+      <c r="B5" s="12" t="s">
         <v>446</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D5" s="5"/>
-      <c r="E5" s="5" t="s">
+      <c r="D5" s="12"/>
+      <c r="E5" s="12" t="s">
         <v>418</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="12" t="s">
         <v>447</v>
       </c>
-      <c r="G5" s="5" t="s">
+      <c r="G5" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="H5" s="6">
-        <v>0</v>
-      </c>
-      <c r="I5" s="6">
+      <c r="H5" s="13">
+        <v>0</v>
+      </c>
+      <c r="I5" s="13">
         <v>2</v>
       </c>
-      <c r="J5" s="6">
+      <c r="J5" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="12" t="s">
         <v>424</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="12" t="s">
         <v>425</v>
       </c>
-      <c r="C6" s="5" t="s">
+      <c r="C6" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5" t="s">
+      <c r="D6" s="12"/>
+      <c r="E6" s="12" t="s">
         <v>448</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="12" t="s">
         <v>449</v>
       </c>
-      <c r="G6" s="5" t="s">
+      <c r="G6" s="12" t="s">
         <v>436</v>
       </c>
-      <c r="H6" s="6">
-        <v>1</v>
-      </c>
-      <c r="I6" s="6">
+      <c r="H6" s="13">
+        <v>1</v>
+      </c>
+      <c r="I6" s="13">
         <v>2</v>
       </c>
-      <c r="J6" s="6">
+      <c r="J6" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="7" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="12" t="s">
         <v>450</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="12" t="s">
         <v>451</v>
       </c>
-      <c r="C7" s="5" t="s">
+      <c r="C7" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5" t="s">
+      <c r="D7" s="12"/>
+      <c r="E7" s="12" t="s">
         <v>452</v>
       </c>
-      <c r="F7" s="5" t="s">
+      <c r="F7" s="12" t="s">
         <v>453</v>
       </c>
-      <c r="G7" s="5" t="s">
+      <c r="G7" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="H7" s="6">
-        <v>0</v>
-      </c>
-      <c r="I7" s="6">
+      <c r="H7" s="13">
+        <v>0</v>
+      </c>
+      <c r="I7" s="13">
         <v>2</v>
       </c>
-      <c r="J7" s="6">
+      <c r="J7" s="13">
         <v>1</v>
       </c>
     </row>
     <row r="8" ht="18.75" customHeight="1" spans="1:10">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="12" t="s">
         <v>454</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="12" t="s">
         <v>455</v>
       </c>
-      <c r="C8" s="5" t="s">
+      <c r="C8" s="12" t="s">
         <v>441</v>
       </c>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5" t="s">
+      <c r="D8" s="12"/>
+      <c r="E8" s="12" t="s">
         <v>456</v>
       </c>
-      <c r="F8" s="5" t="s">
+      <c r="F8" s="12" t="s">
         <v>457</v>
       </c>
-      <c r="G8" s="5" t="s">
+      <c r="G8" s="12" t="s">
         <v>444</v>
       </c>
-      <c r="H8" s="6">
-        <v>0</v>
-      </c>
-      <c r="I8" s="6">
+      <c r="H8" s="13">
+        <v>0</v>
+      </c>
+      <c r="I8" s="13">
         <v>2</v>
       </c>
-      <c r="J8" s="6">
+      <c r="J8" s="13">
         <v>1</v>
       </c>
     </row>
@@ -8132,10 +8193,10 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:G10"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -8162,7 +8223,7 @@
         <v>461</v>
       </c>
       <c r="F1" s="4" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G1" s="4" t="s">
         <v>462</v>
@@ -8185,7 +8246,7 @@
         <v>466</v>
       </c>
       <c r="F2" s="4" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>467</v>
@@ -8199,10 +8260,10 @@
         <v>49</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="E3" s="4" t="s">
         <v>50</v>
@@ -8216,10 +8277,10 @@
     </row>
     <row r="4" ht="21.75" customHeight="1" spans="1:7">
       <c r="A4" s="5" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="C4" s="6">
         <v>100</v>
@@ -8238,34 +8299,34 @@
       </c>
     </row>
     <row r="5" ht="20.25" customHeight="1" spans="1:7">
-      <c r="A5" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="B5" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="A5" s="5" t="s">
+        <v>305</v>
+      </c>
+      <c r="B5" s="5" t="s">
+        <v>311</v>
+      </c>
+      <c r="C5" s="6">
         <v>50</v>
       </c>
-      <c r="D5" s="8">
-        <v>0</v>
-      </c>
-      <c r="E5" s="8">
-        <v>1</v>
-      </c>
-      <c r="F5" s="8">
-        <v>1</v>
-      </c>
-      <c r="G5" s="8">
+      <c r="D5" s="6">
+        <v>0</v>
+      </c>
+      <c r="E5" s="6">
+        <v>1</v>
+      </c>
+      <c r="F5" s="6">
+        <v>1</v>
+      </c>
+      <c r="G5" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="6" ht="21" customHeight="1" spans="1:7">
       <c r="A6" s="5" t="s">
-        <v>290</v>
+        <v>266</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="C6" s="6">
         <v>10</v>
@@ -8285,10 +8346,10 @@
     </row>
     <row r="7" ht="21" customHeight="1" spans="1:7">
       <c r="A7" s="5" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C7" s="6">
         <v>5</v>
@@ -8308,7 +8369,7 @@
     </row>
     <row r="8" ht="21" customHeight="1" spans="1:7">
       <c r="A8" s="5" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>137</v>
@@ -8331,10 +8392,10 @@
     </row>
     <row r="9" ht="21" customHeight="1" spans="1:7">
       <c r="A9" s="5" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B9" s="5" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="C9" s="6">
         <v>1</v>
@@ -8354,10 +8415,10 @@
     </row>
     <row r="10" ht="21.75" customHeight="1" spans="1:7">
       <c r="A10" s="5" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="B10" s="5" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C10" s="6">
         <v>0</v>
@@ -8372,6 +8433,29 @@
         <v>1</v>
       </c>
       <c r="G10" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="14.25" spans="1:7">
+      <c r="A11" s="7" t="s">
+        <v>468</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>469</v>
+      </c>
+      <c r="C11" s="9">
+        <v>0</v>
+      </c>
+      <c r="D11" s="9">
+        <v>0</v>
+      </c>
+      <c r="E11" s="9">
+        <v>1</v>
+      </c>
+      <c r="F11" s="9">
+        <v>1</v>
+      </c>
+      <c r="G11" s="9">
         <v>1</v>
       </c>
     </row>

--- a/xlsdir/配置-总表.xlsx
+++ b/xlsdir/配置-总表.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="715" uniqueCount="471">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="727" uniqueCount="479">
   <si>
     <t>ID</t>
   </si>
@@ -244,6 +244,18 @@
     <t>torrential_curse_buff</t>
   </si>
   <si>
+    <t>damage_randomness</t>
+  </si>
+  <si>
+    <t>damage_multiplier</t>
+  </si>
+  <si>
+    <t>crit_rate_bonus</t>
+  </si>
+  <si>
+    <t>hit_rate_bonus</t>
+  </si>
+  <si>
     <t>target_range</t>
   </si>
   <si>
@@ -269,6 +281,18 @@
   </si>
   <si>
     <t>use_count</t>
+  </si>
+  <si>
+    <t>伤害浮动</t>
+  </si>
+  <si>
+    <t>伤害修正倍数</t>
+  </si>
+  <si>
+    <t>暴击修正倍数</t>
+  </si>
+  <si>
+    <t>命中修正倍数</t>
   </si>
   <si>
     <t>目标范围&amp;#10;0 NONE,   ## 无目标&amp;#10;1 SINGLE_ENEMY, ## 敌方单个&amp;#10;2 SINGLE_ALLY, ## 友方单个&amp;#10;3 ALL_ENEMY,  ## 全体敌方目标位置&amp;#10;4 ALL_ALLY,  ## 全体友方目标位置&amp;#10;5 SELF,   ## 自己</t>
@@ -1440,7 +1464,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1471,12 +1495,6 @@
       <sz val="11"/>
       <color rgb="FFffffff"/>
       <name val="宋体"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
       <family val="2"/>
     </font>
     <font>
@@ -1877,7 +1895,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="72">
     <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0"/>
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="1" applyFont="1" fillId="2" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1912,20 +1930,47 @@
     <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="3" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="2" applyFont="1" fillId="4" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf xfId="0" numFmtId="4" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
+    </xf>
+    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
+      <alignment horizontal="general"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="0" fontId="0" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -1948,25 +1993,19 @@
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="3" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="0" fontId="0" fillId="0" applyAlignment="1">
-      <alignment horizontal="general"/>
-    </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="4" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="5" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="6" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="7" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="0" borderId="8" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -1975,49 +2014,49 @@
     <xf xfId="0" numFmtId="0" borderId="9" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="10" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="1" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="11" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="12" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="13" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="14" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="15" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="16" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="17" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="17" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="18" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="19" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="3" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="6" applyFont="1" fillId="0" applyAlignment="1">
+    <xf xfId="0" numFmtId="0" borderId="20" applyBorder="1" fontId="5" applyFont="1" fillId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf xfId="0" numFmtId="3" applyNumberFormat="1" borderId="21" applyBorder="1" fontId="2" applyFont="1" fillId="0" applyAlignment="1">
@@ -2379,7 +2418,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="64" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="1" max="1" style="71" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
@@ -2409,325 +2448,325 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
-      <c r="A1" s="26" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="27" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="28" t="s">
-        <v>254</v>
-      </c>
-      <c r="D1" s="28" t="s">
-        <v>255</v>
-      </c>
-      <c r="E1" s="28" t="s">
-        <v>256</v>
-      </c>
-      <c r="F1" s="28" t="s">
-        <v>257</v>
-      </c>
-      <c r="G1" s="28" t="s">
-        <v>258</v>
-      </c>
-      <c r="H1" s="28" t="s">
-        <v>259</v>
-      </c>
-      <c r="I1" s="28" t="s">
-        <v>260</v>
-      </c>
-      <c r="J1" s="28" t="s">
+      <c r="A1" s="33" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="34" t="s">
         <v>261</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="C1" s="35" t="s">
         <v>262</v>
       </c>
-      <c r="L1" s="28" t="s">
+      <c r="D1" s="35" t="s">
         <v>263</v>
       </c>
-      <c r="M1" s="28" t="s">
+      <c r="E1" s="35" t="s">
         <v>264</v>
       </c>
-      <c r="N1" s="28" t="s">
+      <c r="F1" s="35" t="s">
         <v>265</v>
       </c>
-      <c r="O1" s="28" t="s">
+      <c r="G1" s="35" t="s">
         <v>266</v>
       </c>
-      <c r="P1" s="28" t="s">
+      <c r="H1" s="35" t="s">
         <v>267</v>
       </c>
-      <c r="Q1" s="28" t="s">
+      <c r="I1" s="35" t="s">
         <v>268</v>
       </c>
-      <c r="R1" s="29" t="s">
+      <c r="J1" s="35" t="s">
         <v>269</v>
       </c>
-      <c r="S1" s="27" t="s">
+      <c r="K1" s="35" t="s">
         <v>270</v>
       </c>
-      <c r="T1" s="27" t="s">
+      <c r="L1" s="35" t="s">
         <v>271</v>
       </c>
-      <c r="U1" s="27" t="s">
+      <c r="M1" s="35" t="s">
         <v>272</v>
       </c>
-      <c r="V1" s="27" t="s">
+      <c r="N1" s="35" t="s">
         <v>273</v>
       </c>
-      <c r="W1" s="30" t="s">
+      <c r="O1" s="35" t="s">
         <v>274</v>
       </c>
-      <c r="X1" s="31"/>
-      <c r="Y1" s="31"/>
-      <c r="Z1" s="31"/>
-      <c r="AA1" s="32"/>
+      <c r="P1" s="35" t="s">
+        <v>275</v>
+      </c>
+      <c r="Q1" s="35" t="s">
+        <v>276</v>
+      </c>
+      <c r="R1" s="36" t="s">
+        <v>277</v>
+      </c>
+      <c r="S1" s="34" t="s">
+        <v>278</v>
+      </c>
+      <c r="T1" s="34" t="s">
+        <v>279</v>
+      </c>
+      <c r="U1" s="34" t="s">
+        <v>280</v>
+      </c>
+      <c r="V1" s="34" t="s">
+        <v>281</v>
+      </c>
+      <c r="W1" s="37" t="s">
+        <v>282</v>
+      </c>
+      <c r="X1" s="38"/>
+      <c r="Y1" s="38"/>
+      <c r="Z1" s="38"/>
+      <c r="AA1" s="39"/>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="33" t="s">
-        <v>275</v>
-      </c>
-      <c r="B2" s="34" t="s">
-        <v>276</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>277</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>278</v>
-      </c>
-      <c r="E2" s="35" t="s">
-        <v>279</v>
-      </c>
-      <c r="F2" s="35" t="s">
-        <v>280</v>
-      </c>
-      <c r="G2" s="35" t="s">
-        <v>281</v>
-      </c>
-      <c r="H2" s="35" t="s">
-        <v>282</v>
-      </c>
-      <c r="I2" s="35" t="s">
+      <c r="A2" s="40" t="s">
         <v>283</v>
       </c>
-      <c r="J2" s="35" t="s">
+      <c r="B2" s="41" t="s">
         <v>284</v>
       </c>
-      <c r="K2" s="35" t="s">
+      <c r="C2" s="42" t="s">
         <v>285</v>
       </c>
-      <c r="L2" s="35" t="s">
+      <c r="D2" s="42" t="s">
         <v>286</v>
       </c>
-      <c r="M2" s="35" t="s">
+      <c r="E2" s="42" t="s">
         <v>287</v>
       </c>
-      <c r="N2" s="35" t="s">
+      <c r="F2" s="42" t="s">
         <v>288</v>
       </c>
-      <c r="O2" s="35" t="s">
+      <c r="G2" s="42" t="s">
         <v>289</v>
       </c>
-      <c r="P2" s="35" t="s">
+      <c r="H2" s="42" t="s">
         <v>290</v>
       </c>
-      <c r="Q2" s="35" t="s">
+      <c r="I2" s="42" t="s">
         <v>291</v>
       </c>
-      <c r="R2" s="36" t="s">
+      <c r="J2" s="42" t="s">
         <v>292</v>
       </c>
-      <c r="S2" s="34" t="s">
+      <c r="K2" s="42" t="s">
         <v>293</v>
       </c>
-      <c r="T2" s="34" t="s">
+      <c r="L2" s="42" t="s">
         <v>294</v>
       </c>
-      <c r="U2" s="34" t="s">
+      <c r="M2" s="42" t="s">
         <v>295</v>
       </c>
-      <c r="V2" s="34" t="s">
+      <c r="N2" s="42" t="s">
         <v>296</v>
       </c>
-      <c r="W2" s="37" t="s">
-        <v>291</v>
-      </c>
-      <c r="X2" s="38" t="s">
+      <c r="O2" s="42" t="s">
         <v>297</v>
       </c>
-      <c r="Y2" s="39" t="s">
+      <c r="P2" s="42" t="s">
         <v>298</v>
       </c>
-      <c r="Z2" s="39" t="s">
+      <c r="Q2" s="42" t="s">
         <v>299</v>
       </c>
-      <c r="AA2" s="40" t="s">
+      <c r="R2" s="43" t="s">
         <v>300</v>
       </c>
+      <c r="S2" s="41" t="s">
+        <v>301</v>
+      </c>
+      <c r="T2" s="41" t="s">
+        <v>302</v>
+      </c>
+      <c r="U2" s="41" t="s">
+        <v>303</v>
+      </c>
+      <c r="V2" s="41" t="s">
+        <v>304</v>
+      </c>
+      <c r="W2" s="44" t="s">
+        <v>299</v>
+      </c>
+      <c r="X2" s="45" t="s">
+        <v>305</v>
+      </c>
+      <c r="Y2" s="46" t="s">
+        <v>306</v>
+      </c>
+      <c r="Z2" s="46" t="s">
+        <v>307</v>
+      </c>
+      <c r="AA2" s="47" t="s">
+        <v>308</v>
+      </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="48" t="s">
         <v>13</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="43" t="s">
+      <c r="C3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="D3" s="43" t="s">
+      <c r="D3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="43" t="s">
+      <c r="F3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="H3" s="43" t="s">
+      <c r="H3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="I3" s="43" t="s">
+      <c r="I3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="J3" s="43" t="s">
+      <c r="J3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="K3" s="43" t="s">
+      <c r="K3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="L3" s="43" t="s">
+      <c r="L3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="M3" s="43" t="s">
+      <c r="M3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="N3" s="43" t="s">
+      <c r="N3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="43" t="s">
+      <c r="O3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="P3" s="43" t="s">
+      <c r="P3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="Q3" s="43" t="s">
+      <c r="Q3" s="50" t="s">
         <v>15</v>
       </c>
-      <c r="R3" s="44" t="s">
+      <c r="R3" s="51" t="s">
         <v>15</v>
       </c>
-      <c r="S3" s="42" t="s">
+      <c r="S3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="T3" s="42" t="s">
+      <c r="T3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="U3" s="42" t="s">
+      <c r="U3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="V3" s="42" t="s">
+      <c r="V3" s="49" t="s">
         <v>15</v>
       </c>
-      <c r="W3" s="45" t="s">
+      <c r="W3" s="52" t="s">
         <v>15</v>
       </c>
-      <c r="X3" s="46" t="s">
+      <c r="X3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="Y3" s="46" t="s">
+      <c r="Y3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="Z3" s="46" t="s">
+      <c r="Z3" s="53" t="s">
         <v>13</v>
       </c>
-      <c r="AA3" s="47" t="s">
+      <c r="AA3" s="54" t="s">
         <v>13</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="18.75">
-      <c r="A4" s="48">
-        <v>1</v>
-      </c>
-      <c r="B4" s="49" t="s">
-        <v>301</v>
-      </c>
-      <c r="C4" s="50">
-        <v>10</v>
-      </c>
-      <c r="D4" s="50">
-        <v>0</v>
-      </c>
-      <c r="E4" s="50">
-        <v>0</v>
-      </c>
-      <c r="F4" s="50">
-        <v>10</v>
-      </c>
-      <c r="G4" s="50">
-        <v>0</v>
-      </c>
-      <c r="H4" s="50">
-        <v>0</v>
-      </c>
-      <c r="I4" s="50">
-        <v>0</v>
-      </c>
-      <c r="J4" s="50">
+      <c r="A4" s="55">
+        <v>1</v>
+      </c>
+      <c r="B4" s="56" t="s">
+        <v>309</v>
+      </c>
+      <c r="C4" s="57">
+        <v>10</v>
+      </c>
+      <c r="D4" s="57">
+        <v>0</v>
+      </c>
+      <c r="E4" s="57">
+        <v>0</v>
+      </c>
+      <c r="F4" s="57">
+        <v>10</v>
+      </c>
+      <c r="G4" s="57">
+        <v>0</v>
+      </c>
+      <c r="H4" s="57">
+        <v>0</v>
+      </c>
+      <c r="I4" s="57">
+        <v>0</v>
+      </c>
+      <c r="J4" s="57">
         <v>2</v>
       </c>
-      <c r="K4" s="50">
-        <v>1</v>
-      </c>
-      <c r="L4" s="50">
-        <v>0</v>
-      </c>
-      <c r="M4" s="50">
-        <v>0</v>
-      </c>
-      <c r="N4" s="50">
-        <v>0</v>
-      </c>
-      <c r="O4" s="50">
-        <v>0</v>
-      </c>
-      <c r="P4" s="50">
-        <v>0</v>
-      </c>
-      <c r="Q4" s="50">
-        <v>0</v>
-      </c>
-      <c r="R4" s="51">
-        <v>0</v>
-      </c>
-      <c r="S4" s="49"/>
-      <c r="T4" s="49"/>
-      <c r="U4" s="49"/>
-      <c r="V4" s="49"/>
-      <c r="W4" s="52"/>
-      <c r="X4" s="53" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y4" s="49" t="s">
-        <v>303</v>
-      </c>
-      <c r="Z4" s="49" t="s">
-        <v>304</v>
-      </c>
-      <c r="AA4" s="52" t="s">
-        <v>305</v>
+      <c r="K4" s="57">
+        <v>1</v>
+      </c>
+      <c r="L4" s="57">
+        <v>0</v>
+      </c>
+      <c r="M4" s="57">
+        <v>0</v>
+      </c>
+      <c r="N4" s="57">
+        <v>0</v>
+      </c>
+      <c r="O4" s="57">
+        <v>0</v>
+      </c>
+      <c r="P4" s="57">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="57">
+        <v>0</v>
+      </c>
+      <c r="R4" s="58">
+        <v>0</v>
+      </c>
+      <c r="S4" s="56"/>
+      <c r="T4" s="56"/>
+      <c r="U4" s="56"/>
+      <c r="V4" s="56"/>
+      <c r="W4" s="59"/>
+      <c r="X4" s="60" t="s">
+        <v>310</v>
+      </c>
+      <c r="Y4" s="56" t="s">
+        <v>311</v>
+      </c>
+      <c r="Z4" s="56" t="s">
+        <v>312</v>
+      </c>
+      <c r="AA4" s="59" t="s">
+        <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="18.75">
-      <c r="A5" s="54">
+      <c r="A5" s="61">
         <v>2</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>306</v>
+        <v>314</v>
       </c>
       <c r="C5" s="4">
         <v>10</v>
@@ -2774,33 +2813,33 @@
       <c r="Q5" s="4">
         <v>0</v>
       </c>
-      <c r="R5" s="55">
+      <c r="R5" s="62">
         <v>0</v>
       </c>
       <c r="S5" s="3"/>
       <c r="T5" s="3"/>
       <c r="U5" s="3"/>
       <c r="V5" s="3"/>
-      <c r="W5" s="56"/>
-      <c r="X5" s="57" t="s">
-        <v>307</v>
+      <c r="W5" s="63"/>
+      <c r="X5" s="64" t="s">
+        <v>315</v>
       </c>
       <c r="Y5" s="3" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Z5" s="3" t="s">
-        <v>308</v>
-      </c>
-      <c r="AA5" s="56" t="s">
-        <v>281</v>
+        <v>316</v>
+      </c>
+      <c r="AA5" s="63" t="s">
+        <v>289</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="18.75">
-      <c r="A6" s="54">
+      <c r="A6" s="61">
         <v>3</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>309</v>
+        <v>317</v>
       </c>
       <c r="C6" s="4">
         <v>10</v>
@@ -2847,33 +2886,33 @@
       <c r="Q6" s="4">
         <v>0</v>
       </c>
-      <c r="R6" s="55">
+      <c r="R6" s="62">
         <v>0</v>
       </c>
       <c r="S6" s="3"/>
       <c r="T6" s="3"/>
       <c r="U6" s="3"/>
       <c r="V6" s="3"/>
-      <c r="W6" s="56"/>
-      <c r="X6" s="57" t="s">
-        <v>310</v>
+      <c r="W6" s="63"/>
+      <c r="X6" s="64" t="s">
+        <v>318</v>
       </c>
       <c r="Y6" s="3" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Z6" s="3" t="s">
-        <v>311</v>
-      </c>
-      <c r="AA6" s="56" t="s">
-        <v>312</v>
+        <v>319</v>
+      </c>
+      <c r="AA6" s="63" t="s">
+        <v>320</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="18.75">
-      <c r="A7" s="54">
+      <c r="A7" s="61">
         <v>4</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>313</v>
+        <v>321</v>
       </c>
       <c r="C7" s="4">
         <v>10</v>
@@ -2920,33 +2959,33 @@
       <c r="Q7" s="4">
         <v>0</v>
       </c>
-      <c r="R7" s="55">
+      <c r="R7" s="62">
         <v>0</v>
       </c>
       <c r="S7" s="3"/>
       <c r="T7" s="3"/>
       <c r="U7" s="3"/>
       <c r="V7" s="3"/>
-      <c r="W7" s="56"/>
-      <c r="X7" s="57" t="s">
-        <v>314</v>
+      <c r="W7" s="63"/>
+      <c r="X7" s="64" t="s">
+        <v>322</v>
       </c>
       <c r="Y7" s="3" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Z7" s="3" t="s">
-        <v>315</v>
-      </c>
-      <c r="AA7" s="56" t="s">
-        <v>316</v>
+        <v>323</v>
+      </c>
+      <c r="AA7" s="63" t="s">
+        <v>324</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="18.75">
-      <c r="A8" s="54">
+      <c r="A8" s="61">
         <v>5</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>317</v>
+        <v>325</v>
       </c>
       <c r="C8" s="4">
         <v>10</v>
@@ -2993,33 +3032,33 @@
       <c r="Q8" s="4">
         <v>0</v>
       </c>
-      <c r="R8" s="55">
+      <c r="R8" s="62">
         <v>0</v>
       </c>
       <c r="S8" s="3"/>
       <c r="T8" s="3"/>
       <c r="U8" s="3"/>
       <c r="V8" s="3"/>
-      <c r="W8" s="56"/>
-      <c r="X8" s="57" t="s">
-        <v>318</v>
+      <c r="W8" s="63"/>
+      <c r="X8" s="64" t="s">
+        <v>326</v>
       </c>
       <c r="Y8" s="3" t="s">
-        <v>303</v>
+        <v>311</v>
       </c>
       <c r="Z8" s="3" t="s">
-        <v>319</v>
-      </c>
-      <c r="AA8" s="56" t="s">
-        <v>320</v>
+        <v>327</v>
+      </c>
+      <c r="AA8" s="63" t="s">
+        <v>328</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="18.75">
-      <c r="A9" s="54">
+      <c r="A9" s="61">
         <v>6</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>321</v>
+        <v>329</v>
       </c>
       <c r="C9" s="4">
         <v>10</v>
@@ -3066,33 +3105,33 @@
       <c r="Q9" s="4">
         <v>0</v>
       </c>
-      <c r="R9" s="55">
+      <c r="R9" s="62">
         <v>0</v>
       </c>
       <c r="S9" s="3"/>
       <c r="T9" s="3"/>
       <c r="U9" s="3"/>
       <c r="V9" s="3"/>
-      <c r="W9" s="56"/>
-      <c r="X9" s="57" t="s">
-        <v>322</v>
+      <c r="W9" s="63"/>
+      <c r="X9" s="64" t="s">
+        <v>330</v>
       </c>
       <c r="Y9" s="3" t="s">
-        <v>323</v>
+        <v>331</v>
       </c>
       <c r="Z9" s="3" t="s">
-        <v>324</v>
-      </c>
-      <c r="AA9" s="56" t="s">
-        <v>325</v>
+        <v>332</v>
+      </c>
+      <c r="AA9" s="63" t="s">
+        <v>333</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="18.75">
-      <c r="A10" s="54">
+      <c r="A10" s="61">
         <v>7</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>326</v>
+        <v>334</v>
       </c>
       <c r="C10" s="4">
         <v>10</v>
@@ -3139,33 +3178,33 @@
       <c r="Q10" s="4">
         <v>0</v>
       </c>
-      <c r="R10" s="55">
+      <c r="R10" s="62">
         <v>0</v>
       </c>
       <c r="S10" s="3"/>
       <c r="T10" s="3"/>
       <c r="U10" s="3"/>
       <c r="V10" s="3"/>
-      <c r="W10" s="56"/>
-      <c r="X10" s="57" t="s">
-        <v>327</v>
+      <c r="W10" s="63"/>
+      <c r="X10" s="64" t="s">
+        <v>335</v>
       </c>
       <c r="Y10" s="3" t="s">
-        <v>328</v>
+        <v>336</v>
       </c>
       <c r="Z10" s="3" t="s">
-        <v>329</v>
-      </c>
-      <c r="AA10" s="56" t="s">
-        <v>330</v>
+        <v>337</v>
+      </c>
+      <c r="AA10" s="63" t="s">
+        <v>338</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="18.75">
-      <c r="A11" s="54">
+      <c r="A11" s="61">
         <v>8</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>291</v>
+        <v>299</v>
       </c>
       <c r="C11" s="4">
         <v>10</v>
@@ -3212,33 +3251,33 @@
       <c r="Q11" s="4">
         <v>0</v>
       </c>
-      <c r="R11" s="55">
+      <c r="R11" s="62">
         <v>0</v>
       </c>
       <c r="S11" s="3"/>
       <c r="T11" s="3"/>
       <c r="U11" s="3"/>
       <c r="V11" s="3"/>
-      <c r="W11" s="56"/>
-      <c r="X11" s="57" t="s">
-        <v>331</v>
+      <c r="W11" s="63"/>
+      <c r="X11" s="64" t="s">
+        <v>339</v>
       </c>
       <c r="Y11" s="3" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Z11" s="3" t="s">
-        <v>333</v>
-      </c>
-      <c r="AA11" s="56" t="s">
-        <v>334</v>
+        <v>341</v>
+      </c>
+      <c r="AA11" s="63" t="s">
+        <v>342</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="18.75">
-      <c r="A12" s="54">
+      <c r="A12" s="61">
         <v>9</v>
       </c>
       <c r="B12" s="3" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
       <c r="C12" s="4">
         <v>10</v>
@@ -3285,33 +3324,33 @@
       <c r="Q12" s="4">
         <v>0</v>
       </c>
-      <c r="R12" s="55">
+      <c r="R12" s="62">
         <v>0</v>
       </c>
       <c r="S12" s="3"/>
       <c r="T12" s="3"/>
       <c r="U12" s="3"/>
       <c r="V12" s="3"/>
-      <c r="W12" s="56"/>
-      <c r="X12" s="57" t="s">
-        <v>336</v>
+      <c r="W12" s="63"/>
+      <c r="X12" s="64" t="s">
+        <v>344</v>
       </c>
       <c r="Y12" s="3" t="s">
-        <v>337</v>
+        <v>345</v>
       </c>
       <c r="Z12" s="3" t="s">
-        <v>338</v>
-      </c>
-      <c r="AA12" s="56" t="s">
-        <v>339</v>
+        <v>346</v>
+      </c>
+      <c r="AA12" s="63" t="s">
+        <v>347</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="18.75">
-      <c r="A13" s="54">
+      <c r="A13" s="61">
         <v>10</v>
       </c>
       <c r="B13" s="3" t="s">
-        <v>340</v>
+        <v>348</v>
       </c>
       <c r="C13" s="4">
         <v>10</v>
@@ -3358,33 +3397,33 @@
       <c r="Q13" s="4">
         <v>0</v>
       </c>
-      <c r="R13" s="55">
+      <c r="R13" s="62">
         <v>0</v>
       </c>
       <c r="S13" s="3"/>
       <c r="T13" s="3"/>
       <c r="U13" s="3"/>
       <c r="V13" s="3"/>
-      <c r="W13" s="56"/>
-      <c r="X13" s="57" t="s">
-        <v>341</v>
+      <c r="W13" s="63"/>
+      <c r="X13" s="64" t="s">
+        <v>349</v>
       </c>
       <c r="Y13" s="3" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="Z13" s="3" t="s">
-        <v>342</v>
-      </c>
-      <c r="AA13" s="56" t="s">
-        <v>343</v>
+        <v>350</v>
+      </c>
+      <c r="AA13" s="63" t="s">
+        <v>351</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="18.75">
-      <c r="A14" s="54">
+      <c r="A14" s="61">
         <v>11</v>
       </c>
       <c r="B14" s="3" t="s">
-        <v>344</v>
+        <v>352</v>
       </c>
       <c r="C14" s="4">
         <v>10</v>
@@ -3431,33 +3470,33 @@
       <c r="Q14" s="4">
         <v>0</v>
       </c>
-      <c r="R14" s="55">
+      <c r="R14" s="62">
         <v>0</v>
       </c>
       <c r="S14" s="3"/>
       <c r="T14" s="3"/>
       <c r="U14" s="3"/>
       <c r="V14" s="3"/>
-      <c r="W14" s="56"/>
-      <c r="X14" s="57" t="s">
-        <v>345</v>
+      <c r="W14" s="63"/>
+      <c r="X14" s="64" t="s">
+        <v>353</v>
       </c>
       <c r="Y14" s="3" t="s">
-        <v>346</v>
+        <v>354</v>
       </c>
       <c r="Z14" s="3" t="s">
-        <v>347</v>
-      </c>
-      <c r="AA14" s="56" t="s">
-        <v>348</v>
+        <v>355</v>
+      </c>
+      <c r="AA14" s="63" t="s">
+        <v>356</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="18.75">
-      <c r="A15" s="54">
+      <c r="A15" s="61">
         <v>12</v>
       </c>
       <c r="B15" s="3" t="s">
-        <v>349</v>
+        <v>357</v>
       </c>
       <c r="C15" s="4">
         <v>10</v>
@@ -3504,33 +3543,33 @@
       <c r="Q15" s="4">
         <v>0</v>
       </c>
-      <c r="R15" s="55">
+      <c r="R15" s="62">
         <v>0</v>
       </c>
       <c r="S15" s="3"/>
       <c r="T15" s="3"/>
       <c r="U15" s="3"/>
       <c r="V15" s="3"/>
-      <c r="W15" s="56"/>
-      <c r="X15" s="57" t="s">
-        <v>350</v>
+      <c r="W15" s="63"/>
+      <c r="X15" s="64" t="s">
+        <v>358</v>
       </c>
       <c r="Y15" s="3" t="s">
-        <v>351</v>
+        <v>359</v>
       </c>
       <c r="Z15" s="3" t="s">
-        <v>352</v>
-      </c>
-      <c r="AA15" s="56" t="s">
-        <v>305</v>
+        <v>360</v>
+      </c>
+      <c r="AA15" s="63" t="s">
+        <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="18.75">
-      <c r="A16" s="54">
+      <c r="A16" s="61">
         <v>13</v>
       </c>
       <c r="B16" s="3" t="s">
-        <v>353</v>
+        <v>361</v>
       </c>
       <c r="C16" s="4">
         <v>10</v>
@@ -3577,33 +3616,33 @@
       <c r="Q16" s="4">
         <v>0</v>
       </c>
-      <c r="R16" s="55">
+      <c r="R16" s="62">
         <v>0</v>
       </c>
       <c r="S16" s="3"/>
       <c r="T16" s="3"/>
       <c r="U16" s="3"/>
       <c r="V16" s="3"/>
-      <c r="W16" s="56"/>
-      <c r="X16" s="57" t="s">
-        <v>354</v>
+      <c r="W16" s="63"/>
+      <c r="X16" s="64" t="s">
+        <v>362</v>
       </c>
       <c r="Y16" s="3" t="s">
-        <v>355</v>
+        <v>363</v>
       </c>
       <c r="Z16" s="3" t="s">
-        <v>356</v>
-      </c>
-      <c r="AA16" s="56" t="s">
-        <v>305</v>
+        <v>364</v>
+      </c>
+      <c r="AA16" s="63" t="s">
+        <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="18.75">
-      <c r="A17" s="54">
+      <c r="A17" s="61">
         <v>14</v>
       </c>
       <c r="B17" s="3" t="s">
-        <v>357</v>
+        <v>365</v>
       </c>
       <c r="C17" s="4">
         <v>10</v>
@@ -3650,33 +3689,33 @@
       <c r="Q17" s="4">
         <v>0</v>
       </c>
-      <c r="R17" s="55">
+      <c r="R17" s="62">
         <v>0</v>
       </c>
       <c r="S17" s="3"/>
       <c r="T17" s="3"/>
       <c r="U17" s="3"/>
       <c r="V17" s="3"/>
-      <c r="W17" s="56"/>
-      <c r="X17" s="57" t="s">
-        <v>358</v>
+      <c r="W17" s="63"/>
+      <c r="X17" s="64" t="s">
+        <v>366</v>
       </c>
       <c r="Y17" s="3" t="s">
-        <v>359</v>
+        <v>367</v>
       </c>
       <c r="Z17" s="3" t="s">
-        <v>360</v>
-      </c>
-      <c r="AA17" s="56" t="s">
-        <v>361</v>
+        <v>368</v>
+      </c>
+      <c r="AA17" s="63" t="s">
+        <v>369</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="18.75">
-      <c r="A18" s="54">
+      <c r="A18" s="61">
         <v>15</v>
       </c>
       <c r="B18" s="3" t="s">
-        <v>362</v>
+        <v>370</v>
       </c>
       <c r="C18" s="4">
         <v>10</v>
@@ -3723,33 +3762,33 @@
       <c r="Q18" s="4">
         <v>0</v>
       </c>
-      <c r="R18" s="55">
+      <c r="R18" s="62">
         <v>0</v>
       </c>
       <c r="S18" s="3"/>
       <c r="T18" s="3"/>
       <c r="U18" s="3"/>
       <c r="V18" s="3"/>
-      <c r="W18" s="56"/>
-      <c r="X18" s="57" t="s">
-        <v>363</v>
+      <c r="W18" s="63"/>
+      <c r="X18" s="64" t="s">
+        <v>371</v>
       </c>
       <c r="Y18" s="3" t="s">
-        <v>364</v>
+        <v>372</v>
       </c>
       <c r="Z18" s="3" t="s">
-        <v>365</v>
-      </c>
-      <c r="AA18" s="56" t="s">
-        <v>281</v>
+        <v>373</v>
+      </c>
+      <c r="AA18" s="63" t="s">
+        <v>289</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="18.75">
-      <c r="A19" s="54">
+      <c r="A19" s="61">
         <v>16</v>
       </c>
       <c r="B19" s="3" t="s">
-        <v>366</v>
+        <v>374</v>
       </c>
       <c r="C19" s="4">
         <v>10</v>
@@ -3796,33 +3835,33 @@
       <c r="Q19" s="4">
         <v>0</v>
       </c>
-      <c r="R19" s="55">
+      <c r="R19" s="62">
         <v>0</v>
       </c>
       <c r="S19" s="3"/>
       <c r="T19" s="3"/>
       <c r="U19" s="3"/>
       <c r="V19" s="3"/>
-      <c r="W19" s="56"/>
-      <c r="X19" s="57" t="s">
-        <v>367</v>
+      <c r="W19" s="63"/>
+      <c r="X19" s="64" t="s">
+        <v>375</v>
       </c>
       <c r="Y19" s="3" t="s">
-        <v>368</v>
+        <v>376</v>
       </c>
       <c r="Z19" s="3" t="s">
-        <v>369</v>
-      </c>
-      <c r="AA19" s="56" t="s">
-        <v>305</v>
+        <v>377</v>
+      </c>
+      <c r="AA19" s="63" t="s">
+        <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="18.75">
-      <c r="A20" s="54">
+      <c r="A20" s="61">
         <v>17</v>
       </c>
       <c r="B20" s="3" t="s">
-        <v>370</v>
+        <v>378</v>
       </c>
       <c r="C20" s="4">
         <v>10</v>
@@ -3869,33 +3908,33 @@
       <c r="Q20" s="4">
         <v>0</v>
       </c>
-      <c r="R20" s="55">
+      <c r="R20" s="62">
         <v>0</v>
       </c>
       <c r="S20" s="3"/>
       <c r="T20" s="3"/>
       <c r="U20" s="3"/>
       <c r="V20" s="3"/>
-      <c r="W20" s="56"/>
-      <c r="X20" s="57" t="s">
-        <v>371</v>
+      <c r="W20" s="63"/>
+      <c r="X20" s="64" t="s">
+        <v>379</v>
       </c>
       <c r="Y20" s="3" t="s">
-        <v>372</v>
+        <v>380</v>
       </c>
       <c r="Z20" s="3" t="s">
-        <v>373</v>
-      </c>
-      <c r="AA20" s="56" t="s">
-        <v>279</v>
+        <v>381</v>
+      </c>
+      <c r="AA20" s="63" t="s">
+        <v>287</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="18.75">
-      <c r="A21" s="54">
+      <c r="A21" s="61">
         <v>18</v>
       </c>
       <c r="B21" s="3" t="s">
-        <v>374</v>
+        <v>382</v>
       </c>
       <c r="C21" s="4">
         <v>10</v>
@@ -3942,33 +3981,33 @@
       <c r="Q21" s="4">
         <v>0</v>
       </c>
-      <c r="R21" s="55">
+      <c r="R21" s="62">
         <v>0</v>
       </c>
       <c r="S21" s="3"/>
       <c r="T21" s="3"/>
       <c r="U21" s="3"/>
       <c r="V21" s="3"/>
-      <c r="W21" s="56"/>
-      <c r="X21" s="57" t="s">
-        <v>375</v>
+      <c r="W21" s="63"/>
+      <c r="X21" s="64" t="s">
+        <v>383</v>
       </c>
       <c r="Y21" s="3" t="s">
-        <v>376</v>
+        <v>384</v>
       </c>
       <c r="Z21" s="3" t="s">
-        <v>377</v>
-      </c>
-      <c r="AA21" s="56" t="s">
-        <v>292</v>
+        <v>385</v>
+      </c>
+      <c r="AA21" s="63" t="s">
+        <v>300</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="18.75">
-      <c r="A22" s="54">
+      <c r="A22" s="61">
         <v>19</v>
       </c>
       <c r="B22" s="3" t="s">
-        <v>378</v>
+        <v>386</v>
       </c>
       <c r="C22" s="4">
         <v>10</v>
@@ -4015,33 +4054,33 @@
       <c r="Q22" s="4">
         <v>0</v>
       </c>
-      <c r="R22" s="55">
+      <c r="R22" s="62">
         <v>0</v>
       </c>
       <c r="S22" s="3"/>
       <c r="T22" s="3"/>
       <c r="U22" s="3"/>
       <c r="V22" s="3"/>
-      <c r="W22" s="56"/>
-      <c r="X22" s="57" t="s">
-        <v>379</v>
+      <c r="W22" s="63"/>
+      <c r="X22" s="64" t="s">
+        <v>387</v>
       </c>
       <c r="Y22" s="3" t="s">
-        <v>380</v>
+        <v>388</v>
       </c>
       <c r="Z22" s="3" t="s">
-        <v>381</v>
-      </c>
-      <c r="AA22" s="56" t="s">
-        <v>382</v>
+        <v>389</v>
+      </c>
+      <c r="AA22" s="63" t="s">
+        <v>390</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="23" customHeight="1" ht="18.75">
-      <c r="A23" s="54">
+      <c r="A23" s="61">
         <v>20</v>
       </c>
       <c r="B23" s="3" t="s">
-        <v>383</v>
+        <v>391</v>
       </c>
       <c r="C23" s="4">
         <v>10</v>
@@ -4088,33 +4127,33 @@
       <c r="Q23" s="4">
         <v>0</v>
       </c>
-      <c r="R23" s="55">
+      <c r="R23" s="62">
         <v>0</v>
       </c>
       <c r="S23" s="3"/>
       <c r="T23" s="3"/>
       <c r="U23" s="3"/>
       <c r="V23" s="3"/>
-      <c r="W23" s="56"/>
-      <c r="X23" s="57" t="s">
-        <v>384</v>
+      <c r="W23" s="63"/>
+      <c r="X23" s="64" t="s">
+        <v>392</v>
       </c>
       <c r="Y23" s="3" t="s">
-        <v>385</v>
+        <v>393</v>
       </c>
       <c r="Z23" s="3" t="s">
-        <v>386</v>
-      </c>
-      <c r="AA23" s="56" t="s">
+        <v>394</v>
+      </c>
+      <c r="AA23" s="63" t="s">
         <v>26</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="24" customHeight="1" ht="18.75">
-      <c r="A24" s="54">
+      <c r="A24" s="61">
         <v>21</v>
       </c>
       <c r="B24" s="3" t="s">
-        <v>387</v>
+        <v>395</v>
       </c>
       <c r="C24" s="4">
         <v>10</v>
@@ -4161,33 +4200,33 @@
       <c r="Q24" s="4">
         <v>0</v>
       </c>
-      <c r="R24" s="55">
+      <c r="R24" s="62">
         <v>0</v>
       </c>
       <c r="S24" s="3"/>
       <c r="T24" s="3"/>
       <c r="U24" s="3"/>
       <c r="V24" s="3"/>
-      <c r="W24" s="56"/>
-      <c r="X24" s="57" t="s">
-        <v>388</v>
+      <c r="W24" s="63"/>
+      <c r="X24" s="64" t="s">
+        <v>396</v>
       </c>
       <c r="Y24" s="3" t="s">
-        <v>389</v>
+        <v>397</v>
       </c>
       <c r="Z24" s="3" t="s">
-        <v>390</v>
-      </c>
-      <c r="AA24" s="56" t="s">
-        <v>391</v>
+        <v>398</v>
+      </c>
+      <c r="AA24" s="63" t="s">
+        <v>399</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="25" customHeight="1" ht="18.75">
-      <c r="A25" s="54">
+      <c r="A25" s="61">
         <v>22</v>
       </c>
       <c r="B25" s="3" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
       <c r="C25" s="4">
         <v>10</v>
@@ -4234,33 +4273,33 @@
       <c r="Q25" s="4">
         <v>0</v>
       </c>
-      <c r="R25" s="55">
+      <c r="R25" s="62">
         <v>0</v>
       </c>
       <c r="S25" s="3"/>
       <c r="T25" s="3"/>
       <c r="U25" s="3"/>
       <c r="V25" s="3"/>
-      <c r="W25" s="56"/>
-      <c r="X25" s="57" t="s">
-        <v>393</v>
+      <c r="W25" s="63"/>
+      <c r="X25" s="64" t="s">
+        <v>401</v>
       </c>
       <c r="Y25" s="3" t="s">
-        <v>394</v>
+        <v>402</v>
       </c>
       <c r="Z25" s="3" t="s">
-        <v>395</v>
-      </c>
-      <c r="AA25" s="56" t="s">
-        <v>286</v>
+        <v>403</v>
+      </c>
+      <c r="AA25" s="63" t="s">
+        <v>294</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="26" customHeight="1" ht="18.75">
-      <c r="A26" s="54">
+      <c r="A26" s="61">
         <v>23</v>
       </c>
       <c r="B26" s="3" t="s">
-        <v>396</v>
+        <v>404</v>
       </c>
       <c r="C26" s="4">
         <v>10</v>
@@ -4307,33 +4346,33 @@
       <c r="Q26" s="4">
         <v>0</v>
       </c>
-      <c r="R26" s="55">
+      <c r="R26" s="62">
         <v>0</v>
       </c>
       <c r="S26" s="3"/>
       <c r="T26" s="3"/>
       <c r="U26" s="3"/>
       <c r="V26" s="3"/>
-      <c r="W26" s="56"/>
-      <c r="X26" s="57" t="s">
-        <v>397</v>
+      <c r="W26" s="63"/>
+      <c r="X26" s="64" t="s">
+        <v>405</v>
       </c>
       <c r="Y26" s="3" t="s">
-        <v>398</v>
+        <v>406</v>
       </c>
       <c r="Z26" s="3" t="s">
-        <v>399</v>
-      </c>
-      <c r="AA26" s="56" t="s">
-        <v>400</v>
+        <v>407</v>
+      </c>
+      <c r="AA26" s="63" t="s">
+        <v>408</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="27" customHeight="1" ht="18.75">
-      <c r="A27" s="54">
+      <c r="A27" s="61">
         <v>24</v>
       </c>
       <c r="B27" s="3" t="s">
-        <v>401</v>
+        <v>409</v>
       </c>
       <c r="C27" s="4">
         <v>10</v>
@@ -4380,33 +4419,33 @@
       <c r="Q27" s="4">
         <v>0</v>
       </c>
-      <c r="R27" s="55">
+      <c r="R27" s="62">
         <v>0</v>
       </c>
       <c r="S27" s="3"/>
       <c r="T27" s="3"/>
       <c r="U27" s="3"/>
       <c r="V27" s="3"/>
-      <c r="W27" s="56"/>
-      <c r="X27" s="57" t="s">
-        <v>402</v>
+      <c r="W27" s="63"/>
+      <c r="X27" s="64" t="s">
+        <v>410</v>
       </c>
       <c r="Y27" s="3" t="s">
-        <v>403</v>
+        <v>411</v>
       </c>
       <c r="Z27" s="3" t="s">
-        <v>404</v>
-      </c>
-      <c r="AA27" s="56" t="s">
-        <v>405</v>
+        <v>412</v>
+      </c>
+      <c r="AA27" s="63" t="s">
+        <v>413</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="28" customHeight="1" ht="18.75">
-      <c r="A28" s="54">
+      <c r="A28" s="61">
         <v>25</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>406</v>
+        <v>414</v>
       </c>
       <c r="C28" s="4">
         <v>10</v>
@@ -4453,33 +4492,33 @@
       <c r="Q28" s="4">
         <v>0</v>
       </c>
-      <c r="R28" s="55">
+      <c r="R28" s="62">
         <v>0</v>
       </c>
       <c r="S28" s="3"/>
       <c r="T28" s="3"/>
       <c r="U28" s="3"/>
       <c r="V28" s="3"/>
-      <c r="W28" s="56"/>
-      <c r="X28" s="57" t="s">
-        <v>407</v>
+      <c r="W28" s="63"/>
+      <c r="X28" s="64" t="s">
+        <v>415</v>
       </c>
       <c r="Y28" s="3" t="s">
-        <v>408</v>
+        <v>416</v>
       </c>
       <c r="Z28" s="3" t="s">
-        <v>409</v>
-      </c>
-      <c r="AA28" s="56" t="s">
-        <v>410</v>
+        <v>417</v>
+      </c>
+      <c r="AA28" s="63" t="s">
+        <v>418</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="29" customHeight="1" ht="18.75">
-      <c r="A29" s="54">
+      <c r="A29" s="61">
         <v>26</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>411</v>
+        <v>419</v>
       </c>
       <c r="C29" s="4">
         <v>10</v>
@@ -4526,33 +4565,33 @@
       <c r="Q29" s="4">
         <v>0</v>
       </c>
-      <c r="R29" s="55">
+      <c r="R29" s="62">
         <v>0</v>
       </c>
       <c r="S29" s="3"/>
       <c r="T29" s="3"/>
       <c r="U29" s="3"/>
       <c r="V29" s="3"/>
-      <c r="W29" s="56"/>
-      <c r="X29" s="57" t="s">
-        <v>412</v>
+      <c r="W29" s="63"/>
+      <c r="X29" s="64" t="s">
+        <v>420</v>
       </c>
       <c r="Y29" s="3" t="s">
-        <v>413</v>
+        <v>421</v>
       </c>
       <c r="Z29" s="3" t="s">
-        <v>414</v>
-      </c>
-      <c r="AA29" s="56" t="s">
-        <v>415</v>
+        <v>422</v>
+      </c>
+      <c r="AA29" s="63" t="s">
+        <v>423</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="30" customHeight="1" ht="18.75">
-      <c r="A30" s="54">
+      <c r="A30" s="61">
         <v>27</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>416</v>
+        <v>424</v>
       </c>
       <c r="C30" s="4">
         <v>10</v>
@@ -4599,33 +4638,33 @@
       <c r="Q30" s="4">
         <v>0</v>
       </c>
-      <c r="R30" s="55">
+      <c r="R30" s="62">
         <v>0</v>
       </c>
       <c r="S30" s="3"/>
       <c r="T30" s="3"/>
       <c r="U30" s="3"/>
       <c r="V30" s="3"/>
-      <c r="W30" s="56"/>
-      <c r="X30" s="57" t="s">
-        <v>417</v>
+      <c r="W30" s="63"/>
+      <c r="X30" s="64" t="s">
+        <v>425</v>
       </c>
       <c r="Y30" s="3" t="s">
-        <v>418</v>
+        <v>426</v>
       </c>
       <c r="Z30" s="3" t="s">
-        <v>419</v>
-      </c>
-      <c r="AA30" s="56" t="s">
-        <v>305</v>
+        <v>427</v>
+      </c>
+      <c r="AA30" s="63" t="s">
+        <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="31" customHeight="1" ht="18.75">
-      <c r="A31" s="54">
+      <c r="A31" s="61">
         <v>28</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>420</v>
+        <v>428</v>
       </c>
       <c r="C31" s="4">
         <v>10</v>
@@ -4672,33 +4711,33 @@
       <c r="Q31" s="4">
         <v>0</v>
       </c>
-      <c r="R31" s="55">
+      <c r="R31" s="62">
         <v>0</v>
       </c>
       <c r="S31" s="3"/>
       <c r="T31" s="3"/>
       <c r="U31" s="3"/>
       <c r="V31" s="3"/>
-      <c r="W31" s="56"/>
-      <c r="X31" s="57" t="s">
-        <v>421</v>
+      <c r="W31" s="63"/>
+      <c r="X31" s="64" t="s">
+        <v>429</v>
       </c>
       <c r="Y31" s="3" t="s">
-        <v>422</v>
+        <v>430</v>
       </c>
       <c r="Z31" s="3" t="s">
-        <v>423</v>
-      </c>
-      <c r="AA31" s="56" t="s">
-        <v>305</v>
+        <v>431</v>
+      </c>
+      <c r="AA31" s="63" t="s">
+        <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="32" customHeight="1" ht="18.75">
-      <c r="A32" s="54">
+      <c r="A32" s="61">
         <v>29</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>424</v>
+        <v>432</v>
       </c>
       <c r="C32" s="4">
         <v>10</v>
@@ -4745,33 +4784,33 @@
       <c r="Q32" s="4">
         <v>0</v>
       </c>
-      <c r="R32" s="55">
+      <c r="R32" s="62">
         <v>0</v>
       </c>
       <c r="S32" s="3"/>
       <c r="T32" s="3"/>
       <c r="U32" s="3"/>
       <c r="V32" s="3"/>
-      <c r="W32" s="56"/>
-      <c r="X32" s="57" t="s">
-        <v>425</v>
+      <c r="W32" s="63"/>
+      <c r="X32" s="64" t="s">
+        <v>433</v>
       </c>
       <c r="Y32" s="3" t="s">
-        <v>426</v>
+        <v>434</v>
       </c>
       <c r="Z32" s="3" t="s">
-        <v>427</v>
-      </c>
-      <c r="AA32" s="56" t="s">
-        <v>428</v>
+        <v>435</v>
+      </c>
+      <c r="AA32" s="63" t="s">
+        <v>436</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="33" customHeight="1" ht="18.75">
-      <c r="A33" s="54">
+      <c r="A33" s="61">
         <v>30</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>429</v>
+        <v>437</v>
       </c>
       <c r="C33" s="4">
         <v>10</v>
@@ -4818,33 +4857,33 @@
       <c r="Q33" s="4">
         <v>0</v>
       </c>
-      <c r="R33" s="55">
+      <c r="R33" s="62">
         <v>0</v>
       </c>
       <c r="S33" s="3"/>
       <c r="T33" s="3"/>
       <c r="U33" s="3"/>
       <c r="V33" s="3"/>
-      <c r="W33" s="56"/>
-      <c r="X33" s="57" t="s">
-        <v>430</v>
+      <c r="W33" s="63"/>
+      <c r="X33" s="64" t="s">
+        <v>438</v>
       </c>
       <c r="Y33" s="3" t="s">
-        <v>431</v>
+        <v>439</v>
       </c>
       <c r="Z33" s="3" t="s">
-        <v>432</v>
-      </c>
-      <c r="AA33" s="56" t="s">
-        <v>433</v>
+        <v>440</v>
+      </c>
+      <c r="AA33" s="63" t="s">
+        <v>441</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="34" customHeight="1" ht="18.75">
-      <c r="A34" s="54">
+      <c r="A34" s="61">
         <v>31</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>434</v>
+        <v>442</v>
       </c>
       <c r="C34" s="4">
         <v>10</v>
@@ -4891,33 +4930,33 @@
       <c r="Q34" s="4">
         <v>0</v>
       </c>
-      <c r="R34" s="55">
+      <c r="R34" s="62">
         <v>0</v>
       </c>
       <c r="S34" s="3"/>
       <c r="T34" s="3"/>
       <c r="U34" s="3"/>
       <c r="V34" s="3"/>
-      <c r="W34" s="56"/>
-      <c r="X34" s="57" t="s">
-        <v>435</v>
+      <c r="W34" s="63"/>
+      <c r="X34" s="64" t="s">
+        <v>443</v>
       </c>
       <c r="Y34" s="3" t="s">
-        <v>436</v>
+        <v>444</v>
       </c>
       <c r="Z34" s="3" t="s">
-        <v>437</v>
-      </c>
-      <c r="AA34" s="56" t="s">
-        <v>305</v>
+        <v>445</v>
+      </c>
+      <c r="AA34" s="63" t="s">
+        <v>313</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="35" customHeight="1" ht="18.75">
-      <c r="A35" s="54">
+      <c r="A35" s="61">
         <v>32</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="C35" s="4">
         <v>10</v>
@@ -4964,33 +5003,33 @@
       <c r="Q35" s="4">
         <v>0</v>
       </c>
-      <c r="R35" s="55">
+      <c r="R35" s="62">
         <v>0</v>
       </c>
       <c r="S35" s="3"/>
       <c r="T35" s="3"/>
       <c r="U35" s="3"/>
       <c r="V35" s="3"/>
-      <c r="W35" s="56"/>
-      <c r="X35" s="57" t="s">
-        <v>439</v>
+      <c r="W35" s="63"/>
+      <c r="X35" s="64" t="s">
+        <v>447</v>
       </c>
       <c r="Y35" s="3" t="s">
-        <v>440</v>
+        <v>448</v>
       </c>
       <c r="Z35" s="3" t="s">
-        <v>441</v>
-      </c>
-      <c r="AA35" s="56" t="s">
-        <v>442</v>
+        <v>449</v>
+      </c>
+      <c r="AA35" s="63" t="s">
+        <v>450</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="36" customHeight="1" ht="18.75">
-      <c r="A36" s="54">
+      <c r="A36" s="61">
         <v>33</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>443</v>
+        <v>451</v>
       </c>
       <c r="C36" s="4">
         <v>10</v>
@@ -5037,33 +5076,33 @@
       <c r="Q36" s="4">
         <v>0</v>
       </c>
-      <c r="R36" s="55">
+      <c r="R36" s="62">
         <v>0</v>
       </c>
       <c r="S36" s="3"/>
       <c r="T36" s="3"/>
       <c r="U36" s="3"/>
       <c r="V36" s="3"/>
-      <c r="W36" s="56"/>
-      <c r="X36" s="57" t="s">
-        <v>444</v>
+      <c r="W36" s="63"/>
+      <c r="X36" s="64" t="s">
+        <v>452</v>
       </c>
       <c r="Y36" s="3" t="s">
-        <v>445</v>
+        <v>453</v>
       </c>
       <c r="Z36" s="3" t="s">
-        <v>446</v>
-      </c>
-      <c r="AA36" s="56" t="s">
-        <v>447</v>
+        <v>454</v>
+      </c>
+      <c r="AA36" s="63" t="s">
+        <v>455</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="37" customHeight="1" ht="18.75">
-      <c r="A37" s="54">
+      <c r="A37" s="61">
         <v>34</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>448</v>
+        <v>456</v>
       </c>
       <c r="C37" s="4">
         <v>10</v>
@@ -5110,33 +5149,33 @@
       <c r="Q37" s="4">
         <v>0</v>
       </c>
-      <c r="R37" s="55">
+      <c r="R37" s="62">
         <v>0</v>
       </c>
       <c r="S37" s="3"/>
       <c r="T37" s="3"/>
       <c r="U37" s="3"/>
       <c r="V37" s="3"/>
-      <c r="W37" s="56"/>
-      <c r="X37" s="57" t="s">
-        <v>449</v>
+      <c r="W37" s="63"/>
+      <c r="X37" s="64" t="s">
+        <v>457</v>
       </c>
       <c r="Y37" s="3" t="s">
-        <v>450</v>
+        <v>458</v>
       </c>
       <c r="Z37" s="3" t="s">
-        <v>451</v>
-      </c>
-      <c r="AA37" s="56" t="s">
-        <v>452</v>
+        <v>459</v>
+      </c>
+      <c r="AA37" s="63" t="s">
+        <v>460</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="38" customHeight="1" ht="18.75">
-      <c r="A38" s="54">
+      <c r="A38" s="61">
         <v>35</v>
       </c>
       <c r="B38" s="3" t="s">
-        <v>453</v>
+        <v>461</v>
       </c>
       <c r="C38" s="4">
         <v>10</v>
@@ -5183,33 +5222,33 @@
       <c r="Q38" s="4">
         <v>0</v>
       </c>
-      <c r="R38" s="55">
+      <c r="R38" s="62">
         <v>0</v>
       </c>
       <c r="S38" s="3"/>
       <c r="T38" s="3"/>
       <c r="U38" s="3"/>
       <c r="V38" s="3"/>
-      <c r="W38" s="56"/>
-      <c r="X38" s="57" t="s">
-        <v>454</v>
+      <c r="W38" s="63"/>
+      <c r="X38" s="64" t="s">
+        <v>462</v>
       </c>
       <c r="Y38" s="3" t="s">
-        <v>455</v>
+        <v>463</v>
       </c>
       <c r="Z38" s="3" t="s">
-        <v>456</v>
-      </c>
-      <c r="AA38" s="56" t="s">
-        <v>457</v>
+        <v>464</v>
+      </c>
+      <c r="AA38" s="63" t="s">
+        <v>465</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="39" customHeight="1" ht="18.75">
-      <c r="A39" s="54">
+      <c r="A39" s="61">
         <v>36</v>
       </c>
       <c r="B39" s="3" t="s">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="C39" s="4">
         <v>10</v>
@@ -5256,33 +5295,33 @@
       <c r="Q39" s="4">
         <v>0</v>
       </c>
-      <c r="R39" s="55">
+      <c r="R39" s="62">
         <v>0</v>
       </c>
       <c r="S39" s="3"/>
       <c r="T39" s="3"/>
       <c r="U39" s="3"/>
       <c r="V39" s="3"/>
-      <c r="W39" s="56"/>
-      <c r="X39" s="57" t="s">
-        <v>459</v>
+      <c r="W39" s="63"/>
+      <c r="X39" s="64" t="s">
+        <v>467</v>
       </c>
       <c r="Y39" s="3" t="s">
-        <v>460</v>
+        <v>468</v>
       </c>
       <c r="Z39" s="3" t="s">
-        <v>461</v>
-      </c>
-      <c r="AA39" s="56" t="s">
-        <v>462</v>
+        <v>469</v>
+      </c>
+      <c r="AA39" s="63" t="s">
+        <v>470</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="40" customHeight="1" ht="18.75">
-      <c r="A40" s="54">
+      <c r="A40" s="61">
         <v>37</v>
       </c>
       <c r="B40" s="3" t="s">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="C40" s="4">
         <v>10</v>
@@ -5329,98 +5368,98 @@
       <c r="Q40" s="4">
         <v>0</v>
       </c>
-      <c r="R40" s="55">
+      <c r="R40" s="62">
         <v>0</v>
       </c>
       <c r="S40" s="3"/>
       <c r="T40" s="3"/>
       <c r="U40" s="3"/>
       <c r="V40" s="3"/>
-      <c r="W40" s="56"/>
-      <c r="X40" s="57" t="s">
-        <v>464</v>
+      <c r="W40" s="63"/>
+      <c r="X40" s="64" t="s">
+        <v>472</v>
       </c>
       <c r="Y40" s="3" t="s">
-        <v>465</v>
+        <v>473</v>
       </c>
       <c r="Z40" s="3" t="s">
-        <v>466</v>
-      </c>
-      <c r="AA40" s="56" t="s">
-        <v>288</v>
+        <v>474</v>
+      </c>
+      <c r="AA40" s="63" t="s">
+        <v>296</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="41" customHeight="1" ht="18.75">
-      <c r="A41" s="58">
+      <c r="A41" s="65">
         <v>38</v>
       </c>
-      <c r="B41" s="59" t="s">
-        <v>467</v>
-      </c>
-      <c r="C41" s="60">
-        <v>10</v>
-      </c>
-      <c r="D41" s="60">
-        <v>0</v>
-      </c>
-      <c r="E41" s="60">
-        <v>0</v>
-      </c>
-      <c r="F41" s="60">
-        <v>10</v>
-      </c>
-      <c r="G41" s="60">
-        <v>0</v>
-      </c>
-      <c r="H41" s="60">
-        <v>0</v>
-      </c>
-      <c r="I41" s="60">
-        <v>0</v>
-      </c>
-      <c r="J41" s="60">
+      <c r="B41" s="66" t="s">
+        <v>475</v>
+      </c>
+      <c r="C41" s="67">
+        <v>10</v>
+      </c>
+      <c r="D41" s="67">
+        <v>0</v>
+      </c>
+      <c r="E41" s="67">
+        <v>0</v>
+      </c>
+      <c r="F41" s="67">
+        <v>10</v>
+      </c>
+      <c r="G41" s="67">
+        <v>0</v>
+      </c>
+      <c r="H41" s="67">
+        <v>0</v>
+      </c>
+      <c r="I41" s="67">
+        <v>0</v>
+      </c>
+      <c r="J41" s="67">
         <v>2</v>
       </c>
-      <c r="K41" s="60">
-        <v>1</v>
-      </c>
-      <c r="L41" s="60">
-        <v>0</v>
-      </c>
-      <c r="M41" s="60">
-        <v>0</v>
-      </c>
-      <c r="N41" s="60">
-        <v>0</v>
-      </c>
-      <c r="O41" s="60">
-        <v>0</v>
-      </c>
-      <c r="P41" s="60">
-        <v>0</v>
-      </c>
-      <c r="Q41" s="60">
-        <v>0</v>
-      </c>
-      <c r="R41" s="61">
-        <v>0</v>
-      </c>
-      <c r="S41" s="59"/>
-      <c r="T41" s="59"/>
-      <c r="U41" s="59"/>
-      <c r="V41" s="59"/>
-      <c r="W41" s="62"/>
-      <c r="X41" s="63" t="s">
-        <v>468</v>
-      </c>
-      <c r="Y41" s="59" t="s">
-        <v>469</v>
-      </c>
-      <c r="Z41" s="59" t="s">
-        <v>470</v>
-      </c>
-      <c r="AA41" s="62" t="s">
-        <v>305</v>
+      <c r="K41" s="67">
+        <v>1</v>
+      </c>
+      <c r="L41" s="67">
+        <v>0</v>
+      </c>
+      <c r="M41" s="67">
+        <v>0</v>
+      </c>
+      <c r="N41" s="67">
+        <v>0</v>
+      </c>
+      <c r="O41" s="67">
+        <v>0</v>
+      </c>
+      <c r="P41" s="67">
+        <v>0</v>
+      </c>
+      <c r="Q41" s="67">
+        <v>0</v>
+      </c>
+      <c r="R41" s="68">
+        <v>0</v>
+      </c>
+      <c r="S41" s="66"/>
+      <c r="T41" s="66"/>
+      <c r="U41" s="66"/>
+      <c r="V41" s="66"/>
+      <c r="W41" s="69"/>
+      <c r="X41" s="70" t="s">
+        <v>476</v>
+      </c>
+      <c r="Y41" s="66" t="s">
+        <v>477</v>
+      </c>
+      <c r="Z41" s="66" t="s">
+        <v>478</v>
+      </c>
+      <c r="AA41" s="69" t="s">
+        <v>313</v>
       </c>
     </row>
   </sheetData>
@@ -5456,31 +5495,31 @@
         <v>0</v>
       </c>
       <c r="B1" s="3" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
       <c r="E1" s="3" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="F1" s="3" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="H1" s="3" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="21">
@@ -5488,31 +5527,31 @@
         <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="I2" s="10" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
       <c r="J2" s="10" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
@@ -5549,16 +5588,16 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21.75">
       <c r="A4" s="3" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="C4" s="4">
         <v>99</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="E4" s="3"/>
       <c r="F4" s="3"/>
@@ -5589,7 +5628,7 @@
   <cols>
     <col min="1" max="1" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
     <col min="4" max="4" style="6" width="43.86214285714286" customWidth="1" bestFit="1"/>
     <col min="5" max="5" style="6" width="20.433571428571426" customWidth="1" bestFit="1"/>
     <col min="6" max="6" style="6" width="74.86214285714286" customWidth="1" bestFit="1"/>
@@ -5600,334 +5639,334 @@
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="19.5">
-      <c r="A1" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="18" t="s">
-        <v>177</v>
-      </c>
-      <c r="C1" s="19" t="s">
+      <c r="A1" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="27" t="s">
+        <v>185</v>
+      </c>
+      <c r="C1" s="28" t="s">
+        <v>203</v>
+      </c>
+      <c r="D1" s="27" t="s">
+        <v>204</v>
+      </c>
+      <c r="E1" s="27" t="s">
+        <v>205</v>
+      </c>
+      <c r="F1" s="27" t="s">
+        <v>206</v>
+      </c>
+      <c r="G1" s="27" t="s">
+        <v>207</v>
+      </c>
+      <c r="H1" s="29" t="s">
+        <v>208</v>
+      </c>
+      <c r="I1" s="29" t="s">
+        <v>209</v>
+      </c>
+      <c r="J1" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
+      <c r="A2" s="27" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2" s="27" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="31" t="s">
+        <v>210</v>
+      </c>
+      <c r="D2" s="27" t="s">
+        <v>211</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>212</v>
+      </c>
+      <c r="F2" s="27" t="s">
+        <v>213</v>
+      </c>
+      <c r="G2" s="27" t="s">
+        <v>214</v>
+      </c>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
+        <v>215</v>
+      </c>
+      <c r="J2" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
+      <c r="A3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="C3" s="28" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" s="27" t="s">
+        <v>51</v>
+      </c>
+      <c r="E3" s="27" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="G3" s="27" t="s">
+        <v>50</v>
+      </c>
+      <c r="H3" s="29" t="s">
+        <v>216</v>
+      </c>
+      <c r="I3" s="29" t="s">
+        <v>51</v>
+      </c>
+      <c r="J3" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="32">
+      <c r="A4" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="B4" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="C4" s="32">
+        <v>1</v>
+      </c>
+      <c r="D4" s="29" t="s">
+        <v>217</v>
+      </c>
+      <c r="E4" s="29" t="s">
+        <v>187</v>
+      </c>
+      <c r="F4" s="29" t="s">
+        <v>218</v>
+      </c>
+      <c r="G4" s="29" t="s">
+        <v>219</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I4" s="29" t="s">
+        <v>221</v>
+      </c>
+      <c r="J4" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="32">
+      <c r="A5" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="B5" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="C5" s="32">
+        <v>1</v>
+      </c>
+      <c r="D5" s="29" t="s">
+        <v>222</v>
+      </c>
+      <c r="E5" s="29" t="s">
+        <v>189</v>
+      </c>
+      <c r="F5" s="29" t="s">
+        <v>124</v>
+      </c>
+      <c r="G5" s="29" t="s">
+        <v>223</v>
+      </c>
+      <c r="H5" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I5" s="29" t="s">
+        <v>224</v>
+      </c>
+      <c r="J5" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="32">
+      <c r="A6" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="B6" s="29" t="s">
+        <v>192</v>
+      </c>
+      <c r="C6" s="32">
+        <v>1</v>
+      </c>
+      <c r="D6" s="29" t="s">
+        <v>225</v>
+      </c>
+      <c r="E6" s="29" t="s">
+        <v>191</v>
+      </c>
+      <c r="F6" s="29" t="s">
+        <v>149</v>
+      </c>
+      <c r="G6" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="H6" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I6" s="29" t="s">
+        <v>227</v>
+      </c>
+      <c r="J6" s="30" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="32">
+      <c r="A7" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="B7" s="29" t="s">
+        <v>194</v>
+      </c>
+      <c r="C7" s="32">
+        <v>1</v>
+      </c>
+      <c r="D7" s="29" t="s">
+        <v>229</v>
+      </c>
+      <c r="E7" s="29" t="s">
+        <v>193</v>
+      </c>
+      <c r="F7" s="29"/>
+      <c r="G7" s="29" t="s">
+        <v>226</v>
+      </c>
+      <c r="H7" s="29" t="s">
+        <v>220</v>
+      </c>
+      <c r="I7" s="29" t="s">
+        <v>230</v>
+      </c>
+      <c r="J7" s="29" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="32">
+      <c r="A8" s="29" t="s">
         <v>195</v>
       </c>
-      <c r="D1" s="18" t="s">
+      <c r="B8" s="29" t="s">
         <v>196</v>
       </c>
-      <c r="E1" s="18" t="s">
+      <c r="C8" s="32">
+        <v>2</v>
+      </c>
+      <c r="D8" s="29" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="29" t="s">
+        <v>195</v>
+      </c>
+      <c r="F8" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G8" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H8" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="I8" s="29" t="s">
+        <v>234</v>
+      </c>
+      <c r="J8" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="32">
+      <c r="A9" s="29" t="s">
         <v>197</v>
       </c>
-      <c r="F1" s="18" t="s">
+      <c r="B9" s="29" t="s">
         <v>198</v>
       </c>
-      <c r="G1" s="18" t="s">
+      <c r="C9" s="32">
+        <v>2</v>
+      </c>
+      <c r="D9" s="29" t="s">
+        <v>235</v>
+      </c>
+      <c r="E9" s="29" t="s">
+        <v>197</v>
+      </c>
+      <c r="F9" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G9" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="I9" s="29" t="s">
+        <v>236</v>
+      </c>
+      <c r="J9" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="32">
+      <c r="A10" s="29" t="s">
         <v>199</v>
       </c>
-      <c r="H1" s="20" t="s">
+      <c r="B10" s="29" t="s">
         <v>200</v>
       </c>
-      <c r="I1" s="20" t="s">
+      <c r="C10" s="32">
+        <v>2</v>
+      </c>
+      <c r="D10" s="29" t="s">
+        <v>237</v>
+      </c>
+      <c r="E10" s="29" t="s">
+        <v>199</v>
+      </c>
+      <c r="F10" s="29" t="s">
+        <v>21</v>
+      </c>
+      <c r="G10" s="29" t="s">
+        <v>17</v>
+      </c>
+      <c r="H10" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="I10" s="29" t="s">
+        <v>238</v>
+      </c>
+      <c r="J10" s="30"/>
+    </row>
+    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="32">
+      <c r="A11" s="29" t="s">
         <v>201</v>
       </c>
-      <c r="J1" s="21"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
-      <c r="A2" s="18" t="s">
-        <v>0</v>
-      </c>
-      <c r="B2" s="18" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" s="22" t="s">
+      <c r="B11" s="29" t="s">
         <v>202</v>
       </c>
-      <c r="D2" s="18" t="s">
-        <v>203</v>
-      </c>
-      <c r="E2" s="18" t="s">
-        <v>204</v>
-      </c>
-      <c r="F2" s="18" t="s">
-        <v>205</v>
-      </c>
-      <c r="G2" s="18" t="s">
-        <v>206</v>
-      </c>
-      <c r="H2" s="20"/>
-      <c r="I2" s="20" t="s">
-        <v>207</v>
-      </c>
-      <c r="J2" s="21"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="19.5">
-      <c r="A3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="E3" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="F3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="G3" s="18" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" s="20" t="s">
-        <v>208</v>
-      </c>
-      <c r="I3" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="J3" s="21"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="32">
-      <c r="A4" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="B4" s="20" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" s="23">
-        <v>1</v>
-      </c>
-      <c r="D4" s="20" t="s">
-        <v>209</v>
-      </c>
-      <c r="E4" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="F4" s="20" t="s">
-        <v>210</v>
-      </c>
-      <c r="G4" s="20" t="s">
-        <v>211</v>
-      </c>
-      <c r="H4" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I4" s="20" t="s">
-        <v>213</v>
-      </c>
-      <c r="J4" s="21"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="32">
-      <c r="A5" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="B5" s="20" t="s">
-        <v>182</v>
-      </c>
-      <c r="C5" s="23">
-        <v>1</v>
-      </c>
-      <c r="D5" s="20" t="s">
-        <v>214</v>
-      </c>
-      <c r="E5" s="20" t="s">
-        <v>181</v>
-      </c>
-      <c r="F5" s="20" t="s">
-        <v>116</v>
-      </c>
-      <c r="G5" s="20" t="s">
-        <v>215</v>
-      </c>
-      <c r="H5" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I5" s="20" t="s">
-        <v>216</v>
-      </c>
-      <c r="J5" s="21"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="32">
-      <c r="A6" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="B6" s="20" t="s">
-        <v>184</v>
-      </c>
-      <c r="C6" s="23">
-        <v>1</v>
-      </c>
-      <c r="D6" s="20" t="s">
-        <v>217</v>
-      </c>
-      <c r="E6" s="20" t="s">
-        <v>183</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>141</v>
-      </c>
-      <c r="G6" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="H6" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I6" s="20" t="s">
-        <v>219</v>
-      </c>
-      <c r="J6" s="21" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="32">
-      <c r="A7" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="B7" s="20" t="s">
-        <v>186</v>
-      </c>
-      <c r="C7" s="23">
-        <v>1</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>221</v>
-      </c>
-      <c r="E7" s="20" t="s">
-        <v>185</v>
-      </c>
-      <c r="F7" s="24"/>
-      <c r="G7" s="20" t="s">
-        <v>218</v>
-      </c>
-      <c r="H7" s="20" t="s">
-        <v>212</v>
-      </c>
-      <c r="I7" s="20" t="s">
-        <v>222</v>
-      </c>
-      <c r="J7" s="20" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="32">
-      <c r="A8" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="B8" s="20" t="s">
-        <v>188</v>
-      </c>
-      <c r="C8" s="23">
+      <c r="C11" s="32">
         <v>2</v>
       </c>
-      <c r="D8" s="20" t="s">
-        <v>224</v>
-      </c>
-      <c r="E8" s="20" t="s">
-        <v>187</v>
-      </c>
-      <c r="F8" s="20" t="s">
+      <c r="D11" s="29" t="s">
+        <v>239</v>
+      </c>
+      <c r="E11" s="29" t="s">
+        <v>201</v>
+      </c>
+      <c r="F11" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="G8" s="20" t="s">
+      <c r="G11" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="I8" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="J8" s="21"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="32">
-      <c r="A9" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="B9" s="20" t="s">
-        <v>190</v>
-      </c>
-      <c r="C9" s="23">
-        <v>2</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>227</v>
-      </c>
-      <c r="E9" s="20" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G9" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H9" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="I9" s="20" t="s">
-        <v>228</v>
-      </c>
-      <c r="J9" s="21"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="32">
-      <c r="A10" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="B10" s="20" t="s">
-        <v>192</v>
-      </c>
-      <c r="C10" s="23">
-        <v>2</v>
-      </c>
-      <c r="D10" s="20" t="s">
-        <v>229</v>
-      </c>
-      <c r="E10" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="F10" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G10" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H10" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="I10" s="20" t="s">
-        <v>230</v>
-      </c>
-      <c r="J10" s="21"/>
-    </row>
-    <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="32">
-      <c r="A11" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="B11" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="C11" s="23">
-        <v>2</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>231</v>
-      </c>
-      <c r="E11" s="20" t="s">
-        <v>193</v>
-      </c>
-      <c r="F11" s="20" t="s">
-        <v>21</v>
-      </c>
-      <c r="G11" s="20" t="s">
-        <v>17</v>
-      </c>
-      <c r="H11" s="20" t="s">
-        <v>225</v>
-      </c>
-      <c r="I11" s="20" t="s">
-        <v>232</v>
-      </c>
-      <c r="J11" s="21"/>
+      <c r="H11" s="29" t="s">
+        <v>233</v>
+      </c>
+      <c r="I11" s="29" t="s">
+        <v>240</v>
+      </c>
+      <c r="J11" s="30"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -5947,13 +5986,13 @@
   <cols>
     <col min="1" max="1" style="6" width="17.14785714285714" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="16.005" customWidth="1" bestFit="1"/>
-    <col min="3" max="3" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="3" max="3" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -5961,7 +6000,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
       <c r="C1" s="9" t="s">
         <v>17</v>
@@ -5990,7 +6029,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
       <c r="C2" s="2" t="s">
         <v>18</v>
@@ -6045,10 +6084,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
       <c r="A4" s="3" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
       <c r="B4" s="3" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
       <c r="C4" s="10">
         <v>100</v>
@@ -6074,10 +6113,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="5" customHeight="1" ht="21">
       <c r="A5" s="3" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
       <c r="B5" s="3" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
       <c r="C5" s="10">
         <v>100</v>
@@ -6103,10 +6142,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="3" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B6" s="3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="C6" s="10">
         <v>100</v>
@@ -6132,10 +6171,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
       <c r="B7" s="3" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="C7" s="10">
         <v>100</v>
@@ -6161,10 +6200,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
       <c r="A8" s="3" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
       <c r="B8" s="3" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="C8" s="10">
         <v>100</v>
@@ -6190,10 +6229,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="3" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="C9" s="10">
         <v>100</v>
@@ -6219,10 +6258,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="3" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
       <c r="C10" s="10">
         <v>100</v>
@@ -6248,10 +6287,10 @@
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21.75">
       <c r="A11" s="3" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B11" s="3" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="C11" s="10">
         <v>100</v>
@@ -6285,7 +6324,7 @@
   <sheetPr>
     <outlinePr summaryBelow="0"/>
   </sheetPr>
-  <dimension ref="A1:O22"/>
+  <dimension ref="A1:S22"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="1">
       <pane state="frozen" activePane="bottomLeft" topLeftCell="A4" ySplit="3" xSplit="0"/>
@@ -6296,18 +6335,22 @@
     <col min="1" max="1" style="6" width="19.433571428571426" customWidth="1" bestFit="1"/>
     <col min="2" max="2" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
     <col min="3" max="3" style="6" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="4" max="4" style="6" width="24.14785714285714" customWidth="1" bestFit="1"/>
-    <col min="5" max="5" style="17" width="14.147857142857141" customWidth="1" bestFit="1"/>
-    <col min="6" max="6" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="7" max="7" style="17" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="8" max="8" style="6" width="46.86214285714286" customWidth="1" bestFit="1"/>
-    <col min="9" max="9" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="10" max="10" style="6" width="42.71928571428572" customWidth="1" bestFit="1"/>
-    <col min="11" max="11" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="12" max="12" style="7" width="9.43357142857143" customWidth="1" bestFit="1"/>
-    <col min="13" max="13" style="7" width="8.862142857142858" customWidth="1" bestFit="1"/>
-    <col min="14" max="14" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
-    <col min="15" max="15" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="4" max="4" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="5" max="5" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="6" max="6" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="7" max="7" style="25" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="8" max="8" style="6" width="24.14785714285714" customWidth="1" bestFit="1"/>
+    <col min="9" max="9" style="26" width="14.147857142857141" customWidth="1" bestFit="1"/>
+    <col min="10" max="10" style="6" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="11" max="11" style="26" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="12" max="12" style="6" width="46.86214285714286" customWidth="1" bestFit="1"/>
+    <col min="13" max="13" style="7" width="15.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="14" max="14" style="6" width="42.71928571428572" customWidth="1" bestFit="1"/>
+    <col min="15" max="15" style="6" width="14.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="16" max="16" style="7" width="9.43357142857143" customWidth="1" bestFit="1"/>
+    <col min="17" max="17" style="7" width="8.862142857142858" customWidth="1" bestFit="1"/>
+    <col min="18" max="18" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
+    <col min="19" max="19" style="7" width="13.576428571428572" customWidth="1" bestFit="1"/>
   </cols>
   <sheetData>
     <row x14ac:dyDescent="0.25" r="1" customHeight="1" ht="18.75">
@@ -6321,40 +6364,52 @@
         <v>34</v>
       </c>
       <c r="D1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="F1" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="G1" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="H1" s="8" t="s">
         <v>35</v>
       </c>
-      <c r="E1" s="9" t="s">
-        <v>74</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>75</v>
-      </c>
-      <c r="G1" s="9" t="s">
-        <v>76</v>
-      </c>
-      <c r="H1" s="8" t="s">
+      <c r="I1" s="9" t="s">
+        <v>78</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="K1" s="9" t="s">
+        <v>80</v>
+      </c>
+      <c r="L1" s="8" t="s">
         <v>36</v>
       </c>
-      <c r="I1" s="9" t="s">
-        <v>77</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>78</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>79</v>
-      </c>
-      <c r="L1" s="9" t="s">
-        <v>80</v>
-      </c>
       <c r="M1" s="9" t="s">
+        <v>81</v>
+      </c>
+      <c r="N1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O1" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P1" s="9" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q1" s="9" t="s">
         <v>5</v>
       </c>
-      <c r="N1" s="9" t="s">
-        <v>81</v>
-      </c>
-      <c r="O1" s="9" t="s">
-        <v>82</v>
+      <c r="R1" s="9" t="s">
+        <v>85</v>
+      </c>
+      <c r="S1" s="9" t="s">
+        <v>86</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="2" customHeight="1" ht="18.75">
@@ -6368,40 +6423,52 @@
         <v>43</v>
       </c>
       <c r="D2" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E2" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F2" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G2" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="H2" s="8" t="s">
         <v>44</v>
       </c>
-      <c r="E2" s="9" t="s">
-        <v>83</v>
-      </c>
-      <c r="F2" s="8" t="s">
-        <v>84</v>
-      </c>
-      <c r="G2" s="9" t="s">
-        <v>85</v>
-      </c>
-      <c r="H2" s="8" t="s">
+      <c r="I2" s="9" t="s">
+        <v>91</v>
+      </c>
+      <c r="J2" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L2" s="8" t="s">
         <v>45</v>
       </c>
-      <c r="I2" s="9" t="s">
-        <v>86</v>
-      </c>
-      <c r="J2" s="8" t="s">
+      <c r="M2" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="N2" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="K2" s="8" t="s">
-        <v>87</v>
-      </c>
-      <c r="L2" s="9" t="s">
-        <v>88</v>
-      </c>
-      <c r="M2" s="9" t="s">
+      <c r="O2" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="P2" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="Q2" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="N2" s="9" t="s">
-        <v>89</v>
-      </c>
-      <c r="O2" s="9" t="s">
-        <v>90</v>
+      <c r="R2" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="S2" s="9" t="s">
+        <v>98</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="3" customHeight="1" ht="18.75">
@@ -6415,82 +6482,106 @@
         <v>50</v>
       </c>
       <c r="D3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="G3" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" s="9" t="s">
+      <c r="I3" s="10" t="s">
         <v>15</v>
       </c>
-      <c r="F3" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="G3" s="9" t="s">
-        <v>91</v>
-      </c>
-      <c r="H3" s="8" t="s">
+      <c r="J3" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="K3" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L3" s="10" t="s">
         <v>51</v>
       </c>
-      <c r="I3" s="9" t="s">
+      <c r="M3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="J3" s="8" t="s">
+      <c r="N3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="K3" s="8" t="s">
+      <c r="O3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="9" t="s">
+      <c r="P3" s="4" t="s">
         <v>14</v>
       </c>
-      <c r="M3" s="9" t="s">
+      <c r="Q3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="N3" s="9" t="s">
+      <c r="R3" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="O3" s="9" t="s">
+      <c r="S3" s="4" t="s">
         <v>15</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="4" customHeight="1" ht="21">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B4" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D4" s="3"/>
-      <c r="E4" s="10">
-        <v>1</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H4" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="I4" s="4">
-        <v>0</v>
-      </c>
-      <c r="J4" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K4" s="3"/>
-      <c r="L4" s="4">
-        <v>0</v>
-      </c>
-      <c r="M4" s="4">
-        <v>0</v>
-      </c>
-      <c r="N4" s="4">
-        <v>1</v>
-      </c>
-      <c r="O4" s="4">
+      <c r="B4" s="4" t="s">
+        <v>100</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.1</v>
+      </c>
+      <c r="E4" s="13">
+        <v>1</v>
+      </c>
+      <c r="F4" s="13">
+        <v>1</v>
+      </c>
+      <c r="G4" s="13">
+        <v>1</v>
+      </c>
+      <c r="H4" s="13"/>
+      <c r="I4" s="13">
+        <v>1</v>
+      </c>
+      <c r="J4" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="K4" s="13" t="s">
+        <v>102</v>
+      </c>
+      <c r="L4" s="14" t="s">
+        <v>103</v>
+      </c>
+      <c r="M4" s="13">
+        <v>0</v>
+      </c>
+      <c r="N4" s="11" t="s">
+        <v>104</v>
+      </c>
+      <c r="O4" s="14"/>
+      <c r="P4" s="14">
+        <v>0</v>
+      </c>
+      <c r="Q4" s="14">
+        <v>0</v>
+      </c>
+      <c r="R4" s="14">
+        <v>1</v>
+      </c>
+      <c r="S4" s="13">
         <v>0</v>
       </c>
     </row>
@@ -6502,789 +6593,1005 @@
         <v>53</v>
       </c>
       <c r="C5" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D5" s="11"/>
-      <c r="E5" s="12">
+        <v>101</v>
+      </c>
+      <c r="D5" s="13">
+        <v>0.1</v>
+      </c>
+      <c r="E5" s="13">
+        <v>1</v>
+      </c>
+      <c r="F5" s="13">
+        <v>1</v>
+      </c>
+      <c r="G5" s="13">
+        <v>1</v>
+      </c>
+      <c r="H5" s="14"/>
+      <c r="I5" s="13">
         <v>4</v>
       </c>
-      <c r="F5" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G5" s="12" t="s">
-        <v>94</v>
-      </c>
-      <c r="H5" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="I5" s="13">
-        <v>0</v>
-      </c>
       <c r="J5" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="K5" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="L5" s="13">
+        <v>105</v>
+      </c>
+      <c r="K5" s="14" t="s">
+        <v>102</v>
+      </c>
+      <c r="L5" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="M5" s="14">
+        <v>0</v>
+      </c>
+      <c r="N5" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="O5" s="11" t="s">
+        <v>108</v>
+      </c>
+      <c r="P5" s="13">
         <v>3</v>
       </c>
-      <c r="M5" s="13">
-        <v>1</v>
-      </c>
-      <c r="N5" s="13">
-        <v>1</v>
-      </c>
-      <c r="O5" s="13">
+      <c r="Q5" s="13">
+        <v>1</v>
+      </c>
+      <c r="R5" s="13">
+        <v>1</v>
+      </c>
+      <c r="S5" s="13">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="6" customHeight="1" ht="21">
       <c r="A6" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" s="13" t="s">
+        <v>110</v>
+      </c>
+      <c r="C6" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="B6" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="C6" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D6" s="11"/>
-      <c r="E6" s="12">
-        <v>1</v>
-      </c>
-      <c r="F6" s="11" t="s">
-        <v>97</v>
-      </c>
-      <c r="G6" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H6" s="11" t="s">
-        <v>103</v>
-      </c>
-      <c r="I6" s="13">
-        <v>0</v>
-      </c>
-      <c r="J6" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="K6" s="11" t="s">
+      <c r="D6" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E6" s="13">
+        <v>1</v>
+      </c>
+      <c r="F6" s="13">
+        <v>1</v>
+      </c>
+      <c r="G6" s="14">
+        <v>1</v>
+      </c>
+      <c r="H6" s="14"/>
+      <c r="I6" s="14">
+        <v>1</v>
+      </c>
+      <c r="J6" s="14" t="s">
         <v>105</v>
       </c>
-      <c r="L6" s="13">
+      <c r="K6" s="13" t="s">
+        <v>105</v>
+      </c>
+      <c r="L6" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="M6" s="13">
+        <v>0</v>
+      </c>
+      <c r="N6" s="11" t="s">
+        <v>112</v>
+      </c>
+      <c r="O6" s="13" t="s">
+        <v>113</v>
+      </c>
+      <c r="P6" s="13">
         <v>2</v>
       </c>
-      <c r="M6" s="13">
-        <v>1</v>
-      </c>
-      <c r="N6" s="13">
-        <v>1</v>
-      </c>
-      <c r="O6" s="13">
+      <c r="Q6" s="13">
+        <v>1</v>
+      </c>
+      <c r="R6" s="13">
+        <v>1</v>
+      </c>
+      <c r="S6" s="14">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="7" customHeight="1" ht="21">
       <c r="A7" s="11" t="s">
-        <v>106</v>
+        <v>114</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>107</v>
-      </c>
-      <c r="C7" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D7" s="11"/>
-      <c r="E7" s="12">
+        <v>115</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="14">
+        <v>0.1</v>
+      </c>
+      <c r="E7" s="14">
+        <v>1</v>
+      </c>
+      <c r="F7" s="14">
+        <v>1</v>
+      </c>
+      <c r="G7" s="10">
+        <v>1</v>
+      </c>
+      <c r="H7" s="3"/>
+      <c r="I7" s="10">
         <v>5</v>
       </c>
-      <c r="F7" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="G7" s="12">
-        <v>0</v>
-      </c>
-      <c r="H7" s="11" t="s">
-        <v>109</v>
-      </c>
-      <c r="I7" s="13">
-        <v>1</v>
-      </c>
-      <c r="J7" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="K7" s="11"/>
-      <c r="L7" s="13">
-        <v>0</v>
-      </c>
-      <c r="M7" s="13">
-        <v>1</v>
-      </c>
-      <c r="N7" s="13">
-        <v>1</v>
-      </c>
-      <c r="O7" s="13">
+      <c r="J7" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="M7" s="10">
+        <v>1</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="O7" s="4"/>
+      <c r="P7" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>1</v>
+      </c>
+      <c r="R7" s="4">
+        <v>1</v>
+      </c>
+      <c r="S7" s="4">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="8" customHeight="1" ht="21">
-      <c r="A8" s="11" t="s">
-        <v>111</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="C8" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="D8" s="11"/>
-      <c r="E8" s="12">
-        <v>1</v>
-      </c>
-      <c r="F8" s="11" t="s">
-        <v>113</v>
-      </c>
-      <c r="G8" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="H8" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8" s="13">
-        <v>1</v>
-      </c>
-      <c r="J8" s="11" t="s">
-        <v>115</v>
-      </c>
-      <c r="K8" s="11"/>
-      <c r="L8" s="13">
-        <v>0</v>
-      </c>
-      <c r="M8" s="13">
-        <v>1</v>
-      </c>
-      <c r="N8" s="13">
-        <v>1</v>
-      </c>
-      <c r="O8" s="13">
+      <c r="A8" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>120</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="E8" s="10">
+        <v>1</v>
+      </c>
+      <c r="F8" s="10">
+        <v>1</v>
+      </c>
+      <c r="G8" s="10">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3"/>
+      <c r="I8" s="10">
+        <v>1</v>
+      </c>
+      <c r="J8" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="K8" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="M8" s="10">
+        <v>1</v>
+      </c>
+      <c r="N8" s="4" t="s">
+        <v>123</v>
+      </c>
+      <c r="O8" s="4"/>
+      <c r="P8" s="4">
+        <v>0</v>
+      </c>
+      <c r="Q8" s="4">
+        <v>1</v>
+      </c>
+      <c r="R8" s="10">
+        <v>1</v>
+      </c>
+      <c r="S8" s="10">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="9" customHeight="1" ht="21">
       <c r="A9" s="3" t="s">
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="B9" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D9" s="3"/>
+        <v>125</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D9" s="15">
+        <v>0.1</v>
+      </c>
       <c r="E9" s="10">
         <v>1</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G9" s="10" t="s">
-        <v>94</v>
+      <c r="F9" s="10">
+        <v>1</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1</v>
       </c>
       <c r="H9" s="3"/>
-      <c r="I9" s="4">
-        <v>0</v>
-      </c>
-      <c r="J9" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="K9" s="3"/>
-      <c r="L9" s="4">
-        <v>0</v>
-      </c>
+      <c r="I9" s="10">
+        <v>1</v>
+      </c>
+      <c r="J9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="K9" s="4" t="s">
+        <v>102</v>
+      </c>
+      <c r="L9" s="4"/>
       <c r="M9" s="4">
         <v>0</v>
       </c>
-      <c r="N9" s="4">
-        <v>0</v>
-      </c>
-      <c r="O9" s="4">
+      <c r="N9" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="O9" s="3"/>
+      <c r="P9" s="10">
+        <v>0</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0</v>
+      </c>
+      <c r="R9" s="10">
+        <v>0</v>
+      </c>
+      <c r="S9" s="10">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="10" customHeight="1" ht="21">
       <c r="A10" s="3" t="s">
-        <v>119</v>
+        <v>127</v>
       </c>
       <c r="B10" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D10" s="3"/>
+        <v>128</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D10" s="15">
+        <v>0.1</v>
+      </c>
       <c r="E10" s="10">
+        <v>1</v>
+      </c>
+      <c r="F10" s="4">
+        <v>1</v>
+      </c>
+      <c r="G10" s="4">
+        <v>1</v>
+      </c>
+      <c r="H10" s="4"/>
+      <c r="I10" s="4">
         <v>3</v>
       </c>
-      <c r="F10" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H10" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="I10" s="4">
-        <v>0</v>
-      </c>
       <c r="J10" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="K10" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="L10" s="4">
+        <v>129</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="M10" s="10">
+        <v>0</v>
+      </c>
+      <c r="N10" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="O10" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="P10" s="10">
         <v>4</v>
       </c>
-      <c r="M10" s="4">
-        <v>1</v>
-      </c>
-      <c r="N10" s="4">
-        <v>0</v>
-      </c>
-      <c r="O10" s="4">
+      <c r="Q10" s="10">
+        <v>1</v>
+      </c>
+      <c r="R10" s="4">
+        <v>0</v>
+      </c>
+      <c r="S10" s="10">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="11" customHeight="1" ht="21">
       <c r="A11" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D11" s="3"/>
-      <c r="E11" s="10">
-        <v>1</v>
-      </c>
-      <c r="F11" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E11" s="4">
+        <v>1</v>
+      </c>
+      <c r="F11" s="16">
+        <v>1</v>
+      </c>
+      <c r="G11" s="16">
+        <v>1</v>
+      </c>
+      <c r="H11" s="17"/>
+      <c r="I11" s="16">
+        <v>1</v>
+      </c>
+      <c r="J11" s="16" t="s">
+        <v>129</v>
+      </c>
+      <c r="K11" s="16" t="s">
         <v>121</v>
       </c>
-      <c r="G11" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="H11" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="I11" s="4">
-        <v>0</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="K11" s="3" t="s">
+      <c r="L11" s="17" t="s">
+        <v>135</v>
+      </c>
+      <c r="M11" s="16">
+        <v>0</v>
+      </c>
+      <c r="N11" s="18" t="s">
+        <v>136</v>
+      </c>
+      <c r="O11" s="17" t="s">
+        <v>137</v>
+      </c>
+      <c r="P11" s="16">
+        <v>3</v>
+      </c>
+      <c r="Q11" s="18">
+        <v>1</v>
+      </c>
+      <c r="R11" s="18">
+        <v>0</v>
+      </c>
+      <c r="S11" s="18">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
+      <c r="A12" s="18" t="s">
+        <v>138</v>
+      </c>
+      <c r="B12" s="17" t="s">
+        <v>139</v>
+      </c>
+      <c r="C12" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D12" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="E12" s="16">
+        <v>1</v>
+      </c>
+      <c r="F12" s="16">
+        <v>1</v>
+      </c>
+      <c r="G12" s="16">
+        <v>1</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="16">
+        <v>1</v>
+      </c>
+      <c r="J12" s="18" t="s">
         <v>129</v>
       </c>
-      <c r="L11" s="4">
+      <c r="K12" s="16" t="s">
+        <v>140</v>
+      </c>
+      <c r="L12" s="17" t="s">
+        <v>141</v>
+      </c>
+      <c r="M12" s="18">
+        <v>0</v>
+      </c>
+      <c r="N12" s="18" t="s">
+        <v>142</v>
+      </c>
+      <c r="O12" s="18" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" s="18">
+        <v>2</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>1</v>
+      </c>
+      <c r="R12" s="16">
+        <v>0</v>
+      </c>
+      <c r="S12" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
+      <c r="A13" s="17" t="s">
+        <v>144</v>
+      </c>
+      <c r="B13" s="16" t="s">
+        <v>145</v>
+      </c>
+      <c r="C13" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D13" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="E13" s="16">
+        <v>1</v>
+      </c>
+      <c r="F13" s="18">
+        <v>1</v>
+      </c>
+      <c r="G13" s="16">
+        <v>1</v>
+      </c>
+      <c r="H13" s="17"/>
+      <c r="I13" s="18">
         <v>3</v>
       </c>
-      <c r="M11" s="4">
-        <v>1</v>
-      </c>
-      <c r="N11" s="4">
-        <v>0</v>
-      </c>
-      <c r="O11" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="12" customHeight="1" ht="21">
-      <c r="A12" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="B12" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D12" s="3"/>
-      <c r="E12" s="10">
-        <v>1</v>
-      </c>
-      <c r="F12" s="3" t="s">
+      <c r="J13" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="G12" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="H12" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="I12" s="4">
-        <v>0</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>134</v>
-      </c>
-      <c r="K12" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="L12" s="4">
+      <c r="K13" s="18" t="s">
+        <v>102</v>
+      </c>
+      <c r="L13" s="18" t="s">
+        <v>146</v>
+      </c>
+      <c r="M13" s="16">
+        <v>0</v>
+      </c>
+      <c r="N13" s="17" t="s">
+        <v>147</v>
+      </c>
+      <c r="O13" s="17" t="s">
+        <v>148</v>
+      </c>
+      <c r="P13" s="16">
         <v>2</v>
       </c>
-      <c r="M12" s="4">
-        <v>1</v>
-      </c>
-      <c r="N12" s="4">
-        <v>0</v>
-      </c>
-      <c r="O12" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="13" customHeight="1" ht="21">
-      <c r="A13" s="3" t="s">
-        <v>136</v>
-      </c>
-      <c r="B13" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D13" s="3"/>
-      <c r="E13" s="10">
+      <c r="Q13" s="16">
+        <v>1</v>
+      </c>
+      <c r="R13" s="16">
+        <v>0</v>
+      </c>
+      <c r="S13" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
+      <c r="A14" s="17" t="s">
+        <v>149</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>150</v>
+      </c>
+      <c r="C14" s="17" t="s">
+        <v>101</v>
+      </c>
+      <c r="D14" s="19">
+        <v>0.1</v>
+      </c>
+      <c r="E14" s="18">
+        <v>1</v>
+      </c>
+      <c r="F14" s="18">
+        <v>1</v>
+      </c>
+      <c r="G14" s="18">
+        <v>1</v>
+      </c>
+      <c r="H14" s="18"/>
+      <c r="I14" s="16">
+        <v>1</v>
+      </c>
+      <c r="J14" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="K14" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="L14" s="17"/>
+      <c r="M14" s="16">
+        <v>0</v>
+      </c>
+      <c r="N14" s="17" t="s">
+        <v>151</v>
+      </c>
+      <c r="O14" s="16"/>
+      <c r="P14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="18">
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
+        <v>1</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
+      <c r="A15" s="18" t="s">
+        <v>152</v>
+      </c>
+      <c r="B15" s="18" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="18" t="s">
+        <v>101</v>
+      </c>
+      <c r="D15" s="18">
+        <v>0.1</v>
+      </c>
+      <c r="E15" s="10">
+        <v>1</v>
+      </c>
+      <c r="F15" s="10">
+        <v>1</v>
+      </c>
+      <c r="G15" s="10">
+        <v>1</v>
+      </c>
+      <c r="H15" s="3"/>
+      <c r="I15" s="10">
         <v>3</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="G13" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H13" s="3" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="4">
-        <v>0</v>
-      </c>
-      <c r="J13" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="K13" s="3" t="s">
+      <c r="J15" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="L15" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="M15" s="4">
+        <v>0</v>
+      </c>
+      <c r="N15" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="O15" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="P15" s="4">
+        <v>3</v>
+      </c>
+      <c r="Q15" s="4">
+        <v>1</v>
+      </c>
+      <c r="R15" s="4">
+        <v>0</v>
+      </c>
+      <c r="S15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
+      <c r="A16" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D16" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="E16" s="10">
+        <v>1</v>
+      </c>
+      <c r="F16" s="10">
+        <v>1</v>
+      </c>
+      <c r="G16" s="10">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3"/>
+      <c r="I16" s="4">
+        <v>3</v>
+      </c>
+      <c r="J16" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K16" s="10" t="s">
         <v>140</v>
       </c>
-      <c r="L13" s="4">
+      <c r="L16" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="M16" s="4">
+        <v>0</v>
+      </c>
+      <c r="N16" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="O16" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="P16" s="10">
+        <v>3</v>
+      </c>
+      <c r="Q16" s="10">
+        <v>1</v>
+      </c>
+      <c r="R16" s="10">
+        <v>0</v>
+      </c>
+      <c r="S16" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
+      <c r="A17" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D17" s="15">
+        <v>0.1</v>
+      </c>
+      <c r="E17" s="4">
+        <v>1</v>
+      </c>
+      <c r="F17" s="10">
+        <v>1</v>
+      </c>
+      <c r="G17" s="10">
+        <v>1</v>
+      </c>
+      <c r="H17" s="4"/>
+      <c r="I17" s="4">
+        <v>5</v>
+      </c>
+      <c r="J17" s="4" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" s="4">
+        <v>0</v>
+      </c>
+      <c r="L17" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="M17" s="10">
+        <v>0</v>
+      </c>
+      <c r="N17" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="O17" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="P17" s="10">
         <v>2</v>
       </c>
-      <c r="M13" s="4">
-        <v>1</v>
-      </c>
-      <c r="N13" s="4">
-        <v>0</v>
-      </c>
-      <c r="O13" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="14" customHeight="1" ht="21">
-      <c r="A14" s="14" t="s">
-        <v>141</v>
-      </c>
-      <c r="B14" s="14" t="s">
-        <v>142</v>
-      </c>
-      <c r="C14" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="14"/>
-      <c r="E14" s="15">
-        <v>1</v>
-      </c>
-      <c r="F14" s="14" t="s">
-        <v>94</v>
-      </c>
-      <c r="G14" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="H14" s="14"/>
-      <c r="I14" s="16">
-        <v>0</v>
-      </c>
-      <c r="J14" s="14" t="s">
-        <v>143</v>
-      </c>
-      <c r="K14" s="14"/>
-      <c r="L14" s="16">
-        <v>0</v>
-      </c>
-      <c r="M14" s="16">
-        <v>0</v>
-      </c>
-      <c r="N14" s="16">
-        <v>1</v>
-      </c>
-      <c r="O14" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="15" customHeight="1" ht="21">
-      <c r="A15" s="14" t="s">
-        <v>144</v>
-      </c>
-      <c r="B15" s="14" t="s">
-        <v>145</v>
-      </c>
-      <c r="C15" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D15" s="14"/>
-      <c r="E15" s="15">
+      <c r="Q17" s="10">
+        <v>1</v>
+      </c>
+      <c r="R17" s="10">
+        <v>0</v>
+      </c>
+      <c r="S17" s="10">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
+      <c r="A18" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.1</v>
+      </c>
+      <c r="E18" s="4">
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <v>1</v>
+      </c>
+      <c r="H18" s="20"/>
+      <c r="I18" s="21">
+        <v>5</v>
+      </c>
+      <c r="J18" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="K18" s="21">
+        <v>0</v>
+      </c>
+      <c r="L18" s="20" t="s">
+        <v>169</v>
+      </c>
+      <c r="M18" s="22">
+        <v>1</v>
+      </c>
+      <c r="N18" s="20" t="s">
+        <v>170</v>
+      </c>
+      <c r="O18" s="20"/>
+      <c r="P18" s="22">
+        <v>2</v>
+      </c>
+      <c r="Q18" s="22">
+        <v>1</v>
+      </c>
+      <c r="R18" s="22">
+        <v>0</v>
+      </c>
+      <c r="S18" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
+      <c r="A19" s="20" t="s">
+        <v>171</v>
+      </c>
+      <c r="B19" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="C19" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E19" s="24">
+        <v>1</v>
+      </c>
+      <c r="F19" s="24">
+        <v>1</v>
+      </c>
+      <c r="G19" s="24">
+        <v>1</v>
+      </c>
+      <c r="H19" s="20"/>
+      <c r="I19" s="21">
+        <v>1</v>
+      </c>
+      <c r="J19" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K19" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L19" s="20" t="s">
+        <v>60</v>
+      </c>
+      <c r="M19" s="22">
+        <v>0</v>
+      </c>
+      <c r="N19" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="O19" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="P19" s="22">
         <v>3</v>
       </c>
-      <c r="F15" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G15" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="H15" s="14" t="s">
-        <v>146</v>
-      </c>
-      <c r="I15" s="16">
-        <v>0</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>147</v>
-      </c>
-      <c r="K15" s="14" t="s">
-        <v>148</v>
-      </c>
-      <c r="L15" s="16">
+      <c r="Q19" s="22">
+        <v>1</v>
+      </c>
+      <c r="R19" s="22">
+        <v>0</v>
+      </c>
+      <c r="S19" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
+      <c r="A20" s="20" t="s">
+        <v>174</v>
+      </c>
+      <c r="B20" s="20" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D20" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E20" s="24">
+        <v>1</v>
+      </c>
+      <c r="F20" s="24">
+        <v>1</v>
+      </c>
+      <c r="G20" s="24">
+        <v>1</v>
+      </c>
+      <c r="H20" s="20"/>
+      <c r="I20" s="21">
+        <v>1</v>
+      </c>
+      <c r="J20" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K20" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L20" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" s="22">
+        <v>0</v>
+      </c>
+      <c r="N20" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" s="20" t="s">
+        <v>156</v>
+      </c>
+      <c r="P20" s="22">
         <v>3</v>
       </c>
-      <c r="M15" s="16">
-        <v>1</v>
-      </c>
-      <c r="N15" s="16">
-        <v>0</v>
-      </c>
-      <c r="O15" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="16" customHeight="1" ht="21">
-      <c r="A16" s="14" t="s">
-        <v>149</v>
-      </c>
-      <c r="B16" s="14" t="s">
-        <v>150</v>
-      </c>
-      <c r="C16" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D16" s="14"/>
-      <c r="E16" s="15">
-        <v>3</v>
-      </c>
-      <c r="F16" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G16" s="15" t="s">
-        <v>132</v>
-      </c>
-      <c r="H16" s="14" t="s">
-        <v>151</v>
-      </c>
-      <c r="I16" s="16">
-        <v>0</v>
-      </c>
-      <c r="J16" s="14" t="s">
-        <v>152</v>
-      </c>
-      <c r="K16" s="14" t="s">
-        <v>153</v>
-      </c>
-      <c r="L16" s="16">
-        <v>3</v>
-      </c>
-      <c r="M16" s="16">
-        <v>1</v>
-      </c>
-      <c r="N16" s="16">
-        <v>0</v>
-      </c>
-      <c r="O16" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="17" customHeight="1" ht="21">
-      <c r="A17" s="14" t="s">
-        <v>154</v>
-      </c>
-      <c r="B17" s="14" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D17" s="14"/>
-      <c r="E17" s="15">
-        <v>5</v>
-      </c>
-      <c r="F17" s="14" t="s">
-        <v>132</v>
-      </c>
-      <c r="G17" s="15">
-        <v>0</v>
-      </c>
-      <c r="H17" s="14" t="s">
-        <v>156</v>
-      </c>
-      <c r="I17" s="16">
-        <v>0</v>
-      </c>
-      <c r="J17" s="14" t="s">
-        <v>157</v>
-      </c>
-      <c r="K17" s="14" t="s">
-        <v>158</v>
-      </c>
-      <c r="L17" s="16">
+      <c r="Q20" s="22">
+        <v>1</v>
+      </c>
+      <c r="R20" s="22">
+        <v>0</v>
+      </c>
+      <c r="S20" s="22">
+        <v>0</v>
+      </c>
+    </row>
+    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
+      <c r="A21" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B21" s="20" t="s">
+        <v>63</v>
+      </c>
+      <c r="C21" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D21" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E21" s="24">
+        <v>1</v>
+      </c>
+      <c r="F21" s="24">
+        <v>1</v>
+      </c>
+      <c r="G21" s="24">
+        <v>1</v>
+      </c>
+      <c r="H21" s="20"/>
+      <c r="I21" s="21">
+        <v>1</v>
+      </c>
+      <c r="J21" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K21" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L21" s="20" t="s">
+        <v>178</v>
+      </c>
+      <c r="M21" s="22">
+        <v>0</v>
+      </c>
+      <c r="N21" s="20" t="s">
+        <v>179</v>
+      </c>
+      <c r="O21" s="20" t="s">
+        <v>180</v>
+      </c>
+      <c r="P21" s="22">
         <v>2</v>
       </c>
-      <c r="M17" s="16">
-        <v>1</v>
-      </c>
-      <c r="N17" s="16">
-        <v>0</v>
-      </c>
-      <c r="O17" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="18" customHeight="1" ht="21">
-      <c r="A18" s="14" t="s">
-        <v>159</v>
-      </c>
-      <c r="B18" s="14" t="s">
-        <v>160</v>
-      </c>
-      <c r="C18" s="14" t="s">
-        <v>93</v>
-      </c>
-      <c r="D18" s="14"/>
-      <c r="E18" s="15">
-        <v>5</v>
-      </c>
-      <c r="F18" s="14" t="s">
-        <v>121</v>
-      </c>
-      <c r="G18" s="15">
-        <v>0</v>
-      </c>
-      <c r="H18" s="14" t="s">
-        <v>161</v>
-      </c>
-      <c r="I18" s="16">
-        <v>1</v>
-      </c>
-      <c r="J18" s="14" t="s">
-        <v>162</v>
-      </c>
-      <c r="K18" s="14"/>
-      <c r="L18" s="16">
-        <v>2</v>
-      </c>
-      <c r="M18" s="16">
-        <v>1</v>
-      </c>
-      <c r="N18" s="16">
-        <v>0</v>
-      </c>
-      <c r="O18" s="16">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="19" customHeight="1" ht="21">
-      <c r="A19" s="3" t="s">
-        <v>163</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C19" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D19" s="3"/>
-      <c r="E19" s="10">
-        <v>1</v>
-      </c>
-      <c r="F19" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G19" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H19" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="I19" s="4">
-        <v>0</v>
-      </c>
-      <c r="J19" s="3" t="s">
-        <v>165</v>
-      </c>
-      <c r="K19" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="L19" s="4">
-        <v>3</v>
-      </c>
-      <c r="M19" s="4">
-        <v>1</v>
-      </c>
-      <c r="N19" s="4">
-        <v>0</v>
-      </c>
-      <c r="O19" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="20" customHeight="1" ht="21">
-      <c r="A20" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>167</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D20" s="3"/>
-      <c r="E20" s="10">
-        <v>1</v>
-      </c>
-      <c r="F20" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H20" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="I20" s="4">
-        <v>0</v>
-      </c>
-      <c r="J20" s="3" t="s">
-        <v>169</v>
-      </c>
-      <c r="K20" s="3" t="s">
-        <v>148</v>
-      </c>
-      <c r="L20" s="4">
-        <v>3</v>
-      </c>
-      <c r="M20" s="4">
-        <v>1</v>
-      </c>
-      <c r="N20" s="4">
-        <v>0</v>
-      </c>
-      <c r="O20" s="4">
-        <v>0</v>
-      </c>
-    </row>
-    <row x14ac:dyDescent="0.25" r="21" customHeight="1" ht="21">
-      <c r="A21" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C21" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D21" s="3"/>
-      <c r="E21" s="10">
-        <v>1</v>
-      </c>
-      <c r="F21" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G21" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H21" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="I21" s="4">
-        <v>0</v>
-      </c>
-      <c r="J21" s="3" t="s">
-        <v>171</v>
-      </c>
-      <c r="K21" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="L21" s="4">
-        <v>2</v>
-      </c>
-      <c r="M21" s="4">
-        <v>1</v>
-      </c>
-      <c r="N21" s="4">
-        <v>0</v>
-      </c>
-      <c r="O21" s="4">
+      <c r="Q21" s="22">
+        <v>1</v>
+      </c>
+      <c r="R21" s="22">
+        <v>0</v>
+      </c>
+      <c r="S21" s="22">
         <v>0</v>
       </c>
     </row>
     <row x14ac:dyDescent="0.25" r="22" customHeight="1" ht="21.75">
-      <c r="A22" s="3" t="s">
-        <v>173</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C22" s="3" t="s">
-        <v>93</v>
-      </c>
-      <c r="D22" s="3"/>
-      <c r="E22" s="10">
-        <v>1</v>
-      </c>
-      <c r="F22" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G22" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="H22" s="3" t="s">
-        <v>175</v>
-      </c>
-      <c r="I22" s="4">
-        <v>1</v>
-      </c>
-      <c r="J22" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="K22" s="3"/>
-      <c r="L22" s="4">
-        <v>0</v>
-      </c>
-      <c r="M22" s="4">
-        <v>1</v>
-      </c>
-      <c r="N22" s="4">
-        <v>0</v>
-      </c>
-      <c r="O22" s="4">
+      <c r="A22" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B22" s="20" t="s">
+        <v>182</v>
+      </c>
+      <c r="C22" s="20" t="s">
+        <v>101</v>
+      </c>
+      <c r="D22" s="23">
+        <v>0.1</v>
+      </c>
+      <c r="E22" s="24">
+        <v>1</v>
+      </c>
+      <c r="F22" s="24">
+        <v>1</v>
+      </c>
+      <c r="G22" s="24">
+        <v>1</v>
+      </c>
+      <c r="H22" s="20"/>
+      <c r="I22" s="21">
+        <v>1</v>
+      </c>
+      <c r="J22" s="20" t="s">
+        <v>102</v>
+      </c>
+      <c r="K22" s="21" t="s">
+        <v>102</v>
+      </c>
+      <c r="L22" s="20" t="s">
+        <v>183</v>
+      </c>
+      <c r="M22" s="22">
+        <v>1</v>
+      </c>
+      <c r="N22" s="20" t="s">
+        <v>184</v>
+      </c>
+      <c r="O22" s="20"/>
+      <c r="P22" s="22">
+        <v>0</v>
+      </c>
+      <c r="Q22" s="22">
+        <v>1</v>
+      </c>
+      <c r="R22" s="22">
+        <v>0</v>
+      </c>
+      <c r="S22" s="22">
         <v>0</v>
       </c>
     </row>
